--- a/Sandbox.OpenXML/DStarExport.xlsx
+++ b/Sandbox.OpenXML/DStarExport.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="460" windowWidth="28160" windowHeight="16880" tabRatio="500" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12710" tabRatio="500" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Overview" sheetId="2" r:id="rId1"/>
     <x:sheet name="Data Model" sheetId="3" r:id="rId2"/>
     <x:sheet name="Results Report" sheetId="1" r:id="rId3"/>
   </x:sheets>
-  <x:calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
+  <x:calcPr calcId="150000" calcOnSave="0"/>
   <x:extLst>
     <x:ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="124">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="125">
   <x:si>
     <x:t>Obs No.</x:t>
   </x:si>
@@ -580,6 +580,9 @@
   </x:si>
   <x:si>
     <x:t>Cos Passengers X&amp;1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Timeline and Scatter Plots</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1171,7 +1174,7 @@
     <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </x:cellStyleXfs>
-  <x:cellXfs count="188">
+  <x:cellXfs count="189">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1436,6 +1439,120 @@
       <x:alignment horizontal="left" vertical="center" indent="1"/>
       <x:protection locked="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" wrapText="1" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment vertical="top" wrapText="1"/>
       <x:protection locked="0"/>
@@ -1456,121 +1573,31 @@
       <x:alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
       <x:protection locked="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" wrapText="1" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-      <x:protection locked="0"/>
+    <x:xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" indent="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1636,26 +1663,112 @@
     <x:xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" wrapText="1" indent="3"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="5" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="5" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="10" fontId="5" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="10" fontId="5" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" wrapText="1" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" wrapText="1" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" wrapText="1" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" indent="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" indent="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" wrapText="1" indent="1"/>
@@ -1679,113 +1792,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" wrapText="1" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" wrapText="1" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" wrapText="1" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" wrapText="1" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="5" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="5" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="2" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="2" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="10" fontId="5" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="10" fontId="5" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <x:protection locked="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <x:protection locked="0"/>
     </x:xf>
   </x:cellXfs>
@@ -2565,44 +2571,44 @@
     </x:row>
     <x:row r="5" spans="1:10" ht="26.5" thickTop="1">
       <x:c r="A5" s="2"/>
-      <x:c r="B5" s="166" t="s">
+      <x:c r="B5" s="157" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C5" s="167"/>
-      <x:c r="D5" s="167"/>
-      <x:c r="E5" s="167"/>
-      <x:c r="F5" s="167"/>
-      <x:c r="G5" s="167"/>
-      <x:c r="H5" s="167"/>
-      <x:c r="I5" s="168"/>
+      <x:c r="C5" s="158"/>
+      <x:c r="D5" s="158"/>
+      <x:c r="E5" s="158"/>
+      <x:c r="F5" s="158"/>
+      <x:c r="G5" s="158"/>
+      <x:c r="H5" s="158"/>
+      <x:c r="I5" s="159"/>
       <x:c r="J5" s="2"/>
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="2"/>
-      <x:c r="B6" s="169" t="s">
+      <x:c r="B6" s="154" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C6" s="170"/>
-      <x:c r="D6" s="170"/>
-      <x:c r="E6" s="170"/>
-      <x:c r="F6" s="170"/>
-      <x:c r="G6" s="170"/>
-      <x:c r="H6" s="170"/>
-      <x:c r="I6" s="171"/>
+      <x:c r="C6" s="155"/>
+      <x:c r="D6" s="155"/>
+      <x:c r="E6" s="155"/>
+      <x:c r="F6" s="155"/>
+      <x:c r="G6" s="155"/>
+      <x:c r="H6" s="155"/>
+      <x:c r="I6" s="156"/>
       <x:c r="J6" s="2"/>
     </x:row>
     <x:row r="7" spans="1:10" ht="21">
       <x:c r="A7" s="2"/>
-      <x:c r="B7" s="177" t="s">
+      <x:c r="B7" s="160" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C7" s="178"/>
-      <x:c r="D7" s="178"/>
-      <x:c r="E7" s="178"/>
-      <x:c r="F7" s="178"/>
-      <x:c r="G7" s="178"/>
-      <x:c r="H7" s="178"/>
-      <x:c r="I7" s="179"/>
+      <x:c r="C7" s="161"/>
+      <x:c r="D7" s="161"/>
+      <x:c r="E7" s="161"/>
+      <x:c r="F7" s="161"/>
+      <x:c r="G7" s="161"/>
+      <x:c r="H7" s="161"/>
+      <x:c r="I7" s="162"/>
       <x:c r="J7" s="2"/>
     </x:row>
     <x:row r="8" spans="1:10" ht="21">
@@ -2620,36 +2626,36 @@
     <x:row r="9" spans="1:10" ht="42" customHeight="1">
       <x:c r="A9" s="2"/>
       <x:c r="B9" s="17"/>
-      <x:c r="C9" s="187" t="s">
+      <x:c r="C9" s="170" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D9" s="186"/>
-      <x:c r="E9" s="186" t="s">
+      <x:c r="D9" s="169"/>
+      <x:c r="E9" s="169" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F9" s="186"/>
-      <x:c r="G9" s="182" t="s">
+      <x:c r="F9" s="169"/>
+      <x:c r="G9" s="165" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="H9" s="183"/>
+      <x:c r="H9" s="166"/>
       <x:c r="I9" s="18"/>
       <x:c r="J9" s="2"/>
     </x:row>
     <x:row r="10" spans="1:10" ht="21">
       <x:c r="A10" s="2"/>
       <x:c r="B10" s="17"/>
-      <x:c r="C10" s="180">
+      <x:c r="C10" s="163">
         <x:v>1250</x:v>
       </x:c>
-      <x:c r="D10" s="181"/>
-      <x:c r="E10" s="181">
+      <x:c r="D10" s="164"/>
+      <x:c r="E10" s="164">
         <x:v>5722</x:v>
       </x:c>
-      <x:c r="F10" s="181"/>
-      <x:c r="G10" s="184">
+      <x:c r="F10" s="164"/>
+      <x:c r="G10" s="167">
         <x:v>0.91500000000000004</x:v>
       </x:c>
-      <x:c r="H10" s="185"/>
+      <x:c r="H10" s="168"/>
       <x:c r="I10" s="18"/>
       <x:c r="J10" s="2"/>
     </x:row>
@@ -2671,14 +2677,14 @@
       <x:c r="C12" s="21"/>
       <x:c r="D12" s="21"/>
       <x:c r="E12" s="21"/>
-      <x:c r="F12" s="175" t="s">
+      <x:c r="F12" s="152" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G12" s="175"/>
-      <x:c r="H12" s="175" t="s">
+      <x:c r="G12" s="152"/>
+      <x:c r="H12" s="152" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I12" s="176"/>
+      <x:c r="I12" s="153"/>
       <x:c r="J12" s="2"/>
     </x:row>
     <x:row r="13" spans="1:10" ht="46" customHeight="1">
@@ -3039,16 +3045,16 @@
     </x:row>
     <x:row r="28" spans="1:10" ht="64" customHeight="1">
       <x:c r="A28" s="2"/>
-      <x:c r="B28" s="157" t="s">
+      <x:c r="B28" s="171" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C28" s="158"/>
-      <x:c r="D28" s="158"/>
-      <x:c r="E28" s="158"/>
-      <x:c r="F28" s="158"/>
-      <x:c r="G28" s="158"/>
-      <x:c r="H28" s="158"/>
-      <x:c r="I28" s="159"/>
+      <x:c r="C28" s="172"/>
+      <x:c r="D28" s="172"/>
+      <x:c r="E28" s="172"/>
+      <x:c r="F28" s="172"/>
+      <x:c r="G28" s="172"/>
+      <x:c r="H28" s="172"/>
+      <x:c r="I28" s="173"/>
       <x:c r="J28" s="2"/>
     </x:row>
     <x:row r="29" spans="1:10" ht="16" thickBot="1">
@@ -3077,44 +3083,44 @@
     </x:row>
     <x:row r="31" spans="1:10" ht="26.5" thickTop="1">
       <x:c r="A31" s="2"/>
-      <x:c r="B31" s="166" t="s">
+      <x:c r="B31" s="157" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C31" s="167"/>
-      <x:c r="D31" s="167"/>
-      <x:c r="E31" s="167"/>
-      <x:c r="F31" s="167"/>
-      <x:c r="G31" s="167"/>
-      <x:c r="H31" s="167"/>
-      <x:c r="I31" s="168"/>
+      <x:c r="C31" s="158"/>
+      <x:c r="D31" s="158"/>
+      <x:c r="E31" s="158"/>
+      <x:c r="F31" s="158"/>
+      <x:c r="G31" s="158"/>
+      <x:c r="H31" s="158"/>
+      <x:c r="I31" s="159"/>
       <x:c r="J31" s="2"/>
     </x:row>
     <x:row r="32" spans="1:10">
       <x:c r="A32" s="2"/>
-      <x:c r="B32" s="169" t="s">
+      <x:c r="B32" s="154" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C32" s="170"/>
-      <x:c r="D32" s="170"/>
-      <x:c r="E32" s="170"/>
-      <x:c r="F32" s="170"/>
-      <x:c r="G32" s="170"/>
-      <x:c r="H32" s="170"/>
-      <x:c r="I32" s="171"/>
+      <x:c r="C32" s="155"/>
+      <x:c r="D32" s="155"/>
+      <x:c r="E32" s="155"/>
+      <x:c r="F32" s="155"/>
+      <x:c r="G32" s="155"/>
+      <x:c r="H32" s="155"/>
+      <x:c r="I32" s="156"/>
       <x:c r="J32" s="2"/>
     </x:row>
     <x:row r="33" spans="1:10">
       <x:c r="A33" s="2"/>
-      <x:c r="B33" s="172" t="s">
+      <x:c r="B33" s="180" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C33" s="173"/>
-      <x:c r="D33" s="173"/>
-      <x:c r="E33" s="173"/>
-      <x:c r="F33" s="173"/>
-      <x:c r="G33" s="173"/>
-      <x:c r="H33" s="173"/>
-      <x:c r="I33" s="174"/>
+      <x:c r="C33" s="181"/>
+      <x:c r="D33" s="181"/>
+      <x:c r="E33" s="181"/>
+      <x:c r="F33" s="181"/>
+      <x:c r="G33" s="181"/>
+      <x:c r="H33" s="181"/>
+      <x:c r="I33" s="182"/>
       <x:c r="J33" s="2"/>
     </x:row>
     <x:row r="34" spans="1:10">
@@ -3893,30 +3899,30 @@
     </x:row>
     <x:row r="74" spans="1:10" ht="19" thickTop="1">
       <x:c r="A74" s="2"/>
-      <x:c r="B74" s="160" t="s">
+      <x:c r="B74" s="174" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C74" s="161"/>
-      <x:c r="D74" s="161"/>
-      <x:c r="E74" s="161"/>
-      <x:c r="F74" s="161"/>
-      <x:c r="G74" s="161"/>
-      <x:c r="H74" s="161"/>
-      <x:c r="I74" s="162"/>
+      <x:c r="C74" s="175"/>
+      <x:c r="D74" s="175"/>
+      <x:c r="E74" s="175"/>
+      <x:c r="F74" s="175"/>
+      <x:c r="G74" s="175"/>
+      <x:c r="H74" s="175"/>
+      <x:c r="I74" s="176"/>
       <x:c r="J74" s="77"/>
     </x:row>
     <x:row r="75" spans="1:10">
       <x:c r="A75" s="2"/>
-      <x:c r="B75" s="163" t="s">
+      <x:c r="B75" s="177" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C75" s="164"/>
-      <x:c r="D75" s="164"/>
-      <x:c r="E75" s="164"/>
-      <x:c r="F75" s="164"/>
-      <x:c r="G75" s="164"/>
-      <x:c r="H75" s="164"/>
-      <x:c r="I75" s="165"/>
+      <x:c r="C75" s="178"/>
+      <x:c r="D75" s="178"/>
+      <x:c r="E75" s="178"/>
+      <x:c r="F75" s="178"/>
+      <x:c r="G75" s="178"/>
+      <x:c r="H75" s="178"/>
+      <x:c r="I75" s="179"/>
       <x:c r="J75" s="78"/>
     </x:row>
     <x:row r="76" spans="1:10">
@@ -3933,84 +3939,84 @@
     </x:row>
     <x:row r="77" spans="1:10" ht="47" customHeight="1">
       <x:c r="A77" s="2"/>
-      <x:c r="B77" s="154" t="s">
+      <x:c r="B77" s="186" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C77" s="155"/>
-      <x:c r="D77" s="155"/>
-      <x:c r="E77" s="155"/>
-      <x:c r="F77" s="155"/>
-      <x:c r="G77" s="155"/>
-      <x:c r="H77" s="155"/>
-      <x:c r="I77" s="156"/>
+      <x:c r="C77" s="187"/>
+      <x:c r="D77" s="187"/>
+      <x:c r="E77" s="187"/>
+      <x:c r="F77" s="187"/>
+      <x:c r="G77" s="187"/>
+      <x:c r="H77" s="187"/>
+      <x:c r="I77" s="188"/>
       <x:c r="J77" s="79"/>
     </x:row>
     <x:row r="78" spans="1:10" ht="32" customHeight="1">
       <x:c r="A78" s="2"/>
-      <x:c r="B78" s="154" t="s">
+      <x:c r="B78" s="186" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C78" s="155"/>
-      <x:c r="D78" s="155"/>
-      <x:c r="E78" s="155"/>
-      <x:c r="F78" s="155"/>
-      <x:c r="G78" s="155"/>
-      <x:c r="H78" s="155"/>
-      <x:c r="I78" s="156"/>
+      <x:c r="C78" s="187"/>
+      <x:c r="D78" s="187"/>
+      <x:c r="E78" s="187"/>
+      <x:c r="F78" s="187"/>
+      <x:c r="G78" s="187"/>
+      <x:c r="H78" s="187"/>
+      <x:c r="I78" s="188"/>
       <x:c r="J78" s="79"/>
     </x:row>
     <x:row r="79" spans="1:10" ht="30.5" customHeight="1">
       <x:c r="A79" s="2"/>
-      <x:c r="B79" s="154" t="s">
+      <x:c r="B79" s="186" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C79" s="155"/>
-      <x:c r="D79" s="155"/>
-      <x:c r="E79" s="155"/>
-      <x:c r="F79" s="155"/>
-      <x:c r="G79" s="155"/>
-      <x:c r="H79" s="155"/>
-      <x:c r="I79" s="156"/>
+      <x:c r="C79" s="187"/>
+      <x:c r="D79" s="187"/>
+      <x:c r="E79" s="187"/>
+      <x:c r="F79" s="187"/>
+      <x:c r="G79" s="187"/>
+      <x:c r="H79" s="187"/>
+      <x:c r="I79" s="188"/>
       <x:c r="J79" s="79"/>
     </x:row>
     <x:row r="80" spans="1:10" ht="30" customHeight="1">
       <x:c r="A80" s="2"/>
-      <x:c r="B80" s="154" t="s">
+      <x:c r="B80" s="186" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C80" s="155"/>
-      <x:c r="D80" s="155"/>
-      <x:c r="E80" s="155"/>
-      <x:c r="F80" s="155"/>
-      <x:c r="G80" s="155"/>
-      <x:c r="H80" s="155"/>
-      <x:c r="I80" s="156"/>
+      <x:c r="C80" s="187"/>
+      <x:c r="D80" s="187"/>
+      <x:c r="E80" s="187"/>
+      <x:c r="F80" s="187"/>
+      <x:c r="G80" s="187"/>
+      <x:c r="H80" s="187"/>
+      <x:c r="I80" s="188"/>
       <x:c r="J80" s="79"/>
     </x:row>
     <x:row r="81" spans="1:10" ht="15.5" customHeight="1">
       <x:c r="A81" s="2"/>
-      <x:c r="B81" s="154" t="s">
+      <x:c r="B81" s="186" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C81" s="155"/>
-      <x:c r="D81" s="155"/>
-      <x:c r="E81" s="155"/>
-      <x:c r="F81" s="155"/>
-      <x:c r="G81" s="155"/>
-      <x:c r="H81" s="155"/>
-      <x:c r="I81" s="156"/>
+      <x:c r="C81" s="187"/>
+      <x:c r="D81" s="187"/>
+      <x:c r="E81" s="187"/>
+      <x:c r="F81" s="187"/>
+      <x:c r="G81" s="187"/>
+      <x:c r="H81" s="187"/>
+      <x:c r="I81" s="188"/>
       <x:c r="J81" s="79"/>
     </x:row>
     <x:row r="82" spans="1:10" ht="15.5" customHeight="1" thickBot="1">
       <x:c r="A82" s="2"/>
-      <x:c r="B82" s="151"/>
-      <x:c r="C82" s="152"/>
-      <x:c r="D82" s="152"/>
-      <x:c r="E82" s="152"/>
-      <x:c r="F82" s="152"/>
-      <x:c r="G82" s="152"/>
-      <x:c r="H82" s="152"/>
-      <x:c r="I82" s="153"/>
+      <x:c r="B82" s="183"/>
+      <x:c r="C82" s="184"/>
+      <x:c r="D82" s="184"/>
+      <x:c r="E82" s="184"/>
+      <x:c r="F82" s="184"/>
+      <x:c r="G82" s="184"/>
+      <x:c r="H82" s="184"/>
+      <x:c r="I82" s="185"/>
       <x:c r="J82" s="79"/>
     </x:row>
     <x:row r="83" spans="1:10">
@@ -4063,6 +4069,18 @@
     </x:row>
   </x:sheetData>
   <x:mergeCells count="23">
+    <x:mergeCell ref="B82:I82"/>
+    <x:mergeCell ref="B77:I77"/>
+    <x:mergeCell ref="B78:I78"/>
+    <x:mergeCell ref="B79:I79"/>
+    <x:mergeCell ref="B80:I80"/>
+    <x:mergeCell ref="B81:I81"/>
+    <x:mergeCell ref="B28:I28"/>
+    <x:mergeCell ref="B74:I74"/>
+    <x:mergeCell ref="B75:I75"/>
+    <x:mergeCell ref="B31:I31"/>
+    <x:mergeCell ref="B32:I32"/>
+    <x:mergeCell ref="B33:I33"/>
     <x:mergeCell ref="F12:G12"/>
     <x:mergeCell ref="H12:I12"/>
     <x:mergeCell ref="B6:I6"/>
@@ -4074,18 +4092,6 @@
     <x:mergeCell ref="E9:F9"/>
     <x:mergeCell ref="E10:F10"/>
     <x:mergeCell ref="C9:D9"/>
-    <x:mergeCell ref="B28:I28"/>
-    <x:mergeCell ref="B74:I74"/>
-    <x:mergeCell ref="B75:I75"/>
-    <x:mergeCell ref="B31:I31"/>
-    <x:mergeCell ref="B32:I32"/>
-    <x:mergeCell ref="B33:I33"/>
-    <x:mergeCell ref="B82:I82"/>
-    <x:mergeCell ref="B77:I77"/>
-    <x:mergeCell ref="B78:I78"/>
-    <x:mergeCell ref="B79:I79"/>
-    <x:mergeCell ref="B80:I80"/>
-    <x:mergeCell ref="B81:I81"/>
   </x:mergeCells>
   <x:phoneticPr fontId="3" type="noConversion"/>
   <x:printOptions horizontalCentered="1"/>
@@ -4159,17 +4165,17 @@
     </x:row>
     <x:row r="5" spans="1:9" ht="26.5" thickTop="1">
       <x:c r="A5" s="2"/>
-      <x:c r="B5" s="144" t="s">
+      <x:c r="B5" s="126" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="C5" s="122"/>
-      <x:c r="D5" s="145"/>
+      <x:c r="C5" s="127"/>
+      <x:c r="D5" s="128"/>
       <x:c r="E5" s="31"/>
-      <x:c r="F5" s="144" t="s">
+      <x:c r="F5" s="126" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="G5" s="122"/>
-      <x:c r="H5" s="145"/>
+      <x:c r="G5" s="127"/>
+      <x:c r="H5" s="128"/>
       <x:c r="I5" s="2"/>
     </x:row>
     <x:row r="6" spans="1:9" ht="18.5">
@@ -4185,10 +4191,10 @@
     </x:row>
     <x:row r="7" spans="1:9" ht="21">
       <x:c r="A7" s="2"/>
-      <x:c r="B7" s="146" t="s">
+      <x:c r="B7" s="124" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="C7" s="147"/>
+      <x:c r="C7" s="125"/>
       <x:c r="D7" s="59" t="s">
         <x:v>83</x:v>
       </x:c>
@@ -4204,10 +4210,10 @@
     </x:row>
     <x:row r="8" spans="1:9" ht="21">
       <x:c r="A8" s="2"/>
-      <x:c r="B8" s="146" t="s">
+      <x:c r="B8" s="124" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="C8" s="147"/>
+      <x:c r="C8" s="125"/>
       <x:c r="D8" s="59" t="s">
         <x:v>84</x:v>
       </x:c>
@@ -4260,17 +4266,17 @@
     </x:row>
     <x:row r="12" spans="1:9" ht="26.5" thickTop="1">
       <x:c r="A12" s="2"/>
-      <x:c r="B12" s="144" t="s">
+      <x:c r="B12" s="126" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="C12" s="122"/>
-      <x:c r="D12" s="145"/>
+      <x:c r="C12" s="127"/>
+      <x:c r="D12" s="128"/>
       <x:c r="E12" s="31"/>
-      <x:c r="F12" s="144" t="s">
+      <x:c r="F12" s="126" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="G12" s="122"/>
-      <x:c r="H12" s="145"/>
+      <x:c r="G12" s="127"/>
+      <x:c r="H12" s="128"/>
       <x:c r="I12" s="2"/>
     </x:row>
     <x:row r="13" spans="1:9" ht="18.5">
@@ -4286,10 +4292,10 @@
     </x:row>
     <x:row r="14" spans="1:9" ht="40" customHeight="1">
       <x:c r="A14" s="2"/>
-      <x:c r="B14" s="149" t="s">
+      <x:c r="B14" s="122" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="C14" s="150"/>
+      <x:c r="C14" s="123"/>
       <x:c r="D14" s="58">
         <x:v>24</x:v>
       </x:c>
@@ -4305,10 +4311,10 @@
     </x:row>
     <x:row r="15" spans="1:9" ht="36.5" customHeight="1">
       <x:c r="A15" s="2"/>
-      <x:c r="B15" s="149" t="s">
+      <x:c r="B15" s="122" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="C15" s="150"/>
+      <x:c r="C15" s="123"/>
       <x:c r="D15" s="58">
         <x:v>12</x:v>
       </x:c>
@@ -4324,10 +4330,10 @@
     </x:row>
     <x:row r="16" spans="1:9" ht="31" customHeight="1">
       <x:c r="A16" s="2"/>
-      <x:c r="B16" s="146" t="s">
+      <x:c r="B16" s="124" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="C16" s="147"/>
+      <x:c r="C16" s="125"/>
       <x:c r="D16" s="58">
         <x:v>36</x:v>
       </x:c>
@@ -4380,15 +4386,15 @@
     </x:row>
     <x:row r="20" spans="1:9" ht="19" thickTop="1">
       <x:c r="A20" s="2"/>
-      <x:c r="B20" s="144" t="s">
+      <x:c r="B20" s="126" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="C20" s="122"/>
-      <x:c r="D20" s="122"/>
-      <x:c r="E20" s="122"/>
-      <x:c r="F20" s="122"/>
-      <x:c r="G20" s="122"/>
-      <x:c r="H20" s="145"/>
+      <x:c r="C20" s="127"/>
+      <x:c r="D20" s="127"/>
+      <x:c r="E20" s="127"/>
+      <x:c r="F20" s="127"/>
+      <x:c r="G20" s="127"/>
+      <x:c r="H20" s="128"/>
       <x:c r="I20" s="2"/>
     </x:row>
     <x:row r="21" spans="1:9" ht="18.5">
@@ -4404,28 +4410,28 @@
     </x:row>
     <x:row r="22" spans="1:9" ht="18.5">
       <x:c r="A22" s="2"/>
-      <x:c r="B22" s="146" t="s">
+      <x:c r="B22" s="124" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C22" s="147"/>
-      <x:c r="D22" s="147"/>
-      <x:c r="E22" s="147"/>
-      <x:c r="F22" s="147"/>
-      <x:c r="G22" s="147"/>
-      <x:c r="H22" s="148"/>
+      <x:c r="C22" s="125"/>
+      <x:c r="D22" s="125"/>
+      <x:c r="E22" s="125"/>
+      <x:c r="F22" s="125"/>
+      <x:c r="G22" s="125"/>
+      <x:c r="H22" s="129"/>
       <x:c r="I22" s="2"/>
     </x:row>
     <x:row r="23" spans="1:9" ht="18.5">
       <x:c r="A23" s="2"/>
-      <x:c r="B23" s="146" t="s">
+      <x:c r="B23" s="124" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="C23" s="147"/>
-      <x:c r="D23" s="147"/>
-      <x:c r="E23" s="147"/>
-      <x:c r="F23" s="147"/>
-      <x:c r="G23" s="147"/>
-      <x:c r="H23" s="148"/>
+      <x:c r="C23" s="125"/>
+      <x:c r="D23" s="125"/>
+      <x:c r="E23" s="125"/>
+      <x:c r="F23" s="125"/>
+      <x:c r="G23" s="125"/>
+      <x:c r="H23" s="129"/>
       <x:c r="I23" s="2"/>
     </x:row>
     <x:row r="24" spans="1:9" ht="16" thickBot="1">
@@ -4452,17 +4458,17 @@
     </x:row>
     <x:row r="26" spans="1:9" ht="26.5" thickTop="1">
       <x:c r="A26" s="2"/>
-      <x:c r="B26" s="144" t="s">
+      <x:c r="B26" s="126" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="C26" s="122"/>
-      <x:c r="D26" s="145"/>
+      <x:c r="C26" s="127"/>
+      <x:c r="D26" s="128"/>
       <x:c r="E26" s="31"/>
-      <x:c r="F26" s="144" t="s">
+      <x:c r="F26" s="126" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="G26" s="122"/>
-      <x:c r="H26" s="145"/>
+      <x:c r="G26" s="127"/>
+      <x:c r="H26" s="128"/>
       <x:c r="I26" s="2"/>
     </x:row>
     <x:row r="27" spans="1:9" ht="18.5">
@@ -4569,14 +4575,14 @@
     </x:row>
     <x:row r="33" spans="1:10" ht="19" thickTop="1">
       <x:c r="A33" s="2"/>
-      <x:c r="B33" s="127" t="s">
+      <x:c r="B33" s="135" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="C33" s="128"/>
-      <x:c r="D33" s="128"/>
-      <x:c r="E33" s="128"/>
-      <x:c r="F33" s="128"/>
-      <x:c r="G33" s="128"/>
+      <x:c r="C33" s="136"/>
+      <x:c r="D33" s="136"/>
+      <x:c r="E33" s="136"/>
+      <x:c r="F33" s="136"/>
+      <x:c r="G33" s="136"/>
       <x:c r="H33" s="53">
         <x:v>0.91500000000000004</x:v>
       </x:c>
@@ -4606,93 +4612,93 @@
     </x:row>
     <x:row r="36" spans="1:10" ht="19" thickTop="1">
       <x:c r="A36" s="2"/>
-      <x:c r="B36" s="135" t="s">
+      <x:c r="B36" s="143" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="C36" s="136"/>
-      <x:c r="D36" s="136"/>
-      <x:c r="E36" s="136"/>
-      <x:c r="F36" s="136"/>
-      <x:c r="G36" s="136"/>
-      <x:c r="H36" s="137"/>
+      <x:c r="C36" s="144"/>
+      <x:c r="D36" s="144"/>
+      <x:c r="E36" s="144"/>
+      <x:c r="F36" s="144"/>
+      <x:c r="G36" s="144"/>
+      <x:c r="H36" s="145"/>
       <x:c r="I36" s="2"/>
     </x:row>
     <x:row r="37" spans="1:10" ht="18.5">
       <x:c r="A37" s="2"/>
-      <x:c r="B37" s="138"/>
-      <x:c r="C37" s="139"/>
-      <x:c r="D37" s="139"/>
-      <x:c r="E37" s="139"/>
-      <x:c r="F37" s="139"/>
-      <x:c r="G37" s="139"/>
-      <x:c r="H37" s="140"/>
+      <x:c r="B37" s="146"/>
+      <x:c r="C37" s="147"/>
+      <x:c r="D37" s="147"/>
+      <x:c r="E37" s="147"/>
+      <x:c r="F37" s="147"/>
+      <x:c r="G37" s="147"/>
+      <x:c r="H37" s="148"/>
       <x:c r="I37" s="2"/>
     </x:row>
     <x:row r="38" spans="1:10" ht="48" customHeight="1">
       <x:c r="A38" s="2"/>
-      <x:c r="B38" s="129" t="s">
+      <x:c r="B38" s="137" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="C38" s="130"/>
-      <x:c r="D38" s="130"/>
-      <x:c r="E38" s="130"/>
-      <x:c r="F38" s="130"/>
-      <x:c r="G38" s="130"/>
-      <x:c r="H38" s="131"/>
+      <x:c r="C38" s="138"/>
+      <x:c r="D38" s="138"/>
+      <x:c r="E38" s="138"/>
+      <x:c r="F38" s="138"/>
+      <x:c r="G38" s="138"/>
+      <x:c r="H38" s="139"/>
       <x:c r="I38" s="2"/>
       <x:c r="J38" s="56"/>
     </x:row>
     <x:row r="39" spans="1:10" ht="16" customHeight="1">
       <x:c r="A39" s="2"/>
-      <x:c r="B39" s="132" t="s">
+      <x:c r="B39" s="140" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="C39" s="133"/>
-      <x:c r="D39" s="133"/>
-      <x:c r="E39" s="133"/>
-      <x:c r="F39" s="133"/>
-      <x:c r="G39" s="133"/>
-      <x:c r="H39" s="134"/>
+      <x:c r="C39" s="141"/>
+      <x:c r="D39" s="141"/>
+      <x:c r="E39" s="141"/>
+      <x:c r="F39" s="141"/>
+      <x:c r="G39" s="141"/>
+      <x:c r="H39" s="142"/>
       <x:c r="I39" s="2"/>
       <x:c r="J39" s="56"/>
     </x:row>
     <x:row r="40" spans="1:10" ht="32" customHeight="1">
       <x:c r="A40" s="2"/>
-      <x:c r="B40" s="132" t="s">
+      <x:c r="B40" s="140" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="C40" s="133"/>
-      <x:c r="D40" s="133"/>
-      <x:c r="E40" s="133"/>
-      <x:c r="F40" s="133"/>
-      <x:c r="G40" s="133"/>
-      <x:c r="H40" s="134"/>
+      <x:c r="C40" s="141"/>
+      <x:c r="D40" s="141"/>
+      <x:c r="E40" s="141"/>
+      <x:c r="F40" s="141"/>
+      <x:c r="G40" s="141"/>
+      <x:c r="H40" s="142"/>
       <x:c r="I40" s="2"/>
       <x:c r="J40" s="56"/>
     </x:row>
     <x:row r="41" spans="1:10" ht="16" customHeight="1">
       <x:c r="A41" s="2"/>
-      <x:c r="B41" s="132" t="s">
+      <x:c r="B41" s="140" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="C41" s="133"/>
-      <x:c r="D41" s="133"/>
-      <x:c r="E41" s="133"/>
-      <x:c r="F41" s="133"/>
-      <x:c r="G41" s="133"/>
-      <x:c r="H41" s="134"/>
+      <x:c r="C41" s="141"/>
+      <x:c r="D41" s="141"/>
+      <x:c r="E41" s="141"/>
+      <x:c r="F41" s="141"/>
+      <x:c r="G41" s="141"/>
+      <x:c r="H41" s="142"/>
       <x:c r="I41" s="2"/>
       <x:c r="J41" s="56"/>
     </x:row>
     <x:row r="42" spans="1:10" ht="16" customHeight="1" thickBot="1">
       <x:c r="A42" s="2"/>
-      <x:c r="B42" s="141"/>
-      <x:c r="C42" s="142"/>
-      <x:c r="D42" s="142"/>
-      <x:c r="E42" s="142"/>
-      <x:c r="F42" s="142"/>
-      <x:c r="G42" s="142"/>
-      <x:c r="H42" s="143"/>
+      <x:c r="B42" s="149"/>
+      <x:c r="C42" s="150"/>
+      <x:c r="D42" s="150"/>
+      <x:c r="E42" s="150"/>
+      <x:c r="F42" s="150"/>
+      <x:c r="G42" s="150"/>
+      <x:c r="H42" s="151"/>
       <x:c r="I42" s="2"/>
       <x:c r="J42" s="56"/>
     </x:row>
@@ -4710,15 +4716,15 @@
     </x:row>
     <x:row r="44" spans="1:10" ht="19" thickTop="1">
       <x:c r="A44" s="2"/>
-      <x:c r="B44" s="121" t="s">
+      <x:c r="B44" s="130" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="C44" s="122"/>
-      <x:c r="D44" s="122"/>
-      <x:c r="E44" s="122"/>
-      <x:c r="F44" s="122"/>
-      <x:c r="G44" s="122"/>
-      <x:c r="H44" s="123"/>
+      <x:c r="C44" s="127"/>
+      <x:c r="D44" s="127"/>
+      <x:c r="E44" s="127"/>
+      <x:c r="F44" s="127"/>
+      <x:c r="G44" s="127"/>
+      <x:c r="H44" s="131"/>
       <x:c r="I44" s="2"/>
     </x:row>
     <x:row r="45" spans="1:10" ht="18.5">
@@ -4734,19 +4740,19 @@
     </x:row>
     <x:row r="46" spans="1:10" ht="18.5">
       <x:c r="A46" s="2"/>
-      <x:c r="B46" s="124" t="s">
+      <x:c r="B46" s="132" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C46" s="125"/>
-      <x:c r="D46" s="125" t="s">
+      <x:c r="C46" s="133"/>
+      <x:c r="D46" s="133" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="E46" s="125"/>
-      <x:c r="F46" s="125"/>
-      <x:c r="G46" s="125" t="s">
+      <x:c r="E46" s="133"/>
+      <x:c r="F46" s="133"/>
+      <x:c r="G46" s="133" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="H46" s="126"/>
+      <x:c r="H46" s="134"/>
       <x:c r="I46" s="2"/>
     </x:row>
     <x:row r="47" spans="1:10" ht="18.5">
@@ -5402,7 +5408,9 @@
     </x:row>
     <x:row r="86" spans="1:9" ht="19" thickTop="1">
       <x:c r="A86" s="2"/>
-      <x:c r="B86" s="20"/>
+      <x:c r="B86" s="86" t="s">
+        <x:v>124</x:v>
+      </x:c>
       <x:c r="C86" s="21"/>
       <x:c r="D86" s="21"/>
       <x:c r="E86" s="36"/>
@@ -5813,20 +5821,6 @@
     </x:row>
   </x:sheetData>
   <x:mergeCells count="26">
-    <x:mergeCell ref="B14:C14"/>
-    <x:mergeCell ref="B15:C15"/>
-    <x:mergeCell ref="B16:C16"/>
-    <x:mergeCell ref="B5:D5"/>
-    <x:mergeCell ref="F5:H5"/>
-    <x:mergeCell ref="B7:C7"/>
-    <x:mergeCell ref="B8:C8"/>
-    <x:mergeCell ref="B12:D12"/>
-    <x:mergeCell ref="F12:H12"/>
-    <x:mergeCell ref="B20:H20"/>
-    <x:mergeCell ref="B22:H22"/>
-    <x:mergeCell ref="B23:H23"/>
-    <x:mergeCell ref="B26:D26"/>
-    <x:mergeCell ref="F26:H26"/>
     <x:mergeCell ref="B44:H44"/>
     <x:mergeCell ref="B46:C46"/>
     <x:mergeCell ref="D46:F46"/>
@@ -5839,14 +5833,28 @@
     <x:mergeCell ref="B36:H36"/>
     <x:mergeCell ref="B37:H37"/>
     <x:mergeCell ref="B42:H42"/>
+    <x:mergeCell ref="B20:H20"/>
+    <x:mergeCell ref="B22:H22"/>
+    <x:mergeCell ref="B23:H23"/>
+    <x:mergeCell ref="B26:D26"/>
+    <x:mergeCell ref="F26:H26"/>
+    <x:mergeCell ref="B14:C14"/>
+    <x:mergeCell ref="B15:C15"/>
+    <x:mergeCell ref="B16:C16"/>
+    <x:mergeCell ref="B5:D5"/>
+    <x:mergeCell ref="F5:H5"/>
+    <x:mergeCell ref="B7:C7"/>
+    <x:mergeCell ref="B8:C8"/>
+    <x:mergeCell ref="B12:D12"/>
+    <x:mergeCell ref="F12:H12"/>
   </x:mergeCells>
   <x:phoneticPr fontId="3" type="noConversion"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup scale="76" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <x:pageSetup scale="76" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <x:colBreaks count="1" manualBreakCount="1">
     <x:brk id="9" max="1048575" man="1"/>
   </x:colBreaks>
-  <x:drawing r:id="rId1"/>
+  <x:drawing r:id="rId2"/>
 </x:worksheet>
 </file>
 
@@ -5914,27 +5922,27 @@
     </x:row>
     <x:row r="5" spans="1:10" ht="26">
       <x:c r="A5" s="2"/>
-      <x:c r="B5" s="109" t="s">
+      <x:c r="B5" s="96" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C5" s="110"/>
-      <x:c r="D5" s="111"/>
-      <x:c r="E5" s="118" t="s">
+      <x:c r="C5" s="97"/>
+      <x:c r="D5" s="98"/>
+      <x:c r="E5" s="105" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="F5" s="119"/>
-      <x:c r="G5" s="119"/>
-      <x:c r="H5" s="119"/>
-      <x:c r="I5" s="120"/>
+      <x:c r="F5" s="106"/>
+      <x:c r="G5" s="106"/>
+      <x:c r="H5" s="106"/>
+      <x:c r="I5" s="107"/>
       <x:c r="J5" s="2"/>
     </x:row>
     <x:row r="6" spans="1:10" ht="26">
       <x:c r="A6" s="2"/>
-      <x:c r="B6" s="112" t="s">
+      <x:c r="B6" s="99" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C6" s="113"/>
-      <x:c r="D6" s="114"/>
+      <x:c r="C6" s="100"/>
+      <x:c r="D6" s="101"/>
       <x:c r="E6" s="19" t="s">
         <x:v>33</x:v>
       </x:c>
@@ -5946,11 +5954,11 @@
     </x:row>
     <x:row r="7" spans="1:10" ht="26">
       <x:c r="A7" s="2"/>
-      <x:c r="B7" s="112" t="s">
+      <x:c r="B7" s="99" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C7" s="113"/>
-      <x:c r="D7" s="114"/>
+      <x:c r="C7" s="100"/>
+      <x:c r="D7" s="101"/>
       <x:c r="E7" s="19" t="s">
         <x:v>34</x:v>
       </x:c>
@@ -5962,18 +5970,18 @@
     </x:row>
     <x:row r="8" spans="1:10" ht="26.5" thickBot="1">
       <x:c r="A8" s="2"/>
-      <x:c r="B8" s="115" t="s">
+      <x:c r="B8" s="102" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C8" s="116"/>
-      <x:c r="D8" s="117"/>
-      <x:c r="E8" s="100">
+      <x:c r="C8" s="103"/>
+      <x:c r="D8" s="104"/>
+      <x:c r="E8" s="114">
         <x:v>42772.804861111108</x:v>
       </x:c>
-      <x:c r="F8" s="101"/>
-      <x:c r="G8" s="101"/>
-      <x:c r="H8" s="101"/>
-      <x:c r="I8" s="102"/>
+      <x:c r="F8" s="115"/>
+      <x:c r="G8" s="115"/>
+      <x:c r="H8" s="115"/>
+      <x:c r="I8" s="116"/>
       <x:c r="J8" s="2"/>
     </x:row>
     <x:row r="9" spans="1:10" ht="24" customHeight="1" thickBot="1">
@@ -5990,40 +5998,40 @@
     </x:row>
     <x:row r="10" spans="1:10" ht="30" customHeight="1">
       <x:c r="A10" s="2"/>
-      <x:c r="B10" s="103" t="s">
+      <x:c r="B10" s="90" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="C10" s="104"/>
-      <x:c r="D10" s="104"/>
-      <x:c r="E10" s="104"/>
-      <x:c r="F10" s="104"/>
-      <x:c r="G10" s="104"/>
-      <x:c r="H10" s="104"/>
-      <x:c r="I10" s="105"/>
+      <x:c r="C10" s="91"/>
+      <x:c r="D10" s="91"/>
+      <x:c r="E10" s="91"/>
+      <x:c r="F10" s="91"/>
+      <x:c r="G10" s="91"/>
+      <x:c r="H10" s="91"/>
+      <x:c r="I10" s="92"/>
       <x:c r="J10" s="2"/>
     </x:row>
     <x:row r="11" spans="1:10" ht="21" customHeight="1">
       <x:c r="A11" s="2"/>
-      <x:c r="B11" s="106"/>
-      <x:c r="C11" s="107"/>
-      <x:c r="D11" s="107"/>
-      <x:c r="E11" s="107"/>
-      <x:c r="F11" s="107"/>
-      <x:c r="G11" s="107"/>
-      <x:c r="H11" s="107"/>
-      <x:c r="I11" s="108"/>
+      <x:c r="B11" s="93"/>
+      <x:c r="C11" s="94"/>
+      <x:c r="D11" s="94"/>
+      <x:c r="E11" s="94"/>
+      <x:c r="F11" s="94"/>
+      <x:c r="G11" s="94"/>
+      <x:c r="H11" s="94"/>
+      <x:c r="I11" s="95"/>
       <x:c r="J11" s="2"/>
     </x:row>
     <x:row r="12" spans="1:10" ht="27.5" customHeight="1">
       <x:c r="A12" s="2"/>
-      <x:c r="B12" s="106"/>
-      <x:c r="C12" s="107"/>
-      <x:c r="D12" s="107"/>
-      <x:c r="E12" s="107"/>
-      <x:c r="F12" s="107"/>
-      <x:c r="G12" s="107"/>
-      <x:c r="H12" s="107"/>
-      <x:c r="I12" s="108"/>
+      <x:c r="B12" s="93"/>
+      <x:c r="C12" s="94"/>
+      <x:c r="D12" s="94"/>
+      <x:c r="E12" s="94"/>
+      <x:c r="F12" s="94"/>
+      <x:c r="G12" s="94"/>
+      <x:c r="H12" s="94"/>
+      <x:c r="I12" s="95"/>
       <x:c r="J12" s="2"/>
     </x:row>
     <x:row r="13" spans="1:10" ht="16" thickBot="1">
@@ -6052,52 +6060,52 @@
     </x:row>
     <x:row r="15" spans="1:10" ht="26">
       <x:c r="A15" s="2"/>
-      <x:c r="B15" s="91" t="s">
+      <x:c r="B15" s="111" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C15" s="92"/>
-      <x:c r="D15" s="92"/>
-      <x:c r="E15" s="92"/>
-      <x:c r="F15" s="92"/>
-      <x:c r="G15" s="92"/>
-      <x:c r="H15" s="92"/>
-      <x:c r="I15" s="93"/>
+      <x:c r="C15" s="112"/>
+      <x:c r="D15" s="112"/>
+      <x:c r="E15" s="112"/>
+      <x:c r="F15" s="112"/>
+      <x:c r="G15" s="112"/>
+      <x:c r="H15" s="112"/>
+      <x:c r="I15" s="113"/>
       <x:c r="J15" s="2"/>
     </x:row>
     <x:row r="16" spans="1:10" ht="36" customHeight="1">
       <x:c r="A16" s="2"/>
-      <x:c r="B16" s="88" t="s">
+      <x:c r="B16" s="119" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C16" s="89"/>
-      <x:c r="D16" s="89"/>
-      <x:c r="E16" s="89"/>
-      <x:c r="F16" s="89"/>
-      <x:c r="G16" s="89"/>
-      <x:c r="H16" s="89"/>
-      <x:c r="I16" s="90"/>
+      <x:c r="C16" s="120"/>
+      <x:c r="D16" s="120"/>
+      <x:c r="E16" s="120"/>
+      <x:c r="F16" s="120"/>
+      <x:c r="G16" s="120"/>
+      <x:c r="H16" s="120"/>
+      <x:c r="I16" s="121"/>
       <x:c r="J16" s="2"/>
     </x:row>
     <x:row r="17" spans="1:10" ht="49" customHeight="1">
       <x:c r="A17" s="2"/>
-      <x:c r="B17" s="94" t="s">
+      <x:c r="B17" s="87" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C17" s="95"/>
-      <x:c r="D17" s="95"/>
-      <x:c r="E17" s="95"/>
-      <x:c r="F17" s="95"/>
-      <x:c r="G17" s="95"/>
-      <x:c r="H17" s="95"/>
-      <x:c r="I17" s="96"/>
+      <x:c r="C17" s="88"/>
+      <x:c r="D17" s="88"/>
+      <x:c r="E17" s="88"/>
+      <x:c r="F17" s="88"/>
+      <x:c r="G17" s="88"/>
+      <x:c r="H17" s="88"/>
+      <x:c r="I17" s="89"/>
       <x:c r="J17" s="2"/>
     </x:row>
     <x:row r="18" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A18" s="2"/>
-      <x:c r="B18" s="86" t="s">
+      <x:c r="B18" s="117" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C18" s="87"/>
+      <x:c r="C18" s="118"/>
       <x:c r="D18" s="28"/>
       <x:c r="E18" s="28"/>
       <x:c r="F18" s="28"/>
@@ -6110,38 +6118,38 @@
     </x:row>
     <x:row r="19" spans="1:10" ht="36" customHeight="1">
       <x:c r="A19" s="2"/>
-      <x:c r="B19" s="88" t="s">
+      <x:c r="B19" s="119" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C19" s="89"/>
-      <x:c r="D19" s="89"/>
-      <x:c r="E19" s="89"/>
-      <x:c r="F19" s="89"/>
-      <x:c r="G19" s="89"/>
-      <x:c r="H19" s="89"/>
-      <x:c r="I19" s="90"/>
+      <x:c r="C19" s="120"/>
+      <x:c r="D19" s="120"/>
+      <x:c r="E19" s="120"/>
+      <x:c r="F19" s="120"/>
+      <x:c r="G19" s="120"/>
+      <x:c r="H19" s="120"/>
+      <x:c r="I19" s="121"/>
       <x:c r="J19" s="2"/>
     </x:row>
     <x:row r="20" spans="1:10" ht="49" customHeight="1">
       <x:c r="A20" s="2"/>
-      <x:c r="B20" s="94" t="s">
+      <x:c r="B20" s="87" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C20" s="95"/>
-      <x:c r="D20" s="95"/>
-      <x:c r="E20" s="95"/>
-      <x:c r="F20" s="95"/>
-      <x:c r="G20" s="95"/>
-      <x:c r="H20" s="95"/>
-      <x:c r="I20" s="96"/>
+      <x:c r="C20" s="88"/>
+      <x:c r="D20" s="88"/>
+      <x:c r="E20" s="88"/>
+      <x:c r="F20" s="88"/>
+      <x:c r="G20" s="88"/>
+      <x:c r="H20" s="88"/>
+      <x:c r="I20" s="89"/>
       <x:c r="J20" s="2"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A21" s="2"/>
-      <x:c r="B21" s="86" t="s">
+      <x:c r="B21" s="117" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C21" s="87"/>
+      <x:c r="C21" s="118"/>
       <x:c r="D21" s="28"/>
       <x:c r="E21" s="28"/>
       <x:c r="F21" s="28"/>
@@ -6154,24 +6162,24 @@
     </x:row>
     <x:row r="22" spans="1:10" ht="52" customHeight="1">
       <x:c r="A22" s="2"/>
-      <x:c r="B22" s="88" t="s">
+      <x:c r="B22" s="119" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C22" s="89"/>
-      <x:c r="D22" s="89"/>
-      <x:c r="E22" s="89"/>
-      <x:c r="F22" s="89"/>
-      <x:c r="G22" s="89"/>
-      <x:c r="H22" s="89"/>
-      <x:c r="I22" s="90"/>
+      <x:c r="C22" s="120"/>
+      <x:c r="D22" s="120"/>
+      <x:c r="E22" s="120"/>
+      <x:c r="F22" s="120"/>
+      <x:c r="G22" s="120"/>
+      <x:c r="H22" s="120"/>
+      <x:c r="I22" s="121"/>
       <x:c r="J22" s="2"/>
     </x:row>
     <x:row r="23" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A23" s="2"/>
-      <x:c r="B23" s="86" t="s">
+      <x:c r="B23" s="117" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C23" s="87"/>
+      <x:c r="C23" s="118"/>
       <x:c r="D23" s="28"/>
       <x:c r="E23" s="28"/>
       <x:c r="F23" s="28"/>
@@ -6184,150 +6192,150 @@
     </x:row>
     <x:row r="24" spans="1:10">
       <x:c r="A24" s="2"/>
-      <x:c r="B24" s="88" t="s">
+      <x:c r="B24" s="119" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C24" s="89"/>
-      <x:c r="D24" s="89"/>
-      <x:c r="E24" s="89"/>
-      <x:c r="F24" s="89"/>
-      <x:c r="G24" s="89"/>
-      <x:c r="H24" s="89"/>
-      <x:c r="I24" s="90"/>
+      <x:c r="C24" s="120"/>
+      <x:c r="D24" s="120"/>
+      <x:c r="E24" s="120"/>
+      <x:c r="F24" s="120"/>
+      <x:c r="G24" s="120"/>
+      <x:c r="H24" s="120"/>
+      <x:c r="I24" s="121"/>
       <x:c r="J24" s="2"/>
     </x:row>
     <x:row r="25" spans="1:10" ht="35" customHeight="1">
       <x:c r="A25" s="2"/>
-      <x:c r="B25" s="94" t="s">
+      <x:c r="B25" s="87" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C25" s="95"/>
-      <x:c r="D25" s="95"/>
-      <x:c r="E25" s="95"/>
-      <x:c r="F25" s="95"/>
-      <x:c r="G25" s="95"/>
-      <x:c r="H25" s="95"/>
-      <x:c r="I25" s="96"/>
+      <x:c r="C25" s="88"/>
+      <x:c r="D25" s="88"/>
+      <x:c r="E25" s="88"/>
+      <x:c r="F25" s="88"/>
+      <x:c r="G25" s="88"/>
+      <x:c r="H25" s="88"/>
+      <x:c r="I25" s="89"/>
       <x:c r="J25" s="2"/>
     </x:row>
     <x:row r="26" spans="1:10">
       <x:c r="A26" s="2"/>
-      <x:c r="B26" s="94" t="s">
+      <x:c r="B26" s="87" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="C26" s="95"/>
-      <x:c r="D26" s="95"/>
-      <x:c r="E26" s="95"/>
-      <x:c r="F26" s="95"/>
-      <x:c r="G26" s="95"/>
-      <x:c r="H26" s="95"/>
-      <x:c r="I26" s="96"/>
+      <x:c r="C26" s="88"/>
+      <x:c r="D26" s="88"/>
+      <x:c r="E26" s="88"/>
+      <x:c r="F26" s="88"/>
+      <x:c r="G26" s="88"/>
+      <x:c r="H26" s="88"/>
+      <x:c r="I26" s="89"/>
       <x:c r="J26" s="2"/>
     </x:row>
     <x:row r="27" spans="1:10" ht="16" customHeight="1">
       <x:c r="A27" s="2"/>
-      <x:c r="B27" s="94" t="s">
+      <x:c r="B27" s="87" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="C27" s="95"/>
-      <x:c r="D27" s="95"/>
-      <x:c r="E27" s="95"/>
-      <x:c r="F27" s="95"/>
-      <x:c r="G27" s="95"/>
-      <x:c r="H27" s="95"/>
-      <x:c r="I27" s="96"/>
+      <x:c r="C27" s="88"/>
+      <x:c r="D27" s="88"/>
+      <x:c r="E27" s="88"/>
+      <x:c r="F27" s="88"/>
+      <x:c r="G27" s="88"/>
+      <x:c r="H27" s="88"/>
+      <x:c r="I27" s="89"/>
       <x:c r="J27" s="2"/>
     </x:row>
     <x:row r="28" spans="1:10">
       <x:c r="A28" s="2"/>
-      <x:c r="B28" s="97" t="s">
+      <x:c r="B28" s="108" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C28" s="98"/>
-      <x:c r="D28" s="98"/>
-      <x:c r="E28" s="98"/>
-      <x:c r="F28" s="98"/>
-      <x:c r="G28" s="98"/>
-      <x:c r="H28" s="98"/>
-      <x:c r="I28" s="99"/>
+      <x:c r="C28" s="109"/>
+      <x:c r="D28" s="109"/>
+      <x:c r="E28" s="109"/>
+      <x:c r="F28" s="109"/>
+      <x:c r="G28" s="109"/>
+      <x:c r="H28" s="109"/>
+      <x:c r="I28" s="110"/>
       <x:c r="J28" s="2"/>
     </x:row>
     <x:row r="29" spans="1:10">
       <x:c r="A29" s="2"/>
-      <x:c r="B29" s="97" t="s">
+      <x:c r="B29" s="108" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="C29" s="98"/>
-      <x:c r="D29" s="98"/>
-      <x:c r="E29" s="98"/>
-      <x:c r="F29" s="98"/>
-      <x:c r="G29" s="98"/>
-      <x:c r="H29" s="98"/>
-      <x:c r="I29" s="99"/>
+      <x:c r="C29" s="109"/>
+      <x:c r="D29" s="109"/>
+      <x:c r="E29" s="109"/>
+      <x:c r="F29" s="109"/>
+      <x:c r="G29" s="109"/>
+      <x:c r="H29" s="109"/>
+      <x:c r="I29" s="110"/>
       <x:c r="J29" s="2"/>
     </x:row>
     <x:row r="30" spans="1:10">
       <x:c r="A30" s="2"/>
-      <x:c r="B30" s="97" t="s">
+      <x:c r="B30" s="108" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="C30" s="98"/>
-      <x:c r="D30" s="98"/>
-      <x:c r="E30" s="98"/>
-      <x:c r="F30" s="98"/>
-      <x:c r="G30" s="98"/>
-      <x:c r="H30" s="98"/>
-      <x:c r="I30" s="99"/>
+      <x:c r="C30" s="109"/>
+      <x:c r="D30" s="109"/>
+      <x:c r="E30" s="109"/>
+      <x:c r="F30" s="109"/>
+      <x:c r="G30" s="109"/>
+      <x:c r="H30" s="109"/>
+      <x:c r="I30" s="110"/>
       <x:c r="J30" s="2"/>
     </x:row>
     <x:row r="31" spans="1:10">
       <x:c r="A31" s="2"/>
-      <x:c r="B31" s="97" t="s">
+      <x:c r="B31" s="108" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C31" s="98"/>
-      <x:c r="D31" s="98"/>
-      <x:c r="E31" s="98"/>
-      <x:c r="F31" s="98"/>
-      <x:c r="G31" s="98"/>
-      <x:c r="H31" s="98"/>
-      <x:c r="I31" s="99"/>
+      <x:c r="C31" s="109"/>
+      <x:c r="D31" s="109"/>
+      <x:c r="E31" s="109"/>
+      <x:c r="F31" s="109"/>
+      <x:c r="G31" s="109"/>
+      <x:c r="H31" s="109"/>
+      <x:c r="I31" s="110"/>
       <x:c r="J31" s="2"/>
     </x:row>
     <x:row r="32" spans="1:10">
       <x:c r="A32" s="2"/>
-      <x:c r="B32" s="97" t="s">
+      <x:c r="B32" s="108" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="C32" s="98"/>
-      <x:c r="D32" s="98"/>
-      <x:c r="E32" s="98"/>
-      <x:c r="F32" s="98"/>
-      <x:c r="G32" s="98"/>
-      <x:c r="H32" s="98"/>
-      <x:c r="I32" s="99"/>
+      <x:c r="C32" s="109"/>
+      <x:c r="D32" s="109"/>
+      <x:c r="E32" s="109"/>
+      <x:c r="F32" s="109"/>
+      <x:c r="G32" s="109"/>
+      <x:c r="H32" s="109"/>
+      <x:c r="I32" s="110"/>
       <x:c r="J32" s="2"/>
     </x:row>
     <x:row r="33" spans="1:10" ht="92" customHeight="1">
       <x:c r="A33" s="2"/>
-      <x:c r="B33" s="97" t="s">
+      <x:c r="B33" s="108" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="C33" s="98"/>
-      <x:c r="D33" s="98"/>
-      <x:c r="E33" s="98"/>
-      <x:c r="F33" s="98"/>
-      <x:c r="G33" s="98"/>
-      <x:c r="H33" s="98"/>
-      <x:c r="I33" s="99"/>
+      <x:c r="C33" s="109"/>
+      <x:c r="D33" s="109"/>
+      <x:c r="E33" s="109"/>
+      <x:c r="F33" s="109"/>
+      <x:c r="G33" s="109"/>
+      <x:c r="H33" s="109"/>
+      <x:c r="I33" s="110"/>
       <x:c r="J33" s="2"/>
     </x:row>
     <x:row r="34" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A34" s="2"/>
-      <x:c r="B34" s="86" t="s">
+      <x:c r="B34" s="117" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C34" s="87"/>
+      <x:c r="C34" s="118"/>
       <x:c r="D34" s="28"/>
       <x:c r="E34" s="28"/>
       <x:c r="F34" s="28"/>
@@ -6352,108 +6360,108 @@
     </x:row>
     <x:row r="36" spans="1:10" ht="26">
       <x:c r="A36" s="2"/>
-      <x:c r="B36" s="91" t="s">
+      <x:c r="B36" s="111" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="C36" s="92"/>
-      <x:c r="D36" s="92"/>
-      <x:c r="E36" s="92"/>
-      <x:c r="F36" s="92"/>
-      <x:c r="G36" s="92"/>
-      <x:c r="H36" s="92"/>
-      <x:c r="I36" s="93"/>
+      <x:c r="C36" s="112"/>
+      <x:c r="D36" s="112"/>
+      <x:c r="E36" s="112"/>
+      <x:c r="F36" s="112"/>
+      <x:c r="G36" s="112"/>
+      <x:c r="H36" s="112"/>
+      <x:c r="I36" s="113"/>
       <x:c r="J36" s="2"/>
     </x:row>
     <x:row r="37" spans="1:10">
       <x:c r="A37" s="2"/>
-      <x:c r="B37" s="88" t="s">
+      <x:c r="B37" s="119" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="C37" s="89"/>
-      <x:c r="D37" s="89"/>
-      <x:c r="E37" s="89"/>
-      <x:c r="F37" s="89"/>
-      <x:c r="G37" s="89"/>
-      <x:c r="H37" s="89"/>
-      <x:c r="I37" s="90"/>
+      <x:c r="C37" s="120"/>
+      <x:c r="D37" s="120"/>
+      <x:c r="E37" s="120"/>
+      <x:c r="F37" s="120"/>
+      <x:c r="G37" s="120"/>
+      <x:c r="H37" s="120"/>
+      <x:c r="I37" s="121"/>
       <x:c r="J37" s="2"/>
     </x:row>
     <x:row r="38" spans="1:10">
       <x:c r="A38" s="2"/>
-      <x:c r="B38" s="97" t="s">
+      <x:c r="B38" s="108" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="C38" s="98"/>
-      <x:c r="D38" s="98"/>
-      <x:c r="E38" s="98"/>
-      <x:c r="F38" s="98"/>
-      <x:c r="G38" s="98"/>
-      <x:c r="H38" s="98"/>
-      <x:c r="I38" s="99"/>
+      <x:c r="C38" s="109"/>
+      <x:c r="D38" s="109"/>
+      <x:c r="E38" s="109"/>
+      <x:c r="F38" s="109"/>
+      <x:c r="G38" s="109"/>
+      <x:c r="H38" s="109"/>
+      <x:c r="I38" s="110"/>
       <x:c r="J38" s="2"/>
     </x:row>
     <x:row r="39" spans="1:10" ht="35" customHeight="1">
       <x:c r="A39" s="2"/>
-      <x:c r="B39" s="94" t="s">
+      <x:c r="B39" s="87" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="C39" s="95"/>
-      <x:c r="D39" s="95"/>
-      <x:c r="E39" s="95"/>
-      <x:c r="F39" s="95"/>
-      <x:c r="G39" s="95"/>
-      <x:c r="H39" s="95"/>
-      <x:c r="I39" s="96"/>
+      <x:c r="C39" s="88"/>
+      <x:c r="D39" s="88"/>
+      <x:c r="E39" s="88"/>
+      <x:c r="F39" s="88"/>
+      <x:c r="G39" s="88"/>
+      <x:c r="H39" s="88"/>
+      <x:c r="I39" s="89"/>
       <x:c r="J39" s="2"/>
     </x:row>
     <x:row r="40" spans="1:10">
       <x:c r="A40" s="2"/>
-      <x:c r="B40" s="97" t="s">
+      <x:c r="B40" s="108" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="C40" s="98"/>
-      <x:c r="D40" s="98"/>
-      <x:c r="E40" s="98"/>
-      <x:c r="F40" s="98"/>
-      <x:c r="G40" s="98"/>
-      <x:c r="H40" s="98"/>
-      <x:c r="I40" s="99"/>
+      <x:c r="C40" s="109"/>
+      <x:c r="D40" s="109"/>
+      <x:c r="E40" s="109"/>
+      <x:c r="F40" s="109"/>
+      <x:c r="G40" s="109"/>
+      <x:c r="H40" s="109"/>
+      <x:c r="I40" s="110"/>
       <x:c r="J40" s="2"/>
     </x:row>
     <x:row r="41" spans="1:10">
       <x:c r="A41" s="2"/>
-      <x:c r="B41" s="97" t="s">
+      <x:c r="B41" s="108" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C41" s="98"/>
-      <x:c r="D41" s="98"/>
-      <x:c r="E41" s="98"/>
-      <x:c r="F41" s="98"/>
-      <x:c r="G41" s="98"/>
-      <x:c r="H41" s="98"/>
-      <x:c r="I41" s="99"/>
+      <x:c r="C41" s="109"/>
+      <x:c r="D41" s="109"/>
+      <x:c r="E41" s="109"/>
+      <x:c r="F41" s="109"/>
+      <x:c r="G41" s="109"/>
+      <x:c r="H41" s="109"/>
+      <x:c r="I41" s="110"/>
       <x:c r="J41" s="2"/>
     </x:row>
     <x:row r="42" spans="1:10" ht="86" customHeight="1">
       <x:c r="A42" s="2"/>
-      <x:c r="B42" s="94" t="s">
+      <x:c r="B42" s="87" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="C42" s="95"/>
-      <x:c r="D42" s="95"/>
-      <x:c r="E42" s="95"/>
-      <x:c r="F42" s="95"/>
-      <x:c r="G42" s="95"/>
-      <x:c r="H42" s="95"/>
-      <x:c r="I42" s="96"/>
+      <x:c r="C42" s="88"/>
+      <x:c r="D42" s="88"/>
+      <x:c r="E42" s="88"/>
+      <x:c r="F42" s="88"/>
+      <x:c r="G42" s="88"/>
+      <x:c r="H42" s="88"/>
+      <x:c r="I42" s="89"/>
       <x:c r="J42" s="2"/>
     </x:row>
     <x:row r="43" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A43" s="2"/>
-      <x:c r="B43" s="86" t="s">
+      <x:c r="B43" s="117" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C43" s="87"/>
+      <x:c r="C43" s="118"/>
       <x:c r="D43" s="28"/>
       <x:c r="E43" s="28"/>
       <x:c r="F43" s="28"/>
@@ -6466,80 +6474,80 @@
     </x:row>
     <x:row r="44" spans="1:10" ht="36" customHeight="1">
       <x:c r="A44" s="2"/>
-      <x:c r="B44" s="88" t="s">
+      <x:c r="B44" s="119" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="C44" s="89"/>
-      <x:c r="D44" s="89"/>
-      <x:c r="E44" s="89"/>
-      <x:c r="F44" s="89"/>
-      <x:c r="G44" s="89"/>
-      <x:c r="H44" s="89"/>
-      <x:c r="I44" s="90"/>
+      <x:c r="C44" s="120"/>
+      <x:c r="D44" s="120"/>
+      <x:c r="E44" s="120"/>
+      <x:c r="F44" s="120"/>
+      <x:c r="G44" s="120"/>
+      <x:c r="H44" s="120"/>
+      <x:c r="I44" s="121"/>
       <x:c r="J44" s="2"/>
     </x:row>
     <x:row r="45" spans="1:10" ht="51" customHeight="1">
       <x:c r="A45" s="2"/>
-      <x:c r="B45" s="97" t="s">
+      <x:c r="B45" s="108" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="C45" s="98"/>
-      <x:c r="D45" s="98"/>
-      <x:c r="E45" s="98"/>
-      <x:c r="F45" s="98"/>
-      <x:c r="G45" s="98"/>
-      <x:c r="H45" s="98"/>
-      <x:c r="I45" s="99"/>
+      <x:c r="C45" s="109"/>
+      <x:c r="D45" s="109"/>
+      <x:c r="E45" s="109"/>
+      <x:c r="F45" s="109"/>
+      <x:c r="G45" s="109"/>
+      <x:c r="H45" s="109"/>
+      <x:c r="I45" s="110"/>
       <x:c r="J45" s="2"/>
     </x:row>
     <x:row r="46" spans="1:10">
       <x:c r="A46" s="2"/>
-      <x:c r="B46" s="97" t="s">
+      <x:c r="B46" s="108" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="C46" s="98"/>
-      <x:c r="D46" s="98"/>
-      <x:c r="E46" s="98"/>
-      <x:c r="F46" s="98"/>
-      <x:c r="G46" s="98"/>
-      <x:c r="H46" s="98"/>
-      <x:c r="I46" s="99"/>
+      <x:c r="C46" s="109"/>
+      <x:c r="D46" s="109"/>
+      <x:c r="E46" s="109"/>
+      <x:c r="F46" s="109"/>
+      <x:c r="G46" s="109"/>
+      <x:c r="H46" s="109"/>
+      <x:c r="I46" s="110"/>
       <x:c r="J46" s="2"/>
     </x:row>
     <x:row r="47" spans="1:10">
       <x:c r="A47" s="2"/>
-      <x:c r="B47" s="97" t="s">
+      <x:c r="B47" s="108" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="C47" s="98"/>
-      <x:c r="D47" s="98"/>
-      <x:c r="E47" s="98"/>
-      <x:c r="F47" s="98"/>
-      <x:c r="G47" s="98"/>
-      <x:c r="H47" s="98"/>
-      <x:c r="I47" s="99"/>
+      <x:c r="C47" s="109"/>
+      <x:c r="D47" s="109"/>
+      <x:c r="E47" s="109"/>
+      <x:c r="F47" s="109"/>
+      <x:c r="G47" s="109"/>
+      <x:c r="H47" s="109"/>
+      <x:c r="I47" s="110"/>
       <x:c r="J47" s="2"/>
     </x:row>
     <x:row r="48" spans="1:10">
       <x:c r="A48" s="2"/>
-      <x:c r="B48" s="97" t="s">
+      <x:c r="B48" s="108" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="C48" s="98"/>
-      <x:c r="D48" s="98"/>
-      <x:c r="E48" s="98"/>
-      <x:c r="F48" s="98"/>
-      <x:c r="G48" s="98"/>
-      <x:c r="H48" s="98"/>
-      <x:c r="I48" s="99"/>
+      <x:c r="C48" s="109"/>
+      <x:c r="D48" s="109"/>
+      <x:c r="E48" s="109"/>
+      <x:c r="F48" s="109"/>
+      <x:c r="G48" s="109"/>
+      <x:c r="H48" s="109"/>
+      <x:c r="I48" s="110"/>
       <x:c r="J48" s="2"/>
     </x:row>
     <x:row r="49" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A49" s="2"/>
-      <x:c r="B49" s="86" t="s">
+      <x:c r="B49" s="117" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C49" s="87"/>
+      <x:c r="C49" s="118"/>
       <x:c r="D49" s="28"/>
       <x:c r="E49" s="28"/>
       <x:c r="F49" s="28"/>
@@ -6552,24 +6560,24 @@
     </x:row>
     <x:row r="50" spans="1:10" ht="41" customHeight="1">
       <x:c r="A50" s="2"/>
-      <x:c r="B50" s="88" t="s">
+      <x:c r="B50" s="119" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="C50" s="89"/>
-      <x:c r="D50" s="89"/>
-      <x:c r="E50" s="89"/>
-      <x:c r="F50" s="89"/>
-      <x:c r="G50" s="89"/>
-      <x:c r="H50" s="89"/>
-      <x:c r="I50" s="90"/>
+      <x:c r="C50" s="120"/>
+      <x:c r="D50" s="120"/>
+      <x:c r="E50" s="120"/>
+      <x:c r="F50" s="120"/>
+      <x:c r="G50" s="120"/>
+      <x:c r="H50" s="120"/>
+      <x:c r="I50" s="121"/>
       <x:c r="J50" s="2"/>
     </x:row>
     <x:row r="51" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A51" s="2"/>
-      <x:c r="B51" s="86" t="s">
+      <x:c r="B51" s="117" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C51" s="87"/>
+      <x:c r="C51" s="118"/>
       <x:c r="D51" s="28"/>
       <x:c r="E51" s="28"/>
       <x:c r="F51" s="28"/>
@@ -6582,24 +6590,24 @@
     </x:row>
     <x:row r="52" spans="1:10">
       <x:c r="A52" s="2"/>
-      <x:c r="B52" s="88" t="s">
+      <x:c r="B52" s="119" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="C52" s="89"/>
-      <x:c r="D52" s="89"/>
-      <x:c r="E52" s="89"/>
-      <x:c r="F52" s="89"/>
-      <x:c r="G52" s="89"/>
-      <x:c r="H52" s="89"/>
-      <x:c r="I52" s="90"/>
+      <x:c r="C52" s="120"/>
+      <x:c r="D52" s="120"/>
+      <x:c r="E52" s="120"/>
+      <x:c r="F52" s="120"/>
+      <x:c r="G52" s="120"/>
+      <x:c r="H52" s="120"/>
+      <x:c r="I52" s="121"/>
       <x:c r="J52" s="2"/>
     </x:row>
     <x:row r="53" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A53" s="2"/>
-      <x:c r="B53" s="86" t="s">
+      <x:c r="B53" s="117" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C53" s="87"/>
+      <x:c r="C53" s="118"/>
       <x:c r="D53" s="28"/>
       <x:c r="E53" s="28"/>
       <x:c r="F53" s="28"/>
@@ -6612,24 +6620,24 @@
     </x:row>
     <x:row r="54" spans="1:10" ht="41" customHeight="1">
       <x:c r="A54" s="2"/>
-      <x:c r="B54" s="88" t="s">
+      <x:c r="B54" s="119" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="C54" s="89"/>
-      <x:c r="D54" s="89"/>
-      <x:c r="E54" s="89"/>
-      <x:c r="F54" s="89"/>
-      <x:c r="G54" s="89"/>
-      <x:c r="H54" s="89"/>
-      <x:c r="I54" s="90"/>
+      <x:c r="C54" s="120"/>
+      <x:c r="D54" s="120"/>
+      <x:c r="E54" s="120"/>
+      <x:c r="F54" s="120"/>
+      <x:c r="G54" s="120"/>
+      <x:c r="H54" s="120"/>
+      <x:c r="I54" s="121"/>
       <x:c r="J54" s="2"/>
     </x:row>
     <x:row r="55" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A55" s="2"/>
-      <x:c r="B55" s="86" t="s">
+      <x:c r="B55" s="117" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C55" s="87"/>
+      <x:c r="C55" s="118"/>
       <x:c r="D55" s="28"/>
       <x:c r="E55" s="28"/>
       <x:c r="F55" s="28"/>
@@ -6642,24 +6650,24 @@
     </x:row>
     <x:row r="56" spans="1:10" ht="57" customHeight="1">
       <x:c r="A56" s="2"/>
-      <x:c r="B56" s="88" t="s">
+      <x:c r="B56" s="119" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C56" s="89"/>
-      <x:c r="D56" s="89"/>
-      <x:c r="E56" s="89"/>
-      <x:c r="F56" s="89"/>
-      <x:c r="G56" s="89"/>
-      <x:c r="H56" s="89"/>
-      <x:c r="I56" s="90"/>
+      <x:c r="C56" s="120"/>
+      <x:c r="D56" s="120"/>
+      <x:c r="E56" s="120"/>
+      <x:c r="F56" s="120"/>
+      <x:c r="G56" s="120"/>
+      <x:c r="H56" s="120"/>
+      <x:c r="I56" s="121"/>
       <x:c r="J56" s="2"/>
     </x:row>
     <x:row r="57" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A57" s="2"/>
-      <x:c r="B57" s="86" t="s">
+      <x:c r="B57" s="117" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C57" s="87"/>
+      <x:c r="C57" s="118"/>
       <x:c r="D57" s="28"/>
       <x:c r="E57" s="28"/>
       <x:c r="F57" s="28"/>
@@ -6684,38 +6692,38 @@
     </x:row>
     <x:row r="59" spans="1:10" ht="26">
       <x:c r="A59" s="2"/>
-      <x:c r="B59" s="91" t="s">
+      <x:c r="B59" s="111" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="C59" s="92"/>
-      <x:c r="D59" s="92"/>
-      <x:c r="E59" s="92"/>
-      <x:c r="F59" s="92"/>
-      <x:c r="G59" s="92"/>
-      <x:c r="H59" s="92"/>
-      <x:c r="I59" s="93"/>
+      <x:c r="C59" s="112"/>
+      <x:c r="D59" s="112"/>
+      <x:c r="E59" s="112"/>
+      <x:c r="F59" s="112"/>
+      <x:c r="G59" s="112"/>
+      <x:c r="H59" s="112"/>
+      <x:c r="I59" s="113"/>
       <x:c r="J59" s="2"/>
     </x:row>
     <x:row r="60" spans="1:10" ht="84" customHeight="1">
       <x:c r="A60" s="2"/>
-      <x:c r="B60" s="88" t="s">
+      <x:c r="B60" s="119" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="C60" s="89"/>
-      <x:c r="D60" s="89"/>
-      <x:c r="E60" s="89"/>
-      <x:c r="F60" s="89"/>
-      <x:c r="G60" s="89"/>
-      <x:c r="H60" s="89"/>
-      <x:c r="I60" s="90"/>
+      <x:c r="C60" s="120"/>
+      <x:c r="D60" s="120"/>
+      <x:c r="E60" s="120"/>
+      <x:c r="F60" s="120"/>
+      <x:c r="G60" s="120"/>
+      <x:c r="H60" s="120"/>
+      <x:c r="I60" s="121"/>
       <x:c r="J60" s="2"/>
     </x:row>
     <x:row r="61" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A61" s="2"/>
-      <x:c r="B61" s="86" t="s">
+      <x:c r="B61" s="117" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C61" s="87"/>
+      <x:c r="C61" s="118"/>
       <x:c r="D61" s="28"/>
       <x:c r="E61" s="28"/>
       <x:c r="F61" s="28"/>
@@ -6728,24 +6736,24 @@
     </x:row>
     <x:row r="62" spans="1:10" ht="36" customHeight="1">
       <x:c r="A62" s="2"/>
-      <x:c r="B62" s="88" t="s">
+      <x:c r="B62" s="119" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="C62" s="89"/>
-      <x:c r="D62" s="89"/>
-      <x:c r="E62" s="89"/>
-      <x:c r="F62" s="89"/>
-      <x:c r="G62" s="89"/>
-      <x:c r="H62" s="89"/>
-      <x:c r="I62" s="90"/>
+      <x:c r="C62" s="120"/>
+      <x:c r="D62" s="120"/>
+      <x:c r="E62" s="120"/>
+      <x:c r="F62" s="120"/>
+      <x:c r="G62" s="120"/>
+      <x:c r="H62" s="120"/>
+      <x:c r="I62" s="121"/>
       <x:c r="J62" s="2"/>
     </x:row>
     <x:row r="63" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A63" s="2"/>
-      <x:c r="B63" s="86" t="s">
+      <x:c r="B63" s="117" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C63" s="87"/>
+      <x:c r="C63" s="118"/>
       <x:c r="D63" s="28"/>
       <x:c r="E63" s="28"/>
       <x:c r="F63" s="28"/>
@@ -6758,38 +6766,38 @@
     </x:row>
     <x:row r="64" spans="1:10" ht="36" customHeight="1">
       <x:c r="A64" s="2"/>
-      <x:c r="B64" s="88" t="s">
+      <x:c r="B64" s="119" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="C64" s="89"/>
-      <x:c r="D64" s="89"/>
-      <x:c r="E64" s="89"/>
-      <x:c r="F64" s="89"/>
-      <x:c r="G64" s="89"/>
-      <x:c r="H64" s="89"/>
-      <x:c r="I64" s="90"/>
+      <x:c r="C64" s="120"/>
+      <x:c r="D64" s="120"/>
+      <x:c r="E64" s="120"/>
+      <x:c r="F64" s="120"/>
+      <x:c r="G64" s="120"/>
+      <x:c r="H64" s="120"/>
+      <x:c r="I64" s="121"/>
       <x:c r="J64" s="2"/>
     </x:row>
     <x:row r="65" spans="1:10" ht="49" customHeight="1">
       <x:c r="A65" s="2"/>
-      <x:c r="B65" s="94" t="s">
+      <x:c r="B65" s="87" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="C65" s="95"/>
-      <x:c r="D65" s="95"/>
-      <x:c r="E65" s="95"/>
-      <x:c r="F65" s="95"/>
-      <x:c r="G65" s="95"/>
-      <x:c r="H65" s="95"/>
-      <x:c r="I65" s="96"/>
+      <x:c r="C65" s="88"/>
+      <x:c r="D65" s="88"/>
+      <x:c r="E65" s="88"/>
+      <x:c r="F65" s="88"/>
+      <x:c r="G65" s="88"/>
+      <x:c r="H65" s="88"/>
+      <x:c r="I65" s="89"/>
       <x:c r="J65" s="2"/>
     </x:row>
     <x:row r="66" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A66" s="2"/>
-      <x:c r="B66" s="86" t="s">
+      <x:c r="B66" s="117" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C66" s="87"/>
+      <x:c r="C66" s="118"/>
       <x:c r="D66" s="28"/>
       <x:c r="E66" s="28"/>
       <x:c r="F66" s="28"/>
@@ -6802,24 +6810,24 @@
     </x:row>
     <x:row r="67" spans="1:10" ht="36" customHeight="1">
       <x:c r="A67" s="2"/>
-      <x:c r="B67" s="88" t="s">
+      <x:c r="B67" s="119" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="C67" s="89"/>
-      <x:c r="D67" s="89"/>
-      <x:c r="E67" s="89"/>
-      <x:c r="F67" s="89"/>
-      <x:c r="G67" s="89"/>
-      <x:c r="H67" s="89"/>
-      <x:c r="I67" s="90"/>
+      <x:c r="C67" s="120"/>
+      <x:c r="D67" s="120"/>
+      <x:c r="E67" s="120"/>
+      <x:c r="F67" s="120"/>
+      <x:c r="G67" s="120"/>
+      <x:c r="H67" s="120"/>
+      <x:c r="I67" s="121"/>
       <x:c r="J67" s="2"/>
     </x:row>
     <x:row r="68" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A68" s="2"/>
-      <x:c r="B68" s="86" t="s">
+      <x:c r="B68" s="117" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C68" s="87"/>
+      <x:c r="C68" s="118"/>
       <x:c r="D68" s="28"/>
       <x:c r="E68" s="28"/>
       <x:c r="F68" s="28"/>
@@ -6830,24 +6838,24 @@
     </x:row>
     <x:row r="69" spans="1:10">
       <x:c r="A69" s="2"/>
-      <x:c r="B69" s="88" t="s">
+      <x:c r="B69" s="119" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C69" s="89"/>
-      <x:c r="D69" s="89"/>
-      <x:c r="E69" s="89"/>
-      <x:c r="F69" s="89"/>
-      <x:c r="G69" s="89"/>
-      <x:c r="H69" s="89"/>
-      <x:c r="I69" s="90"/>
+      <x:c r="C69" s="120"/>
+      <x:c r="D69" s="120"/>
+      <x:c r="E69" s="120"/>
+      <x:c r="F69" s="120"/>
+      <x:c r="G69" s="120"/>
+      <x:c r="H69" s="120"/>
+      <x:c r="I69" s="121"/>
       <x:c r="J69" s="2"/>
     </x:row>
     <x:row r="70" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A70" s="2"/>
-      <x:c r="B70" s="86" t="s">
+      <x:c r="B70" s="117" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C70" s="87"/>
+      <x:c r="C70" s="118"/>
       <x:c r="D70" s="28"/>
       <x:c r="E70" s="28"/>
       <x:c r="F70" s="28"/>
@@ -6872,38 +6880,38 @@
     </x:row>
     <x:row r="72" spans="1:10" ht="26">
       <x:c r="A72" s="2"/>
-      <x:c r="B72" s="91" t="s">
+      <x:c r="B72" s="111" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="C72" s="92"/>
-      <x:c r="D72" s="92"/>
-      <x:c r="E72" s="92"/>
-      <x:c r="F72" s="92"/>
-      <x:c r="G72" s="92"/>
-      <x:c r="H72" s="92"/>
-      <x:c r="I72" s="93"/>
+      <x:c r="C72" s="112"/>
+      <x:c r="D72" s="112"/>
+      <x:c r="E72" s="112"/>
+      <x:c r="F72" s="112"/>
+      <x:c r="G72" s="112"/>
+      <x:c r="H72" s="112"/>
+      <x:c r="I72" s="113"/>
       <x:c r="J72" s="2"/>
     </x:row>
     <x:row r="73" spans="1:10" ht="53" customHeight="1">
       <x:c r="A73" s="2"/>
-      <x:c r="B73" s="88" t="s">
+      <x:c r="B73" s="119" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="C73" s="89"/>
-      <x:c r="D73" s="89"/>
-      <x:c r="E73" s="89"/>
-      <x:c r="F73" s="89"/>
-      <x:c r="G73" s="89"/>
-      <x:c r="H73" s="89"/>
-      <x:c r="I73" s="90"/>
+      <x:c r="C73" s="120"/>
+      <x:c r="D73" s="120"/>
+      <x:c r="E73" s="120"/>
+      <x:c r="F73" s="120"/>
+      <x:c r="G73" s="120"/>
+      <x:c r="H73" s="120"/>
+      <x:c r="I73" s="121"/>
       <x:c r="J73" s="2"/>
     </x:row>
     <x:row r="74" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A74" s="2"/>
-      <x:c r="B74" s="86" t="s">
+      <x:c r="B74" s="117" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C74" s="87"/>
+      <x:c r="C74" s="118"/>
       <x:c r="D74" s="28"/>
       <x:c r="E74" s="28"/>
       <x:c r="F74" s="28"/>
@@ -6964,13 +6972,47 @@
     </x:row>
   </x:sheetData>
   <x:mergeCells count="64">
-    <x:mergeCell ref="B25:I25"/>
-    <x:mergeCell ref="B10:I12"/>
-    <x:mergeCell ref="B5:D5"/>
-    <x:mergeCell ref="B6:D6"/>
-    <x:mergeCell ref="B7:D7"/>
-    <x:mergeCell ref="B8:D8"/>
-    <x:mergeCell ref="E5:I5"/>
+    <x:mergeCell ref="B74:C74"/>
+    <x:mergeCell ref="B67:I67"/>
+    <x:mergeCell ref="B68:C68"/>
+    <x:mergeCell ref="B69:I69"/>
+    <x:mergeCell ref="B70:C70"/>
+    <x:mergeCell ref="B72:I72"/>
+    <x:mergeCell ref="B73:I73"/>
+    <x:mergeCell ref="B62:I62"/>
+    <x:mergeCell ref="B63:C63"/>
+    <x:mergeCell ref="B64:I64"/>
+    <x:mergeCell ref="B65:I65"/>
+    <x:mergeCell ref="B66:C66"/>
+    <x:mergeCell ref="B56:I56"/>
+    <x:mergeCell ref="B57:C57"/>
+    <x:mergeCell ref="B59:I59"/>
+    <x:mergeCell ref="B60:I60"/>
+    <x:mergeCell ref="B61:C61"/>
+    <x:mergeCell ref="B55:C55"/>
+    <x:mergeCell ref="B38:I38"/>
+    <x:mergeCell ref="B41:I41"/>
+    <x:mergeCell ref="B40:I40"/>
+    <x:mergeCell ref="B42:I42"/>
+    <x:mergeCell ref="B45:I45"/>
+    <x:mergeCell ref="B47:I47"/>
+    <x:mergeCell ref="B46:I46"/>
+    <x:mergeCell ref="B53:C53"/>
+    <x:mergeCell ref="B52:I52"/>
+    <x:mergeCell ref="B54:I54"/>
+    <x:mergeCell ref="B50:I50"/>
+    <x:mergeCell ref="B51:C51"/>
+    <x:mergeCell ref="B49:C49"/>
+    <x:mergeCell ref="B37:I37"/>
+    <x:mergeCell ref="B39:I39"/>
+    <x:mergeCell ref="B43:C43"/>
+    <x:mergeCell ref="B44:I44"/>
+    <x:mergeCell ref="B48:I48"/>
+    <x:mergeCell ref="B26:I26"/>
+    <x:mergeCell ref="B30:I30"/>
+    <x:mergeCell ref="B29:I29"/>
+    <x:mergeCell ref="B28:I28"/>
+    <x:mergeCell ref="B27:I27"/>
     <x:mergeCell ref="B31:I31"/>
     <x:mergeCell ref="B33:I33"/>
     <x:mergeCell ref="B36:I36"/>
@@ -6987,47 +7029,13 @@
     <x:mergeCell ref="B24:I24"/>
     <x:mergeCell ref="B32:I32"/>
     <x:mergeCell ref="B34:C34"/>
-    <x:mergeCell ref="B26:I26"/>
-    <x:mergeCell ref="B30:I30"/>
-    <x:mergeCell ref="B29:I29"/>
-    <x:mergeCell ref="B28:I28"/>
-    <x:mergeCell ref="B27:I27"/>
-    <x:mergeCell ref="B37:I37"/>
-    <x:mergeCell ref="B39:I39"/>
-    <x:mergeCell ref="B43:C43"/>
-    <x:mergeCell ref="B44:I44"/>
-    <x:mergeCell ref="B48:I48"/>
-    <x:mergeCell ref="B55:C55"/>
-    <x:mergeCell ref="B38:I38"/>
-    <x:mergeCell ref="B41:I41"/>
-    <x:mergeCell ref="B40:I40"/>
-    <x:mergeCell ref="B42:I42"/>
-    <x:mergeCell ref="B45:I45"/>
-    <x:mergeCell ref="B47:I47"/>
-    <x:mergeCell ref="B46:I46"/>
-    <x:mergeCell ref="B53:C53"/>
-    <x:mergeCell ref="B52:I52"/>
-    <x:mergeCell ref="B54:I54"/>
-    <x:mergeCell ref="B50:I50"/>
-    <x:mergeCell ref="B51:C51"/>
-    <x:mergeCell ref="B49:C49"/>
-    <x:mergeCell ref="B56:I56"/>
-    <x:mergeCell ref="B57:C57"/>
-    <x:mergeCell ref="B59:I59"/>
-    <x:mergeCell ref="B60:I60"/>
-    <x:mergeCell ref="B61:C61"/>
-    <x:mergeCell ref="B62:I62"/>
-    <x:mergeCell ref="B63:C63"/>
-    <x:mergeCell ref="B64:I64"/>
-    <x:mergeCell ref="B65:I65"/>
-    <x:mergeCell ref="B66:C66"/>
-    <x:mergeCell ref="B74:C74"/>
-    <x:mergeCell ref="B67:I67"/>
-    <x:mergeCell ref="B68:C68"/>
-    <x:mergeCell ref="B69:I69"/>
-    <x:mergeCell ref="B70:C70"/>
-    <x:mergeCell ref="B72:I72"/>
-    <x:mergeCell ref="B73:I73"/>
+    <x:mergeCell ref="B25:I25"/>
+    <x:mergeCell ref="B10:I12"/>
+    <x:mergeCell ref="B5:D5"/>
+    <x:mergeCell ref="B6:D6"/>
+    <x:mergeCell ref="B7:D7"/>
+    <x:mergeCell ref="B8:D8"/>
+    <x:mergeCell ref="E5:I5"/>
   </x:mergeCells>
   <x:phoneticPr fontId="3" type="noConversion"/>
   <x:hyperlinks>

--- a/Sandbox.OpenXML/DStarExport.xlsx
+++ b/Sandbox.OpenXML/DStarExport.xlsx
@@ -12,9 +12,9 @@
     <x:workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12710" tabRatio="500" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Overview" sheetId="2" r:id="rId1"/>
-    <x:sheet name="Data Model" sheetId="3" r:id="rId2"/>
-    <x:sheet name="Results Report" sheetId="1" r:id="rId3"/>
+    <x:sheet name="Overview" sheetId="2" r:id="Sequence1_rId1"/>
+    <x:sheet name="Data Model" sheetId="3" r:id="Sequence1_rId2"/>
+    <x:sheet name="Results Report" sheetId="1" r:id="Sequence1_rId3"/>
   </x:sheets>
   <x:calcPr calcId="150000" calcOnSave="0"/>
   <x:extLst>

--- a/Sandbox.OpenXML/DStarExport.xlsx
+++ b/Sandbox.OpenXML/DStarExport.xlsx
@@ -1,27 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <x:workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josueg\Documents\Projects\Deloitte\STAR Modernization - Deloitte Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12710" tabRatio="500" activeTab="1"/>
-  </x:bookViews>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
   <x:sheets>
-    <x:sheet name="Overview" sheetId="2" r:id="Sequence1_rId1"/>
-    <x:sheet name="Data Model" sheetId="3" r:id="Sequence1_rId2"/>
-    <x:sheet name="Results Report" sheetId="1" r:id="Sequence1_rId3"/>
+    <x:sheet name="Overview" sheetId="1" r:id="Sequence1_rId1"/>
+    <x:sheet name="Data Model" sheetId="2" r:id="Sequence1_rId2"/>
+    <x:sheet name="Results Report" sheetId="3" r:id="Sequence1_rId3"/>
   </x:sheets>
-  <x:calcPr calcId="150000" calcOnSave="0"/>
-  <x:extLst>
-    <x:ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" Flags="2"/>
-    </x:ext>
-  </x:extLst>
 </x:workbook>
 </file>
 
@@ -2246,267 +2230,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:dimension ref="A1:J86"/>

--- a/Sandbox.OpenXML/DStarExport.xlsx
+++ b/Sandbox.OpenXML/DStarExport.xlsx
@@ -5645,13 +5645,13 @@
     </x:row>
     <x:row r="5" spans="1:10" ht="26">
       <x:c r="A5" s="2"/>
-      <x:c r="B5" s="96" t="s">
-        <x:v>28</x:v>
+      <x:c r="B5" s="96" t="str">
+        <x:v>Engagement Name</x:v>
       </x:c>
       <x:c r="C5" s="97"/>
       <x:c r="D5" s="98"/>
-      <x:c r="E5" s="105" t="s">
-        <x:v>32</x:v>
+      <x:c r="E5" s="105" t="str">
+        <x:v>Dr Pepper Snapple Group, Inc.</x:v>
       </x:c>
       <x:c r="F5" s="106"/>
       <x:c r="G5" s="106"/>
@@ -5661,13 +5661,13 @@
     </x:row>
     <x:row r="6" spans="1:10" ht="26">
       <x:c r="A6" s="2"/>
-      <x:c r="B6" s="99" t="s">
-        <x:v>29</x:v>
+      <x:c r="B6" s="99" t="str">
+        <x:v>File Name</x:v>
       </x:c>
       <x:c r="C6" s="100"/>
       <x:c r="D6" s="101"/>
-      <x:c r="E6" s="19" t="s">
-        <x:v>33</x:v>
+      <x:c r="E6" s="19" t="str">
+        <x:v>Reveal Demo1.xlsx</x:v>
       </x:c>
       <x:c r="F6" s="26"/>
       <x:c r="G6" s="26"/>
@@ -5677,13 +5677,13 @@
     </x:row>
     <x:row r="7" spans="1:10" ht="26">
       <x:c r="A7" s="2"/>
-      <x:c r="B7" s="99" t="s">
-        <x:v>30</x:v>
+      <x:c r="B7" s="99" t="str">
+        <x:v>Description</x:v>
       </x:c>
       <x:c r="C7" s="100"/>
       <x:c r="D7" s="101"/>
-      <x:c r="E7" s="19" t="s">
-        <x:v>34</x:v>
+      <x:c r="E7" s="19" t="str">
+        <x:v>Changed risk values to significant</x:v>
       </x:c>
       <x:c r="F7" s="26"/>
       <x:c r="G7" s="26"/>
@@ -5693,13 +5693,13 @@
     </x:row>
     <x:row r="8" spans="1:10" ht="26.5" thickBot="1">
       <x:c r="A8" s="2"/>
-      <x:c r="B8" s="102" t="s">
-        <x:v>31</x:v>
+      <x:c r="B8" s="102" t="str">
+        <x:v>Date and Time</x:v>
       </x:c>
       <x:c r="C8" s="103"/>
       <x:c r="D8" s="104"/>
-      <x:c r="E8" s="114">
-        <x:v>42772.804861111108</x:v>
+      <x:c r="E8" s="114" t="str">
+        <x:v>2/6/2017  7:19:00 PM EST</x:v>
       </x:c>
       <x:c r="F8" s="115"/>
       <x:c r="G8" s="115"/>
@@ -5721,8 +5721,52 @@
     </x:row>
     <x:row r="10" spans="1:10" ht="30" customHeight="1">
       <x:c r="A10" s="2"/>
-      <x:c r="B10" s="90" t="s">
-        <x:v>119</x:v>
+      <x:c r="B10" s="90" t="inlineStr">
+        <x:is>
+          <x:r>
+            <x:rPr>
+              <x:b/>
+              <x:sz val="20"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t>Steps to Performing Substantive Analytical procedures using Reveal</x:t>
+          </x:r>
+          <x:r>
+            <x:rPr>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t xml:space="preserve">
+</x:t>
+          </x:r>
+          <x:r>
+            <x:rPr>
+              <x:b/>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t>Note</x:t>
+          </x:r>
+          <x:r>
+            <x:rPr>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t>:  For additional guidance regarding the use of Reveal, refer to the Performing Substantive Analytical Procedures guide available in the Deloitte Technical Library.</x:t>
+          </x:r>
+        </x:is>
       </x:c>
       <x:c r="C10" s="91"/>
       <x:c r="D10" s="91"/>

--- a/Sandbox.OpenXML/DStarExport.xlsx
+++ b/Sandbox.OpenXML/DStarExport.xlsx
@@ -5827,8 +5827,8 @@
     </x:row>
     <x:row r="15" spans="1:10" ht="26">
       <x:c r="A15" s="2"/>
-      <x:c r="B15" s="111" t="s">
-        <x:v>35</x:v>
+      <x:c r="B15" s="111" t="str">
+        <x:v>1 Application Design</x:v>
       </x:c>
       <x:c r="C15" s="112"/>
       <x:c r="D15" s="112"/>
@@ -5841,8 +5841,8 @@
     </x:row>
     <x:row r="16" spans="1:10" ht="36" customHeight="1">
       <x:c r="A16" s="2"/>
-      <x:c r="B16" s="119" t="s">
-        <x:v>36</x:v>
+      <x:c r="B16" s="119" t="str">
+        <x:v>a)  Document the audit purpose and audit parameters used (e.g., risk(s) of material misstatement, account and related assertion(s) tested, performance materiality, testing strategy).</x:v>
       </x:c>
       <x:c r="C16" s="120"/>
       <x:c r="D16" s="120"/>
@@ -5855,8 +5855,30 @@
     </x:row>
     <x:row r="17" spans="1:10" ht="49" customHeight="1">
       <x:c r="A17" s="2"/>
-      <x:c r="B17" s="87" t="s">
-        <x:v>38</x:v>
+      <x:c r="B17" s="87" t="inlineStr">
+        <x:is>
+          <x:r>
+            <x:rPr>
+              <x:b/>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t>[Note:</x:t>
+          </x:r>
+          <x:r>
+            <x:rPr>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t xml:space="preserve"> Consider the degree to which information may need to be disaggregated. For example, Reveal may be more effective when applied to financial information on individual sections of an operation or to financial statements of components of a diversified entity, than when applied to the financial statements of the entity as a whole.]</x:t>
+          </x:r>
+        </x:is>
       </x:c>
       <x:c r="C17" s="88"/>
       <x:c r="D17" s="88"/>
@@ -5869,8 +5891,8 @@
     </x:row>
     <x:row r="18" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A18" s="2"/>
-      <x:c r="B18" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B18" s="117" t="str">
+        <x:v>Comments:</x:v>
       </x:c>
       <x:c r="C18" s="118"/>
       <x:c r="D18" s="28"/>
@@ -5878,8 +5900,8 @@
       <x:c r="F18" s="28"/>
       <x:c r="G18" s="28"/>
       <x:c r="H18" s="28"/>
-      <x:c r="I18" s="29" t="s">
-        <x:v>37</x:v>
+      <x:c r="I18" s="29" t="str">
+        <x:v>See Data Model Sheet</x:v>
       </x:c>
       <x:c r="J18" s="2"/>
     </x:row>

--- a/Sandbox.OpenXML/DStarExport.xlsx
+++ b/Sandbox.OpenXML/DStarExport.xlsx
@@ -2,9 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
   <x:sheets>
-    <x:sheet name="Overview" sheetId="1" r:id="Sequence1_rId1"/>
-    <x:sheet name="Data Model" sheetId="2" r:id="Sequence1_rId2"/>
-    <x:sheet name="Results Report" sheetId="3" r:id="Sequence1_rId3"/>
+    <x:sheet name="Overview1" sheetId="1" r:id="Sequence1_rId1"/>
+    <x:sheet name="Data Model1" sheetId="2" r:id="Sequence1_rId2"/>
+    <x:sheet name="Results Report1" sheetId="3" r:id="Sequence1_rId3"/>
+    <x:sheet name="Overview2" sheetId="4" r:id="Sequence2_rId1"/>
+    <x:sheet name="Data Model2" sheetId="5" r:id="Sequence2_rId2"/>
+    <x:sheet name="Results Report2" sheetId="6" r:id="Sequence2_rId3"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -2230,6 +2233,429 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>82404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>824661</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>126030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="32250" b="34913"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="82404"/>
+          <a:ext cx="1827961" cy="450026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6769100" y="114300"/>
+          <a:ext cx="1631650" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Deloitte Reveal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>82404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>265861</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>126030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="32250" b="34913"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="82404"/>
+          <a:ext cx="1827961" cy="450026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1060150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6769100" y="114300"/>
+          <a:ext cx="1631650" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Deloitte Reveal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>82404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>265861</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>126030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="32250" b="34913"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="82404"/>
+          <a:ext cx="1827961" cy="450026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1060150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6769100" y="114300"/>
+          <a:ext cx="1631650" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Deloitte Reveal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>82404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>824661</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>126030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="32250" b="34913"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="82404"/>
+          <a:ext cx="1827961" cy="450026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6769100" y="114300"/>
+          <a:ext cx="1631650" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Deloitte Reveal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:dimension ref="A1:J86"/>
@@ -6828,21 +7254,4644 @@
   </x:mergeCells>
   <x:phoneticPr fontId="3" type="noConversion"/>
   <x:hyperlinks>
-    <x:hyperlink ref="I23" location="'Data Model'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I18" location="'Data Model'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I21" location="'Data Model'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I34" location="'Data Model'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I51" location="'Data Model'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I43" location="'Data Model'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I49" location="'Data Model'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I53" location="'Results Report'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I57" location="'Data Model'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I55" location="'Results Report'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I61" location="'Results Report'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I63" location="'Results Report'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I66" location="'Results Report'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I70" location="'Results Report'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I74" location="'Data Model'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I23" location="'Data Model1'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I18" location="'Data Model1'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I21" location="'Data Model1'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I34" location="'Data Model1'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I51" location="'Data Model1'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I43" location="'Data Model1'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I49" location="'Data Model1'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I53" location="'Results Report1'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I57" location="'Data Model1'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I55" location="'Results Report1'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I61" location="'Results Report1'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I63" location="'Results Report1'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I66" location="'Results Report1'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I70" location="'Results Report1'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I74" location="'Data Model1'!A1" display="See Data Model Sheet"/>
+  </x:hyperlinks>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup scale="76" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <x:colBreaks count="1" manualBreakCount="1">
+    <x:brk id="10" max="1048575" man="1"/>
+  </x:colBreaks>
+  <x:drawing r:id="rId1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:dimension ref="A1:J86"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <x:cols>
+    <x:col min="1" max="1" width="4" customWidth="1"/>
+    <x:col min="2" max="2" width="9.1640625" style="5" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="9" width="13.33203125" customWidth="1"/>
+    <x:col min="10" max="10" width="4" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:10">
+      <x:c r="A1" s="1"/>
+      <x:c r="B1" s="3"/>
+      <x:c r="C1" s="1"/>
+      <x:c r="D1" s="1"/>
+      <x:c r="E1" s="1"/>
+      <x:c r="F1" s="1"/>
+      <x:c r="G1" s="1"/>
+      <x:c r="H1" s="1"/>
+      <x:c r="I1" s="1"/>
+      <x:c r="J1" s="1"/>
+    </x:row>
+    <x:row r="2" spans="1:10">
+      <x:c r="A2" s="1"/>
+      <x:c r="B2" s="3"/>
+      <x:c r="C2" s="1"/>
+      <x:c r="D2" s="1"/>
+      <x:c r="E2" s="1"/>
+      <x:c r="F2" s="1"/>
+      <x:c r="G2" s="1"/>
+      <x:c r="H2" s="1"/>
+      <x:c r="I2" s="1"/>
+      <x:c r="J2" s="1"/>
+    </x:row>
+    <x:row r="3" spans="1:10">
+      <x:c r="A3" s="1"/>
+      <x:c r="B3" s="3"/>
+      <x:c r="C3" s="1"/>
+      <x:c r="D3" s="1"/>
+      <x:c r="E3" s="1"/>
+      <x:c r="F3" s="1"/>
+      <x:c r="G3" s="1"/>
+      <x:c r="H3" s="1"/>
+      <x:c r="I3" s="1"/>
+      <x:c r="J3" s="1"/>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="24" customHeight="1" thickBot="1">
+      <x:c r="A4" s="2"/>
+      <x:c r="B4" s="4"/>
+      <x:c r="C4" s="2"/>
+      <x:c r="D4" s="2"/>
+      <x:c r="E4" s="2"/>
+      <x:c r="F4" s="2"/>
+      <x:c r="G4" s="2"/>
+      <x:c r="H4" s="2"/>
+      <x:c r="I4" s="2"/>
+      <x:c r="J4" s="2"/>
+    </x:row>
+    <x:row r="5" spans="1:10" ht="26.5" thickTop="1">
+      <x:c r="A5" s="2"/>
+      <x:c r="B5" s="157" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C5" s="158"/>
+      <x:c r="D5" s="158"/>
+      <x:c r="E5" s="158"/>
+      <x:c r="F5" s="158"/>
+      <x:c r="G5" s="158"/>
+      <x:c r="H5" s="158"/>
+      <x:c r="I5" s="159"/>
+      <x:c r="J5" s="2"/>
+    </x:row>
+    <x:row r="6" spans="1:10">
+      <x:c r="A6" s="2"/>
+      <x:c r="B6" s="154" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C6" s="155"/>
+      <x:c r="D6" s="155"/>
+      <x:c r="E6" s="155"/>
+      <x:c r="F6" s="155"/>
+      <x:c r="G6" s="155"/>
+      <x:c r="H6" s="155"/>
+      <x:c r="I6" s="156"/>
+      <x:c r="J6" s="2"/>
+    </x:row>
+    <x:row r="7" spans="1:10" ht="21">
+      <x:c r="A7" s="2"/>
+      <x:c r="B7" s="160" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C7" s="161"/>
+      <x:c r="D7" s="161"/>
+      <x:c r="E7" s="161"/>
+      <x:c r="F7" s="161"/>
+      <x:c r="G7" s="161"/>
+      <x:c r="H7" s="161"/>
+      <x:c r="I7" s="162"/>
+      <x:c r="J7" s="2"/>
+    </x:row>
+    <x:row r="8" spans="1:10" ht="21">
+      <x:c r="A8" s="2"/>
+      <x:c r="B8" s="14"/>
+      <x:c r="C8" s="15"/>
+      <x:c r="D8" s="15"/>
+      <x:c r="E8" s="15"/>
+      <x:c r="F8" s="15"/>
+      <x:c r="G8" s="15"/>
+      <x:c r="H8" s="15"/>
+      <x:c r="I8" s="16"/>
+      <x:c r="J8" s="2"/>
+    </x:row>
+    <x:row r="9" spans="1:10" ht="42" customHeight="1">
+      <x:c r="A9" s="2"/>
+      <x:c r="B9" s="17"/>
+      <x:c r="C9" s="170" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D9" s="169"/>
+      <x:c r="E9" s="169" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F9" s="169"/>
+      <x:c r="G9" s="165" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H9" s="166"/>
+      <x:c r="I9" s="18"/>
+      <x:c r="J9" s="2"/>
+    </x:row>
+    <x:row r="10" spans="1:10" ht="21">
+      <x:c r="A10" s="2"/>
+      <x:c r="B10" s="17"/>
+      <x:c r="C10" s="163">
+        <x:v>1250</x:v>
+      </x:c>
+      <x:c r="D10" s="164"/>
+      <x:c r="E10" s="164">
+        <x:v>5722</x:v>
+      </x:c>
+      <x:c r="F10" s="164"/>
+      <x:c r="G10" s="167">
+        <x:v>0.91500000000000004</x:v>
+      </x:c>
+      <x:c r="H10" s="168"/>
+      <x:c r="I10" s="18"/>
+      <x:c r="J10" s="2"/>
+    </x:row>
+    <x:row r="11" spans="1:10">
+      <x:c r="A11" s="2"/>
+      <x:c r="B11" s="20"/>
+      <x:c r="C11" s="8"/>
+      <x:c r="D11" s="8"/>
+      <x:c r="E11" s="21"/>
+      <x:c r="F11" s="21"/>
+      <x:c r="G11" s="21"/>
+      <x:c r="H11" s="21"/>
+      <x:c r="I11" s="10"/>
+      <x:c r="J11" s="2"/>
+    </x:row>
+    <x:row r="12" spans="1:10">
+      <x:c r="A12" s="2"/>
+      <x:c r="B12" s="20"/>
+      <x:c r="C12" s="21"/>
+      <x:c r="D12" s="21"/>
+      <x:c r="E12" s="21"/>
+      <x:c r="F12" s="152" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G12" s="152"/>
+      <x:c r="H12" s="152" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I12" s="153"/>
+      <x:c r="J12" s="2"/>
+    </x:row>
+    <x:row r="13" spans="1:10" ht="46" customHeight="1">
+      <x:c r="A13" s="2"/>
+      <x:c r="B13" s="6" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C13" s="25" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D13" s="25" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E13" s="25" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F13" s="12" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G13" s="12" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H13" s="12" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="I13" s="13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J13" s="2"/>
+    </x:row>
+    <x:row r="14" spans="1:10">
+      <x:c r="A14" s="2"/>
+      <x:c r="B14" s="20">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C14" s="8">
+        <x:v>19215</x:v>
+      </x:c>
+      <x:c r="D14" s="8">
+        <x:v>19367</x:v>
+      </x:c>
+      <x:c r="E14" s="21">
+        <x:v>-152</x:v>
+      </x:c>
+      <x:c r="F14" s="21">
+        <x:v>-718</x:v>
+      </x:c>
+      <x:c r="G14" s="21">
+        <x:v>718</x:v>
+      </x:c>
+      <x:c r="H14" s="21"/>
+      <x:c r="I14" s="10"/>
+      <x:c r="J14" s="2"/>
+    </x:row>
+    <x:row r="15" spans="1:10">
+      <x:c r="A15" s="2"/>
+      <x:c r="B15" s="20">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C15" s="8">
+        <x:v>18011</x:v>
+      </x:c>
+      <x:c r="D15" s="8">
+        <x:v>17368</x:v>
+      </x:c>
+      <x:c r="E15" s="21">
+        <x:v>643</x:v>
+      </x:c>
+      <x:c r="F15" s="21">
+        <x:v>-718</x:v>
+      </x:c>
+      <x:c r="G15" s="21">
+        <x:v>718</x:v>
+      </x:c>
+      <x:c r="H15" s="21"/>
+      <x:c r="I15" s="10"/>
+      <x:c r="J15" s="2"/>
+    </x:row>
+    <x:row r="16" spans="1:10">
+      <x:c r="A16" s="2"/>
+      <x:c r="B16" s="20">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C16" s="8">
+        <x:v>21778</x:v>
+      </x:c>
+      <x:c r="D16" s="8">
+        <x:v>20919</x:v>
+      </x:c>
+      <x:c r="E16" s="21">
+        <x:v>859</x:v>
+      </x:c>
+      <x:c r="F16" s="21">
+        <x:v>-715</x:v>
+      </x:c>
+      <x:c r="G16" s="21">
+        <x:v>715</x:v>
+      </x:c>
+      <x:c r="H16" s="21"/>
+      <x:c r="I16" s="10">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="J16" s="2"/>
+    </x:row>
+    <x:row r="17" spans="1:10">
+      <x:c r="A17" s="2"/>
+      <x:c r="B17" s="20">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C17" s="8">
+        <x:v>18513</x:v>
+      </x:c>
+      <x:c r="D17" s="8">
+        <x:v>17389</x:v>
+      </x:c>
+      <x:c r="E17" s="8">
+        <x:v>1124</x:v>
+      </x:c>
+      <x:c r="F17" s="21">
+        <x:v>-718</x:v>
+      </x:c>
+      <x:c r="G17" s="21">
+        <x:v>718</x:v>
+      </x:c>
+      <x:c r="H17" s="21"/>
+      <x:c r="I17" s="10">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="J17" s="2"/>
+    </x:row>
+    <x:row r="18" spans="1:10">
+      <x:c r="A18" s="2"/>
+      <x:c r="B18" s="20">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C18" s="8">
+        <x:v>17524</x:v>
+      </x:c>
+      <x:c r="D18" s="8">
+        <x:v>16863</x:v>
+      </x:c>
+      <x:c r="E18" s="21">
+        <x:v>661</x:v>
+      </x:c>
+      <x:c r="F18" s="21">
+        <x:v>-718</x:v>
+      </x:c>
+      <x:c r="G18" s="21">
+        <x:v>718</x:v>
+      </x:c>
+      <x:c r="H18" s="21"/>
+      <x:c r="I18" s="10"/>
+      <x:c r="J18" s="2"/>
+    </x:row>
+    <x:row r="19" spans="1:10">
+      <x:c r="A19" s="2"/>
+      <x:c r="B19" s="20">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C19" s="8">
+        <x:v>21429</x:v>
+      </x:c>
+      <x:c r="D19" s="8">
+        <x:v>21997</x:v>
+      </x:c>
+      <x:c r="E19" s="21">
+        <x:v>-568</x:v>
+      </x:c>
+      <x:c r="F19" s="21">
+        <x:v>-710</x:v>
+      </x:c>
+      <x:c r="G19" s="21">
+        <x:v>710</x:v>
+      </x:c>
+      <x:c r="H19" s="21"/>
+      <x:c r="I19" s="10"/>
+      <x:c r="J19" s="2"/>
+    </x:row>
+    <x:row r="20" spans="1:10">
+      <x:c r="A20" s="2"/>
+      <x:c r="B20" s="20">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C20" s="8">
+        <x:v>18966</x:v>
+      </x:c>
+      <x:c r="D20" s="8">
+        <x:v>18737</x:v>
+      </x:c>
+      <x:c r="E20" s="21">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="F20" s="21">
+        <x:v>-719</x:v>
+      </x:c>
+      <x:c r="G20" s="21">
+        <x:v>719</x:v>
+      </x:c>
+      <x:c r="H20" s="21"/>
+      <x:c r="I20" s="10"/>
+      <x:c r="J20" s="2"/>
+    </x:row>
+    <x:row r="21" spans="1:10">
+      <x:c r="A21" s="2"/>
+      <x:c r="B21" s="20">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C21" s="8">
+        <x:v>15820</x:v>
+      </x:c>
+      <x:c r="D21" s="8">
+        <x:v>16384</x:v>
+      </x:c>
+      <x:c r="E21" s="21">
+        <x:v>-564</x:v>
+      </x:c>
+      <x:c r="F21" s="21">
+        <x:v>-717</x:v>
+      </x:c>
+      <x:c r="G21" s="21">
+        <x:v>717</x:v>
+      </x:c>
+      <x:c r="H21" s="21"/>
+      <x:c r="I21" s="10"/>
+      <x:c r="J21" s="2"/>
+    </x:row>
+    <x:row r="22" spans="1:10">
+      <x:c r="A22" s="2"/>
+      <x:c r="B22" s="20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C22" s="8">
+        <x:v>23880</x:v>
+      </x:c>
+      <x:c r="D22" s="8">
+        <x:v>22155</x:v>
+      </x:c>
+      <x:c r="E22" s="8">
+        <x:v>1725</x:v>
+      </x:c>
+      <x:c r="F22" s="21">
+        <x:v>-708</x:v>
+      </x:c>
+      <x:c r="G22" s="21">
+        <x:v>708</x:v>
+      </x:c>
+      <x:c r="H22" s="21"/>
+      <x:c r="I22" s="11">
+        <x:v>1017</x:v>
+      </x:c>
+      <x:c r="J22" s="2"/>
+    </x:row>
+    <x:row r="23" spans="1:10">
+      <x:c r="A23" s="2"/>
+      <x:c r="B23" s="20">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C23" s="8">
+        <x:v>22081</x:v>
+      </x:c>
+      <x:c r="D23" s="8">
+        <x:v>20514</x:v>
+      </x:c>
+      <x:c r="E23" s="8">
+        <x:v>1567</x:v>
+      </x:c>
+      <x:c r="F23" s="21">
+        <x:v>-716</x:v>
+      </x:c>
+      <x:c r="G23" s="21">
+        <x:v>716</x:v>
+      </x:c>
+      <x:c r="H23" s="21"/>
+      <x:c r="I23" s="10">
+        <x:v>850</x:v>
+      </x:c>
+      <x:c r="J23" s="2"/>
+    </x:row>
+    <x:row r="24" spans="1:10">
+      <x:c r="A24" s="2"/>
+      <x:c r="B24" s="20">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C24" s="8">
+        <x:v>22107</x:v>
+      </x:c>
+      <x:c r="D24" s="8">
+        <x:v>21434</x:v>
+      </x:c>
+      <x:c r="E24" s="21">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="F24" s="21">
+        <x:v>-713</x:v>
+      </x:c>
+      <x:c r="G24" s="21">
+        <x:v>713</x:v>
+      </x:c>
+      <x:c r="H24" s="21"/>
+      <x:c r="I24" s="10"/>
+      <x:c r="J24" s="2"/>
+    </x:row>
+    <x:row r="25" spans="1:10">
+      <x:c r="A25" s="2"/>
+      <x:c r="B25" s="20">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C25" s="8">
+        <x:v>18538</x:v>
+      </x:c>
+      <x:c r="D25" s="8">
+        <x:v>19013</x:v>
+      </x:c>
+      <x:c r="E25" s="21">
+        <x:v>-475</x:v>
+      </x:c>
+      <x:c r="F25" s="21">
+        <x:v>-719</x:v>
+      </x:c>
+      <x:c r="G25" s="21">
+        <x:v>719</x:v>
+      </x:c>
+      <x:c r="H25" s="21"/>
+      <x:c r="I25" s="10"/>
+      <x:c r="J25" s="2"/>
+    </x:row>
+    <x:row r="26" spans="1:10">
+      <x:c r="A26" s="2"/>
+      <x:c r="B26" s="82" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C26" s="83">
+        <x:v>237862</x:v>
+      </x:c>
+      <x:c r="D26" s="83">
+        <x:v>232140</x:v>
+      </x:c>
+      <x:c r="E26" s="83">
+        <x:v>5722</x:v>
+      </x:c>
+      <x:c r="F26" s="83"/>
+      <x:c r="G26" s="83"/>
+      <x:c r="H26" s="83"/>
+      <x:c r="I26" s="84"/>
+      <x:c r="J26" s="2"/>
+    </x:row>
+    <x:row r="27" spans="1:10" ht="12" customHeight="1">
+      <x:c r="A27" s="2"/>
+      <x:c r="B27" s="6"/>
+      <x:c r="C27" s="61"/>
+      <x:c r="D27" s="61"/>
+      <x:c r="E27" s="61"/>
+      <x:c r="F27" s="61"/>
+      <x:c r="G27" s="61"/>
+      <x:c r="H27" s="61"/>
+      <x:c r="I27" s="10"/>
+      <x:c r="J27" s="2"/>
+    </x:row>
+    <x:row r="28" spans="1:10" ht="64" customHeight="1">
+      <x:c r="A28" s="2"/>
+      <x:c r="B28" s="171" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C28" s="172"/>
+      <x:c r="D28" s="172"/>
+      <x:c r="E28" s="172"/>
+      <x:c r="F28" s="172"/>
+      <x:c r="G28" s="172"/>
+      <x:c r="H28" s="172"/>
+      <x:c r="I28" s="173"/>
+      <x:c r="J28" s="2"/>
+    </x:row>
+    <x:row r="29" spans="1:10" ht="16" thickBot="1">
+      <x:c r="A29" s="2"/>
+      <x:c r="B29" s="22"/>
+      <x:c r="C29" s="23"/>
+      <x:c r="D29" s="23"/>
+      <x:c r="E29" s="23"/>
+      <x:c r="F29" s="23"/>
+      <x:c r="G29" s="23"/>
+      <x:c r="H29" s="23"/>
+      <x:c r="I29" s="24"/>
+      <x:c r="J29" s="2"/>
+    </x:row>
+    <x:row r="30" spans="1:10" ht="24" customHeight="1" thickBot="1">
+      <x:c r="A30" s="2"/>
+      <x:c r="B30" s="4"/>
+      <x:c r="C30" s="2"/>
+      <x:c r="D30" s="2"/>
+      <x:c r="E30" s="2"/>
+      <x:c r="F30" s="2"/>
+      <x:c r="G30" s="2"/>
+      <x:c r="H30" s="2"/>
+      <x:c r="I30" s="2"/>
+      <x:c r="J30" s="2"/>
+    </x:row>
+    <x:row r="31" spans="1:10" ht="26.5" thickTop="1">
+      <x:c r="A31" s="2"/>
+      <x:c r="B31" s="157" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C31" s="158"/>
+      <x:c r="D31" s="158"/>
+      <x:c r="E31" s="158"/>
+      <x:c r="F31" s="158"/>
+      <x:c r="G31" s="158"/>
+      <x:c r="H31" s="158"/>
+      <x:c r="I31" s="159"/>
+      <x:c r="J31" s="2"/>
+    </x:row>
+    <x:row r="32" spans="1:10">
+      <x:c r="A32" s="2"/>
+      <x:c r="B32" s="154" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C32" s="155"/>
+      <x:c r="D32" s="155"/>
+      <x:c r="E32" s="155"/>
+      <x:c r="F32" s="155"/>
+      <x:c r="G32" s="155"/>
+      <x:c r="H32" s="155"/>
+      <x:c r="I32" s="156"/>
+      <x:c r="J32" s="2"/>
+    </x:row>
+    <x:row r="33" spans="1:10">
+      <x:c r="A33" s="2"/>
+      <x:c r="B33" s="180" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C33" s="181"/>
+      <x:c r="D33" s="181"/>
+      <x:c r="E33" s="181"/>
+      <x:c r="F33" s="181"/>
+      <x:c r="G33" s="181"/>
+      <x:c r="H33" s="181"/>
+      <x:c r="I33" s="182"/>
+      <x:c r="J33" s="2"/>
+    </x:row>
+    <x:row r="34" spans="1:10">
+      <x:c r="A34" s="2"/>
+      <x:c r="B34" s="20"/>
+      <x:c r="C34" s="8"/>
+      <x:c r="D34" s="8"/>
+      <x:c r="E34" s="21"/>
+      <x:c r="F34" s="21"/>
+      <x:c r="G34" s="21"/>
+      <x:c r="H34" s="21"/>
+      <x:c r="I34" s="10"/>
+      <x:c r="J34" s="2"/>
+    </x:row>
+    <x:row r="35" spans="1:10">
+      <x:c r="A35" s="2"/>
+      <x:c r="B35" s="20"/>
+      <x:c r="C35" s="8" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D35" s="8" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E35" s="21" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F35" s="21"/>
+      <x:c r="G35" s="21"/>
+      <x:c r="H35" s="21"/>
+      <x:c r="I35" s="10"/>
+      <x:c r="J35" s="2"/>
+    </x:row>
+    <x:row r="36" spans="1:10">
+      <x:c r="A36" s="2"/>
+      <x:c r="B36" s="20">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C36" s="8">
+        <x:v>17789</x:v>
+      </x:c>
+      <x:c r="D36" s="8">
+        <x:v>19002</x:v>
+      </x:c>
+      <x:c r="E36" s="8">
+        <x:v>-1213</x:v>
+      </x:c>
+      <x:c r="F36" s="21"/>
+      <x:c r="G36" s="21"/>
+      <x:c r="H36" s="21"/>
+      <x:c r="I36" s="10"/>
+      <x:c r="J36" s="2"/>
+    </x:row>
+    <x:row r="37" spans="1:10">
+      <x:c r="A37" s="2"/>
+      <x:c r="B37" s="20">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C37" s="8">
+        <x:v>19417</x:v>
+      </x:c>
+      <x:c r="D37" s="8">
+        <x:v>19838</x:v>
+      </x:c>
+      <x:c r="E37" s="21">
+        <x:v>-421</x:v>
+      </x:c>
+      <x:c r="F37" s="21"/>
+      <x:c r="G37" s="21"/>
+      <x:c r="H37" s="21"/>
+      <x:c r="I37" s="10"/>
+      <x:c r="J37" s="2"/>
+    </x:row>
+    <x:row r="38" spans="1:10">
+      <x:c r="A38" s="2"/>
+      <x:c r="B38" s="20">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C38" s="8">
+        <x:v>22802</x:v>
+      </x:c>
+      <x:c r="D38" s="8">
+        <x:v>21172</x:v>
+      </x:c>
+      <x:c r="E38" s="8">
+        <x:v>1630</x:v>
+      </x:c>
+      <x:c r="F38" s="21"/>
+      <x:c r="G38" s="21"/>
+      <x:c r="H38" s="21"/>
+      <x:c r="I38" s="10"/>
+      <x:c r="J38" s="2"/>
+    </x:row>
+    <x:row r="39" spans="1:10">
+      <x:c r="A39" s="2"/>
+      <x:c r="B39" s="20">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C39" s="8">
+        <x:v>17825</x:v>
+      </x:c>
+      <x:c r="D39" s="8">
+        <x:v>17725</x:v>
+      </x:c>
+      <x:c r="E39" s="21">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F39" s="21"/>
+      <x:c r="G39" s="21"/>
+      <x:c r="H39" s="21"/>
+      <x:c r="I39" s="10"/>
+      <x:c r="J39" s="2"/>
+    </x:row>
+    <x:row r="40" spans="1:10">
+      <x:c r="A40" s="2"/>
+      <x:c r="B40" s="20">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C40" s="8">
+        <x:v>17816</x:v>
+      </x:c>
+      <x:c r="D40" s="8">
+        <x:v>18295</x:v>
+      </x:c>
+      <x:c r="E40" s="21">
+        <x:v>-479</x:v>
+      </x:c>
+      <x:c r="F40" s="21"/>
+      <x:c r="G40" s="21"/>
+      <x:c r="H40" s="21"/>
+      <x:c r="I40" s="10"/>
+      <x:c r="J40" s="2"/>
+    </x:row>
+    <x:row r="41" spans="1:10">
+      <x:c r="A41" s="2"/>
+      <x:c r="B41" s="20">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C41" s="8">
+        <x:v>15948</x:v>
+      </x:c>
+      <x:c r="D41" s="8">
+        <x:v>17865</x:v>
+      </x:c>
+      <x:c r="E41" s="8">
+        <x:v>-1917</x:v>
+      </x:c>
+      <x:c r="F41" s="21"/>
+      <x:c r="G41" s="21"/>
+      <x:c r="H41" s="21"/>
+      <x:c r="I41" s="10"/>
+      <x:c r="J41" s="2"/>
+    </x:row>
+    <x:row r="42" spans="1:10">
+      <x:c r="A42" s="2"/>
+      <x:c r="B42" s="20">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C42" s="8">
+        <x:v>18297</x:v>
+      </x:c>
+      <x:c r="D42" s="8">
+        <x:v>18412</x:v>
+      </x:c>
+      <x:c r="E42" s="21">
+        <x:v>-115</x:v>
+      </x:c>
+      <x:c r="F42" s="21"/>
+      <x:c r="G42" s="21"/>
+      <x:c r="H42" s="21"/>
+      <x:c r="I42" s="10"/>
+      <x:c r="J42" s="2"/>
+    </x:row>
+    <x:row r="43" spans="1:10">
+      <x:c r="A43" s="2"/>
+      <x:c r="B43" s="20">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C43" s="8">
+        <x:v>14586</x:v>
+      </x:c>
+      <x:c r="D43" s="8">
+        <x:v>15612</x:v>
+      </x:c>
+      <x:c r="E43" s="8">
+        <x:v>-1026</x:v>
+      </x:c>
+      <x:c r="F43" s="21"/>
+      <x:c r="G43" s="21"/>
+      <x:c r="H43" s="21"/>
+      <x:c r="I43" s="10"/>
+      <x:c r="J43" s="2"/>
+    </x:row>
+    <x:row r="44" spans="1:10">
+      <x:c r="A44" s="2"/>
+      <x:c r="B44" s="20">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C44" s="8">
+        <x:v>18617</x:v>
+      </x:c>
+      <x:c r="D44" s="8">
+        <x:v>17442</x:v>
+      </x:c>
+      <x:c r="E44" s="8">
+        <x:v>1175</x:v>
+      </x:c>
+      <x:c r="F44" s="21"/>
+      <x:c r="G44" s="21"/>
+      <x:c r="H44" s="21"/>
+      <x:c r="I44" s="10"/>
+      <x:c r="J44" s="2"/>
+    </x:row>
+    <x:row r="45" spans="1:10">
+      <x:c r="A45" s="2"/>
+      <x:c r="B45" s="20">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C45" s="8">
+        <x:v>21001</x:v>
+      </x:c>
+      <x:c r="D45" s="8">
+        <x:v>21115</x:v>
+      </x:c>
+      <x:c r="E45" s="21">
+        <x:v>-114</x:v>
+      </x:c>
+      <x:c r="F45" s="21"/>
+      <x:c r="G45" s="21"/>
+      <x:c r="H45" s="21"/>
+      <x:c r="I45" s="10"/>
+      <x:c r="J45" s="2"/>
+    </x:row>
+    <x:row r="46" spans="1:10">
+      <x:c r="A46" s="2"/>
+      <x:c r="B46" s="20">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C46" s="8">
+        <x:v>18619</x:v>
+      </x:c>
+      <x:c r="D46" s="8">
+        <x:v>18079</x:v>
+      </x:c>
+      <x:c r="E46" s="21">
+        <x:v>540</x:v>
+      </x:c>
+      <x:c r="F46" s="21"/>
+      <x:c r="G46" s="21"/>
+      <x:c r="H46" s="21"/>
+      <x:c r="I46" s="10"/>
+      <x:c r="J46" s="2"/>
+    </x:row>
+    <x:row r="47" spans="1:10">
+      <x:c r="A47" s="2"/>
+      <x:c r="B47" s="20">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C47" s="8">
+        <x:v>16125</x:v>
+      </x:c>
+      <x:c r="D47" s="8">
+        <x:v>15578</x:v>
+      </x:c>
+      <x:c r="E47" s="21">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c r="F47" s="21"/>
+      <x:c r="G47" s="21"/>
+      <x:c r="H47" s="21"/>
+      <x:c r="I47" s="10"/>
+      <x:c r="J47" s="2"/>
+    </x:row>
+    <x:row r="48" spans="1:10">
+      <x:c r="A48" s="2"/>
+      <x:c r="B48" s="20">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C48" s="8">
+        <x:v>18642</x:v>
+      </x:c>
+      <x:c r="D48" s="8">
+        <x:v>19872</x:v>
+      </x:c>
+      <x:c r="E48" s="8">
+        <x:v>-1230</x:v>
+      </x:c>
+      <x:c r="F48" s="21"/>
+      <x:c r="G48" s="21"/>
+      <x:c r="H48" s="21"/>
+      <x:c r="I48" s="10"/>
+      <x:c r="J48" s="2"/>
+    </x:row>
+    <x:row r="49" spans="1:10">
+      <x:c r="A49" s="2"/>
+      <x:c r="B49" s="20">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C49" s="8">
+        <x:v>18680</x:v>
+      </x:c>
+      <x:c r="D49" s="8">
+        <x:v>18682</x:v>
+      </x:c>
+      <x:c r="E49" s="21">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="F49" s="21"/>
+      <x:c r="G49" s="21"/>
+      <x:c r="H49" s="21"/>
+      <x:c r="I49" s="10"/>
+      <x:c r="J49" s="2"/>
+    </x:row>
+    <x:row r="50" spans="1:10">
+      <x:c r="A50" s="2"/>
+      <x:c r="B50" s="20">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C50" s="8">
+        <x:v>19234</x:v>
+      </x:c>
+      <x:c r="D50" s="8">
+        <x:v>19623</x:v>
+      </x:c>
+      <x:c r="E50" s="21">
+        <x:v>-389</x:v>
+      </x:c>
+      <x:c r="F50" s="21"/>
+      <x:c r="G50" s="21"/>
+      <x:c r="H50" s="21"/>
+      <x:c r="I50" s="10"/>
+      <x:c r="J50" s="2"/>
+    </x:row>
+    <x:row r="51" spans="1:10">
+      <x:c r="A51" s="2"/>
+      <x:c r="B51" s="20">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C51" s="8">
+        <x:v>18741</x:v>
+      </x:c>
+      <x:c r="D51" s="8">
+        <x:v>17839</x:v>
+      </x:c>
+      <x:c r="E51" s="21">
+        <x:v>902</x:v>
+      </x:c>
+      <x:c r="F51" s="21"/>
+      <x:c r="G51" s="21"/>
+      <x:c r="H51" s="21"/>
+      <x:c r="I51" s="10"/>
+      <x:c r="J51" s="2"/>
+    </x:row>
+    <x:row r="52" spans="1:10">
+      <x:c r="A52" s="2"/>
+      <x:c r="B52" s="20">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C52" s="8">
+        <x:v>17942</x:v>
+      </x:c>
+      <x:c r="D52" s="8">
+        <x:v>16783</x:v>
+      </x:c>
+      <x:c r="E52" s="8">
+        <x:v>1159</x:v>
+      </x:c>
+      <x:c r="F52" s="21"/>
+      <x:c r="G52" s="21"/>
+      <x:c r="H52" s="21"/>
+      <x:c r="I52" s="10"/>
+      <x:c r="J52" s="2"/>
+    </x:row>
+    <x:row r="53" spans="1:10">
+      <x:c r="A53" s="2"/>
+      <x:c r="B53" s="20">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C53" s="8">
+        <x:v>20341</x:v>
+      </x:c>
+      <x:c r="D53" s="8">
+        <x:v>20215</x:v>
+      </x:c>
+      <x:c r="E53" s="21">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="F53" s="21"/>
+      <x:c r="G53" s="21"/>
+      <x:c r="H53" s="21"/>
+      <x:c r="I53" s="10"/>
+      <x:c r="J53" s="2"/>
+    </x:row>
+    <x:row r="54" spans="1:10">
+      <x:c r="A54" s="2"/>
+      <x:c r="B54" s="20">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C54" s="8">
+        <x:v>17436</x:v>
+      </x:c>
+      <x:c r="D54" s="8">
+        <x:v>17414</x:v>
+      </x:c>
+      <x:c r="E54" s="21">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F54" s="21"/>
+      <x:c r="G54" s="21"/>
+      <x:c r="H54" s="21"/>
+      <x:c r="I54" s="10"/>
+      <x:c r="J54" s="2"/>
+    </x:row>
+    <x:row r="55" spans="1:10">
+      <x:c r="A55" s="2"/>
+      <x:c r="B55" s="20">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C55" s="8">
+        <x:v>13984</x:v>
+      </x:c>
+      <x:c r="D55" s="8">
+        <x:v>14362</x:v>
+      </x:c>
+      <x:c r="E55" s="21">
+        <x:v>-378</x:v>
+      </x:c>
+      <x:c r="F55" s="21"/>
+      <x:c r="G55" s="21"/>
+      <x:c r="H55" s="21"/>
+      <x:c r="I55" s="10"/>
+      <x:c r="J55" s="2"/>
+    </x:row>
+    <x:row r="56" spans="1:10">
+      <x:c r="A56" s="2"/>
+      <x:c r="B56" s="20">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C56" s="8">
+        <x:v>18711</x:v>
+      </x:c>
+      <x:c r="D56" s="8">
+        <x:v>18132</x:v>
+      </x:c>
+      <x:c r="E56" s="21">
+        <x:v>579</x:v>
+      </x:c>
+      <x:c r="F56" s="21"/>
+      <x:c r="G56" s="21"/>
+      <x:c r="H56" s="21"/>
+      <x:c r="I56" s="10"/>
+      <x:c r="J56" s="2"/>
+    </x:row>
+    <x:row r="57" spans="1:10">
+      <x:c r="A57" s="2"/>
+      <x:c r="B57" s="20">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C57" s="8">
+        <x:v>22672</x:v>
+      </x:c>
+      <x:c r="D57" s="8">
+        <x:v>22949</x:v>
+      </x:c>
+      <x:c r="E57" s="21">
+        <x:v>-277</x:v>
+      </x:c>
+      <x:c r="F57" s="21"/>
+      <x:c r="G57" s="21"/>
+      <x:c r="H57" s="21"/>
+      <x:c r="I57" s="10"/>
+      <x:c r="J57" s="2"/>
+    </x:row>
+    <x:row r="58" spans="1:10">
+      <x:c r="A58" s="2"/>
+      <x:c r="B58" s="20">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C58" s="8">
+        <x:v>19511</x:v>
+      </x:c>
+      <x:c r="D58" s="8">
+        <x:v>18514</x:v>
+      </x:c>
+      <x:c r="E58" s="21">
+        <x:v>997</x:v>
+      </x:c>
+      <x:c r="F58" s="21"/>
+      <x:c r="G58" s="21"/>
+      <x:c r="H58" s="21"/>
+      <x:c r="I58" s="10"/>
+      <x:c r="J58" s="2"/>
+    </x:row>
+    <x:row r="59" spans="1:10">
+      <x:c r="A59" s="2"/>
+      <x:c r="B59" s="20">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C59" s="8">
+        <x:v>16634</x:v>
+      </x:c>
+      <x:c r="D59" s="8">
+        <x:v>16852</x:v>
+      </x:c>
+      <x:c r="E59" s="21">
+        <x:v>-218</x:v>
+      </x:c>
+      <x:c r="F59" s="21"/>
+      <x:c r="G59" s="21"/>
+      <x:c r="H59" s="21"/>
+      <x:c r="I59" s="10"/>
+      <x:c r="J59" s="2"/>
+    </x:row>
+    <x:row r="60" spans="1:10">
+      <x:c r="A60" s="2"/>
+      <x:c r="B60" s="20">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C60" s="8">
+        <x:v>19215</x:v>
+      </x:c>
+      <x:c r="D60" s="8">
+        <x:v>19367</x:v>
+      </x:c>
+      <x:c r="E60" s="21">
+        <x:v>-152</x:v>
+      </x:c>
+      <x:c r="F60" s="21"/>
+      <x:c r="G60" s="21"/>
+      <x:c r="H60" s="21"/>
+      <x:c r="I60" s="10"/>
+      <x:c r="J60" s="2"/>
+    </x:row>
+    <x:row r="61" spans="1:10">
+      <x:c r="A61" s="2"/>
+      <x:c r="B61" s="20">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C61" s="8">
+        <x:v>18011</x:v>
+      </x:c>
+      <x:c r="D61" s="8">
+        <x:v>17368</x:v>
+      </x:c>
+      <x:c r="E61" s="21">
+        <x:v>643</x:v>
+      </x:c>
+      <x:c r="F61" s="21"/>
+      <x:c r="G61" s="21"/>
+      <x:c r="H61" s="21"/>
+      <x:c r="I61" s="10"/>
+      <x:c r="J61" s="2"/>
+    </x:row>
+    <x:row r="62" spans="1:10">
+      <x:c r="A62" s="2"/>
+      <x:c r="B62" s="20">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C62" s="8">
+        <x:v>21778</x:v>
+      </x:c>
+      <x:c r="D62" s="8">
+        <x:v>20919</x:v>
+      </x:c>
+      <x:c r="E62" s="21">
+        <x:v>859</x:v>
+      </x:c>
+      <x:c r="F62" s="21"/>
+      <x:c r="G62" s="21"/>
+      <x:c r="H62" s="21"/>
+      <x:c r="I62" s="10"/>
+      <x:c r="J62" s="2"/>
+    </x:row>
+    <x:row r="63" spans="1:10">
+      <x:c r="A63" s="2"/>
+      <x:c r="B63" s="20">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C63" s="8">
+        <x:v>18513</x:v>
+      </x:c>
+      <x:c r="D63" s="8">
+        <x:v>17389</x:v>
+      </x:c>
+      <x:c r="E63" s="8">
+        <x:v>1124</x:v>
+      </x:c>
+      <x:c r="F63" s="21"/>
+      <x:c r="G63" s="21"/>
+      <x:c r="H63" s="21"/>
+      <x:c r="I63" s="10"/>
+      <x:c r="J63" s="2"/>
+    </x:row>
+    <x:row r="64" spans="1:10">
+      <x:c r="A64" s="2"/>
+      <x:c r="B64" s="20">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C64" s="8">
+        <x:v>17524</x:v>
+      </x:c>
+      <x:c r="D64" s="8">
+        <x:v>16863</x:v>
+      </x:c>
+      <x:c r="E64" s="21">
+        <x:v>661</x:v>
+      </x:c>
+      <x:c r="F64" s="21"/>
+      <x:c r="G64" s="21"/>
+      <x:c r="H64" s="21"/>
+      <x:c r="I64" s="10"/>
+      <x:c r="J64" s="2"/>
+    </x:row>
+    <x:row r="65" spans="1:10">
+      <x:c r="A65" s="2"/>
+      <x:c r="B65" s="20">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C65" s="8">
+        <x:v>21429</x:v>
+      </x:c>
+      <x:c r="D65" s="8">
+        <x:v>21997</x:v>
+      </x:c>
+      <x:c r="E65" s="21">
+        <x:v>-568</x:v>
+      </x:c>
+      <x:c r="F65" s="21"/>
+      <x:c r="G65" s="21"/>
+      <x:c r="H65" s="21"/>
+      <x:c r="I65" s="10"/>
+      <x:c r="J65" s="2"/>
+    </x:row>
+    <x:row r="66" spans="1:10">
+      <x:c r="A66" s="2"/>
+      <x:c r="B66" s="20">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C66" s="8">
+        <x:v>18966</x:v>
+      </x:c>
+      <x:c r="D66" s="8">
+        <x:v>18737</x:v>
+      </x:c>
+      <x:c r="E66" s="21">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="F66" s="21"/>
+      <x:c r="G66" s="21"/>
+      <x:c r="H66" s="21"/>
+      <x:c r="I66" s="10"/>
+      <x:c r="J66" s="2"/>
+    </x:row>
+    <x:row r="67" spans="1:10">
+      <x:c r="A67" s="2"/>
+      <x:c r="B67" s="20">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C67" s="8">
+        <x:v>15820</x:v>
+      </x:c>
+      <x:c r="D67" s="8">
+        <x:v>16384</x:v>
+      </x:c>
+      <x:c r="E67" s="21">
+        <x:v>-564</x:v>
+      </x:c>
+      <x:c r="F67" s="21"/>
+      <x:c r="G67" s="21"/>
+      <x:c r="H67" s="21"/>
+      <x:c r="I67" s="10"/>
+      <x:c r="J67" s="2"/>
+    </x:row>
+    <x:row r="68" spans="1:10">
+      <x:c r="A68" s="2"/>
+      <x:c r="B68" s="20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C68" s="8">
+        <x:v>23880</x:v>
+      </x:c>
+      <x:c r="D68" s="8">
+        <x:v>22155</x:v>
+      </x:c>
+      <x:c r="E68" s="8">
+        <x:v>1725</x:v>
+      </x:c>
+      <x:c r="F68" s="21"/>
+      <x:c r="G68" s="21"/>
+      <x:c r="H68" s="21"/>
+      <x:c r="I68" s="10"/>
+      <x:c r="J68" s="2"/>
+    </x:row>
+    <x:row r="69" spans="1:10">
+      <x:c r="A69" s="2"/>
+      <x:c r="B69" s="20">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C69" s="8">
+        <x:v>22081</x:v>
+      </x:c>
+      <x:c r="D69" s="8">
+        <x:v>20514</x:v>
+      </x:c>
+      <x:c r="E69" s="8">
+        <x:v>1567</x:v>
+      </x:c>
+      <x:c r="F69" s="21"/>
+      <x:c r="G69" s="21"/>
+      <x:c r="H69" s="21"/>
+      <x:c r="I69" s="10"/>
+      <x:c r="J69" s="2"/>
+    </x:row>
+    <x:row r="70" spans="1:10">
+      <x:c r="A70" s="2"/>
+      <x:c r="B70" s="20">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C70" s="8">
+        <x:v>22107</x:v>
+      </x:c>
+      <x:c r="D70" s="8">
+        <x:v>21434</x:v>
+      </x:c>
+      <x:c r="E70" s="21">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="F70" s="21"/>
+      <x:c r="G70" s="21"/>
+      <x:c r="H70" s="21"/>
+      <x:c r="I70" s="10"/>
+      <x:c r="J70" s="2"/>
+    </x:row>
+    <x:row r="71" spans="1:10">
+      <x:c r="A71" s="2"/>
+      <x:c r="B71" s="20">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C71" s="8">
+        <x:v>18538</x:v>
+      </x:c>
+      <x:c r="D71" s="8">
+        <x:v>19013</x:v>
+      </x:c>
+      <x:c r="E71" s="21">
+        <x:v>-475</x:v>
+      </x:c>
+      <x:c r="F71" s="21"/>
+      <x:c r="G71" s="21"/>
+      <x:c r="H71" s="21"/>
+      <x:c r="I71" s="10"/>
+      <x:c r="J71" s="2"/>
+    </x:row>
+    <x:row r="72" spans="1:10" ht="16" thickBot="1">
+      <x:c r="A72" s="2"/>
+      <x:c r="B72" s="22"/>
+      <x:c r="C72" s="23"/>
+      <x:c r="D72" s="23"/>
+      <x:c r="E72" s="23"/>
+      <x:c r="F72" s="23"/>
+      <x:c r="G72" s="23"/>
+      <x:c r="H72" s="23"/>
+      <x:c r="I72" s="24"/>
+      <x:c r="J72" s="2"/>
+    </x:row>
+    <x:row r="73" spans="1:10" ht="24" customHeight="1" thickBot="1">
+      <x:c r="A73" s="2"/>
+      <x:c r="B73" s="2"/>
+      <x:c r="C73" s="2"/>
+      <x:c r="D73" s="2"/>
+      <x:c r="E73" s="2"/>
+      <x:c r="F73" s="2"/>
+      <x:c r="G73" s="2"/>
+      <x:c r="H73" s="2"/>
+      <x:c r="I73" s="2"/>
+      <x:c r="J73" s="2"/>
+    </x:row>
+    <x:row r="74" spans="1:10" ht="19" thickTop="1">
+      <x:c r="A74" s="2"/>
+      <x:c r="B74" s="174" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C74" s="175"/>
+      <x:c r="D74" s="175"/>
+      <x:c r="E74" s="175"/>
+      <x:c r="F74" s="175"/>
+      <x:c r="G74" s="175"/>
+      <x:c r="H74" s="175"/>
+      <x:c r="I74" s="176"/>
+      <x:c r="J74" s="77"/>
+    </x:row>
+    <x:row r="75" spans="1:10">
+      <x:c r="A75" s="2"/>
+      <x:c r="B75" s="177" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C75" s="178"/>
+      <x:c r="D75" s="178"/>
+      <x:c r="E75" s="178"/>
+      <x:c r="F75" s="178"/>
+      <x:c r="G75" s="178"/>
+      <x:c r="H75" s="178"/>
+      <x:c r="I75" s="179"/>
+      <x:c r="J75" s="78"/>
+    </x:row>
+    <x:row r="76" spans="1:10">
+      <x:c r="A76" s="2"/>
+      <x:c r="B76" s="80"/>
+      <x:c r="C76" s="60"/>
+      <x:c r="D76" s="60"/>
+      <x:c r="E76" s="60"/>
+      <x:c r="F76" s="60"/>
+      <x:c r="G76" s="60"/>
+      <x:c r="H76" s="60"/>
+      <x:c r="I76" s="81"/>
+      <x:c r="J76" s="2"/>
+    </x:row>
+    <x:row r="77" spans="1:10" ht="47" customHeight="1">
+      <x:c r="A77" s="2"/>
+      <x:c r="B77" s="186" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C77" s="187"/>
+      <x:c r="D77" s="187"/>
+      <x:c r="E77" s="187"/>
+      <x:c r="F77" s="187"/>
+      <x:c r="G77" s="187"/>
+      <x:c r="H77" s="187"/>
+      <x:c r="I77" s="188"/>
+      <x:c r="J77" s="79"/>
+    </x:row>
+    <x:row r="78" spans="1:10" ht="32" customHeight="1">
+      <x:c r="A78" s="2"/>
+      <x:c r="B78" s="186" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C78" s="187"/>
+      <x:c r="D78" s="187"/>
+      <x:c r="E78" s="187"/>
+      <x:c r="F78" s="187"/>
+      <x:c r="G78" s="187"/>
+      <x:c r="H78" s="187"/>
+      <x:c r="I78" s="188"/>
+      <x:c r="J78" s="79"/>
+    </x:row>
+    <x:row r="79" spans="1:10" ht="30.5" customHeight="1">
+      <x:c r="A79" s="2"/>
+      <x:c r="B79" s="186" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C79" s="187"/>
+      <x:c r="D79" s="187"/>
+      <x:c r="E79" s="187"/>
+      <x:c r="F79" s="187"/>
+      <x:c r="G79" s="187"/>
+      <x:c r="H79" s="187"/>
+      <x:c r="I79" s="188"/>
+      <x:c r="J79" s="79"/>
+    </x:row>
+    <x:row r="80" spans="1:10" ht="30" customHeight="1">
+      <x:c r="A80" s="2"/>
+      <x:c r="B80" s="186" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C80" s="187"/>
+      <x:c r="D80" s="187"/>
+      <x:c r="E80" s="187"/>
+      <x:c r="F80" s="187"/>
+      <x:c r="G80" s="187"/>
+      <x:c r="H80" s="187"/>
+      <x:c r="I80" s="188"/>
+      <x:c r="J80" s="79"/>
+    </x:row>
+    <x:row r="81" spans="1:10" ht="15.5" customHeight="1">
+      <x:c r="A81" s="2"/>
+      <x:c r="B81" s="186" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C81" s="187"/>
+      <x:c r="D81" s="187"/>
+      <x:c r="E81" s="187"/>
+      <x:c r="F81" s="187"/>
+      <x:c r="G81" s="187"/>
+      <x:c r="H81" s="187"/>
+      <x:c r="I81" s="188"/>
+      <x:c r="J81" s="79"/>
+    </x:row>
+    <x:row r="82" spans="1:10" ht="15.5" customHeight="1" thickBot="1">
+      <x:c r="A82" s="2"/>
+      <x:c r="B82" s="183"/>
+      <x:c r="C82" s="184"/>
+      <x:c r="D82" s="184"/>
+      <x:c r="E82" s="184"/>
+      <x:c r="F82" s="184"/>
+      <x:c r="G82" s="184"/>
+      <x:c r="H82" s="184"/>
+      <x:c r="I82" s="185"/>
+      <x:c r="J82" s="79"/>
+    </x:row>
+    <x:row r="83" spans="1:10">
+      <x:c r="A83" s="2"/>
+      <x:c r="B83" s="2"/>
+      <x:c r="C83" s="2"/>
+      <x:c r="D83" s="2"/>
+      <x:c r="E83" s="2"/>
+      <x:c r="F83" s="2"/>
+      <x:c r="G83" s="2"/>
+      <x:c r="H83" s="2"/>
+      <x:c r="I83" s="2"/>
+      <x:c r="J83" s="2"/>
+    </x:row>
+    <x:row r="84" spans="1:10">
+      <x:c r="A84" s="2"/>
+      <x:c r="B84" s="2"/>
+      <x:c r="C84" s="2"/>
+      <x:c r="D84" s="2"/>
+      <x:c r="E84" s="2"/>
+      <x:c r="F84" s="2"/>
+      <x:c r="G84" s="2"/>
+      <x:c r="H84" s="2"/>
+      <x:c r="I84" s="2"/>
+      <x:c r="J84" s="2"/>
+    </x:row>
+    <x:row r="85" spans="1:10">
+      <x:c r="A85" s="2"/>
+      <x:c r="B85" s="2"/>
+      <x:c r="C85" s="2"/>
+      <x:c r="D85" s="2"/>
+      <x:c r="E85" s="2"/>
+      <x:c r="F85" s="2"/>
+      <x:c r="G85" s="2"/>
+      <x:c r="H85" s="2"/>
+      <x:c r="I85" s="2"/>
+      <x:c r="J85" s="2"/>
+    </x:row>
+    <x:row r="86" spans="1:10">
+      <x:c r="A86" s="2"/>
+      <x:c r="B86" s="2"/>
+      <x:c r="C86" s="2"/>
+      <x:c r="D86" s="2"/>
+      <x:c r="E86" s="2"/>
+      <x:c r="F86" s="2"/>
+      <x:c r="G86" s="2"/>
+      <x:c r="H86" s="2"/>
+      <x:c r="I86" s="2"/>
+      <x:c r="J86" s="2"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="23">
+    <x:mergeCell ref="B82:I82"/>
+    <x:mergeCell ref="B77:I77"/>
+    <x:mergeCell ref="B78:I78"/>
+    <x:mergeCell ref="B79:I79"/>
+    <x:mergeCell ref="B80:I80"/>
+    <x:mergeCell ref="B81:I81"/>
+    <x:mergeCell ref="B28:I28"/>
+    <x:mergeCell ref="B74:I74"/>
+    <x:mergeCell ref="B75:I75"/>
+    <x:mergeCell ref="B31:I31"/>
+    <x:mergeCell ref="B32:I32"/>
+    <x:mergeCell ref="B33:I33"/>
+    <x:mergeCell ref="F12:G12"/>
+    <x:mergeCell ref="H12:I12"/>
+    <x:mergeCell ref="B6:I6"/>
+    <x:mergeCell ref="B5:I5"/>
+    <x:mergeCell ref="B7:I7"/>
+    <x:mergeCell ref="C10:D10"/>
+    <x:mergeCell ref="G9:H9"/>
+    <x:mergeCell ref="G10:H10"/>
+    <x:mergeCell ref="E9:F9"/>
+    <x:mergeCell ref="E10:F10"/>
+    <x:mergeCell ref="C9:D9"/>
+  </x:mergeCells>
+  <x:phoneticPr fontId="3" type="noConversion"/>
+  <x:printOptions horizontalCentered="1"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup scale="76" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <x:colBreaks count="1" manualBreakCount="1">
+    <x:brk id="10" max="1048575" man="1"/>
+  </x:colBreaks>
+  <x:drawing r:id="rId2"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:dimension ref="A1:J122"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <x:cols>
+    <x:col min="1" max="1" width="4" customWidth="1"/>
+    <x:col min="2" max="4" width="16.5" customWidth="1"/>
+    <x:col min="5" max="5" width="4" customWidth="1"/>
+    <x:col min="6" max="8" width="16.5" customWidth="1"/>
+    <x:col min="9" max="9" width="4" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:9">
+      <x:c r="A1" s="1"/>
+      <x:c r="B1" s="1"/>
+      <x:c r="C1" s="1"/>
+      <x:c r="D1" s="1"/>
+      <x:c r="E1" s="1"/>
+      <x:c r="F1" s="1"/>
+      <x:c r="G1" s="1"/>
+      <x:c r="H1" s="1"/>
+      <x:c r="I1" s="1"/>
+    </x:row>
+    <x:row r="2" spans="1:9">
+      <x:c r="A2" s="1"/>
+      <x:c r="B2" s="1"/>
+      <x:c r="C2" s="1"/>
+      <x:c r="D2" s="1"/>
+      <x:c r="E2" s="1"/>
+      <x:c r="F2" s="1"/>
+      <x:c r="G2" s="1"/>
+      <x:c r="H2" s="1"/>
+      <x:c r="I2" s="1"/>
+    </x:row>
+    <x:row r="3" spans="1:9">
+      <x:c r="A3" s="1"/>
+      <x:c r="B3" s="1"/>
+      <x:c r="C3" s="1"/>
+      <x:c r="D3" s="1"/>
+      <x:c r="E3" s="1"/>
+      <x:c r="F3" s="1"/>
+      <x:c r="G3" s="1"/>
+      <x:c r="H3" s="1"/>
+      <x:c r="I3" s="1"/>
+    </x:row>
+    <x:row r="4" spans="1:9" ht="24" customHeight="1" thickBot="1">
+      <x:c r="A4" s="2"/>
+      <x:c r="B4" s="2"/>
+      <x:c r="C4" s="2"/>
+      <x:c r="D4" s="2"/>
+      <x:c r="E4" s="2"/>
+      <x:c r="F4" s="2"/>
+      <x:c r="G4" s="2"/>
+      <x:c r="H4" s="2"/>
+      <x:c r="I4" s="2"/>
+    </x:row>
+    <x:row r="5" spans="1:9" ht="26.5" thickTop="1">
+      <x:c r="A5" s="2"/>
+      <x:c r="B5" s="126" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C5" s="127"/>
+      <x:c r="D5" s="128"/>
+      <x:c r="E5" s="31"/>
+      <x:c r="F5" s="126" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G5" s="127"/>
+      <x:c r="H5" s="128"/>
+      <x:c r="I5" s="2"/>
+    </x:row>
+    <x:row r="6" spans="1:9" ht="18.5">
+      <x:c r="A6" s="2"/>
+      <x:c r="B6" s="7"/>
+      <x:c r="C6" s="9"/>
+      <x:c r="D6" s="9"/>
+      <x:c r="E6" s="32"/>
+      <x:c r="F6" s="36"/>
+      <x:c r="G6" s="36"/>
+      <x:c r="H6" s="38"/>
+      <x:c r="I6" s="2"/>
+    </x:row>
+    <x:row r="7" spans="1:9" ht="21">
+      <x:c r="A7" s="2"/>
+      <x:c r="B7" s="124" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C7" s="125"/>
+      <x:c r="D7" s="59" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E7" s="33"/>
+      <x:c r="F7" s="36" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G7" s="36"/>
+      <x:c r="H7" s="42" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I7" s="2"/>
+    </x:row>
+    <x:row r="8" spans="1:9" ht="21">
+      <x:c r="A8" s="2"/>
+      <x:c r="B8" s="124" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C8" s="125"/>
+      <x:c r="D8" s="59" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E8" s="34"/>
+      <x:c r="F8" s="36" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="G8" s="37"/>
+      <x:c r="H8" s="51">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I8" s="2"/>
+    </x:row>
+    <x:row r="9" spans="1:9" ht="21">
+      <x:c r="A9" s="2"/>
+      <x:c r="B9" s="39" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C9" s="36"/>
+      <x:c r="D9" s="59" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E9" s="34"/>
+      <x:c r="F9" s="36"/>
+      <x:c r="G9" s="37"/>
+      <x:c r="H9" s="51"/>
+      <x:c r="I9" s="2"/>
+    </x:row>
+    <x:row r="10" spans="1:9" ht="16" thickBot="1">
+      <x:c r="A10" s="2"/>
+      <x:c r="B10" s="30"/>
+      <x:c r="C10" s="23"/>
+      <x:c r="D10" s="23"/>
+      <x:c r="E10" s="35"/>
+      <x:c r="F10" s="23"/>
+      <x:c r="G10" s="23"/>
+      <x:c r="H10" s="24"/>
+      <x:c r="I10" s="2"/>
+    </x:row>
+    <x:row r="11" spans="1:9" ht="16" thickBot="1">
+      <x:c r="A11" s="2"/>
+      <x:c r="B11" s="2"/>
+      <x:c r="C11" s="2"/>
+      <x:c r="D11" s="2"/>
+      <x:c r="E11" s="2"/>
+      <x:c r="F11" s="2"/>
+      <x:c r="G11" s="2"/>
+      <x:c r="H11" s="2"/>
+      <x:c r="I11" s="2"/>
+    </x:row>
+    <x:row r="12" spans="1:9" ht="26.5" thickTop="1">
+      <x:c r="A12" s="2"/>
+      <x:c r="B12" s="126" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C12" s="127"/>
+      <x:c r="D12" s="128"/>
+      <x:c r="E12" s="31"/>
+      <x:c r="F12" s="126" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G12" s="127"/>
+      <x:c r="H12" s="128"/>
+      <x:c r="I12" s="2"/>
+    </x:row>
+    <x:row r="13" spans="1:9" ht="18.5">
+      <x:c r="A13" s="2"/>
+      <x:c r="B13" s="7"/>
+      <x:c r="C13" s="9"/>
+      <x:c r="D13" s="9"/>
+      <x:c r="E13" s="32"/>
+      <x:c r="F13" s="36"/>
+      <x:c r="G13" s="36"/>
+      <x:c r="H13" s="38"/>
+      <x:c r="I13" s="2"/>
+    </x:row>
+    <x:row r="14" spans="1:9" ht="40" customHeight="1">
+      <x:c r="A14" s="2"/>
+      <x:c r="B14" s="122" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C14" s="123"/>
+      <x:c r="D14" s="58">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E14" s="33"/>
+      <x:c r="F14" s="36" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G14" s="36"/>
+      <x:c r="H14" s="42" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="I14" s="2"/>
+    </x:row>
+    <x:row r="15" spans="1:9" ht="36.5" customHeight="1">
+      <x:c r="A15" s="2"/>
+      <x:c r="B15" s="122" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C15" s="123"/>
+      <x:c r="D15" s="58">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E15" s="34"/>
+      <x:c r="F15" s="36" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="G15" s="37"/>
+      <x:c r="H15" s="42">
+        <x:v>1250</x:v>
+      </x:c>
+      <x:c r="I15" s="2"/>
+    </x:row>
+    <x:row r="16" spans="1:9" ht="31" customHeight="1">
+      <x:c r="A16" s="2"/>
+      <x:c r="B16" s="124" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C16" s="125"/>
+      <x:c r="D16" s="58">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E16" s="34"/>
+      <x:c r="F16" s="36" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="G16" s="37"/>
+      <x:c r="H16" s="42" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="I16" s="2"/>
+    </x:row>
+    <x:row r="17" spans="1:9" ht="21.5" thickBot="1">
+      <x:c r="A17" s="2"/>
+      <x:c r="B17" s="30"/>
+      <x:c r="C17" s="23"/>
+      <x:c r="D17" s="23"/>
+      <x:c r="E17" s="34"/>
+      <x:c r="F17" s="36" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="G17" s="37"/>
+      <x:c r="H17" s="42" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="I17" s="2"/>
+    </x:row>
+    <x:row r="18" spans="1:9" ht="16" thickBot="1">
+      <x:c r="A18" s="2"/>
+      <x:c r="B18" s="2"/>
+      <x:c r="C18" s="2"/>
+      <x:c r="D18" s="41"/>
+      <x:c r="E18" s="40"/>
+      <x:c r="F18" s="23"/>
+      <x:c r="G18" s="23"/>
+      <x:c r="H18" s="24"/>
+      <x:c r="I18" s="2"/>
+    </x:row>
+    <x:row r="19" spans="1:9" ht="24" customHeight="1" thickBot="1">
+      <x:c r="A19" s="2"/>
+      <x:c r="B19" s="2"/>
+      <x:c r="C19" s="2"/>
+      <x:c r="D19" s="2"/>
+      <x:c r="E19" s="2"/>
+      <x:c r="F19" s="2"/>
+      <x:c r="G19" s="2"/>
+      <x:c r="H19" s="2"/>
+      <x:c r="I19" s="2"/>
+    </x:row>
+    <x:row r="20" spans="1:9" ht="19" thickTop="1">
+      <x:c r="A20" s="2"/>
+      <x:c r="B20" s="126" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C20" s="127"/>
+      <x:c r="D20" s="127"/>
+      <x:c r="E20" s="127"/>
+      <x:c r="F20" s="127"/>
+      <x:c r="G20" s="127"/>
+      <x:c r="H20" s="128"/>
+      <x:c r="I20" s="2"/>
+    </x:row>
+    <x:row r="21" spans="1:9" ht="18.5">
+      <x:c r="A21" s="2"/>
+      <x:c r="B21" s="7"/>
+      <x:c r="C21" s="9"/>
+      <x:c r="D21" s="9"/>
+      <x:c r="E21" s="36"/>
+      <x:c r="F21" s="36"/>
+      <x:c r="G21" s="36"/>
+      <x:c r="H21" s="38"/>
+      <x:c r="I21" s="2"/>
+    </x:row>
+    <x:row r="22" spans="1:9" ht="18.5">
+      <x:c r="A22" s="2"/>
+      <x:c r="B22" s="124" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C22" s="125"/>
+      <x:c r="D22" s="125"/>
+      <x:c r="E22" s="125"/>
+      <x:c r="F22" s="125"/>
+      <x:c r="G22" s="125"/>
+      <x:c r="H22" s="129"/>
+      <x:c r="I22" s="2"/>
+    </x:row>
+    <x:row r="23" spans="1:9" ht="18.5">
+      <x:c r="A23" s="2"/>
+      <x:c r="B23" s="124" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C23" s="125"/>
+      <x:c r="D23" s="125"/>
+      <x:c r="E23" s="125"/>
+      <x:c r="F23" s="125"/>
+      <x:c r="G23" s="125"/>
+      <x:c r="H23" s="129"/>
+      <x:c r="I23" s="2"/>
+    </x:row>
+    <x:row r="24" spans="1:9" ht="16" thickBot="1">
+      <x:c r="A24" s="2"/>
+      <x:c r="B24" s="30"/>
+      <x:c r="C24" s="23"/>
+      <x:c r="D24" s="23"/>
+      <x:c r="E24" s="23"/>
+      <x:c r="F24" s="23"/>
+      <x:c r="G24" s="23"/>
+      <x:c r="H24" s="24"/>
+      <x:c r="I24" s="2"/>
+    </x:row>
+    <x:row r="25" spans="1:9" ht="24" customHeight="1" thickBot="1">
+      <x:c r="A25" s="2"/>
+      <x:c r="B25" s="2"/>
+      <x:c r="C25" s="2"/>
+      <x:c r="D25" s="2"/>
+      <x:c r="E25" s="2"/>
+      <x:c r="F25" s="2"/>
+      <x:c r="G25" s="2"/>
+      <x:c r="H25" s="2"/>
+      <x:c r="I25" s="2"/>
+    </x:row>
+    <x:row r="26" spans="1:9" ht="26.5" thickTop="1">
+      <x:c r="A26" s="2"/>
+      <x:c r="B26" s="126" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C26" s="127"/>
+      <x:c r="D26" s="128"/>
+      <x:c r="E26" s="31"/>
+      <x:c r="F26" s="126" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G26" s="127"/>
+      <x:c r="H26" s="128"/>
+      <x:c r="I26" s="2"/>
+    </x:row>
+    <x:row r="27" spans="1:9" ht="18.5">
+      <x:c r="A27" s="2"/>
+      <x:c r="B27" s="7"/>
+      <x:c r="C27" s="9"/>
+      <x:c r="D27" s="9"/>
+      <x:c r="E27" s="32"/>
+      <x:c r="F27" s="36"/>
+      <x:c r="G27" s="36"/>
+      <x:c r="H27" s="38"/>
+      <x:c r="I27" s="2"/>
+    </x:row>
+    <x:row r="28" spans="1:9" ht="37">
+      <x:c r="A28" s="2"/>
+      <x:c r="B28" s="39"/>
+      <x:c r="C28" s="36" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D28" s="48" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E28" s="33"/>
+      <x:c r="F28" s="36"/>
+      <x:c r="G28" s="49" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="H28" s="50" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="I28" s="2"/>
+    </x:row>
+    <x:row r="29" spans="1:9" ht="21">
+      <x:c r="A29" s="2"/>
+      <x:c r="B29" s="39"/>
+      <x:c r="C29" s="44"/>
+      <x:c r="D29" s="44"/>
+      <x:c r="E29" s="34"/>
+      <x:c r="F29" s="36" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="G29" s="36">
+        <x:v>2265.11</x:v>
+      </x:c>
+      <x:c r="H29" s="51"/>
+      <x:c r="I29" s="2"/>
+    </x:row>
+    <x:row r="30" spans="1:9" ht="21">
+      <x:c r="A30" s="2"/>
+      <x:c r="B30" s="39" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C30" s="44">
+        <x:v>14519.54</x:v>
+      </x:c>
+      <x:c r="D30" s="44">
+        <x:v>1735.18</x:v>
+      </x:c>
+      <x:c r="E30" s="34"/>
+      <x:c r="F30" s="36" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="G30" s="36" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="H30" s="51">
+        <x:v>0.1047</x:v>
+      </x:c>
+      <x:c r="I30" s="2"/>
+    </x:row>
+    <x:row r="31" spans="1:9" ht="19" thickBot="1">
+      <x:c r="A31" s="2"/>
+      <x:c r="B31" s="45" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C31" s="46">
+        <x:v>18390.419999999998</x:v>
+      </x:c>
+      <x:c r="D31" s="47">
+        <x:v>2107.09</x:v>
+      </x:c>
+      <x:c r="E31" s="35"/>
+      <x:c r="F31" s="45" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="G31" s="46" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="H31" s="52">
+        <x:v>871.32889999999998</x:v>
+      </x:c>
+      <x:c r="I31" s="2"/>
+    </x:row>
+    <x:row r="32" spans="1:9" ht="24" customHeight="1" thickBot="1">
+      <x:c r="A32" s="2"/>
+      <x:c r="B32" s="2"/>
+      <x:c r="C32" s="2"/>
+      <x:c r="D32" s="2"/>
+      <x:c r="E32" s="2"/>
+      <x:c r="F32" s="2"/>
+      <x:c r="G32" s="2"/>
+      <x:c r="H32" s="2"/>
+      <x:c r="I32" s="2"/>
+    </x:row>
+    <x:row r="33" spans="1:10" ht="19" thickTop="1">
+      <x:c r="A33" s="2"/>
+      <x:c r="B33" s="135" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C33" s="136"/>
+      <x:c r="D33" s="136"/>
+      <x:c r="E33" s="136"/>
+      <x:c r="F33" s="136"/>
+      <x:c r="G33" s="136"/>
+      <x:c r="H33" s="53">
+        <x:v>0.91500000000000004</x:v>
+      </x:c>
+      <x:c r="I33" s="2"/>
+    </x:row>
+    <x:row r="34" spans="1:10" ht="17" customHeight="1" thickBot="1">
+      <x:c r="A34" s="2"/>
+      <x:c r="B34" s="30"/>
+      <x:c r="C34" s="23"/>
+      <x:c r="D34" s="23"/>
+      <x:c r="E34" s="23"/>
+      <x:c r="F34" s="23"/>
+      <x:c r="G34" s="23"/>
+      <x:c r="H34" s="24"/>
+      <x:c r="I34" s="2"/>
+    </x:row>
+    <x:row r="35" spans="1:10" ht="24" customHeight="1" thickBot="1">
+      <x:c r="A35" s="2"/>
+      <x:c r="B35" s="2"/>
+      <x:c r="C35" s="2"/>
+      <x:c r="D35" s="2"/>
+      <x:c r="E35" s="2"/>
+      <x:c r="F35" s="2"/>
+      <x:c r="G35" s="2"/>
+      <x:c r="H35" s="2"/>
+      <x:c r="I35" s="2"/>
+    </x:row>
+    <x:row r="36" spans="1:10" ht="19" thickTop="1">
+      <x:c r="A36" s="2"/>
+      <x:c r="B36" s="143" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C36" s="144"/>
+      <x:c r="D36" s="144"/>
+      <x:c r="E36" s="144"/>
+      <x:c r="F36" s="144"/>
+      <x:c r="G36" s="144"/>
+      <x:c r="H36" s="145"/>
+      <x:c r="I36" s="2"/>
+    </x:row>
+    <x:row r="37" spans="1:10" ht="18.5">
+      <x:c r="A37" s="2"/>
+      <x:c r="B37" s="146"/>
+      <x:c r="C37" s="147"/>
+      <x:c r="D37" s="147"/>
+      <x:c r="E37" s="147"/>
+      <x:c r="F37" s="147"/>
+      <x:c r="G37" s="147"/>
+      <x:c r="H37" s="148"/>
+      <x:c r="I37" s="2"/>
+    </x:row>
+    <x:row r="38" spans="1:10" ht="48" customHeight="1">
+      <x:c r="A38" s="2"/>
+      <x:c r="B38" s="137" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="138"/>
+      <x:c r="D38" s="138"/>
+      <x:c r="E38" s="138"/>
+      <x:c r="F38" s="138"/>
+      <x:c r="G38" s="138"/>
+      <x:c r="H38" s="139"/>
+      <x:c r="I38" s="2"/>
+      <x:c r="J38" s="56"/>
+    </x:row>
+    <x:row r="39" spans="1:10" ht="16" customHeight="1">
+      <x:c r="A39" s="2"/>
+      <x:c r="B39" s="140" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C39" s="141"/>
+      <x:c r="D39" s="141"/>
+      <x:c r="E39" s="141"/>
+      <x:c r="F39" s="141"/>
+      <x:c r="G39" s="141"/>
+      <x:c r="H39" s="142"/>
+      <x:c r="I39" s="2"/>
+      <x:c r="J39" s="56"/>
+    </x:row>
+    <x:row r="40" spans="1:10" ht="32" customHeight="1">
+      <x:c r="A40" s="2"/>
+      <x:c r="B40" s="140" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C40" s="141"/>
+      <x:c r="D40" s="141"/>
+      <x:c r="E40" s="141"/>
+      <x:c r="F40" s="141"/>
+      <x:c r="G40" s="141"/>
+      <x:c r="H40" s="142"/>
+      <x:c r="I40" s="2"/>
+      <x:c r="J40" s="56"/>
+    </x:row>
+    <x:row r="41" spans="1:10" ht="16" customHeight="1">
+      <x:c r="A41" s="2"/>
+      <x:c r="B41" s="140" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C41" s="141"/>
+      <x:c r="D41" s="141"/>
+      <x:c r="E41" s="141"/>
+      <x:c r="F41" s="141"/>
+      <x:c r="G41" s="141"/>
+      <x:c r="H41" s="142"/>
+      <x:c r="I41" s="2"/>
+      <x:c r="J41" s="56"/>
+    </x:row>
+    <x:row r="42" spans="1:10" ht="16" customHeight="1" thickBot="1">
+      <x:c r="A42" s="2"/>
+      <x:c r="B42" s="149"/>
+      <x:c r="C42" s="150"/>
+      <x:c r="D42" s="150"/>
+      <x:c r="E42" s="150"/>
+      <x:c r="F42" s="150"/>
+      <x:c r="G42" s="150"/>
+      <x:c r="H42" s="151"/>
+      <x:c r="I42" s="2"/>
+      <x:c r="J42" s="56"/>
+    </x:row>
+    <x:row r="43" spans="1:10" ht="24" customHeight="1" thickBot="1">
+      <x:c r="A43" s="2"/>
+      <x:c r="B43" s="2"/>
+      <x:c r="C43" s="2"/>
+      <x:c r="D43" s="2"/>
+      <x:c r="E43" s="2"/>
+      <x:c r="F43" s="2"/>
+      <x:c r="G43" s="2"/>
+      <x:c r="H43" s="2"/>
+      <x:c r="I43" s="2"/>
+      <x:c r="J43" s="56"/>
+    </x:row>
+    <x:row r="44" spans="1:10" ht="19" thickTop="1">
+      <x:c r="A44" s="2"/>
+      <x:c r="B44" s="130" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C44" s="127"/>
+      <x:c r="D44" s="127"/>
+      <x:c r="E44" s="127"/>
+      <x:c r="F44" s="127"/>
+      <x:c r="G44" s="127"/>
+      <x:c r="H44" s="131"/>
+      <x:c r="I44" s="2"/>
+    </x:row>
+    <x:row r="45" spans="1:10" ht="18.5">
+      <x:c r="A45" s="2"/>
+      <x:c r="B45" s="62"/>
+      <x:c r="C45" s="21"/>
+      <x:c r="D45" s="21"/>
+      <x:c r="E45" s="36"/>
+      <x:c r="F45" s="36"/>
+      <x:c r="G45" s="36"/>
+      <x:c r="H45" s="63"/>
+      <x:c r="I45" s="2"/>
+    </x:row>
+    <x:row r="46" spans="1:10" ht="18.5">
+      <x:c r="A46" s="2"/>
+      <x:c r="B46" s="132" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C46" s="133"/>
+      <x:c r="D46" s="133" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E46" s="133"/>
+      <x:c r="F46" s="133"/>
+      <x:c r="G46" s="133" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="H46" s="134"/>
+      <x:c r="I46" s="2"/>
+    </x:row>
+    <x:row r="47" spans="1:10" ht="18.5">
+      <x:c r="A47" s="2"/>
+      <x:c r="B47" s="64">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C47" s="44"/>
+      <x:c r="D47" s="55">
+        <x:v>17789</x:v>
+      </x:c>
+      <x:c r="E47" s="44"/>
+      <x:c r="F47" s="44"/>
+      <x:c r="G47" s="55">
+        <x:v>15070</x:v>
+      </x:c>
+      <x:c r="H47" s="65"/>
+      <x:c r="I47" s="2"/>
+    </x:row>
+    <x:row r="48" spans="1:10" ht="17" customHeight="1">
+      <x:c r="A48" s="2"/>
+      <x:c r="B48" s="64">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C48" s="54"/>
+      <x:c r="D48" s="55">
+        <x:v>19417</x:v>
+      </x:c>
+      <x:c r="E48" s="54"/>
+      <x:c r="F48" s="54"/>
+      <x:c r="G48" s="55">
+        <x:v>15823</x:v>
+      </x:c>
+      <x:c r="H48" s="66"/>
+      <x:c r="I48" s="2"/>
+    </x:row>
+    <x:row r="49" spans="1:9" ht="18.5">
+      <x:c r="A49" s="2"/>
+      <x:c r="B49" s="64">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C49" s="67"/>
+      <x:c r="D49" s="55">
+        <x:v>22802</x:v>
+      </x:c>
+      <x:c r="E49" s="67"/>
+      <x:c r="F49" s="67"/>
+      <x:c r="G49" s="55">
+        <x:v>17024</x:v>
+      </x:c>
+      <x:c r="H49" s="68"/>
+      <x:c r="I49" s="2"/>
+    </x:row>
+    <x:row r="50" spans="1:9" ht="18.5">
+      <x:c r="A50" s="2"/>
+      <x:c r="B50" s="64">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C50" s="67"/>
+      <x:c r="D50" s="55">
+        <x:v>17825</x:v>
+      </x:c>
+      <x:c r="E50" s="67"/>
+      <x:c r="F50" s="67"/>
+      <x:c r="G50" s="55">
+        <x:v>13920</x:v>
+      </x:c>
+      <x:c r="H50" s="68"/>
+      <x:c r="I50" s="2"/>
+    </x:row>
+    <x:row r="51" spans="1:9" ht="18.5">
+      <x:c r="A51" s="2"/>
+      <x:c r="B51" s="64">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C51" s="67"/>
+      <x:c r="D51" s="55">
+        <x:v>17816</x:v>
+      </x:c>
+      <x:c r="E51" s="67"/>
+      <x:c r="F51" s="67"/>
+      <x:c r="G51" s="55">
+        <x:v>14434</x:v>
+      </x:c>
+      <x:c r="H51" s="68"/>
+      <x:c r="I51" s="2"/>
+    </x:row>
+    <x:row r="52" spans="1:9" ht="18.5">
+      <x:c r="A52" s="2"/>
+      <x:c r="B52" s="64">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C52" s="67"/>
+      <x:c r="D52" s="55">
+        <x:v>15948</x:v>
+      </x:c>
+      <x:c r="E52" s="67"/>
+      <x:c r="F52" s="67"/>
+      <x:c r="G52" s="55">
+        <x:v>14046</x:v>
+      </x:c>
+      <x:c r="H52" s="68"/>
+      <x:c r="I52" s="2"/>
+    </x:row>
+    <x:row r="53" spans="1:9" ht="18.5">
+      <x:c r="A53" s="2"/>
+      <x:c r="B53" s="64">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C53" s="67"/>
+      <x:c r="D53" s="55">
+        <x:v>18297</x:v>
+      </x:c>
+      <x:c r="E53" s="67"/>
+      <x:c r="F53" s="67"/>
+      <x:c r="G53" s="55">
+        <x:v>14539</x:v>
+      </x:c>
+      <x:c r="H53" s="68"/>
+      <x:c r="I53" s="2"/>
+    </x:row>
+    <x:row r="54" spans="1:9" ht="18.5">
+      <x:c r="A54" s="2"/>
+      <x:c r="B54" s="64">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C54" s="67"/>
+      <x:c r="D54" s="55">
+        <x:v>14586</x:v>
+      </x:c>
+      <x:c r="E54" s="67"/>
+      <x:c r="F54" s="67"/>
+      <x:c r="G54" s="55">
+        <x:v>12018</x:v>
+      </x:c>
+      <x:c r="H54" s="68"/>
+      <x:c r="I54" s="2"/>
+    </x:row>
+    <x:row r="55" spans="1:9" ht="18.5">
+      <x:c r="A55" s="2"/>
+      <x:c r="B55" s="64">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C55" s="67"/>
+      <x:c r="D55" s="55">
+        <x:v>18617</x:v>
+      </x:c>
+      <x:c r="E55" s="67"/>
+      <x:c r="F55" s="67"/>
+      <x:c r="G55" s="55">
+        <x:v>13666</x:v>
+      </x:c>
+      <x:c r="H55" s="68"/>
+      <x:c r="I55" s="2"/>
+    </x:row>
+    <x:row r="56" spans="1:9" ht="18.5">
+      <x:c r="A56" s="2"/>
+      <x:c r="B56" s="64">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C56" s="67"/>
+      <x:c r="D56" s="55">
+        <x:v>21001</x:v>
+      </x:c>
+      <x:c r="E56" s="67"/>
+      <x:c r="F56" s="67"/>
+      <x:c r="G56" s="55">
+        <x:v>16973</x:v>
+      </x:c>
+      <x:c r="H56" s="68"/>
+      <x:c r="I56" s="2"/>
+    </x:row>
+    <x:row r="57" spans="1:9" ht="18.5">
+      <x:c r="A57" s="2"/>
+      <x:c r="B57" s="64">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C57" s="67"/>
+      <x:c r="D57" s="55">
+        <x:v>18619</x:v>
+      </x:c>
+      <x:c r="E57" s="67"/>
+      <x:c r="F57" s="67"/>
+      <x:c r="G57" s="55">
+        <x:v>14239</x:v>
+      </x:c>
+      <x:c r="H57" s="68"/>
+      <x:c r="I57" s="2"/>
+    </x:row>
+    <x:row r="58" spans="1:9" ht="18.5">
+      <x:c r="A58" s="2"/>
+      <x:c r="B58" s="64">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C58" s="67"/>
+      <x:c r="D58" s="55">
+        <x:v>16125</x:v>
+      </x:c>
+      <x:c r="E58" s="67"/>
+      <x:c r="F58" s="67"/>
+      <x:c r="G58" s="55">
+        <x:v>11987</x:v>
+      </x:c>
+      <x:c r="H58" s="68"/>
+      <x:c r="I58" s="2"/>
+    </x:row>
+    <x:row r="59" spans="1:9" ht="18.5">
+      <x:c r="A59" s="2"/>
+      <x:c r="B59" s="64">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C59" s="67"/>
+      <x:c r="D59" s="55">
+        <x:v>18642</x:v>
+      </x:c>
+      <x:c r="E59" s="67"/>
+      <x:c r="F59" s="67"/>
+      <x:c r="G59" s="55">
+        <x:v>15854</x:v>
+      </x:c>
+      <x:c r="H59" s="68"/>
+      <x:c r="I59" s="2"/>
+    </x:row>
+    <x:row r="60" spans="1:9" ht="18.5">
+      <x:c r="A60" s="2"/>
+      <x:c r="B60" s="64">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C60" s="67"/>
+      <x:c r="D60" s="55">
+        <x:v>18680</x:v>
+      </x:c>
+      <x:c r="E60" s="67"/>
+      <x:c r="F60" s="67"/>
+      <x:c r="G60" s="55">
+        <x:v>14782</x:v>
+      </x:c>
+      <x:c r="H60" s="68"/>
+      <x:c r="I60" s="2"/>
+    </x:row>
+    <x:row r="61" spans="1:9" ht="18.5">
+      <x:c r="A61" s="2"/>
+      <x:c r="B61" s="64">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C61" s="67"/>
+      <x:c r="D61" s="55">
+        <x:v>19234</x:v>
+      </x:c>
+      <x:c r="E61" s="67"/>
+      <x:c r="F61" s="67"/>
+      <x:c r="G61" s="55">
+        <x:v>15629</x:v>
+      </x:c>
+      <x:c r="H61" s="68"/>
+      <x:c r="I61" s="2"/>
+    </x:row>
+    <x:row r="62" spans="1:9" ht="18.5">
+      <x:c r="A62" s="2"/>
+      <x:c r="B62" s="64">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C62" s="67"/>
+      <x:c r="D62" s="55">
+        <x:v>18741</x:v>
+      </x:c>
+      <x:c r="E62" s="67"/>
+      <x:c r="F62" s="67"/>
+      <x:c r="G62" s="55">
+        <x:v>14023</x:v>
+      </x:c>
+      <x:c r="H62" s="68"/>
+      <x:c r="I62" s="2"/>
+    </x:row>
+    <x:row r="63" spans="1:9" ht="18.5">
+      <x:c r="A63" s="2"/>
+      <x:c r="B63" s="64">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C63" s="67"/>
+      <x:c r="D63" s="55">
+        <x:v>17942</x:v>
+      </x:c>
+      <x:c r="E63" s="67"/>
+      <x:c r="F63" s="67"/>
+      <x:c r="G63" s="55">
+        <x:v>13072</x:v>
+      </x:c>
+      <x:c r="H63" s="68"/>
+      <x:c r="I63" s="2"/>
+    </x:row>
+    <x:row r="64" spans="1:9" ht="18.5">
+      <x:c r="A64" s="2"/>
+      <x:c r="B64" s="64">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C64" s="67"/>
+      <x:c r="D64" s="55">
+        <x:v>20341</x:v>
+      </x:c>
+      <x:c r="E64" s="67"/>
+      <x:c r="F64" s="67"/>
+      <x:c r="G64" s="55">
+        <x:v>16162</x:v>
+      </x:c>
+      <x:c r="H64" s="68"/>
+      <x:c r="I64" s="2"/>
+    </x:row>
+    <x:row r="65" spans="1:9" ht="18.5">
+      <x:c r="A65" s="2"/>
+      <x:c r="B65" s="64">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C65" s="67"/>
+      <x:c r="D65" s="55">
+        <x:v>17436</x:v>
+      </x:c>
+      <x:c r="E65" s="67"/>
+      <x:c r="F65" s="67"/>
+      <x:c r="G65" s="55">
+        <x:v>13640</x:v>
+      </x:c>
+      <x:c r="H65" s="68"/>
+      <x:c r="I65" s="2"/>
+    </x:row>
+    <x:row r="66" spans="1:9" ht="18.5">
+      <x:c r="A66" s="2"/>
+      <x:c r="B66" s="64">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C66" s="67"/>
+      <x:c r="D66" s="55">
+        <x:v>13984</x:v>
+      </x:c>
+      <x:c r="E66" s="67"/>
+      <x:c r="F66" s="67"/>
+      <x:c r="G66" s="55">
+        <x:v>10892</x:v>
+      </x:c>
+      <x:c r="H66" s="68"/>
+      <x:c r="I66" s="2"/>
+    </x:row>
+    <x:row r="67" spans="1:9" ht="18.5">
+      <x:c r="A67" s="2"/>
+      <x:c r="B67" s="64">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C67" s="67"/>
+      <x:c r="D67" s="55">
+        <x:v>18711</x:v>
+      </x:c>
+      <x:c r="E67" s="67"/>
+      <x:c r="F67" s="67"/>
+      <x:c r="G67" s="55">
+        <x:v>14287</x:v>
+      </x:c>
+      <x:c r="H67" s="68"/>
+      <x:c r="I67" s="2"/>
+    </x:row>
+    <x:row r="68" spans="1:9" ht="18.5">
+      <x:c r="A68" s="2"/>
+      <x:c r="B68" s="64">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C68" s="67"/>
+      <x:c r="D68" s="55">
+        <x:v>22672</x:v>
+      </x:c>
+      <x:c r="E68" s="67"/>
+      <x:c r="F68" s="67"/>
+      <x:c r="G68" s="55">
+        <x:v>18624</x:v>
+      </x:c>
+      <x:c r="H68" s="68"/>
+      <x:c r="I68" s="2"/>
+    </x:row>
+    <x:row r="69" spans="1:9" ht="18.5">
+      <x:c r="A69" s="2"/>
+      <x:c r="B69" s="64">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C69" s="67"/>
+      <x:c r="D69" s="55">
+        <x:v>19511</x:v>
+      </x:c>
+      <x:c r="E69" s="67"/>
+      <x:c r="F69" s="67"/>
+      <x:c r="G69" s="55">
+        <x:v>14631</x:v>
+      </x:c>
+      <x:c r="H69" s="68"/>
+      <x:c r="I69" s="2"/>
+    </x:row>
+    <x:row r="70" spans="1:9" ht="18.5">
+      <x:c r="A70" s="2"/>
+      <x:c r="B70" s="64">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C70" s="67"/>
+      <x:c r="D70" s="55">
+        <x:v>16634</x:v>
+      </x:c>
+      <x:c r="E70" s="67"/>
+      <x:c r="F70" s="67"/>
+      <x:c r="G70" s="55">
+        <x:v>13134</x:v>
+      </x:c>
+      <x:c r="H70" s="68"/>
+      <x:c r="I70" s="2"/>
+    </x:row>
+    <x:row r="71" spans="1:9" ht="18.5">
+      <x:c r="A71" s="2"/>
+      <x:c r="B71" s="64">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C71" s="67"/>
+      <x:c r="D71" s="55">
+        <x:v>19215</x:v>
+      </x:c>
+      <x:c r="E71" s="67"/>
+      <x:c r="F71" s="67"/>
+      <x:c r="G71" s="55">
+        <x:v>15399</x:v>
+      </x:c>
+      <x:c r="H71" s="68"/>
+      <x:c r="I71" s="2"/>
+    </x:row>
+    <x:row r="72" spans="1:9" ht="18.5">
+      <x:c r="A72" s="2"/>
+      <x:c r="B72" s="64">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C72" s="67"/>
+      <x:c r="D72" s="55">
+        <x:v>18011</x:v>
+      </x:c>
+      <x:c r="E72" s="67"/>
+      <x:c r="F72" s="67"/>
+      <x:c r="G72" s="55">
+        <x:v>13599</x:v>
+      </x:c>
+      <x:c r="H72" s="68"/>
+      <x:c r="I72" s="2"/>
+    </x:row>
+    <x:row r="73" spans="1:9" ht="18.5">
+      <x:c r="A73" s="2"/>
+      <x:c r="B73" s="64">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C73" s="67"/>
+      <x:c r="D73" s="55">
+        <x:v>21778</x:v>
+      </x:c>
+      <x:c r="E73" s="67"/>
+      <x:c r="F73" s="67"/>
+      <x:c r="G73" s="55">
+        <x:v>16796</x:v>
+      </x:c>
+      <x:c r="H73" s="68"/>
+      <x:c r="I73" s="2"/>
+    </x:row>
+    <x:row r="74" spans="1:9" ht="18.5">
+      <x:c r="A74" s="2"/>
+      <x:c r="B74" s="64">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C74" s="67"/>
+      <x:c r="D74" s="55">
+        <x:v>18513</x:v>
+      </x:c>
+      <x:c r="E74" s="67"/>
+      <x:c r="F74" s="67"/>
+      <x:c r="G74" s="55">
+        <x:v>13618</x:v>
+      </x:c>
+      <x:c r="H74" s="68"/>
+      <x:c r="I74" s="2"/>
+    </x:row>
+    <x:row r="75" spans="1:9" ht="18.5">
+      <x:c r="A75" s="2"/>
+      <x:c r="B75" s="64">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C75" s="67"/>
+      <x:c r="D75" s="55">
+        <x:v>17524</x:v>
+      </x:c>
+      <x:c r="E75" s="67"/>
+      <x:c r="F75" s="67"/>
+      <x:c r="G75" s="55">
+        <x:v>13144</x:v>
+      </x:c>
+      <x:c r="H75" s="68"/>
+      <x:c r="I75" s="2"/>
+    </x:row>
+    <x:row r="76" spans="1:9" ht="18.5">
+      <x:c r="A76" s="2"/>
+      <x:c r="B76" s="64">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C76" s="67"/>
+      <x:c r="D76" s="55">
+        <x:v>21429</x:v>
+      </x:c>
+      <x:c r="E76" s="67"/>
+      <x:c r="F76" s="67"/>
+      <x:c r="G76" s="55">
+        <x:v>17767</x:v>
+      </x:c>
+      <x:c r="H76" s="68"/>
+      <x:c r="I76" s="2"/>
+    </x:row>
+    <x:row r="77" spans="1:9" ht="18.5">
+      <x:c r="A77" s="2"/>
+      <x:c r="B77" s="64">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C77" s="67"/>
+      <x:c r="D77" s="55">
+        <x:v>18966</x:v>
+      </x:c>
+      <x:c r="E77" s="67"/>
+      <x:c r="F77" s="67"/>
+      <x:c r="G77" s="55">
+        <x:v>14832</x:v>
+      </x:c>
+      <x:c r="H77" s="68"/>
+      <x:c r="I77" s="2"/>
+    </x:row>
+    <x:row r="78" spans="1:9" ht="18.5">
+      <x:c r="A78" s="2"/>
+      <x:c r="B78" s="64">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C78" s="67"/>
+      <x:c r="D78" s="55">
+        <x:v>15820</x:v>
+      </x:c>
+      <x:c r="E78" s="67"/>
+      <x:c r="F78" s="67"/>
+      <x:c r="G78" s="55">
+        <x:v>12713</x:v>
+      </x:c>
+      <x:c r="H78" s="68"/>
+      <x:c r="I78" s="2"/>
+    </x:row>
+    <x:row r="79" spans="1:9" ht="18.5">
+      <x:c r="A79" s="2"/>
+      <x:c r="B79" s="64">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C79" s="67"/>
+      <x:c r="D79" s="55">
+        <x:v>23880</x:v>
+      </x:c>
+      <x:c r="E79" s="67"/>
+      <x:c r="F79" s="67"/>
+      <x:c r="G79" s="55">
+        <x:v>17909</x:v>
+      </x:c>
+      <x:c r="H79" s="68"/>
+      <x:c r="I79" s="2"/>
+    </x:row>
+    <x:row r="80" spans="1:9" ht="18.5">
+      <x:c r="A80" s="2"/>
+      <x:c r="B80" s="64">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C80" s="67"/>
+      <x:c r="D80" s="55">
+        <x:v>22081</x:v>
+      </x:c>
+      <x:c r="E80" s="67"/>
+      <x:c r="F80" s="67"/>
+      <x:c r="G80" s="55">
+        <x:v>16432</x:v>
+      </x:c>
+      <x:c r="H80" s="68"/>
+      <x:c r="I80" s="2"/>
+    </x:row>
+    <x:row r="81" spans="1:9" ht="18.5">
+      <x:c r="A81" s="2"/>
+      <x:c r="B81" s="64">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C81" s="67"/>
+      <x:c r="D81" s="55">
+        <x:v>22107</x:v>
+      </x:c>
+      <x:c r="E81" s="67"/>
+      <x:c r="F81" s="67"/>
+      <x:c r="G81" s="55">
+        <x:v>17260</x:v>
+      </x:c>
+      <x:c r="H81" s="68"/>
+      <x:c r="I81" s="2"/>
+    </x:row>
+    <x:row r="82" spans="1:9" ht="18.5">
+      <x:c r="A82" s="2"/>
+      <x:c r="B82" s="64">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C82" s="67"/>
+      <x:c r="D82" s="55">
+        <x:v>18538</x:v>
+      </x:c>
+      <x:c r="E82" s="67"/>
+      <x:c r="F82" s="67"/>
+      <x:c r="G82" s="55">
+        <x:v>15080</x:v>
+      </x:c>
+      <x:c r="H82" s="68"/>
+      <x:c r="I82" s="2"/>
+    </x:row>
+    <x:row r="83" spans="1:9" ht="18.5">
+      <x:c r="A83" s="2"/>
+      <x:c r="B83" s="69" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C83" s="57"/>
+      <x:c r="D83" s="57">
+        <x:v>679232</x:v>
+      </x:c>
+      <x:c r="E83" s="57"/>
+      <x:c r="F83" s="57"/>
+      <x:c r="G83" s="57">
+        <x:v>533018</x:v>
+      </x:c>
+      <x:c r="H83" s="70"/>
+      <x:c r="I83" s="2"/>
+    </x:row>
+    <x:row r="84" spans="1:9" ht="19" thickBot="1">
+      <x:c r="A84" s="2"/>
+      <x:c r="B84" s="71"/>
+      <x:c r="C84" s="72"/>
+      <x:c r="D84" s="72"/>
+      <x:c r="E84" s="73"/>
+      <x:c r="F84" s="73"/>
+      <x:c r="G84" s="73"/>
+      <x:c r="H84" s="74"/>
+      <x:c r="I84" s="2"/>
+    </x:row>
+    <x:row r="85" spans="1:9" ht="24" customHeight="1" thickTop="1" thickBot="1">
+      <x:c r="A85" s="2"/>
+      <x:c r="B85" s="75"/>
+      <x:c r="C85" s="75"/>
+      <x:c r="D85" s="75"/>
+      <x:c r="E85" s="76"/>
+      <x:c r="F85" s="76"/>
+      <x:c r="G85" s="76"/>
+      <x:c r="H85" s="76"/>
+      <x:c r="I85" s="2"/>
+    </x:row>
+    <x:row r="86" spans="1:9" ht="19" thickTop="1">
+      <x:c r="A86" s="2"/>
+      <x:c r="B86" s="86" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C86" s="21"/>
+      <x:c r="D86" s="21"/>
+      <x:c r="E86" s="36"/>
+      <x:c r="F86" s="36"/>
+      <x:c r="G86" s="36"/>
+      <x:c r="H86" s="43"/>
+      <x:c r="I86" s="2"/>
+    </x:row>
+    <x:row r="87" spans="1:9" ht="18.5">
+      <x:c r="A87" s="2"/>
+      <x:c r="B87" s="7"/>
+      <x:c r="C87" s="9"/>
+      <x:c r="D87" s="9"/>
+      <x:c r="E87" s="36"/>
+      <x:c r="F87" s="36"/>
+      <x:c r="G87" s="36"/>
+      <x:c r="H87" s="38"/>
+      <x:c r="I87" s="2"/>
+    </x:row>
+    <x:row r="88" spans="1:9" ht="18.5">
+      <x:c r="A88" s="2"/>
+      <x:c r="B88" s="7"/>
+      <x:c r="C88" s="9"/>
+      <x:c r="D88" s="9"/>
+      <x:c r="E88" s="36"/>
+      <x:c r="F88" s="36"/>
+      <x:c r="G88" s="36"/>
+      <x:c r="H88" s="38"/>
+      <x:c r="I88" s="2"/>
+    </x:row>
+    <x:row r="89" spans="1:9" ht="18.5">
+      <x:c r="A89" s="2"/>
+      <x:c r="B89" s="7"/>
+      <x:c r="C89" s="9"/>
+      <x:c r="D89" s="9"/>
+      <x:c r="E89" s="36"/>
+      <x:c r="F89" s="36"/>
+      <x:c r="G89" s="36"/>
+      <x:c r="H89" s="38"/>
+      <x:c r="I89" s="2"/>
+    </x:row>
+    <x:row r="90" spans="1:9" ht="18.5">
+      <x:c r="A90" s="2"/>
+      <x:c r="B90" s="7"/>
+      <x:c r="C90" s="9"/>
+      <x:c r="D90" s="9"/>
+      <x:c r="E90" s="36"/>
+      <x:c r="F90" s="36"/>
+      <x:c r="G90" s="36"/>
+      <x:c r="H90" s="38"/>
+      <x:c r="I90" s="2"/>
+    </x:row>
+    <x:row r="91" spans="1:9" ht="18.5">
+      <x:c r="A91" s="2"/>
+      <x:c r="B91" s="7"/>
+      <x:c r="C91" s="9"/>
+      <x:c r="D91" s="9"/>
+      <x:c r="E91" s="36"/>
+      <x:c r="F91" s="36"/>
+      <x:c r="G91" s="36"/>
+      <x:c r="H91" s="38"/>
+      <x:c r="I91" s="2"/>
+    </x:row>
+    <x:row r="92" spans="1:9" ht="18.5">
+      <x:c r="A92" s="2"/>
+      <x:c r="B92" s="7"/>
+      <x:c r="C92" s="9"/>
+      <x:c r="D92" s="9"/>
+      <x:c r="E92" s="36"/>
+      <x:c r="F92" s="36"/>
+      <x:c r="G92" s="36"/>
+      <x:c r="H92" s="38"/>
+      <x:c r="I92" s="2"/>
+    </x:row>
+    <x:row r="93" spans="1:9" ht="18.5">
+      <x:c r="A93" s="2"/>
+      <x:c r="B93" s="7"/>
+      <x:c r="C93" s="9"/>
+      <x:c r="D93" s="9"/>
+      <x:c r="E93" s="36"/>
+      <x:c r="F93" s="36"/>
+      <x:c r="G93" s="36"/>
+      <x:c r="H93" s="38"/>
+      <x:c r="I93" s="2"/>
+    </x:row>
+    <x:row r="94" spans="1:9" ht="18.5">
+      <x:c r="A94" s="2"/>
+      <x:c r="B94" s="7"/>
+      <x:c r="C94" s="9"/>
+      <x:c r="D94" s="9"/>
+      <x:c r="E94" s="36"/>
+      <x:c r="F94" s="36"/>
+      <x:c r="G94" s="36"/>
+      <x:c r="H94" s="38"/>
+      <x:c r="I94" s="2"/>
+    </x:row>
+    <x:row r="95" spans="1:9" ht="18.5">
+      <x:c r="A95" s="2"/>
+      <x:c r="B95" s="7"/>
+      <x:c r="C95" s="9"/>
+      <x:c r="D95" s="9"/>
+      <x:c r="E95" s="36"/>
+      <x:c r="F95" s="36"/>
+      <x:c r="G95" s="36"/>
+      <x:c r="H95" s="38"/>
+      <x:c r="I95" s="2"/>
+    </x:row>
+    <x:row r="96" spans="1:9" ht="18.5">
+      <x:c r="A96" s="2"/>
+      <x:c r="B96" s="7"/>
+      <x:c r="C96" s="9"/>
+      <x:c r="D96" s="9"/>
+      <x:c r="E96" s="36"/>
+      <x:c r="F96" s="36"/>
+      <x:c r="G96" s="36"/>
+      <x:c r="H96" s="38"/>
+      <x:c r="I96" s="2"/>
+    </x:row>
+    <x:row r="97" spans="1:9" ht="18.5">
+      <x:c r="A97" s="2"/>
+      <x:c r="B97" s="7"/>
+      <x:c r="C97" s="9"/>
+      <x:c r="D97" s="9"/>
+      <x:c r="E97" s="36"/>
+      <x:c r="F97" s="36"/>
+      <x:c r="G97" s="36"/>
+      <x:c r="H97" s="38"/>
+      <x:c r="I97" s="2"/>
+    </x:row>
+    <x:row r="98" spans="1:9" ht="18.5">
+      <x:c r="A98" s="2"/>
+      <x:c r="B98" s="7"/>
+      <x:c r="C98" s="9"/>
+      <x:c r="D98" s="9"/>
+      <x:c r="E98" s="36"/>
+      <x:c r="F98" s="36"/>
+      <x:c r="G98" s="36"/>
+      <x:c r="H98" s="38"/>
+      <x:c r="I98" s="2"/>
+    </x:row>
+    <x:row r="99" spans="1:9" ht="18.5">
+      <x:c r="A99" s="2"/>
+      <x:c r="B99" s="7"/>
+      <x:c r="C99" s="9"/>
+      <x:c r="D99" s="9"/>
+      <x:c r="E99" s="36"/>
+      <x:c r="F99" s="36"/>
+      <x:c r="G99" s="36"/>
+      <x:c r="H99" s="38"/>
+      <x:c r="I99" s="2"/>
+    </x:row>
+    <x:row r="100" spans="1:9" ht="18.5">
+      <x:c r="A100" s="2"/>
+      <x:c r="B100" s="7"/>
+      <x:c r="C100" s="9"/>
+      <x:c r="D100" s="9"/>
+      <x:c r="E100" s="36"/>
+      <x:c r="F100" s="36"/>
+      <x:c r="G100" s="36"/>
+      <x:c r="H100" s="38"/>
+      <x:c r="I100" s="2"/>
+    </x:row>
+    <x:row r="101" spans="1:9" ht="18.5">
+      <x:c r="A101" s="2"/>
+      <x:c r="B101" s="7"/>
+      <x:c r="C101" s="9"/>
+      <x:c r="D101" s="9"/>
+      <x:c r="E101" s="36"/>
+      <x:c r="F101" s="36"/>
+      <x:c r="G101" s="36"/>
+      <x:c r="H101" s="38"/>
+      <x:c r="I101" s="2"/>
+    </x:row>
+    <x:row r="102" spans="1:9" ht="18.5">
+      <x:c r="A102" s="2"/>
+      <x:c r="B102" s="7"/>
+      <x:c r="C102" s="9"/>
+      <x:c r="D102" s="9"/>
+      <x:c r="E102" s="36"/>
+      <x:c r="F102" s="36"/>
+      <x:c r="G102" s="36"/>
+      <x:c r="H102" s="38"/>
+      <x:c r="I102" s="2"/>
+    </x:row>
+    <x:row r="103" spans="1:9" ht="18.5">
+      <x:c r="A103" s="2"/>
+      <x:c r="B103" s="7"/>
+      <x:c r="C103" s="9"/>
+      <x:c r="D103" s="9"/>
+      <x:c r="E103" s="36"/>
+      <x:c r="F103" s="36"/>
+      <x:c r="G103" s="36"/>
+      <x:c r="H103" s="38"/>
+      <x:c r="I103" s="2"/>
+    </x:row>
+    <x:row r="104" spans="1:9" ht="18.5">
+      <x:c r="A104" s="2"/>
+      <x:c r="B104" s="7"/>
+      <x:c r="C104" s="9"/>
+      <x:c r="D104" s="9"/>
+      <x:c r="E104" s="36"/>
+      <x:c r="F104" s="36"/>
+      <x:c r="G104" s="36"/>
+      <x:c r="H104" s="38"/>
+      <x:c r="I104" s="2"/>
+    </x:row>
+    <x:row r="105" spans="1:9" ht="18.5">
+      <x:c r="A105" s="2"/>
+      <x:c r="B105" s="7"/>
+      <x:c r="C105" s="9"/>
+      <x:c r="D105" s="9"/>
+      <x:c r="E105" s="36"/>
+      <x:c r="F105" s="36"/>
+      <x:c r="G105" s="36"/>
+      <x:c r="H105" s="38"/>
+      <x:c r="I105" s="2"/>
+    </x:row>
+    <x:row r="106" spans="1:9" ht="18.5">
+      <x:c r="A106" s="2"/>
+      <x:c r="B106" s="7"/>
+      <x:c r="C106" s="9"/>
+      <x:c r="D106" s="9"/>
+      <x:c r="E106" s="36"/>
+      <x:c r="F106" s="36"/>
+      <x:c r="G106" s="36"/>
+      <x:c r="H106" s="38"/>
+      <x:c r="I106" s="2"/>
+    </x:row>
+    <x:row r="107" spans="1:9" ht="18.5">
+      <x:c r="A107" s="2"/>
+      <x:c r="B107" s="7"/>
+      <x:c r="C107" s="9"/>
+      <x:c r="D107" s="9"/>
+      <x:c r="E107" s="36"/>
+      <x:c r="F107" s="36"/>
+      <x:c r="G107" s="36"/>
+      <x:c r="H107" s="38"/>
+      <x:c r="I107" s="2"/>
+    </x:row>
+    <x:row r="108" spans="1:9" ht="18.5">
+      <x:c r="A108" s="2"/>
+      <x:c r="B108" s="7"/>
+      <x:c r="C108" s="9"/>
+      <x:c r="D108" s="9"/>
+      <x:c r="E108" s="36"/>
+      <x:c r="F108" s="36"/>
+      <x:c r="G108" s="36"/>
+      <x:c r="H108" s="38"/>
+      <x:c r="I108" s="2"/>
+    </x:row>
+    <x:row r="109" spans="1:9" ht="18.5">
+      <x:c r="A109" s="2"/>
+      <x:c r="B109" s="7"/>
+      <x:c r="C109" s="9"/>
+      <x:c r="D109" s="9"/>
+      <x:c r="E109" s="36"/>
+      <x:c r="F109" s="36"/>
+      <x:c r="G109" s="36"/>
+      <x:c r="H109" s="38"/>
+      <x:c r="I109" s="2"/>
+    </x:row>
+    <x:row r="110" spans="1:9" ht="18.5">
+      <x:c r="A110" s="2"/>
+      <x:c r="B110" s="7"/>
+      <x:c r="C110" s="9"/>
+      <x:c r="D110" s="9"/>
+      <x:c r="E110" s="36"/>
+      <x:c r="F110" s="36"/>
+      <x:c r="G110" s="36"/>
+      <x:c r="H110" s="38"/>
+      <x:c r="I110" s="2"/>
+    </x:row>
+    <x:row r="111" spans="1:9" ht="18.5">
+      <x:c r="A111" s="2"/>
+      <x:c r="B111" s="7"/>
+      <x:c r="C111" s="9"/>
+      <x:c r="D111" s="9"/>
+      <x:c r="E111" s="36"/>
+      <x:c r="F111" s="36"/>
+      <x:c r="G111" s="36"/>
+      <x:c r="H111" s="38"/>
+      <x:c r="I111" s="2"/>
+    </x:row>
+    <x:row r="112" spans="1:9" ht="18.5">
+      <x:c r="A112" s="2"/>
+      <x:c r="B112" s="7"/>
+      <x:c r="C112" s="9"/>
+      <x:c r="D112" s="9"/>
+      <x:c r="E112" s="36"/>
+      <x:c r="F112" s="36"/>
+      <x:c r="G112" s="36"/>
+      <x:c r="H112" s="38"/>
+      <x:c r="I112" s="2"/>
+    </x:row>
+    <x:row r="113" spans="1:10" ht="18.5">
+      <x:c r="A113" s="2"/>
+      <x:c r="B113" s="7"/>
+      <x:c r="C113" s="9"/>
+      <x:c r="D113" s="9"/>
+      <x:c r="E113" s="36"/>
+      <x:c r="F113" s="36"/>
+      <x:c r="G113" s="36"/>
+      <x:c r="H113" s="38"/>
+      <x:c r="I113" s="2"/>
+    </x:row>
+    <x:row r="114" spans="1:10" ht="18.5">
+      <x:c r="A114" s="2"/>
+      <x:c r="B114" s="7"/>
+      <x:c r="C114" s="9"/>
+      <x:c r="D114" s="9"/>
+      <x:c r="E114" s="36"/>
+      <x:c r="F114" s="36"/>
+      <x:c r="G114" s="36"/>
+      <x:c r="H114" s="38"/>
+      <x:c r="I114" s="2"/>
+    </x:row>
+    <x:row r="115" spans="1:10" ht="18.5">
+      <x:c r="A115" s="2"/>
+      <x:c r="B115" s="7"/>
+      <x:c r="C115" s="9"/>
+      <x:c r="D115" s="9"/>
+      <x:c r="E115" s="36"/>
+      <x:c r="F115" s="36"/>
+      <x:c r="G115" s="36"/>
+      <x:c r="H115" s="38"/>
+      <x:c r="I115" s="2"/>
+    </x:row>
+    <x:row r="116" spans="1:10" ht="18.5">
+      <x:c r="A116" s="2"/>
+      <x:c r="B116" s="7"/>
+      <x:c r="C116" s="9"/>
+      <x:c r="D116" s="9"/>
+      <x:c r="E116" s="36"/>
+      <x:c r="F116" s="36"/>
+      <x:c r="G116" s="36"/>
+      <x:c r="H116" s="38"/>
+      <x:c r="I116" s="2"/>
+    </x:row>
+    <x:row r="117" spans="1:10" ht="18.5">
+      <x:c r="A117" s="2"/>
+      <x:c r="B117" s="7"/>
+      <x:c r="C117" s="9"/>
+      <x:c r="D117" s="9"/>
+      <x:c r="E117" s="36"/>
+      <x:c r="F117" s="36"/>
+      <x:c r="G117" s="36"/>
+      <x:c r="H117" s="38"/>
+      <x:c r="I117" s="2"/>
+    </x:row>
+    <x:row r="118" spans="1:10" ht="17" customHeight="1" thickBot="1">
+      <x:c r="A118" s="2"/>
+      <x:c r="B118" s="30"/>
+      <x:c r="C118" s="23"/>
+      <x:c r="D118" s="23"/>
+      <x:c r="E118" s="23"/>
+      <x:c r="F118" s="23"/>
+      <x:c r="G118" s="23"/>
+      <x:c r="H118" s="24"/>
+      <x:c r="I118" s="2"/>
+    </x:row>
+    <x:row r="119" spans="1:10">
+      <x:c r="A119" s="2"/>
+      <x:c r="B119" s="2"/>
+      <x:c r="C119" s="2"/>
+      <x:c r="D119" s="2"/>
+      <x:c r="E119" s="2"/>
+      <x:c r="F119" s="2"/>
+      <x:c r="G119" s="2"/>
+      <x:c r="H119" s="2"/>
+      <x:c r="I119" s="2"/>
+      <x:c r="J119" s="56"/>
+    </x:row>
+    <x:row r="120" spans="1:10">
+      <x:c r="A120" s="2"/>
+      <x:c r="B120" s="2"/>
+      <x:c r="C120" s="2"/>
+      <x:c r="D120" s="2"/>
+      <x:c r="E120" s="2"/>
+      <x:c r="F120" s="2"/>
+      <x:c r="G120" s="2"/>
+      <x:c r="H120" s="2"/>
+      <x:c r="I120" s="2"/>
+      <x:c r="J120" s="56"/>
+    </x:row>
+    <x:row r="121" spans="1:10">
+      <x:c r="A121" s="2"/>
+      <x:c r="B121" s="2"/>
+      <x:c r="C121" s="2"/>
+      <x:c r="D121" s="2"/>
+      <x:c r="E121" s="2"/>
+      <x:c r="F121" s="2"/>
+      <x:c r="G121" s="2"/>
+      <x:c r="H121" s="2"/>
+      <x:c r="I121" s="2"/>
+      <x:c r="J121" s="56"/>
+    </x:row>
+    <x:row r="122" spans="1:10">
+      <x:c r="A122" s="2"/>
+      <x:c r="B122" s="2"/>
+      <x:c r="C122" s="2"/>
+      <x:c r="D122" s="2"/>
+      <x:c r="E122" s="2"/>
+      <x:c r="F122" s="2"/>
+      <x:c r="G122" s="2"/>
+      <x:c r="H122" s="2"/>
+      <x:c r="I122" s="2"/>
+      <x:c r="J122" s="56"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="26">
+    <x:mergeCell ref="B44:H44"/>
+    <x:mergeCell ref="B46:C46"/>
+    <x:mergeCell ref="D46:F46"/>
+    <x:mergeCell ref="G46:H46"/>
+    <x:mergeCell ref="B33:G33"/>
+    <x:mergeCell ref="B38:H38"/>
+    <x:mergeCell ref="B39:H39"/>
+    <x:mergeCell ref="B40:H40"/>
+    <x:mergeCell ref="B41:H41"/>
+    <x:mergeCell ref="B36:H36"/>
+    <x:mergeCell ref="B37:H37"/>
+    <x:mergeCell ref="B42:H42"/>
+    <x:mergeCell ref="B20:H20"/>
+    <x:mergeCell ref="B22:H22"/>
+    <x:mergeCell ref="B23:H23"/>
+    <x:mergeCell ref="B26:D26"/>
+    <x:mergeCell ref="F26:H26"/>
+    <x:mergeCell ref="B14:C14"/>
+    <x:mergeCell ref="B15:C15"/>
+    <x:mergeCell ref="B16:C16"/>
+    <x:mergeCell ref="B5:D5"/>
+    <x:mergeCell ref="F5:H5"/>
+    <x:mergeCell ref="B7:C7"/>
+    <x:mergeCell ref="B8:C8"/>
+    <x:mergeCell ref="B12:D12"/>
+    <x:mergeCell ref="F12:H12"/>
+  </x:mergeCells>
+  <x:phoneticPr fontId="3" type="noConversion"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup scale="76" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <x:colBreaks count="1" manualBreakCount="1">
+    <x:brk id="9" max="1048575" man="1"/>
+  </x:colBreaks>
+  <x:drawing r:id="rId2"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:dimension ref="A1:J78"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <x:cols>
+    <x:col min="1" max="1" width="4" customWidth="1"/>
+    <x:col min="2" max="2" width="9.1640625" style="5" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="9" width="13.33203125" customWidth="1"/>
+    <x:col min="10" max="10" width="4" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:10">
+      <x:c r="A1" s="1"/>
+      <x:c r="B1" s="3"/>
+      <x:c r="C1" s="1"/>
+      <x:c r="D1" s="1"/>
+      <x:c r="E1" s="1"/>
+      <x:c r="F1" s="1"/>
+      <x:c r="G1" s="1"/>
+      <x:c r="H1" s="1"/>
+      <x:c r="I1" s="1"/>
+      <x:c r="J1" s="1"/>
+    </x:row>
+    <x:row r="2" spans="1:10">
+      <x:c r="A2" s="1"/>
+      <x:c r="B2" s="3"/>
+      <x:c r="C2" s="1"/>
+      <x:c r="D2" s="1"/>
+      <x:c r="E2" s="1"/>
+      <x:c r="F2" s="1"/>
+      <x:c r="G2" s="1"/>
+      <x:c r="H2" s="1"/>
+      <x:c r="I2" s="1"/>
+      <x:c r="J2" s="1"/>
+    </x:row>
+    <x:row r="3" spans="1:10">
+      <x:c r="A3" s="1"/>
+      <x:c r="B3" s="3"/>
+      <x:c r="C3" s="1"/>
+      <x:c r="D3" s="1"/>
+      <x:c r="E3" s="1"/>
+      <x:c r="F3" s="1"/>
+      <x:c r="G3" s="1"/>
+      <x:c r="H3" s="1"/>
+      <x:c r="I3" s="1"/>
+      <x:c r="J3" s="1"/>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="24" customHeight="1" thickBot="1">
+      <x:c r="A4" s="2"/>
+      <x:c r="B4" s="4"/>
+      <x:c r="C4" s="2"/>
+      <x:c r="D4" s="2"/>
+      <x:c r="E4" s="2"/>
+      <x:c r="F4" s="2"/>
+      <x:c r="G4" s="2"/>
+      <x:c r="H4" s="2"/>
+      <x:c r="I4" s="2"/>
+      <x:c r="J4" s="2"/>
+    </x:row>
+    <x:row r="5" spans="1:10" ht="26">
+      <x:c r="A5" s="2"/>
+      <x:c r="B5" s="96" t="str">
+        <x:v>Engagement Name</x:v>
+      </x:c>
+      <x:c r="C5" s="97"/>
+      <x:c r="D5" s="98"/>
+      <x:c r="E5" s="105" t="str">
+        <x:v>Dr Pepper Snapple Group, Inc.</x:v>
+      </x:c>
+      <x:c r="F5" s="106"/>
+      <x:c r="G5" s="106"/>
+      <x:c r="H5" s="106"/>
+      <x:c r="I5" s="107"/>
+      <x:c r="J5" s="2"/>
+    </x:row>
+    <x:row r="6" spans="1:10" ht="26">
+      <x:c r="A6" s="2"/>
+      <x:c r="B6" s="99" t="str">
+        <x:v>File Name</x:v>
+      </x:c>
+      <x:c r="C6" s="100"/>
+      <x:c r="D6" s="101"/>
+      <x:c r="E6" s="19" t="str">
+        <x:v>Reveal Demo1.xlsx</x:v>
+      </x:c>
+      <x:c r="F6" s="26"/>
+      <x:c r="G6" s="26"/>
+      <x:c r="H6" s="26"/>
+      <x:c r="I6" s="27"/>
+      <x:c r="J6" s="2"/>
+    </x:row>
+    <x:row r="7" spans="1:10" ht="26">
+      <x:c r="A7" s="2"/>
+      <x:c r="B7" s="99" t="str">
+        <x:v>Description</x:v>
+      </x:c>
+      <x:c r="C7" s="100"/>
+      <x:c r="D7" s="101"/>
+      <x:c r="E7" s="19" t="str">
+        <x:v>Changed risk values to significant</x:v>
+      </x:c>
+      <x:c r="F7" s="26"/>
+      <x:c r="G7" s="26"/>
+      <x:c r="H7" s="26"/>
+      <x:c r="I7" s="27"/>
+      <x:c r="J7" s="2"/>
+    </x:row>
+    <x:row r="8" spans="1:10" ht="26.5" thickBot="1">
+      <x:c r="A8" s="2"/>
+      <x:c r="B8" s="102" t="str">
+        <x:v>Date and Time</x:v>
+      </x:c>
+      <x:c r="C8" s="103"/>
+      <x:c r="D8" s="104"/>
+      <x:c r="E8" s="114" t="str">
+        <x:v>2/6/2017  7:19:00 PM EST</x:v>
+      </x:c>
+      <x:c r="F8" s="115"/>
+      <x:c r="G8" s="115"/>
+      <x:c r="H8" s="115"/>
+      <x:c r="I8" s="116"/>
+      <x:c r="J8" s="2"/>
+    </x:row>
+    <x:row r="9" spans="1:10" ht="24" customHeight="1" thickBot="1">
+      <x:c r="A9" s="2"/>
+      <x:c r="B9" s="4"/>
+      <x:c r="C9" s="2"/>
+      <x:c r="D9" s="2"/>
+      <x:c r="E9" s="2"/>
+      <x:c r="F9" s="2"/>
+      <x:c r="G9" s="2"/>
+      <x:c r="H9" s="2"/>
+      <x:c r="I9" s="2"/>
+      <x:c r="J9" s="2"/>
+    </x:row>
+    <x:row r="10" spans="1:10" ht="30" customHeight="1">
+      <x:c r="A10" s="2"/>
+      <x:c r="B10" s="90" t="inlineStr">
+        <x:is>
+          <x:r>
+            <x:rPr>
+              <x:b/>
+              <x:sz val="20"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t>Steps to Performing Substantive Analytical procedures using Reveal</x:t>
+          </x:r>
+          <x:r>
+            <x:rPr>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t xml:space="preserve">
+</x:t>
+          </x:r>
+          <x:r>
+            <x:rPr>
+              <x:b/>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t>Note</x:t>
+          </x:r>
+          <x:r>
+            <x:rPr>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t>:  For additional guidance regarding the use of Reveal, refer to the Performing Substantive Analytical Procedures guide available in the Deloitte Technical Library.</x:t>
+          </x:r>
+        </x:is>
+      </x:c>
+      <x:c r="C10" s="91"/>
+      <x:c r="D10" s="91"/>
+      <x:c r="E10" s="91"/>
+      <x:c r="F10" s="91"/>
+      <x:c r="G10" s="91"/>
+      <x:c r="H10" s="91"/>
+      <x:c r="I10" s="92"/>
+      <x:c r="J10" s="2"/>
+    </x:row>
+    <x:row r="11" spans="1:10" ht="21" customHeight="1">
+      <x:c r="A11" s="2"/>
+      <x:c r="B11" s="93"/>
+      <x:c r="C11" s="94"/>
+      <x:c r="D11" s="94"/>
+      <x:c r="E11" s="94"/>
+      <x:c r="F11" s="94"/>
+      <x:c r="G11" s="94"/>
+      <x:c r="H11" s="94"/>
+      <x:c r="I11" s="95"/>
+      <x:c r="J11" s="2"/>
+    </x:row>
+    <x:row r="12" spans="1:10" ht="27.5" customHeight="1">
+      <x:c r="A12" s="2"/>
+      <x:c r="B12" s="93"/>
+      <x:c r="C12" s="94"/>
+      <x:c r="D12" s="94"/>
+      <x:c r="E12" s="94"/>
+      <x:c r="F12" s="94"/>
+      <x:c r="G12" s="94"/>
+      <x:c r="H12" s="94"/>
+      <x:c r="I12" s="95"/>
+      <x:c r="J12" s="2"/>
+    </x:row>
+    <x:row r="13" spans="1:10" ht="16" thickBot="1">
+      <x:c r="A13" s="2"/>
+      <x:c r="B13" s="30"/>
+      <x:c r="C13" s="23"/>
+      <x:c r="D13" s="23"/>
+      <x:c r="E13" s="23"/>
+      <x:c r="F13" s="23"/>
+      <x:c r="G13" s="23"/>
+      <x:c r="H13" s="85"/>
+      <x:c r="I13" s="24"/>
+      <x:c r="J13" s="2"/>
+    </x:row>
+    <x:row r="14" spans="1:10" ht="24" customHeight="1" thickBot="1">
+      <x:c r="A14" s="2"/>
+      <x:c r="B14" s="4"/>
+      <x:c r="C14" s="2"/>
+      <x:c r="D14" s="2"/>
+      <x:c r="E14" s="2"/>
+      <x:c r="F14" s="2"/>
+      <x:c r="G14" s="2"/>
+      <x:c r="H14" s="2"/>
+      <x:c r="I14" s="2"/>
+      <x:c r="J14" s="2"/>
+    </x:row>
+    <x:row r="15" spans="1:10" ht="26">
+      <x:c r="A15" s="2"/>
+      <x:c r="B15" s="111" t="str">
+        <x:v>1 Application Design</x:v>
+      </x:c>
+      <x:c r="C15" s="112"/>
+      <x:c r="D15" s="112"/>
+      <x:c r="E15" s="112"/>
+      <x:c r="F15" s="112"/>
+      <x:c r="G15" s="112"/>
+      <x:c r="H15" s="112"/>
+      <x:c r="I15" s="113"/>
+      <x:c r="J15" s="2"/>
+    </x:row>
+    <x:row r="16" spans="1:10" ht="36" customHeight="1">
+      <x:c r="A16" s="2"/>
+      <x:c r="B16" s="119" t="str">
+        <x:v>a)  Document the audit purpose and audit parameters used (e.g., risk(s) of material misstatement, account and related assertion(s) tested, performance materiality, testing strategy).</x:v>
+      </x:c>
+      <x:c r="C16" s="120"/>
+      <x:c r="D16" s="120"/>
+      <x:c r="E16" s="120"/>
+      <x:c r="F16" s="120"/>
+      <x:c r="G16" s="120"/>
+      <x:c r="H16" s="120"/>
+      <x:c r="I16" s="121"/>
+      <x:c r="J16" s="2"/>
+    </x:row>
+    <x:row r="17" spans="1:10" ht="49" customHeight="1">
+      <x:c r="A17" s="2"/>
+      <x:c r="B17" s="87" t="inlineStr">
+        <x:is>
+          <x:r>
+            <x:rPr>
+              <x:b/>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t>[Note:</x:t>
+          </x:r>
+          <x:r>
+            <x:rPr>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t xml:space="preserve"> Consider the degree to which information may need to be disaggregated. For example, Reveal may be more effective when applied to financial information on individual sections of an operation or to financial statements of components of a diversified entity, than when applied to the financial statements of the entity as a whole.]</x:t>
+          </x:r>
+        </x:is>
+      </x:c>
+      <x:c r="C17" s="88"/>
+      <x:c r="D17" s="88"/>
+      <x:c r="E17" s="88"/>
+      <x:c r="F17" s="88"/>
+      <x:c r="G17" s="88"/>
+      <x:c r="H17" s="88"/>
+      <x:c r="I17" s="89"/>
+      <x:c r="J17" s="2"/>
+    </x:row>
+    <x:row r="18" spans="1:10" ht="60" customHeight="1" thickBot="1">
+      <x:c r="A18" s="2"/>
+      <x:c r="B18" s="117" t="str">
+        <x:v>Comments:</x:v>
+      </x:c>
+      <x:c r="C18" s="118"/>
+      <x:c r="D18" s="28"/>
+      <x:c r="E18" s="28"/>
+      <x:c r="F18" s="28"/>
+      <x:c r="G18" s="28"/>
+      <x:c r="H18" s="28"/>
+      <x:c r="I18" s="29" t="str">
+        <x:v>See Data Model Sheet</x:v>
+      </x:c>
+      <x:c r="J18" s="2"/>
+    </x:row>
+    <x:row r="19" spans="1:10" ht="36" customHeight="1">
+      <x:c r="A19" s="2"/>
+      <x:c r="B19" s="119" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C19" s="120"/>
+      <x:c r="D19" s="120"/>
+      <x:c r="E19" s="120"/>
+      <x:c r="F19" s="120"/>
+      <x:c r="G19" s="120"/>
+      <x:c r="H19" s="120"/>
+      <x:c r="I19" s="121"/>
+      <x:c r="J19" s="2"/>
+    </x:row>
+    <x:row r="20" spans="1:10" ht="49" customHeight="1">
+      <x:c r="A20" s="2"/>
+      <x:c r="B20" s="87" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C20" s="88"/>
+      <x:c r="D20" s="88"/>
+      <x:c r="E20" s="88"/>
+      <x:c r="F20" s="88"/>
+      <x:c r="G20" s="88"/>
+      <x:c r="H20" s="88"/>
+      <x:c r="I20" s="89"/>
+      <x:c r="J20" s="2"/>
+    </x:row>
+    <x:row r="21" spans="1:10" ht="60" customHeight="1" thickBot="1">
+      <x:c r="A21" s="2"/>
+      <x:c r="B21" s="117" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C21" s="118"/>
+      <x:c r="D21" s="28"/>
+      <x:c r="E21" s="28"/>
+      <x:c r="F21" s="28"/>
+      <x:c r="G21" s="28"/>
+      <x:c r="H21" s="28"/>
+      <x:c r="I21" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J21" s="2"/>
+    </x:row>
+    <x:row r="22" spans="1:10" ht="52" customHeight="1">
+      <x:c r="A22" s="2"/>
+      <x:c r="B22" s="119" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C22" s="120"/>
+      <x:c r="D22" s="120"/>
+      <x:c r="E22" s="120"/>
+      <x:c r="F22" s="120"/>
+      <x:c r="G22" s="120"/>
+      <x:c r="H22" s="120"/>
+      <x:c r="I22" s="121"/>
+      <x:c r="J22" s="2"/>
+    </x:row>
+    <x:row r="23" spans="1:10" ht="60" customHeight="1" thickBot="1">
+      <x:c r="A23" s="2"/>
+      <x:c r="B23" s="117" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C23" s="118"/>
+      <x:c r="D23" s="28"/>
+      <x:c r="E23" s="28"/>
+      <x:c r="F23" s="28"/>
+      <x:c r="G23" s="28"/>
+      <x:c r="H23" s="28"/>
+      <x:c r="I23" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J23" s="2"/>
+    </x:row>
+    <x:row r="24" spans="1:10">
+      <x:c r="A24" s="2"/>
+      <x:c r="B24" s="119" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C24" s="120"/>
+      <x:c r="D24" s="120"/>
+      <x:c r="E24" s="120"/>
+      <x:c r="F24" s="120"/>
+      <x:c r="G24" s="120"/>
+      <x:c r="H24" s="120"/>
+      <x:c r="I24" s="121"/>
+      <x:c r="J24" s="2"/>
+    </x:row>
+    <x:row r="25" spans="1:10" ht="35" customHeight="1">
+      <x:c r="A25" s="2"/>
+      <x:c r="B25" s="87" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C25" s="88"/>
+      <x:c r="D25" s="88"/>
+      <x:c r="E25" s="88"/>
+      <x:c r="F25" s="88"/>
+      <x:c r="G25" s="88"/>
+      <x:c r="H25" s="88"/>
+      <x:c r="I25" s="89"/>
+      <x:c r="J25" s="2"/>
+    </x:row>
+    <x:row r="26" spans="1:10">
+      <x:c r="A26" s="2"/>
+      <x:c r="B26" s="87" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C26" s="88"/>
+      <x:c r="D26" s="88"/>
+      <x:c r="E26" s="88"/>
+      <x:c r="F26" s="88"/>
+      <x:c r="G26" s="88"/>
+      <x:c r="H26" s="88"/>
+      <x:c r="I26" s="89"/>
+      <x:c r="J26" s="2"/>
+    </x:row>
+    <x:row r="27" spans="1:10" ht="16" customHeight="1">
+      <x:c r="A27" s="2"/>
+      <x:c r="B27" s="87" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C27" s="88"/>
+      <x:c r="D27" s="88"/>
+      <x:c r="E27" s="88"/>
+      <x:c r="F27" s="88"/>
+      <x:c r="G27" s="88"/>
+      <x:c r="H27" s="88"/>
+      <x:c r="I27" s="89"/>
+      <x:c r="J27" s="2"/>
+    </x:row>
+    <x:row r="28" spans="1:10">
+      <x:c r="A28" s="2"/>
+      <x:c r="B28" s="108" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C28" s="109"/>
+      <x:c r="D28" s="109"/>
+      <x:c r="E28" s="109"/>
+      <x:c r="F28" s="109"/>
+      <x:c r="G28" s="109"/>
+      <x:c r="H28" s="109"/>
+      <x:c r="I28" s="110"/>
+      <x:c r="J28" s="2"/>
+    </x:row>
+    <x:row r="29" spans="1:10">
+      <x:c r="A29" s="2"/>
+      <x:c r="B29" s="108" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C29" s="109"/>
+      <x:c r="D29" s="109"/>
+      <x:c r="E29" s="109"/>
+      <x:c r="F29" s="109"/>
+      <x:c r="G29" s="109"/>
+      <x:c r="H29" s="109"/>
+      <x:c r="I29" s="110"/>
+      <x:c r="J29" s="2"/>
+    </x:row>
+    <x:row r="30" spans="1:10">
+      <x:c r="A30" s="2"/>
+      <x:c r="B30" s="108" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C30" s="109"/>
+      <x:c r="D30" s="109"/>
+      <x:c r="E30" s="109"/>
+      <x:c r="F30" s="109"/>
+      <x:c r="G30" s="109"/>
+      <x:c r="H30" s="109"/>
+      <x:c r="I30" s="110"/>
+      <x:c r="J30" s="2"/>
+    </x:row>
+    <x:row r="31" spans="1:10">
+      <x:c r="A31" s="2"/>
+      <x:c r="B31" s="108" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C31" s="109"/>
+      <x:c r="D31" s="109"/>
+      <x:c r="E31" s="109"/>
+      <x:c r="F31" s="109"/>
+      <x:c r="G31" s="109"/>
+      <x:c r="H31" s="109"/>
+      <x:c r="I31" s="110"/>
+      <x:c r="J31" s="2"/>
+    </x:row>
+    <x:row r="32" spans="1:10">
+      <x:c r="A32" s="2"/>
+      <x:c r="B32" s="108" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C32" s="109"/>
+      <x:c r="D32" s="109"/>
+      <x:c r="E32" s="109"/>
+      <x:c r="F32" s="109"/>
+      <x:c r="G32" s="109"/>
+      <x:c r="H32" s="109"/>
+      <x:c r="I32" s="110"/>
+      <x:c r="J32" s="2"/>
+    </x:row>
+    <x:row r="33" spans="1:10" ht="92" customHeight="1">
+      <x:c r="A33" s="2"/>
+      <x:c r="B33" s="108" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C33" s="109"/>
+      <x:c r="D33" s="109"/>
+      <x:c r="E33" s="109"/>
+      <x:c r="F33" s="109"/>
+      <x:c r="G33" s="109"/>
+      <x:c r="H33" s="109"/>
+      <x:c r="I33" s="110"/>
+      <x:c r="J33" s="2"/>
+    </x:row>
+    <x:row r="34" spans="1:10" ht="60" customHeight="1" thickBot="1">
+      <x:c r="A34" s="2"/>
+      <x:c r="B34" s="117" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C34" s="118"/>
+      <x:c r="D34" s="28"/>
+      <x:c r="E34" s="28"/>
+      <x:c r="F34" s="28"/>
+      <x:c r="G34" s="28"/>
+      <x:c r="H34" s="28"/>
+      <x:c r="I34" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J34" s="2"/>
+    </x:row>
+    <x:row r="35" spans="1:10" ht="24" customHeight="1" thickBot="1">
+      <x:c r="A35" s="2"/>
+      <x:c r="B35" s="2"/>
+      <x:c r="C35" s="2"/>
+      <x:c r="D35" s="2"/>
+      <x:c r="E35" s="2"/>
+      <x:c r="F35" s="2"/>
+      <x:c r="G35" s="2"/>
+      <x:c r="H35" s="2"/>
+      <x:c r="I35" s="2"/>
+      <x:c r="J35" s="2"/>
+    </x:row>
+    <x:row r="36" spans="1:10" ht="26">
+      <x:c r="A36" s="2"/>
+      <x:c r="B36" s="111" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C36" s="112"/>
+      <x:c r="D36" s="112"/>
+      <x:c r="E36" s="112"/>
+      <x:c r="F36" s="112"/>
+      <x:c r="G36" s="112"/>
+      <x:c r="H36" s="112"/>
+      <x:c r="I36" s="113"/>
+      <x:c r="J36" s="2"/>
+    </x:row>
+    <x:row r="37" spans="1:10">
+      <x:c r="A37" s="2"/>
+      <x:c r="B37" s="119" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C37" s="120"/>
+      <x:c r="D37" s="120"/>
+      <x:c r="E37" s="120"/>
+      <x:c r="F37" s="120"/>
+      <x:c r="G37" s="120"/>
+      <x:c r="H37" s="120"/>
+      <x:c r="I37" s="121"/>
+      <x:c r="J37" s="2"/>
+    </x:row>
+    <x:row r="38" spans="1:10">
+      <x:c r="A38" s="2"/>
+      <x:c r="B38" s="108" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C38" s="109"/>
+      <x:c r="D38" s="109"/>
+      <x:c r="E38" s="109"/>
+      <x:c r="F38" s="109"/>
+      <x:c r="G38" s="109"/>
+      <x:c r="H38" s="109"/>
+      <x:c r="I38" s="110"/>
+      <x:c r="J38" s="2"/>
+    </x:row>
+    <x:row r="39" spans="1:10" ht="35" customHeight="1">
+      <x:c r="A39" s="2"/>
+      <x:c r="B39" s="87" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C39" s="88"/>
+      <x:c r="D39" s="88"/>
+      <x:c r="E39" s="88"/>
+      <x:c r="F39" s="88"/>
+      <x:c r="G39" s="88"/>
+      <x:c r="H39" s="88"/>
+      <x:c r="I39" s="89"/>
+      <x:c r="J39" s="2"/>
+    </x:row>
+    <x:row r="40" spans="1:10">
+      <x:c r="A40" s="2"/>
+      <x:c r="B40" s="108" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C40" s="109"/>
+      <x:c r="D40" s="109"/>
+      <x:c r="E40" s="109"/>
+      <x:c r="F40" s="109"/>
+      <x:c r="G40" s="109"/>
+      <x:c r="H40" s="109"/>
+      <x:c r="I40" s="110"/>
+      <x:c r="J40" s="2"/>
+    </x:row>
+    <x:row r="41" spans="1:10">
+      <x:c r="A41" s="2"/>
+      <x:c r="B41" s="108" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C41" s="109"/>
+      <x:c r="D41" s="109"/>
+      <x:c r="E41" s="109"/>
+      <x:c r="F41" s="109"/>
+      <x:c r="G41" s="109"/>
+      <x:c r="H41" s="109"/>
+      <x:c r="I41" s="110"/>
+      <x:c r="J41" s="2"/>
+    </x:row>
+    <x:row r="42" spans="1:10" ht="86" customHeight="1">
+      <x:c r="A42" s="2"/>
+      <x:c r="B42" s="87" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C42" s="88"/>
+      <x:c r="D42" s="88"/>
+      <x:c r="E42" s="88"/>
+      <x:c r="F42" s="88"/>
+      <x:c r="G42" s="88"/>
+      <x:c r="H42" s="88"/>
+      <x:c r="I42" s="89"/>
+      <x:c r="J42" s="2"/>
+    </x:row>
+    <x:row r="43" spans="1:10" ht="60" customHeight="1" thickBot="1">
+      <x:c r="A43" s="2"/>
+      <x:c r="B43" s="117" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C43" s="118"/>
+      <x:c r="D43" s="28"/>
+      <x:c r="E43" s="28"/>
+      <x:c r="F43" s="28"/>
+      <x:c r="G43" s="28"/>
+      <x:c r="H43" s="28"/>
+      <x:c r="I43" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J43" s="2"/>
+    </x:row>
+    <x:row r="44" spans="1:10" ht="36" customHeight="1">
+      <x:c r="A44" s="2"/>
+      <x:c r="B44" s="119" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C44" s="120"/>
+      <x:c r="D44" s="120"/>
+      <x:c r="E44" s="120"/>
+      <x:c r="F44" s="120"/>
+      <x:c r="G44" s="120"/>
+      <x:c r="H44" s="120"/>
+      <x:c r="I44" s="121"/>
+      <x:c r="J44" s="2"/>
+    </x:row>
+    <x:row r="45" spans="1:10" ht="51" customHeight="1">
+      <x:c r="A45" s="2"/>
+      <x:c r="B45" s="108" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C45" s="109"/>
+      <x:c r="D45" s="109"/>
+      <x:c r="E45" s="109"/>
+      <x:c r="F45" s="109"/>
+      <x:c r="G45" s="109"/>
+      <x:c r="H45" s="109"/>
+      <x:c r="I45" s="110"/>
+      <x:c r="J45" s="2"/>
+    </x:row>
+    <x:row r="46" spans="1:10">
+      <x:c r="A46" s="2"/>
+      <x:c r="B46" s="108" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C46" s="109"/>
+      <x:c r="D46" s="109"/>
+      <x:c r="E46" s="109"/>
+      <x:c r="F46" s="109"/>
+      <x:c r="G46" s="109"/>
+      <x:c r="H46" s="109"/>
+      <x:c r="I46" s="110"/>
+      <x:c r="J46" s="2"/>
+    </x:row>
+    <x:row r="47" spans="1:10">
+      <x:c r="A47" s="2"/>
+      <x:c r="B47" s="108" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C47" s="109"/>
+      <x:c r="D47" s="109"/>
+      <x:c r="E47" s="109"/>
+      <x:c r="F47" s="109"/>
+      <x:c r="G47" s="109"/>
+      <x:c r="H47" s="109"/>
+      <x:c r="I47" s="110"/>
+      <x:c r="J47" s="2"/>
+    </x:row>
+    <x:row r="48" spans="1:10">
+      <x:c r="A48" s="2"/>
+      <x:c r="B48" s="108" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C48" s="109"/>
+      <x:c r="D48" s="109"/>
+      <x:c r="E48" s="109"/>
+      <x:c r="F48" s="109"/>
+      <x:c r="G48" s="109"/>
+      <x:c r="H48" s="109"/>
+      <x:c r="I48" s="110"/>
+      <x:c r="J48" s="2"/>
+    </x:row>
+    <x:row r="49" spans="1:10" ht="60" customHeight="1" thickBot="1">
+      <x:c r="A49" s="2"/>
+      <x:c r="B49" s="117" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C49" s="118"/>
+      <x:c r="D49" s="28"/>
+      <x:c r="E49" s="28"/>
+      <x:c r="F49" s="28"/>
+      <x:c r="G49" s="28"/>
+      <x:c r="H49" s="28"/>
+      <x:c r="I49" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J49" s="2"/>
+    </x:row>
+    <x:row r="50" spans="1:10" ht="41" customHeight="1">
+      <x:c r="A50" s="2"/>
+      <x:c r="B50" s="119" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C50" s="120"/>
+      <x:c r="D50" s="120"/>
+      <x:c r="E50" s="120"/>
+      <x:c r="F50" s="120"/>
+      <x:c r="G50" s="120"/>
+      <x:c r="H50" s="120"/>
+      <x:c r="I50" s="121"/>
+      <x:c r="J50" s="2"/>
+    </x:row>
+    <x:row r="51" spans="1:10" ht="60" customHeight="1" thickBot="1">
+      <x:c r="A51" s="2"/>
+      <x:c r="B51" s="117" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C51" s="118"/>
+      <x:c r="D51" s="28"/>
+      <x:c r="E51" s="28"/>
+      <x:c r="F51" s="28"/>
+      <x:c r="G51" s="28"/>
+      <x:c r="H51" s="28"/>
+      <x:c r="I51" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J51" s="2"/>
+    </x:row>
+    <x:row r="52" spans="1:10">
+      <x:c r="A52" s="2"/>
+      <x:c r="B52" s="119" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C52" s="120"/>
+      <x:c r="D52" s="120"/>
+      <x:c r="E52" s="120"/>
+      <x:c r="F52" s="120"/>
+      <x:c r="G52" s="120"/>
+      <x:c r="H52" s="120"/>
+      <x:c r="I52" s="121"/>
+      <x:c r="J52" s="2"/>
+    </x:row>
+    <x:row r="53" spans="1:10" ht="60" customHeight="1" thickBot="1">
+      <x:c r="A53" s="2"/>
+      <x:c r="B53" s="117" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C53" s="118"/>
+      <x:c r="D53" s="28"/>
+      <x:c r="E53" s="28"/>
+      <x:c r="F53" s="28"/>
+      <x:c r="G53" s="28"/>
+      <x:c r="H53" s="28"/>
+      <x:c r="I53" s="29" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="J53" s="2"/>
+    </x:row>
+    <x:row r="54" spans="1:10" ht="41" customHeight="1">
+      <x:c r="A54" s="2"/>
+      <x:c r="B54" s="119" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C54" s="120"/>
+      <x:c r="D54" s="120"/>
+      <x:c r="E54" s="120"/>
+      <x:c r="F54" s="120"/>
+      <x:c r="G54" s="120"/>
+      <x:c r="H54" s="120"/>
+      <x:c r="I54" s="121"/>
+      <x:c r="J54" s="2"/>
+    </x:row>
+    <x:row r="55" spans="1:10" ht="60" customHeight="1" thickBot="1">
+      <x:c r="A55" s="2"/>
+      <x:c r="B55" s="117" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C55" s="118"/>
+      <x:c r="D55" s="28"/>
+      <x:c r="E55" s="28"/>
+      <x:c r="F55" s="28"/>
+      <x:c r="G55" s="28"/>
+      <x:c r="H55" s="28"/>
+      <x:c r="I55" s="29" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="J55" s="2"/>
+    </x:row>
+    <x:row r="56" spans="1:10" ht="57" customHeight="1">
+      <x:c r="A56" s="2"/>
+      <x:c r="B56" s="119" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C56" s="120"/>
+      <x:c r="D56" s="120"/>
+      <x:c r="E56" s="120"/>
+      <x:c r="F56" s="120"/>
+      <x:c r="G56" s="120"/>
+      <x:c r="H56" s="120"/>
+      <x:c r="I56" s="121"/>
+      <x:c r="J56" s="2"/>
+    </x:row>
+    <x:row r="57" spans="1:10" ht="60" customHeight="1" thickBot="1">
+      <x:c r="A57" s="2"/>
+      <x:c r="B57" s="117" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C57" s="118"/>
+      <x:c r="D57" s="28"/>
+      <x:c r="E57" s="28"/>
+      <x:c r="F57" s="28"/>
+      <x:c r="G57" s="28"/>
+      <x:c r="H57" s="28"/>
+      <x:c r="I57" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J57" s="2"/>
+    </x:row>
+    <x:row r="58" spans="1:10" ht="24" customHeight="1" thickBot="1">
+      <x:c r="A58" s="2"/>
+      <x:c r="B58" s="2"/>
+      <x:c r="C58" s="2"/>
+      <x:c r="D58" s="2"/>
+      <x:c r="E58" s="2"/>
+      <x:c r="F58" s="2"/>
+      <x:c r="G58" s="2"/>
+      <x:c r="H58" s="2"/>
+      <x:c r="I58" s="2"/>
+      <x:c r="J58" s="2"/>
+    </x:row>
+    <x:row r="59" spans="1:10" ht="26">
+      <x:c r="A59" s="2"/>
+      <x:c r="B59" s="111" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C59" s="112"/>
+      <x:c r="D59" s="112"/>
+      <x:c r="E59" s="112"/>
+      <x:c r="F59" s="112"/>
+      <x:c r="G59" s="112"/>
+      <x:c r="H59" s="112"/>
+      <x:c r="I59" s="113"/>
+      <x:c r="J59" s="2"/>
+    </x:row>
+    <x:row r="60" spans="1:10" ht="84" customHeight="1">
+      <x:c r="A60" s="2"/>
+      <x:c r="B60" s="119" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C60" s="120"/>
+      <x:c r="D60" s="120"/>
+      <x:c r="E60" s="120"/>
+      <x:c r="F60" s="120"/>
+      <x:c r="G60" s="120"/>
+      <x:c r="H60" s="120"/>
+      <x:c r="I60" s="121"/>
+      <x:c r="J60" s="2"/>
+    </x:row>
+    <x:row r="61" spans="1:10" ht="60" customHeight="1" thickBot="1">
+      <x:c r="A61" s="2"/>
+      <x:c r="B61" s="117" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C61" s="118"/>
+      <x:c r="D61" s="28"/>
+      <x:c r="E61" s="28"/>
+      <x:c r="F61" s="28"/>
+      <x:c r="G61" s="28"/>
+      <x:c r="H61" s="28"/>
+      <x:c r="I61" s="29" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="J61" s="2"/>
+    </x:row>
+    <x:row r="62" spans="1:10" ht="36" customHeight="1">
+      <x:c r="A62" s="2"/>
+      <x:c r="B62" s="119" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C62" s="120"/>
+      <x:c r="D62" s="120"/>
+      <x:c r="E62" s="120"/>
+      <x:c r="F62" s="120"/>
+      <x:c r="G62" s="120"/>
+      <x:c r="H62" s="120"/>
+      <x:c r="I62" s="121"/>
+      <x:c r="J62" s="2"/>
+    </x:row>
+    <x:row r="63" spans="1:10" ht="60" customHeight="1" thickBot="1">
+      <x:c r="A63" s="2"/>
+      <x:c r="B63" s="117" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C63" s="118"/>
+      <x:c r="D63" s="28"/>
+      <x:c r="E63" s="28"/>
+      <x:c r="F63" s="28"/>
+      <x:c r="G63" s="28"/>
+      <x:c r="H63" s="28"/>
+      <x:c r="I63" s="29" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="J63" s="2"/>
+    </x:row>
+    <x:row r="64" spans="1:10" ht="36" customHeight="1">
+      <x:c r="A64" s="2"/>
+      <x:c r="B64" s="119" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C64" s="120"/>
+      <x:c r="D64" s="120"/>
+      <x:c r="E64" s="120"/>
+      <x:c r="F64" s="120"/>
+      <x:c r="G64" s="120"/>
+      <x:c r="H64" s="120"/>
+      <x:c r="I64" s="121"/>
+      <x:c r="J64" s="2"/>
+    </x:row>
+    <x:row r="65" spans="1:10" ht="49" customHeight="1">
+      <x:c r="A65" s="2"/>
+      <x:c r="B65" s="87" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C65" s="88"/>
+      <x:c r="D65" s="88"/>
+      <x:c r="E65" s="88"/>
+      <x:c r="F65" s="88"/>
+      <x:c r="G65" s="88"/>
+      <x:c r="H65" s="88"/>
+      <x:c r="I65" s="89"/>
+      <x:c r="J65" s="2"/>
+    </x:row>
+    <x:row r="66" spans="1:10" ht="60" customHeight="1" thickBot="1">
+      <x:c r="A66" s="2"/>
+      <x:c r="B66" s="117" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C66" s="118"/>
+      <x:c r="D66" s="28"/>
+      <x:c r="E66" s="28"/>
+      <x:c r="F66" s="28"/>
+      <x:c r="G66" s="28"/>
+      <x:c r="H66" s="28"/>
+      <x:c r="I66" s="29" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="J66" s="2"/>
+    </x:row>
+    <x:row r="67" spans="1:10" ht="36" customHeight="1">
+      <x:c r="A67" s="2"/>
+      <x:c r="B67" s="119" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C67" s="120"/>
+      <x:c r="D67" s="120"/>
+      <x:c r="E67" s="120"/>
+      <x:c r="F67" s="120"/>
+      <x:c r="G67" s="120"/>
+      <x:c r="H67" s="120"/>
+      <x:c r="I67" s="121"/>
+      <x:c r="J67" s="2"/>
+    </x:row>
+    <x:row r="68" spans="1:10" ht="60" customHeight="1" thickBot="1">
+      <x:c r="A68" s="2"/>
+      <x:c r="B68" s="117" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C68" s="118"/>
+      <x:c r="D68" s="28"/>
+      <x:c r="E68" s="28"/>
+      <x:c r="F68" s="28"/>
+      <x:c r="G68" s="28"/>
+      <x:c r="H68" s="28"/>
+      <x:c r="I68" s="29"/>
+      <x:c r="J68" s="2"/>
+    </x:row>
+    <x:row r="69" spans="1:10">
+      <x:c r="A69" s="2"/>
+      <x:c r="B69" s="119" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C69" s="120"/>
+      <x:c r="D69" s="120"/>
+      <x:c r="E69" s="120"/>
+      <x:c r="F69" s="120"/>
+      <x:c r="G69" s="120"/>
+      <x:c r="H69" s="120"/>
+      <x:c r="I69" s="121"/>
+      <x:c r="J69" s="2"/>
+    </x:row>
+    <x:row r="70" spans="1:10" ht="60" customHeight="1" thickBot="1">
+      <x:c r="A70" s="2"/>
+      <x:c r="B70" s="117" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C70" s="118"/>
+      <x:c r="D70" s="28"/>
+      <x:c r="E70" s="28"/>
+      <x:c r="F70" s="28"/>
+      <x:c r="G70" s="28"/>
+      <x:c r="H70" s="28"/>
+      <x:c r="I70" s="29" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="J70" s="2"/>
+    </x:row>
+    <x:row r="71" spans="1:10" ht="24" customHeight="1" thickBot="1">
+      <x:c r="A71" s="2"/>
+      <x:c r="B71" s="2"/>
+      <x:c r="C71" s="2"/>
+      <x:c r="D71" s="2"/>
+      <x:c r="E71" s="2"/>
+      <x:c r="F71" s="2"/>
+      <x:c r="G71" s="2"/>
+      <x:c r="H71" s="2"/>
+      <x:c r="I71" s="2"/>
+      <x:c r="J71" s="2"/>
+    </x:row>
+    <x:row r="72" spans="1:10" ht="26">
+      <x:c r="A72" s="2"/>
+      <x:c r="B72" s="111" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C72" s="112"/>
+      <x:c r="D72" s="112"/>
+      <x:c r="E72" s="112"/>
+      <x:c r="F72" s="112"/>
+      <x:c r="G72" s="112"/>
+      <x:c r="H72" s="112"/>
+      <x:c r="I72" s="113"/>
+      <x:c r="J72" s="2"/>
+    </x:row>
+    <x:row r="73" spans="1:10" ht="53" customHeight="1">
+      <x:c r="A73" s="2"/>
+      <x:c r="B73" s="119" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C73" s="120"/>
+      <x:c r="D73" s="120"/>
+      <x:c r="E73" s="120"/>
+      <x:c r="F73" s="120"/>
+      <x:c r="G73" s="120"/>
+      <x:c r="H73" s="120"/>
+      <x:c r="I73" s="121"/>
+      <x:c r="J73" s="2"/>
+    </x:row>
+    <x:row r="74" spans="1:10" ht="60" customHeight="1" thickBot="1">
+      <x:c r="A74" s="2"/>
+      <x:c r="B74" s="117" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C74" s="118"/>
+      <x:c r="D74" s="28"/>
+      <x:c r="E74" s="28"/>
+      <x:c r="F74" s="28"/>
+      <x:c r="G74" s="28"/>
+      <x:c r="H74" s="28"/>
+      <x:c r="I74" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J74" s="2"/>
+    </x:row>
+    <x:row r="75" spans="1:10">
+      <x:c r="A75" s="2"/>
+      <x:c r="B75" s="2"/>
+      <x:c r="C75" s="2"/>
+      <x:c r="D75" s="2"/>
+      <x:c r="E75" s="2"/>
+      <x:c r="F75" s="2"/>
+      <x:c r="G75" s="2"/>
+      <x:c r="H75" s="2"/>
+      <x:c r="I75" s="2"/>
+      <x:c r="J75" s="2"/>
+    </x:row>
+    <x:row r="76" spans="1:10">
+      <x:c r="A76" s="2"/>
+      <x:c r="B76" s="2"/>
+      <x:c r="C76" s="2"/>
+      <x:c r="D76" s="2"/>
+      <x:c r="E76" s="2"/>
+      <x:c r="F76" s="2"/>
+      <x:c r="G76" s="2"/>
+      <x:c r="H76" s="2"/>
+      <x:c r="I76" s="2"/>
+      <x:c r="J76" s="2"/>
+    </x:row>
+    <x:row r="77" spans="1:10">
+      <x:c r="A77" s="2"/>
+      <x:c r="B77" s="2"/>
+      <x:c r="C77" s="2"/>
+      <x:c r="D77" s="2"/>
+      <x:c r="E77" s="2"/>
+      <x:c r="F77" s="2"/>
+      <x:c r="G77" s="2"/>
+      <x:c r="H77" s="2"/>
+      <x:c r="I77" s="2"/>
+      <x:c r="J77" s="2"/>
+    </x:row>
+    <x:row r="78" spans="1:10">
+      <x:c r="A78" s="2"/>
+      <x:c r="B78" s="2"/>
+      <x:c r="C78" s="2"/>
+      <x:c r="D78" s="2"/>
+      <x:c r="E78" s="2"/>
+      <x:c r="F78" s="2"/>
+      <x:c r="G78" s="2"/>
+      <x:c r="H78" s="2"/>
+      <x:c r="I78" s="2"/>
+      <x:c r="J78" s="2"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="64">
+    <x:mergeCell ref="B74:C74"/>
+    <x:mergeCell ref="B67:I67"/>
+    <x:mergeCell ref="B68:C68"/>
+    <x:mergeCell ref="B69:I69"/>
+    <x:mergeCell ref="B70:C70"/>
+    <x:mergeCell ref="B72:I72"/>
+    <x:mergeCell ref="B73:I73"/>
+    <x:mergeCell ref="B62:I62"/>
+    <x:mergeCell ref="B63:C63"/>
+    <x:mergeCell ref="B64:I64"/>
+    <x:mergeCell ref="B65:I65"/>
+    <x:mergeCell ref="B66:C66"/>
+    <x:mergeCell ref="B56:I56"/>
+    <x:mergeCell ref="B57:C57"/>
+    <x:mergeCell ref="B59:I59"/>
+    <x:mergeCell ref="B60:I60"/>
+    <x:mergeCell ref="B61:C61"/>
+    <x:mergeCell ref="B55:C55"/>
+    <x:mergeCell ref="B38:I38"/>
+    <x:mergeCell ref="B41:I41"/>
+    <x:mergeCell ref="B40:I40"/>
+    <x:mergeCell ref="B42:I42"/>
+    <x:mergeCell ref="B45:I45"/>
+    <x:mergeCell ref="B47:I47"/>
+    <x:mergeCell ref="B46:I46"/>
+    <x:mergeCell ref="B53:C53"/>
+    <x:mergeCell ref="B52:I52"/>
+    <x:mergeCell ref="B54:I54"/>
+    <x:mergeCell ref="B50:I50"/>
+    <x:mergeCell ref="B51:C51"/>
+    <x:mergeCell ref="B49:C49"/>
+    <x:mergeCell ref="B37:I37"/>
+    <x:mergeCell ref="B39:I39"/>
+    <x:mergeCell ref="B43:C43"/>
+    <x:mergeCell ref="B44:I44"/>
+    <x:mergeCell ref="B48:I48"/>
+    <x:mergeCell ref="B26:I26"/>
+    <x:mergeCell ref="B30:I30"/>
+    <x:mergeCell ref="B29:I29"/>
+    <x:mergeCell ref="B28:I28"/>
+    <x:mergeCell ref="B27:I27"/>
+    <x:mergeCell ref="B31:I31"/>
+    <x:mergeCell ref="B33:I33"/>
+    <x:mergeCell ref="B36:I36"/>
+    <x:mergeCell ref="E8:I8"/>
+    <x:mergeCell ref="B23:C23"/>
+    <x:mergeCell ref="B16:I16"/>
+    <x:mergeCell ref="B17:I17"/>
+    <x:mergeCell ref="B18:C18"/>
+    <x:mergeCell ref="B15:I15"/>
+    <x:mergeCell ref="B22:I22"/>
+    <x:mergeCell ref="B19:I19"/>
+    <x:mergeCell ref="B20:I20"/>
+    <x:mergeCell ref="B21:C21"/>
+    <x:mergeCell ref="B24:I24"/>
+    <x:mergeCell ref="B32:I32"/>
+    <x:mergeCell ref="B34:C34"/>
+    <x:mergeCell ref="B25:I25"/>
+    <x:mergeCell ref="B10:I12"/>
+    <x:mergeCell ref="B5:D5"/>
+    <x:mergeCell ref="B6:D6"/>
+    <x:mergeCell ref="B7:D7"/>
+    <x:mergeCell ref="B8:D8"/>
+    <x:mergeCell ref="E5:I5"/>
+  </x:mergeCells>
+  <x:phoneticPr fontId="3" type="noConversion"/>
+  <x:hyperlinks>
+    <x:hyperlink ref="I23" location="'Data Model2'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I18" location="'Data Model2'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I21" location="'Data Model2'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I34" location="'Data Model2'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I51" location="'Data Model2'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I43" location="'Data Model2'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I49" location="'Data Model2'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I53" location="'Results Report2'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I57" location="'Data Model2'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I55" location="'Results Report2'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I61" location="'Results Report2'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I63" location="'Results Report2'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I66" location="'Results Report2'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I70" location="'Results Report2'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I74" location="'Data Model2'!A1" display="See Data Model Sheet"/>
   </x:hyperlinks>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup scale="76" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Sandbox.OpenXML/DStarExport.xlsx
+++ b/Sandbox.OpenXML/DStarExport.xlsx
@@ -6333,8 +6333,8 @@
     </x:row>
     <x:row r="19" spans="1:10" ht="36" customHeight="1">
       <x:c r="A19" s="2"/>
-      <x:c r="B19" s="119" t="s">
-        <x:v>40</x:v>
+      <x:c r="B19" s="119" t="str">
+        <x:v>b)  Describe the business relationship(s) between the test and predicting variable(s) and the appropriateness of the predicting relationship (including any special variables used, such as, seasonality, trend, and dummy variables).</x:v>
       </x:c>
       <x:c r="C19" s="120"/>
       <x:c r="D19" s="120"/>
@@ -6347,8 +6347,30 @@
     </x:row>
     <x:row r="20" spans="1:10" ht="49" customHeight="1">
       <x:c r="A20" s="2"/>
-      <x:c r="B20" s="87" t="s">
-        <x:v>41</x:v>
+      <x:c r="B20" s="87" t="inlineStr">
+        <x:is>
+          <x:r>
+            <x:rPr>
+              <x:b/>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t>[Note:</x:t>
+          </x:r>
+          <x:r>
+            <x:rPr>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t xml:space="preserve"> Consider the need to adjust data for the projection and/or base periods, as applicable, due to explained differences or operational changes in the business such as disposition of a product line or closing of a location. Test the adjustments.]</x:t>
+          </x:r>
+        </x:is>
       </x:c>
       <x:c r="C20" s="88"/>
       <x:c r="D20" s="88"/>
@@ -6361,8 +6383,8 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A21" s="2"/>
-      <x:c r="B21" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B21" s="117" t="str">
+        <x:v>Comments</x:v>
       </x:c>
       <x:c r="C21" s="118"/>
       <x:c r="D21" s="28"/>
@@ -6370,15 +6392,15 @@
       <x:c r="F21" s="28"/>
       <x:c r="G21" s="28"/>
       <x:c r="H21" s="28"/>
-      <x:c r="I21" s="29" t="s">
-        <x:v>37</x:v>
+      <x:c r="I21" s="29" t="str">
+        <x:v>See Data Model Sheet</x:v>
       </x:c>
       <x:c r="J21" s="2"/>
     </x:row>
     <x:row r="22" spans="1:10" ht="52" customHeight="1">
       <x:c r="A22" s="2"/>
-      <x:c r="B22" s="119" t="s">
-        <x:v>42</x:v>
+      <x:c r="B22" s="119" t="str">
+        <x:v>c)  Document details of the source of data for test and predicting variables, including reconciliations to the general ledger in the case of internal accounting data, and the audit procedures applied to establish the completeness and accuracy of this data.</x:v>
       </x:c>
       <x:c r="C22" s="120"/>
       <x:c r="D22" s="120"/>
@@ -6391,8 +6413,8 @@
     </x:row>
     <x:row r="23" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A23" s="2"/>
-      <x:c r="B23" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B23" s="117" t="str">
+        <x:v>Comments:</x:v>
       </x:c>
       <x:c r="C23" s="118"/>
       <x:c r="D23" s="28"/>
@@ -6400,15 +6422,15 @@
       <x:c r="F23" s="28"/>
       <x:c r="G23" s="28"/>
       <x:c r="H23" s="28"/>
-      <x:c r="I23" s="29" t="s">
-        <x:v>37</x:v>
+      <x:c r="I23" s="29" t="str">
+        <x:v>See Data Model Sheet</x:v>
       </x:c>
       <x:c r="J23" s="2"/>
     </x:row>
     <x:row r="24" spans="1:10">
       <x:c r="A24" s="2"/>
-      <x:c r="B24" s="119" t="s">
-        <x:v>43</x:v>
+      <x:c r="B24" s="119" t="str">
+        <x:v>d)  Determine and document the rationale for the appropriate base and projection periods.</x:v>
       </x:c>
       <x:c r="C24" s="120"/>
       <x:c r="D24" s="120"/>
@@ -6421,8 +6443,30 @@
     </x:row>
     <x:row r="25" spans="1:10" ht="35" customHeight="1">
       <x:c r="A25" s="2"/>
-      <x:c r="B25" s="87" t="s">
-        <x:v>44</x:v>
+      <x:c r="B25" s="87" t="inlineStr">
+        <x:is>
+          <x:r>
+            <x:rPr>
+              <x:b/>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t>[Note:</x:t>
+          </x:r>
+          <x:r>
+            <x:rPr>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t xml:space="preserve"> Reveal ordinarily requires a minimum of 20 observations of base data, however if seasonality is selected then Reveal ordinarily requires 36 observations of base data.  Examples of acceptable base data periods would be:</x:t>
+          </x:r>
+        </x:is>
       </x:c>
       <x:c r="C25" s="88"/>
       <x:c r="D25" s="88"/>
@@ -6435,8 +6479,8 @@
     </x:row>
     <x:row r="26" spans="1:10">
       <x:c r="A26" s="2"/>
-      <x:c r="B26" s="87" t="s">
-        <x:v>45</x:v>
+      <x:c r="B26" s="87" t="str">
+        <x:v xml:space="preserve">·         In a quarterly model, five years (20 observations)</x:v>
       </x:c>
       <x:c r="C26" s="88"/>
       <x:c r="D26" s="88"/>
@@ -6449,8 +6493,8 @@
     </x:row>
     <x:row r="27" spans="1:10" ht="16" customHeight="1">
       <x:c r="A27" s="2"/>
-      <x:c r="B27" s="87" t="s">
-        <x:v>46</x:v>
+      <x:c r="B27" s="87" t="str">
+        <x:v xml:space="preserve">·         In a quarterly model, six years (24 observations)         </x:v>
       </x:c>
       <x:c r="C27" s="88"/>
       <x:c r="D27" s="88"/>
@@ -6463,8 +6507,8 @@
     </x:row>
     <x:row r="28" spans="1:10">
       <x:c r="A28" s="2"/>
-      <x:c r="B28" s="108" t="s">
-        <x:v>47</x:v>
+      <x:c r="B28" s="108" t="str">
+        <x:v xml:space="preserve">·         In a monthly model, 2 years (24 observations)         </x:v>
       </x:c>
       <x:c r="C28" s="109"/>
       <x:c r="D28" s="109"/>
@@ -6477,8 +6521,8 @@
     </x:row>
     <x:row r="29" spans="1:10">
       <x:c r="A29" s="2"/>
-      <x:c r="B29" s="108" t="s">
-        <x:v>48</x:v>
+      <x:c r="B29" s="108" t="str">
+        <x:v xml:space="preserve">·         In a monthly model, 3 years (36 observations)         </x:v>
       </x:c>
       <x:c r="C29" s="109"/>
       <x:c r="D29" s="109"/>
@@ -6491,8 +6535,8 @@
     </x:row>
     <x:row r="30" spans="1:10">
       <x:c r="A30" s="2"/>
-      <x:c r="B30" s="108" t="s">
-        <x:v>49</x:v>
+      <x:c r="B30" s="108" t="str">
+        <x:v xml:space="preserve">·         In a monthly model with seasonality selected, three years (36 observations)         </x:v>
       </x:c>
       <x:c r="C30" s="109"/>
       <x:c r="D30" s="109"/>
@@ -6505,8 +6549,8 @@
     </x:row>
     <x:row r="31" spans="1:10">
       <x:c r="A31" s="2"/>
-      <x:c r="B31" s="108" t="s">
-        <x:v>50</x:v>
+      <x:c r="B31" s="108" t="str">
+        <x:v xml:space="preserve">·         In a monthly model with seasonality selected, four years (48 observations)         </x:v>
       </x:c>
       <x:c r="C31" s="109"/>
       <x:c r="D31" s="109"/>
@@ -6519,8 +6563,8 @@
     </x:row>
     <x:row r="32" spans="1:10">
       <x:c r="A32" s="2"/>
-      <x:c r="B32" s="108" t="s">
-        <x:v>51</x:v>
+      <x:c r="B32" s="108" t="str">
+        <x:v xml:space="preserve">·         In a weekly model, 1 year (52 observations)         </x:v>
       </x:c>
       <x:c r="C32" s="109"/>
       <x:c r="D32" s="109"/>
@@ -6533,8 +6577,8 @@
     </x:row>
     <x:row r="33" spans="1:10" ht="92" customHeight="1">
       <x:c r="A33" s="2"/>
-      <x:c r="B33" s="108" t="s">
-        <x:v>52</x:v>
+      <x:c r="B33" s="108" t="str">
+        <x:v>In addition, in  typical time series applications (e.g., sales/cost of sales, payroll costs / number of employees) the base data ought to be previously audited data and the projection period contains the current audit period data, typically the current year.  Rolling current period data into the base period (e.g., on a quarterly basis) is not a good practice (e.g., the regression model can then be influenced by current period data which has not strictly speaking been audited until the end of the audit engagement).]</x:v>
       </x:c>
       <x:c r="C33" s="109"/>
       <x:c r="D33" s="109"/>
@@ -6547,8 +6591,8 @@
     </x:row>
     <x:row r="34" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A34" s="2"/>
-      <x:c r="B34" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B34" s="117" t="str">
+        <x:v>Comments:</x:v>
       </x:c>
       <x:c r="C34" s="118"/>
       <x:c r="D34" s="28"/>
@@ -6556,8 +6600,8 @@
       <x:c r="F34" s="28"/>
       <x:c r="G34" s="28"/>
       <x:c r="H34" s="28"/>
-      <x:c r="I34" s="29" t="s">
-        <x:v>37</x:v>
+      <x:c r="I34" s="29" t="str">
+        <x:v>See Data Model Sheet</x:v>
       </x:c>
       <x:c r="J34" s="2"/>
     </x:row>
@@ -6575,8 +6619,8 @@
     </x:row>
     <x:row r="36" spans="1:10" ht="26">
       <x:c r="A36" s="2"/>
-      <x:c r="B36" s="111" t="s">
-        <x:v>53</x:v>
+      <x:c r="B36" s="111" t="str">
+        <x:v>2 Regression Phase</x:v>
       </x:c>
       <x:c r="C36" s="112"/>
       <x:c r="D36" s="112"/>
@@ -6589,8 +6633,8 @@
     </x:row>
     <x:row r="37" spans="1:10">
       <x:c r="A37" s="2"/>
-      <x:c r="B37" s="119" t="s">
-        <x:v>54</x:v>
+      <x:c r="B37" s="119" t="str">
+        <x:v>a)  Check the input data on the Reveal report to determine that no errors occurred during data input. Consider:</x:v>
       </x:c>
       <x:c r="C37" s="120"/>
       <x:c r="D37" s="120"/>
@@ -6603,8 +6647,8 @@
     </x:row>
     <x:row r="38" spans="1:10">
       <x:c r="A38" s="2"/>
-      <x:c r="B38" s="108" t="s">
-        <x:v>55</x:v>
+      <x:c r="B38" s="108" t="str">
+        <x:v>i) Audit parameters (performance materiality, testing strategy)         </x:v>
       </x:c>
       <x:c r="C38" s="109"/>
       <x:c r="D38" s="109"/>
@@ -6617,8 +6661,30 @@
     </x:row>
     <x:row r="39" spans="1:10" ht="35" customHeight="1">
       <x:c r="A39" s="2"/>
-      <x:c r="B39" s="87" t="s">
-        <x:v>56</x:v>
+      <x:c r="B39" s="87" t="inlineStr">
+        <x:is>
+          <x:r>
+            <x:rPr>
+              <x:b/>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t>[Note:</x:t>
+          </x:r>
+          <x:r>
+            <x:rPr>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t xml:space="preserve"> Is performance materiality correct and specified in the same units as the test variable(s), for example, in thousands if the test variable is expressed in thousands?]</x:t>
+          </x:r>
+        </x:is>
       </x:c>
       <x:c r="C39" s="88"/>
       <x:c r="D39" s="88"/>
@@ -6631,8 +6697,8 @@
     </x:row>
     <x:row r="40" spans="1:10">
       <x:c r="A40" s="2"/>
-      <x:c r="B40" s="108" t="s">
-        <x:v>57</x:v>
+      <x:c r="B40" s="108" t="str">
+        <x:v>ii) Projection parameters (base/projection periods)         </x:v>
       </x:c>
       <x:c r="C40" s="109"/>
       <x:c r="D40" s="109"/>
@@ -6645,8 +6711,8 @@
     </x:row>
     <x:row r="41" spans="1:10">
       <x:c r="A41" s="2"/>
-      <x:c r="B41" s="108" t="s">
-        <x:v>58</x:v>
+      <x:c r="B41" s="108" t="str">
+        <x:v>iii) Observation data (test and predicting variables)           </x:v>
       </x:c>
       <x:c r="C41" s="109"/>
       <x:c r="D41" s="109"/>
@@ -6659,8 +6725,30 @@
     </x:row>
     <x:row r="42" spans="1:10" ht="86" customHeight="1">
       <x:c r="A42" s="2"/>
-      <x:c r="B42" s="87" t="s">
-        <x:v>59</x:v>
+      <x:c r="B42" s="87" t="inlineStr">
+        <x:is>
+          <x:r>
+            <x:rPr>
+              <x:b/>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t>[Note:</x:t>
+          </x:r>
+          <x:r>
+            <x:rPr>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t xml:space="preserve"> Check the sign of the input data as typically input data for Reveal is entered as positive amounts (e.g., in a sales/cost of sales Reveal application we typically would not enter sales as negative amounts and cost of sales as positive amounts or vice versa).  In addition consider whether the Reveal report needs to include decimals as on occasion the inclusion of decimals (as opposed to rounded numbers) can result in the Reveal reports being difficult to read.]         </x:t>
+          </x:r>
+        </x:is>
       </x:c>
       <x:c r="C42" s="88"/>
       <x:c r="D42" s="88"/>
@@ -6673,8 +6761,8 @@
     </x:row>
     <x:row r="43" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A43" s="2"/>
-      <x:c r="B43" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B43" s="117" t="str">
+        <x:v>Comments:</x:v>
       </x:c>
       <x:c r="C43" s="118"/>
       <x:c r="D43" s="28"/>
@@ -6682,15 +6770,15 @@
       <x:c r="F43" s="28"/>
       <x:c r="G43" s="28"/>
       <x:c r="H43" s="28"/>
-      <x:c r="I43" s="29" t="s">
-        <x:v>37</x:v>
+      <x:c r="I43" s="29" t="str">
+        <x:v>See Data Model Sheet</x:v>
       </x:c>
       <x:c r="J43" s="2"/>
     </x:row>
     <x:row r="44" spans="1:10" ht="36" customHeight="1">
       <x:c r="A44" s="2"/>
-      <x:c r="B44" s="119" t="s">
-        <x:v>60</x:v>
+      <x:c r="B44" s="119" t="str">
+        <x:v>b)  Review the regression equation to determine that it reflects the relationship anticipated in the application design.  Consider:</x:v>
       </x:c>
       <x:c r="C44" s="120"/>
       <x:c r="D44" s="120"/>
@@ -6703,8 +6791,8 @@
     </x:row>
     <x:row r="45" spans="1:10" ht="51" customHeight="1">
       <x:c r="A45" s="2"/>
-      <x:c r="B45" s="108" t="s">
-        <x:v>61</x:v>
+      <x:c r="B45" s="108" t="str">
+        <x:v>i) Omitted predicting variables (Omitted predicting variables will a) not appear in the “Variables Specified” section of the Reveal report, b) not appear in the regression formula in the Reveal report, and c) will have a “(-)” in the heading of that variable in the “Variables Used (+), Not Used (-)” section of the Reveal report]</x:v>
       </x:c>
       <x:c r="C45" s="109"/>
       <x:c r="D45" s="109"/>
@@ -6717,8 +6805,8 @@
     </x:row>
     <x:row r="46" spans="1:10">
       <x:c r="A46" s="2"/>
-      <x:c r="B46" s="108" t="s">
-        <x:v>62</x:v>
+      <x:c r="B46" s="108" t="str">
+        <x:v>ii) Coefficients of regression (value and sign)              </x:v>
       </x:c>
       <x:c r="C46" s="109"/>
       <x:c r="D46" s="109"/>
@@ -6731,8 +6819,8 @@
     </x:row>
     <x:row r="47" spans="1:10">
       <x:c r="A47" s="2"/>
-      <x:c r="B47" s="108" t="s">
-        <x:v>63</x:v>
+      <x:c r="B47" s="108" t="str">
+        <x:v>iii) Constant (size)</x:v>
       </x:c>
       <x:c r="C47" s="109"/>
       <x:c r="D47" s="109"/>
@@ -6745,8 +6833,8 @@
     </x:row>
     <x:row r="48" spans="1:10">
       <x:c r="A48" s="2"/>
-      <x:c r="B48" s="108" t="s">
-        <x:v>64</x:v>
+      <x:c r="B48" s="108" t="str">
+        <x:v>iv) Appropriateness of the use of Seasonality variable(s) (value and sign) and the use of the Trend variable (sign)</x:v>
       </x:c>
       <x:c r="C48" s="109"/>
       <x:c r="D48" s="109"/>
@@ -6759,8 +6847,8 @@
     </x:row>
     <x:row r="49" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A49" s="2"/>
-      <x:c r="B49" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B49" s="117" t="str">
+        <x:v>Comments:</x:v>
       </x:c>
       <x:c r="C49" s="118"/>
       <x:c r="D49" s="28"/>
@@ -6768,15 +6856,15 @@
       <x:c r="F49" s="28"/>
       <x:c r="G49" s="28"/>
       <x:c r="H49" s="28"/>
-      <x:c r="I49" s="29" t="s">
-        <x:v>37</x:v>
+      <x:c r="I49" s="29" t="str">
+        <x:v>See Data Model Sheet</x:v>
       </x:c>
       <x:c r="J49" s="2"/>
     </x:row>
     <x:row r="50" spans="1:10" ht="41" customHeight="1">
       <x:c r="A50" s="2"/>
-      <x:c r="B50" s="119" t="s">
-        <x:v>65</x:v>
+      <x:c r="B50" s="119" t="str">
+        <x:v>c)  Review the coefficient of correlation and determine if it is acceptable.  (A significant change in the coefficient of correlation over the prior year indicates that the relationship has changed and needs to be investigated.)</x:v>
       </x:c>
       <x:c r="C50" s="120"/>
       <x:c r="D50" s="120"/>
@@ -6789,8 +6877,8 @@
     </x:row>
     <x:row r="51" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A51" s="2"/>
-      <x:c r="B51" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B51" s="117" t="str">
+        <x:v>Comments:</x:v>
       </x:c>
       <x:c r="C51" s="118"/>
       <x:c r="D51" s="28"/>
@@ -6798,15 +6886,15 @@
       <x:c r="F51" s="28"/>
       <x:c r="G51" s="28"/>
       <x:c r="H51" s="28"/>
-      <x:c r="I51" s="29" t="s">
-        <x:v>37</x:v>
+      <x:c r="I51" s="29" t="str">
+        <x:v>See Data Model Sheet</x:v>
       </x:c>
       <x:c r="J51" s="2"/>
     </x:row>
     <x:row r="52" spans="1:10">
       <x:c r="A52" s="2"/>
-      <x:c r="B52" s="119" t="s">
-        <x:v>66</x:v>
+      <x:c r="B52" s="119" t="str">
+        <x:v>d)  Review any warning messages and determine if the model needs refining.</x:v>
       </x:c>
       <x:c r="C52" s="120"/>
       <x:c r="D52" s="120"/>
@@ -6819,8 +6907,8 @@
     </x:row>
     <x:row r="53" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A53" s="2"/>
-      <x:c r="B53" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B53" s="117" t="str">
+        <x:v>Comments:</x:v>
       </x:c>
       <x:c r="C53" s="118"/>
       <x:c r="D53" s="28"/>
@@ -6828,15 +6916,15 @@
       <x:c r="F53" s="28"/>
       <x:c r="G53" s="28"/>
       <x:c r="H53" s="28"/>
-      <x:c r="I53" s="29" t="s">
-        <x:v>76</x:v>
+      <x:c r="I53" s="29" t="str">
+        <x:v>See Results Report Sheet</x:v>
       </x:c>
       <x:c r="J53" s="2"/>
     </x:row>
     <x:row r="54" spans="1:10" ht="41" customHeight="1">
       <x:c r="A54" s="2"/>
-      <x:c r="B54" s="119" t="s">
-        <x:v>67</x:v>
+      <x:c r="B54" s="119" t="str">
+        <x:v>e)  Review the pattern and size of residuals (e.g., a predominance of residuals in one particular direction, a cyclical pattern, very large differences, or other patterns), and investigate any unusual trends.</x:v>
       </x:c>
       <x:c r="C54" s="120"/>
       <x:c r="D54" s="120"/>
@@ -6849,8 +6937,8 @@
     </x:row>
     <x:row r="55" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A55" s="2"/>
-      <x:c r="B55" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B55" s="117" t="str">
+        <x:v>Comments:</x:v>
       </x:c>
       <x:c r="C55" s="118"/>
       <x:c r="D55" s="28"/>
@@ -6858,15 +6946,15 @@
       <x:c r="F55" s="28"/>
       <x:c r="G55" s="28"/>
       <x:c r="H55" s="28"/>
-      <x:c r="I55" s="29" t="s">
-        <x:v>76</x:v>
+      <x:c r="I55" s="29" t="str">
+        <x:v>See Results Report Sheet</x:v>
       </x:c>
       <x:c r="J55" s="2"/>
     </x:row>
     <x:row r="56" spans="1:10" ht="57" customHeight="1">
       <x:c r="A56" s="2"/>
-      <x:c r="B56" s="119" t="s">
-        <x:v>68</x:v>
+      <x:c r="B56" s="119" t="str">
+        <x:v>f)  Based on the results of your review of the regression statistics and residuals, consider whether the model needs refining (e.g., by adding another predicting variable to further explain the relationship, disaggregating or correcting the data).</x:v>
       </x:c>
       <x:c r="C56" s="120"/>
       <x:c r="D56" s="120"/>
@@ -6879,8 +6967,8 @@
     </x:row>
     <x:row r="57" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A57" s="2"/>
-      <x:c r="B57" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B57" s="117" t="str">
+        <x:v>Comments</x:v>
       </x:c>
       <x:c r="C57" s="118"/>
       <x:c r="D57" s="28"/>
@@ -6888,8 +6976,8 @@
       <x:c r="F57" s="28"/>
       <x:c r="G57" s="28"/>
       <x:c r="H57" s="28"/>
-      <x:c r="I57" s="29" t="s">
-        <x:v>37</x:v>
+      <x:c r="I57" s="29" t="str">
+        <x:v>See Data Model Sheet</x:v>
       </x:c>
       <x:c r="J57" s="2"/>
     </x:row>
@@ -10956,8 +11044,8 @@
     </x:row>
     <x:row r="19" spans="1:10" ht="36" customHeight="1">
       <x:c r="A19" s="2"/>
-      <x:c r="B19" s="119" t="s">
-        <x:v>40</x:v>
+      <x:c r="B19" s="119" t="str">
+        <x:v>b)  Describe the business relationship(s) between the test and predicting variable(s) and the appropriateness of the predicting relationship (including any special variables used, such as, seasonality, trend, and dummy variables).</x:v>
       </x:c>
       <x:c r="C19" s="120"/>
       <x:c r="D19" s="120"/>
@@ -10970,8 +11058,30 @@
     </x:row>
     <x:row r="20" spans="1:10" ht="49" customHeight="1">
       <x:c r="A20" s="2"/>
-      <x:c r="B20" s="87" t="s">
-        <x:v>41</x:v>
+      <x:c r="B20" s="87" t="inlineStr">
+        <x:is>
+          <x:r>
+            <x:rPr>
+              <x:b/>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t>[Note:</x:t>
+          </x:r>
+          <x:r>
+            <x:rPr>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t xml:space="preserve"> Consider the need to adjust data for the projection and/or base periods, as applicable, due to explained differences or operational changes in the business such as disposition of a product line or closing of a location. Test the adjustments.]</x:t>
+          </x:r>
+        </x:is>
       </x:c>
       <x:c r="C20" s="88"/>
       <x:c r="D20" s="88"/>
@@ -10984,8 +11094,8 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A21" s="2"/>
-      <x:c r="B21" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B21" s="117" t="str">
+        <x:v>Comments</x:v>
       </x:c>
       <x:c r="C21" s="118"/>
       <x:c r="D21" s="28"/>
@@ -10993,15 +11103,15 @@
       <x:c r="F21" s="28"/>
       <x:c r="G21" s="28"/>
       <x:c r="H21" s="28"/>
-      <x:c r="I21" s="29" t="s">
-        <x:v>37</x:v>
+      <x:c r="I21" s="29" t="str">
+        <x:v>See Data Model Sheet</x:v>
       </x:c>
       <x:c r="J21" s="2"/>
     </x:row>
     <x:row r="22" spans="1:10" ht="52" customHeight="1">
       <x:c r="A22" s="2"/>
-      <x:c r="B22" s="119" t="s">
-        <x:v>42</x:v>
+      <x:c r="B22" s="119" t="str">
+        <x:v>c)  Document details of the source of data for test and predicting variables, including reconciliations to the general ledger in the case of internal accounting data, and the audit procedures applied to establish the completeness and accuracy of this data.</x:v>
       </x:c>
       <x:c r="C22" s="120"/>
       <x:c r="D22" s="120"/>
@@ -11014,8 +11124,8 @@
     </x:row>
     <x:row r="23" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A23" s="2"/>
-      <x:c r="B23" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B23" s="117" t="str">
+        <x:v>Comments:</x:v>
       </x:c>
       <x:c r="C23" s="118"/>
       <x:c r="D23" s="28"/>
@@ -11023,15 +11133,15 @@
       <x:c r="F23" s="28"/>
       <x:c r="G23" s="28"/>
       <x:c r="H23" s="28"/>
-      <x:c r="I23" s="29" t="s">
-        <x:v>37</x:v>
+      <x:c r="I23" s="29" t="str">
+        <x:v>See Data Model Sheet</x:v>
       </x:c>
       <x:c r="J23" s="2"/>
     </x:row>
     <x:row r="24" spans="1:10">
       <x:c r="A24" s="2"/>
-      <x:c r="B24" s="119" t="s">
-        <x:v>43</x:v>
+      <x:c r="B24" s="119" t="str">
+        <x:v>d)  Determine and document the rationale for the appropriate base and projection periods.</x:v>
       </x:c>
       <x:c r="C24" s="120"/>
       <x:c r="D24" s="120"/>
@@ -11044,8 +11154,30 @@
     </x:row>
     <x:row r="25" spans="1:10" ht="35" customHeight="1">
       <x:c r="A25" s="2"/>
-      <x:c r="B25" s="87" t="s">
-        <x:v>44</x:v>
+      <x:c r="B25" s="87" t="inlineStr">
+        <x:is>
+          <x:r>
+            <x:rPr>
+              <x:b/>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t>[Note:</x:t>
+          </x:r>
+          <x:r>
+            <x:rPr>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t xml:space="preserve"> Reveal ordinarily requires a minimum of 20 observations of base data, however if seasonality is selected then Reveal ordinarily requires 36 observations of base data.  Examples of acceptable base data periods would be:</x:t>
+          </x:r>
+        </x:is>
       </x:c>
       <x:c r="C25" s="88"/>
       <x:c r="D25" s="88"/>
@@ -11058,8 +11190,8 @@
     </x:row>
     <x:row r="26" spans="1:10">
       <x:c r="A26" s="2"/>
-      <x:c r="B26" s="87" t="s">
-        <x:v>45</x:v>
+      <x:c r="B26" s="87" t="str">
+        <x:v xml:space="preserve">·         In a quarterly model, five years (20 observations)</x:v>
       </x:c>
       <x:c r="C26" s="88"/>
       <x:c r="D26" s="88"/>
@@ -11072,8 +11204,8 @@
     </x:row>
     <x:row r="27" spans="1:10" ht="16" customHeight="1">
       <x:c r="A27" s="2"/>
-      <x:c r="B27" s="87" t="s">
-        <x:v>46</x:v>
+      <x:c r="B27" s="87" t="str">
+        <x:v xml:space="preserve">·         In a quarterly model, six years (24 observations)         </x:v>
       </x:c>
       <x:c r="C27" s="88"/>
       <x:c r="D27" s="88"/>
@@ -11086,8 +11218,8 @@
     </x:row>
     <x:row r="28" spans="1:10">
       <x:c r="A28" s="2"/>
-      <x:c r="B28" s="108" t="s">
-        <x:v>47</x:v>
+      <x:c r="B28" s="108" t="str">
+        <x:v xml:space="preserve">·         In a monthly model, 2 years (24 observations)         </x:v>
       </x:c>
       <x:c r="C28" s="109"/>
       <x:c r="D28" s="109"/>
@@ -11100,8 +11232,8 @@
     </x:row>
     <x:row r="29" spans="1:10">
       <x:c r="A29" s="2"/>
-      <x:c r="B29" s="108" t="s">
-        <x:v>48</x:v>
+      <x:c r="B29" s="108" t="str">
+        <x:v xml:space="preserve">·         In a monthly model, 3 years (36 observations)         </x:v>
       </x:c>
       <x:c r="C29" s="109"/>
       <x:c r="D29" s="109"/>
@@ -11114,8 +11246,8 @@
     </x:row>
     <x:row r="30" spans="1:10">
       <x:c r="A30" s="2"/>
-      <x:c r="B30" s="108" t="s">
-        <x:v>49</x:v>
+      <x:c r="B30" s="108" t="str">
+        <x:v xml:space="preserve">·         In a monthly model with seasonality selected, three years (36 observations)         </x:v>
       </x:c>
       <x:c r="C30" s="109"/>
       <x:c r="D30" s="109"/>
@@ -11128,8 +11260,8 @@
     </x:row>
     <x:row r="31" spans="1:10">
       <x:c r="A31" s="2"/>
-      <x:c r="B31" s="108" t="s">
-        <x:v>50</x:v>
+      <x:c r="B31" s="108" t="str">
+        <x:v xml:space="preserve">·         In a monthly model with seasonality selected, four years (48 observations)         </x:v>
       </x:c>
       <x:c r="C31" s="109"/>
       <x:c r="D31" s="109"/>
@@ -11142,8 +11274,8 @@
     </x:row>
     <x:row r="32" spans="1:10">
       <x:c r="A32" s="2"/>
-      <x:c r="B32" s="108" t="s">
-        <x:v>51</x:v>
+      <x:c r="B32" s="108" t="str">
+        <x:v xml:space="preserve">·         In a weekly model, 1 year (52 observations)         </x:v>
       </x:c>
       <x:c r="C32" s="109"/>
       <x:c r="D32" s="109"/>
@@ -11156,8 +11288,8 @@
     </x:row>
     <x:row r="33" spans="1:10" ht="92" customHeight="1">
       <x:c r="A33" s="2"/>
-      <x:c r="B33" s="108" t="s">
-        <x:v>52</x:v>
+      <x:c r="B33" s="108" t="str">
+        <x:v>In addition, in  typical time series applications (e.g., sales/cost of sales, payroll costs / number of employees) the base data ought to be previously audited data and the projection period contains the current audit period data, typically the current year.  Rolling current period data into the base period (e.g., on a quarterly basis) is not a good practice (e.g., the regression model can then be influenced by current period data which has not strictly speaking been audited until the end of the audit engagement).]</x:v>
       </x:c>
       <x:c r="C33" s="109"/>
       <x:c r="D33" s="109"/>
@@ -11170,8 +11302,8 @@
     </x:row>
     <x:row r="34" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A34" s="2"/>
-      <x:c r="B34" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B34" s="117" t="str">
+        <x:v>Comments:</x:v>
       </x:c>
       <x:c r="C34" s="118"/>
       <x:c r="D34" s="28"/>
@@ -11179,8 +11311,8 @@
       <x:c r="F34" s="28"/>
       <x:c r="G34" s="28"/>
       <x:c r="H34" s="28"/>
-      <x:c r="I34" s="29" t="s">
-        <x:v>37</x:v>
+      <x:c r="I34" s="29" t="str">
+        <x:v>See Data Model Sheet</x:v>
       </x:c>
       <x:c r="J34" s="2"/>
     </x:row>
@@ -11198,8 +11330,8 @@
     </x:row>
     <x:row r="36" spans="1:10" ht="26">
       <x:c r="A36" s="2"/>
-      <x:c r="B36" s="111" t="s">
-        <x:v>53</x:v>
+      <x:c r="B36" s="111" t="str">
+        <x:v>2 Regression Phase</x:v>
       </x:c>
       <x:c r="C36" s="112"/>
       <x:c r="D36" s="112"/>
@@ -11212,8 +11344,8 @@
     </x:row>
     <x:row r="37" spans="1:10">
       <x:c r="A37" s="2"/>
-      <x:c r="B37" s="119" t="s">
-        <x:v>54</x:v>
+      <x:c r="B37" s="119" t="str">
+        <x:v>a)  Check the input data on the Reveal report to determine that no errors occurred during data input. Consider:</x:v>
       </x:c>
       <x:c r="C37" s="120"/>
       <x:c r="D37" s="120"/>
@@ -11226,8 +11358,8 @@
     </x:row>
     <x:row r="38" spans="1:10">
       <x:c r="A38" s="2"/>
-      <x:c r="B38" s="108" t="s">
-        <x:v>55</x:v>
+      <x:c r="B38" s="108" t="str">
+        <x:v>i) Audit parameters (performance materiality, testing strategy)         </x:v>
       </x:c>
       <x:c r="C38" s="109"/>
       <x:c r="D38" s="109"/>
@@ -11240,8 +11372,30 @@
     </x:row>
     <x:row r="39" spans="1:10" ht="35" customHeight="1">
       <x:c r="A39" s="2"/>
-      <x:c r="B39" s="87" t="s">
-        <x:v>56</x:v>
+      <x:c r="B39" s="87" t="inlineStr">
+        <x:is>
+          <x:r>
+            <x:rPr>
+              <x:b/>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t>[Note:</x:t>
+          </x:r>
+          <x:r>
+            <x:rPr>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t xml:space="preserve"> Is performance materiality correct and specified in the same units as the test variable(s), for example, in thousands if the test variable is expressed in thousands?]</x:t>
+          </x:r>
+        </x:is>
       </x:c>
       <x:c r="C39" s="88"/>
       <x:c r="D39" s="88"/>
@@ -11254,8 +11408,8 @@
     </x:row>
     <x:row r="40" spans="1:10">
       <x:c r="A40" s="2"/>
-      <x:c r="B40" s="108" t="s">
-        <x:v>57</x:v>
+      <x:c r="B40" s="108" t="str">
+        <x:v>ii) Projection parameters (base/projection periods)         </x:v>
       </x:c>
       <x:c r="C40" s="109"/>
       <x:c r="D40" s="109"/>
@@ -11268,8 +11422,8 @@
     </x:row>
     <x:row r="41" spans="1:10">
       <x:c r="A41" s="2"/>
-      <x:c r="B41" s="108" t="s">
-        <x:v>58</x:v>
+      <x:c r="B41" s="108" t="str">
+        <x:v>iii) Observation data (test and predicting variables)           </x:v>
       </x:c>
       <x:c r="C41" s="109"/>
       <x:c r="D41" s="109"/>
@@ -11282,8 +11436,30 @@
     </x:row>
     <x:row r="42" spans="1:10" ht="86" customHeight="1">
       <x:c r="A42" s="2"/>
-      <x:c r="B42" s="87" t="s">
-        <x:v>59</x:v>
+      <x:c r="B42" s="87" t="inlineStr">
+        <x:is>
+          <x:r>
+            <x:rPr>
+              <x:b/>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t>[Note:</x:t>
+          </x:r>
+          <x:r>
+            <x:rPr>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t xml:space="preserve"> Check the sign of the input data as typically input data for Reveal is entered as positive amounts (e.g., in a sales/cost of sales Reveal application we typically would not enter sales as negative amounts and cost of sales as positive amounts or vice versa).  In addition consider whether the Reveal report needs to include decimals as on occasion the inclusion of decimals (as opposed to rounded numbers) can result in the Reveal reports being difficult to read.]         </x:t>
+          </x:r>
+        </x:is>
       </x:c>
       <x:c r="C42" s="88"/>
       <x:c r="D42" s="88"/>
@@ -11296,8 +11472,8 @@
     </x:row>
     <x:row r="43" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A43" s="2"/>
-      <x:c r="B43" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B43" s="117" t="str">
+        <x:v>Comments:</x:v>
       </x:c>
       <x:c r="C43" s="118"/>
       <x:c r="D43" s="28"/>
@@ -11305,15 +11481,15 @@
       <x:c r="F43" s="28"/>
       <x:c r="G43" s="28"/>
       <x:c r="H43" s="28"/>
-      <x:c r="I43" s="29" t="s">
-        <x:v>37</x:v>
+      <x:c r="I43" s="29" t="str">
+        <x:v>See Data Model Sheet</x:v>
       </x:c>
       <x:c r="J43" s="2"/>
     </x:row>
     <x:row r="44" spans="1:10" ht="36" customHeight="1">
       <x:c r="A44" s="2"/>
-      <x:c r="B44" s="119" t="s">
-        <x:v>60</x:v>
+      <x:c r="B44" s="119" t="str">
+        <x:v>b)  Review the regression equation to determine that it reflects the relationship anticipated in the application design.  Consider:</x:v>
       </x:c>
       <x:c r="C44" s="120"/>
       <x:c r="D44" s="120"/>
@@ -11326,8 +11502,8 @@
     </x:row>
     <x:row r="45" spans="1:10" ht="51" customHeight="1">
       <x:c r="A45" s="2"/>
-      <x:c r="B45" s="108" t="s">
-        <x:v>61</x:v>
+      <x:c r="B45" s="108" t="str">
+        <x:v>i) Omitted predicting variables (Omitted predicting variables will a) not appear in the “Variables Specified” section of the Reveal report, b) not appear in the regression formula in the Reveal report, and c) will have a “(-)” in the heading of that variable in the “Variables Used (+), Not Used (-)” section of the Reveal report]</x:v>
       </x:c>
       <x:c r="C45" s="109"/>
       <x:c r="D45" s="109"/>
@@ -11340,8 +11516,8 @@
     </x:row>
     <x:row r="46" spans="1:10">
       <x:c r="A46" s="2"/>
-      <x:c r="B46" s="108" t="s">
-        <x:v>62</x:v>
+      <x:c r="B46" s="108" t="str">
+        <x:v>ii) Coefficients of regression (value and sign)              </x:v>
       </x:c>
       <x:c r="C46" s="109"/>
       <x:c r="D46" s="109"/>
@@ -11354,8 +11530,8 @@
     </x:row>
     <x:row r="47" spans="1:10">
       <x:c r="A47" s="2"/>
-      <x:c r="B47" s="108" t="s">
-        <x:v>63</x:v>
+      <x:c r="B47" s="108" t="str">
+        <x:v>iii) Constant (size)</x:v>
       </x:c>
       <x:c r="C47" s="109"/>
       <x:c r="D47" s="109"/>
@@ -11368,8 +11544,8 @@
     </x:row>
     <x:row r="48" spans="1:10">
       <x:c r="A48" s="2"/>
-      <x:c r="B48" s="108" t="s">
-        <x:v>64</x:v>
+      <x:c r="B48" s="108" t="str">
+        <x:v>iv) Appropriateness of the use of Seasonality variable(s) (value and sign) and the use of the Trend variable (sign)</x:v>
       </x:c>
       <x:c r="C48" s="109"/>
       <x:c r="D48" s="109"/>
@@ -11382,8 +11558,8 @@
     </x:row>
     <x:row r="49" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A49" s="2"/>
-      <x:c r="B49" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B49" s="117" t="str">
+        <x:v>Comments:</x:v>
       </x:c>
       <x:c r="C49" s="118"/>
       <x:c r="D49" s="28"/>
@@ -11391,15 +11567,15 @@
       <x:c r="F49" s="28"/>
       <x:c r="G49" s="28"/>
       <x:c r="H49" s="28"/>
-      <x:c r="I49" s="29" t="s">
-        <x:v>37</x:v>
+      <x:c r="I49" s="29" t="str">
+        <x:v>See Data Model Sheet</x:v>
       </x:c>
       <x:c r="J49" s="2"/>
     </x:row>
     <x:row r="50" spans="1:10" ht="41" customHeight="1">
       <x:c r="A50" s="2"/>
-      <x:c r="B50" s="119" t="s">
-        <x:v>65</x:v>
+      <x:c r="B50" s="119" t="str">
+        <x:v>c)  Review the coefficient of correlation and determine if it is acceptable.  (A significant change in the coefficient of correlation over the prior year indicates that the relationship has changed and needs to be investigated.)</x:v>
       </x:c>
       <x:c r="C50" s="120"/>
       <x:c r="D50" s="120"/>
@@ -11412,8 +11588,8 @@
     </x:row>
     <x:row r="51" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A51" s="2"/>
-      <x:c r="B51" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B51" s="117" t="str">
+        <x:v>Comments:</x:v>
       </x:c>
       <x:c r="C51" s="118"/>
       <x:c r="D51" s="28"/>
@@ -11421,15 +11597,15 @@
       <x:c r="F51" s="28"/>
       <x:c r="G51" s="28"/>
       <x:c r="H51" s="28"/>
-      <x:c r="I51" s="29" t="s">
-        <x:v>37</x:v>
+      <x:c r="I51" s="29" t="str">
+        <x:v>See Data Model Sheet</x:v>
       </x:c>
       <x:c r="J51" s="2"/>
     </x:row>
     <x:row r="52" spans="1:10">
       <x:c r="A52" s="2"/>
-      <x:c r="B52" s="119" t="s">
-        <x:v>66</x:v>
+      <x:c r="B52" s="119" t="str">
+        <x:v>d)  Review any warning messages and determine if the model needs refining.</x:v>
       </x:c>
       <x:c r="C52" s="120"/>
       <x:c r="D52" s="120"/>
@@ -11442,8 +11618,8 @@
     </x:row>
     <x:row r="53" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A53" s="2"/>
-      <x:c r="B53" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B53" s="117" t="str">
+        <x:v>Comments:</x:v>
       </x:c>
       <x:c r="C53" s="118"/>
       <x:c r="D53" s="28"/>
@@ -11451,15 +11627,15 @@
       <x:c r="F53" s="28"/>
       <x:c r="G53" s="28"/>
       <x:c r="H53" s="28"/>
-      <x:c r="I53" s="29" t="s">
-        <x:v>76</x:v>
+      <x:c r="I53" s="29" t="str">
+        <x:v>See Results Report Sheet</x:v>
       </x:c>
       <x:c r="J53" s="2"/>
     </x:row>
     <x:row r="54" spans="1:10" ht="41" customHeight="1">
       <x:c r="A54" s="2"/>
-      <x:c r="B54" s="119" t="s">
-        <x:v>67</x:v>
+      <x:c r="B54" s="119" t="str">
+        <x:v>e)  Review the pattern and size of residuals (e.g., a predominance of residuals in one particular direction, a cyclical pattern, very large differences, or other patterns), and investigate any unusual trends.</x:v>
       </x:c>
       <x:c r="C54" s="120"/>
       <x:c r="D54" s="120"/>
@@ -11472,8 +11648,8 @@
     </x:row>
     <x:row r="55" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A55" s="2"/>
-      <x:c r="B55" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B55" s="117" t="str">
+        <x:v>Comments:</x:v>
       </x:c>
       <x:c r="C55" s="118"/>
       <x:c r="D55" s="28"/>
@@ -11481,15 +11657,15 @@
       <x:c r="F55" s="28"/>
       <x:c r="G55" s="28"/>
       <x:c r="H55" s="28"/>
-      <x:c r="I55" s="29" t="s">
-        <x:v>76</x:v>
+      <x:c r="I55" s="29" t="str">
+        <x:v>See Results Report Sheet</x:v>
       </x:c>
       <x:c r="J55" s="2"/>
     </x:row>
     <x:row r="56" spans="1:10" ht="57" customHeight="1">
       <x:c r="A56" s="2"/>
-      <x:c r="B56" s="119" t="s">
-        <x:v>68</x:v>
+      <x:c r="B56" s="119" t="str">
+        <x:v>f)  Based on the results of your review of the regression statistics and residuals, consider whether the model needs refining (e.g., by adding another predicting variable to further explain the relationship, disaggregating or correcting the data).</x:v>
       </x:c>
       <x:c r="C56" s="120"/>
       <x:c r="D56" s="120"/>
@@ -11502,8 +11678,8 @@
     </x:row>
     <x:row r="57" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A57" s="2"/>
-      <x:c r="B57" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B57" s="117" t="str">
+        <x:v>Comments</x:v>
       </x:c>
       <x:c r="C57" s="118"/>
       <x:c r="D57" s="28"/>
@@ -11511,8 +11687,8 @@
       <x:c r="F57" s="28"/>
       <x:c r="G57" s="28"/>
       <x:c r="H57" s="28"/>
-      <x:c r="I57" s="29" t="s">
-        <x:v>37</x:v>
+      <x:c r="I57" s="29" t="str">
+        <x:v>See Data Model Sheet</x:v>
       </x:c>
       <x:c r="J57" s="2"/>
     </x:row>

--- a/Sandbox.OpenXML/DStarExport.xlsx
+++ b/Sandbox.OpenXML/DStarExport.xlsx
@@ -6995,8 +6995,8 @@
     </x:row>
     <x:row r="59" spans="1:10" ht="26">
       <x:c r="A59" s="2"/>
-      <x:c r="B59" s="111" t="s">
-        <x:v>69</x:v>
+      <x:c r="B59" s="111" t="str">
+        <x:v>3 Audit Phase</x:v>
       </x:c>
       <x:c r="C59" s="112"/>
       <x:c r="D59" s="112"/>
@@ -7009,8 +7009,8 @@
     </x:row>
     <x:row r="60" spans="1:10" ht="84" customHeight="1">
       <x:c r="A60" s="2"/>
-      <x:c r="B60" s="119" t="s">
-        <x:v>70</x:v>
+      <x:c r="B60" s="119" t="str">
+        <x:v>a)  Investigate all excesses (differences in excess of the threshold) and obtain appropriate audit evidence related to these excesses or perform alternative substantive procedures to address the significant differences identified. If significant differences identified by Reveal cannot be explained, we may reconsider the design of the Reveal application and whether the application as a whole has credibility before we perform tests of detail for portions of the balance containing unexplained differences.</x:v>
       </x:c>
       <x:c r="C60" s="120"/>
       <x:c r="D60" s="120"/>
@@ -7023,8 +7023,8 @@
     </x:row>
     <x:row r="61" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A61" s="2"/>
-      <x:c r="B61" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B61" s="117" t="str">
+        <x:v>Comments:</x:v>
       </x:c>
       <x:c r="C61" s="118"/>
       <x:c r="D61" s="28"/>
@@ -7032,15 +7032,15 @@
       <x:c r="F61" s="28"/>
       <x:c r="G61" s="28"/>
       <x:c r="H61" s="28"/>
-      <x:c r="I61" s="29" t="s">
-        <x:v>76</x:v>
+      <x:c r="I61" s="29" t="str">
+        <x:v>See Results Report Sheet</x:v>
       </x:c>
       <x:c r="J61" s="2"/>
     </x:row>
     <x:row r="62" spans="1:10" ht="36" customHeight="1">
       <x:c r="A62" s="2"/>
-      <x:c r="B62" s="119" t="s">
-        <x:v>71</x:v>
+      <x:c r="B62" s="119" t="str">
+        <x:v>b)  Consider whether there are unusual patterns in the residuals to investigate (e.g., residuals tend strongly in one direction and are close to the individual thresholds, and their sum is multiples of performance materiality)</x:v>
       </x:c>
       <x:c r="C62" s="120"/>
       <x:c r="D62" s="120"/>
@@ -7053,8 +7053,8 @@
     </x:row>
     <x:row r="63" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A63" s="2"/>
-      <x:c r="B63" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B63" s="117" t="str">
+        <x:v>Comments</x:v>
       </x:c>
       <x:c r="C63" s="118"/>
       <x:c r="D63" s="28"/>
@@ -7062,15 +7062,15 @@
       <x:c r="F63" s="28"/>
       <x:c r="G63" s="28"/>
       <x:c r="H63" s="28"/>
-      <x:c r="I63" s="29" t="s">
-        <x:v>76</x:v>
+      <x:c r="I63" s="29" t="str">
+        <x:v>See Results Report Sheet</x:v>
       </x:c>
       <x:c r="J63" s="2"/>
     </x:row>
     <x:row r="64" spans="1:10" ht="36" customHeight="1">
       <x:c r="A64" s="2"/>
-      <x:c r="B64" s="119" t="s">
-        <x:v>72</x:v>
+      <x:c r="B64" s="119" t="str">
+        <x:v>c)  Consider re-running the application after adjusting base or projection data for any significant errors or events discovered during our audit procedures.  </x:v>
       </x:c>
       <x:c r="C64" s="120"/>
       <x:c r="D64" s="120"/>
@@ -7083,8 +7083,30 @@
     </x:row>
     <x:row r="65" spans="1:10" ht="49" customHeight="1">
       <x:c r="A65" s="2"/>
-      <x:c r="B65" s="87" t="s">
-        <x:v>73</x:v>
+      <x:c r="B65" s="87" t="inlineStr">
+        <x:is>
+          <x:r>
+            <x:rPr>
+              <x:b/>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t>[Note:</x:t>
+          </x:r>
+          <x:r>
+            <x:rPr>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t xml:space="preserve"> Uncorrected errors or discontinuity in the projection data will fall within the base period data in future years and may cause problems in running the application in subsequent years.  To avoid this, errors and discontinuity need to be investigated and, if possible, corrected in the current year.]</x:t>
+          </x:r>
+        </x:is>
       </x:c>
       <x:c r="C65" s="88"/>
       <x:c r="D65" s="88"/>
@@ -7097,8 +7119,8 @@
     </x:row>
     <x:row r="66" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A66" s="2"/>
-      <x:c r="B66" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B66" s="117" t="str">
+        <x:v>Comments:</x:v>
       </x:c>
       <x:c r="C66" s="118"/>
       <x:c r="D66" s="28"/>
@@ -7106,15 +7128,15 @@
       <x:c r="F66" s="28"/>
       <x:c r="G66" s="28"/>
       <x:c r="H66" s="28"/>
-      <x:c r="I66" s="29" t="s">
-        <x:v>76</x:v>
+      <x:c r="I66" s="29" t="str">
+        <x:v>See Results Report Sheet</x:v>
       </x:c>
       <x:c r="J66" s="2"/>
     </x:row>
     <x:row r="67" spans="1:10" ht="36" customHeight="1">
       <x:c r="A67" s="2"/>
-      <x:c r="B67" s="119" t="s">
-        <x:v>74</x:v>
+      <x:c r="B67" s="119" t="str">
+        <x:v>d)  Document any misstatements identified and how they were investigated.  Transfer misstatements to the applicable Form 2340 "Evaluation of Misstatements " or equivalent documentation. </x:v>
       </x:c>
       <x:c r="C67" s="120"/>
       <x:c r="D67" s="120"/>
@@ -7127,8 +7149,8 @@
     </x:row>
     <x:row r="68" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A68" s="2"/>
-      <x:c r="B68" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B68" s="117" t="str">
+        <x:v>Comments:</x:v>
       </x:c>
       <x:c r="C68" s="118"/>
       <x:c r="D68" s="28"/>
@@ -7141,8 +7163,8 @@
     </x:row>
     <x:row r="69" spans="1:10">
       <x:c r="A69" s="2"/>
-      <x:c r="B69" s="119" t="s">
-        <x:v>75</x:v>
+      <x:c r="B69" s="119" t="str">
+        <x:v>e)  Evaluate the results of the test.</x:v>
       </x:c>
       <x:c r="C69" s="120"/>
       <x:c r="D69" s="120"/>
@@ -7155,8 +7177,8 @@
     </x:row>
     <x:row r="70" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A70" s="2"/>
-      <x:c r="B70" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B70" s="117" t="str">
+        <x:v>Comments:</x:v>
       </x:c>
       <x:c r="C70" s="118"/>
       <x:c r="D70" s="28"/>
@@ -7164,8 +7186,8 @@
       <x:c r="F70" s="28"/>
       <x:c r="G70" s="28"/>
       <x:c r="H70" s="28"/>
-      <x:c r="I70" s="29" t="s">
-        <x:v>76</x:v>
+      <x:c r="I70" s="29" t="str">
+        <x:v>See Results Report Sheet</x:v>
       </x:c>
       <x:c r="J70" s="2"/>
     </x:row>
@@ -11706,8 +11728,8 @@
     </x:row>
     <x:row r="59" spans="1:10" ht="26">
       <x:c r="A59" s="2"/>
-      <x:c r="B59" s="111" t="s">
-        <x:v>69</x:v>
+      <x:c r="B59" s="111" t="str">
+        <x:v>3 Audit Phase</x:v>
       </x:c>
       <x:c r="C59" s="112"/>
       <x:c r="D59" s="112"/>
@@ -11720,8 +11742,8 @@
     </x:row>
     <x:row r="60" spans="1:10" ht="84" customHeight="1">
       <x:c r="A60" s="2"/>
-      <x:c r="B60" s="119" t="s">
-        <x:v>70</x:v>
+      <x:c r="B60" s="119" t="str">
+        <x:v>a)  Investigate all excesses (differences in excess of the threshold) and obtain appropriate audit evidence related to these excesses or perform alternative substantive procedures to address the significant differences identified. If significant differences identified by Reveal cannot be explained, we may reconsider the design of the Reveal application and whether the application as a whole has credibility before we perform tests of detail for portions of the balance containing unexplained differences.</x:v>
       </x:c>
       <x:c r="C60" s="120"/>
       <x:c r="D60" s="120"/>
@@ -11734,8 +11756,8 @@
     </x:row>
     <x:row r="61" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A61" s="2"/>
-      <x:c r="B61" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B61" s="117" t="str">
+        <x:v>Comments:</x:v>
       </x:c>
       <x:c r="C61" s="118"/>
       <x:c r="D61" s="28"/>
@@ -11743,15 +11765,15 @@
       <x:c r="F61" s="28"/>
       <x:c r="G61" s="28"/>
       <x:c r="H61" s="28"/>
-      <x:c r="I61" s="29" t="s">
-        <x:v>76</x:v>
+      <x:c r="I61" s="29" t="str">
+        <x:v>See Results Report Sheet</x:v>
       </x:c>
       <x:c r="J61" s="2"/>
     </x:row>
     <x:row r="62" spans="1:10" ht="36" customHeight="1">
       <x:c r="A62" s="2"/>
-      <x:c r="B62" s="119" t="s">
-        <x:v>71</x:v>
+      <x:c r="B62" s="119" t="str">
+        <x:v>b)  Consider whether there are unusual patterns in the residuals to investigate (e.g., residuals tend strongly in one direction and are close to the individual thresholds, and their sum is multiples of performance materiality)</x:v>
       </x:c>
       <x:c r="C62" s="120"/>
       <x:c r="D62" s="120"/>
@@ -11764,8 +11786,8 @@
     </x:row>
     <x:row r="63" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A63" s="2"/>
-      <x:c r="B63" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B63" s="117" t="str">
+        <x:v>Comments</x:v>
       </x:c>
       <x:c r="C63" s="118"/>
       <x:c r="D63" s="28"/>
@@ -11773,15 +11795,15 @@
       <x:c r="F63" s="28"/>
       <x:c r="G63" s="28"/>
       <x:c r="H63" s="28"/>
-      <x:c r="I63" s="29" t="s">
-        <x:v>76</x:v>
+      <x:c r="I63" s="29" t="str">
+        <x:v>See Results Report Sheet</x:v>
       </x:c>
       <x:c r="J63" s="2"/>
     </x:row>
     <x:row r="64" spans="1:10" ht="36" customHeight="1">
       <x:c r="A64" s="2"/>
-      <x:c r="B64" s="119" t="s">
-        <x:v>72</x:v>
+      <x:c r="B64" s="119" t="str">
+        <x:v>c)  Consider re-running the application after adjusting base or projection data for any significant errors or events discovered during our audit procedures.  </x:v>
       </x:c>
       <x:c r="C64" s="120"/>
       <x:c r="D64" s="120"/>
@@ -11794,8 +11816,30 @@
     </x:row>
     <x:row r="65" spans="1:10" ht="49" customHeight="1">
       <x:c r="A65" s="2"/>
-      <x:c r="B65" s="87" t="s">
-        <x:v>73</x:v>
+      <x:c r="B65" s="87" t="inlineStr">
+        <x:is>
+          <x:r>
+            <x:rPr>
+              <x:b/>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t>[Note:</x:t>
+          </x:r>
+          <x:r>
+            <x:rPr>
+              <x:sz val="12"/>
+              <x:color theme="1"/>
+              <x:rFont val="Calibri"/>
+              <x:family val="2"/>
+              <x:scheme val="minor"/>
+            </x:rPr>
+            <x:t xml:space="preserve"> Uncorrected errors or discontinuity in the projection data will fall within the base period data in future years and may cause problems in running the application in subsequent years.  To avoid this, errors and discontinuity need to be investigated and, if possible, corrected in the current year.]</x:t>
+          </x:r>
+        </x:is>
       </x:c>
       <x:c r="C65" s="88"/>
       <x:c r="D65" s="88"/>
@@ -11808,8 +11852,8 @@
     </x:row>
     <x:row r="66" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A66" s="2"/>
-      <x:c r="B66" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B66" s="117" t="str">
+        <x:v>Comments:</x:v>
       </x:c>
       <x:c r="C66" s="118"/>
       <x:c r="D66" s="28"/>
@@ -11817,15 +11861,15 @@
       <x:c r="F66" s="28"/>
       <x:c r="G66" s="28"/>
       <x:c r="H66" s="28"/>
-      <x:c r="I66" s="29" t="s">
-        <x:v>76</x:v>
+      <x:c r="I66" s="29" t="str">
+        <x:v>See Results Report Sheet</x:v>
       </x:c>
       <x:c r="J66" s="2"/>
     </x:row>
     <x:row r="67" spans="1:10" ht="36" customHeight="1">
       <x:c r="A67" s="2"/>
-      <x:c r="B67" s="119" t="s">
-        <x:v>74</x:v>
+      <x:c r="B67" s="119" t="str">
+        <x:v>d)  Document any misstatements identified and how they were investigated.  Transfer misstatements to the applicable Form 2340 "Evaluation of Misstatements " or equivalent documentation. </x:v>
       </x:c>
       <x:c r="C67" s="120"/>
       <x:c r="D67" s="120"/>
@@ -11838,8 +11882,8 @@
     </x:row>
     <x:row r="68" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A68" s="2"/>
-      <x:c r="B68" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B68" s="117" t="str">
+        <x:v>Comments:</x:v>
       </x:c>
       <x:c r="C68" s="118"/>
       <x:c r="D68" s="28"/>
@@ -11852,8 +11896,8 @@
     </x:row>
     <x:row r="69" spans="1:10">
       <x:c r="A69" s="2"/>
-      <x:c r="B69" s="119" t="s">
-        <x:v>75</x:v>
+      <x:c r="B69" s="119" t="str">
+        <x:v>e)  Evaluate the results of the test.</x:v>
       </x:c>
       <x:c r="C69" s="120"/>
       <x:c r="D69" s="120"/>
@@ -11866,8 +11910,8 @@
     </x:row>
     <x:row r="70" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A70" s="2"/>
-      <x:c r="B70" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B70" s="117" t="str">
+        <x:v>Comments:</x:v>
       </x:c>
       <x:c r="C70" s="118"/>
       <x:c r="D70" s="28"/>
@@ -11875,8 +11919,8 @@
       <x:c r="F70" s="28"/>
       <x:c r="G70" s="28"/>
       <x:c r="H70" s="28"/>
-      <x:c r="I70" s="29" t="s">
-        <x:v>76</x:v>
+      <x:c r="I70" s="29" t="str">
+        <x:v>See Results Report Sheet</x:v>
       </x:c>
       <x:c r="J70" s="2"/>
     </x:row>

--- a/Sandbox.OpenXML/DStarExport.xlsx
+++ b/Sandbox.OpenXML/DStarExport.xlsx
@@ -2,12 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
   <x:sheets>
-    <x:sheet name="Overview1" sheetId="1" r:id="Sequence1_rId1"/>
-    <x:sheet name="Data Model1" sheetId="2" r:id="Sequence1_rId2"/>
-    <x:sheet name="Results Report1" sheetId="3" r:id="Sequence1_rId3"/>
-    <x:sheet name="Overview2" sheetId="4" r:id="Sequence2_rId1"/>
-    <x:sheet name="Data Model2" sheetId="5" r:id="Sequence2_rId2"/>
-    <x:sheet name="Results Report2" sheetId="6" r:id="Sequence2_rId3"/>
+    <x:sheet name="Overview" sheetId="1" r:id="Sequence1_rId1"/>
+    <x:sheet name="Data Model" sheetId="2" r:id="Sequence1_rId2"/>
+    <x:sheet name="Results Report" sheetId="3" r:id="Sequence1_rId3"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -2233,429 +2230,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>82404</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>824661</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>126030</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect t="32250" b="34913"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="82404"/>
-          <a:ext cx="1827961" cy="450026"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6769100" y="114300"/>
-          <a:ext cx="1631650" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Deloitte Reveal</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>82404</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>265861</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>126030</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect t="32250" b="34913"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="82404"/>
-          <a:ext cx="1827961" cy="450026"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1060150</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6769100" y="114300"/>
-          <a:ext cx="1631650" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Deloitte Reveal</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>82404</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>265861</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>126030</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect t="32250" b="34913"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="82404"/>
-          <a:ext cx="1827961" cy="450026"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1060150</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6769100" y="114300"/>
-          <a:ext cx="1631650" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Deloitte Reveal</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>82404</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>824661</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>126030</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect t="32250" b="34913"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="82404"/>
-          <a:ext cx="1827961" cy="450026"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6769100" y="114300"/>
-          <a:ext cx="1631650" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Deloitte Reveal</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:dimension ref="A1:J86"/>
@@ -7205,8 +6779,8 @@
     </x:row>
     <x:row r="72" spans="1:10" ht="26">
       <x:c r="A72" s="2"/>
-      <x:c r="B72" s="111" t="s">
-        <x:v>77</x:v>
+      <x:c r="B72" s="111" t="str">
+        <x:v>4 File Maintenance</x:v>
       </x:c>
       <x:c r="C72" s="112"/>
       <x:c r="D72" s="112"/>
@@ -7219,8 +6793,8 @@
     </x:row>
     <x:row r="73" spans="1:10" ht="53" customHeight="1">
       <x:c r="A73" s="2"/>
-      <x:c r="B73" s="119" t="s">
-        <x:v>78</x:v>
+      <x:c r="B73" s="119" t="str">
+        <x:v>a)  To help in the successful running of the application in future years, make corrections to the data profile now (e.g., by removing or quantifying unusual and non-repeating events) so that the data remains a good predictor of the test variable for future years.  Document the reasons for any such changes.  </x:v>
       </x:c>
       <x:c r="C73" s="120"/>
       <x:c r="D73" s="120"/>
@@ -7233,8 +6807,8 @@
     </x:row>
     <x:row r="74" spans="1:10" ht="60" customHeight="1" thickBot="1">
       <x:c r="A74" s="2"/>
-      <x:c r="B74" s="117" t="s">
-        <x:v>39</x:v>
+      <x:c r="B74" s="117" t="str">
+        <x:v>Comments:</x:v>
       </x:c>
       <x:c r="C74" s="118"/>
       <x:c r="D74" s="28"/>
@@ -7242,8 +6816,8 @@
       <x:c r="F74" s="28"/>
       <x:c r="G74" s="28"/>
       <x:c r="H74" s="28"/>
-      <x:c r="I74" s="29" t="s">
-        <x:v>37</x:v>
+      <x:c r="I74" s="29" t="str">
+        <x:v>See Data Model Sheet</x:v>
       </x:c>
       <x:c r="J74" s="2"/>
     </x:row>
@@ -7364,4754 +6938,21 @@
   </x:mergeCells>
   <x:phoneticPr fontId="3" type="noConversion"/>
   <x:hyperlinks>
-    <x:hyperlink ref="I23" location="'Data Model1'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I18" location="'Data Model1'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I21" location="'Data Model1'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I34" location="'Data Model1'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I51" location="'Data Model1'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I43" location="'Data Model1'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I49" location="'Data Model1'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I53" location="'Results Report1'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I57" location="'Data Model1'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I55" location="'Results Report1'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I61" location="'Results Report1'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I63" location="'Results Report1'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I66" location="'Results Report1'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I70" location="'Results Report1'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I74" location="'Data Model1'!A1" display="See Data Model Sheet"/>
-  </x:hyperlinks>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup scale="76" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <x:colBreaks count="1" manualBreakCount="1">
-    <x:brk id="10" max="1048575" man="1"/>
-  </x:colBreaks>
-  <x:drawing r:id="rId1"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="A1:J86"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
-  <x:cols>
-    <x:col min="1" max="1" width="4" customWidth="1"/>
-    <x:col min="2" max="2" width="9.1640625" style="5" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="9" width="13.33203125" customWidth="1"/>
-    <x:col min="10" max="10" width="4" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:10">
-      <x:c r="A1" s="1"/>
-      <x:c r="B1" s="3"/>
-      <x:c r="C1" s="1"/>
-      <x:c r="D1" s="1"/>
-      <x:c r="E1" s="1"/>
-      <x:c r="F1" s="1"/>
-      <x:c r="G1" s="1"/>
-      <x:c r="H1" s="1"/>
-      <x:c r="I1" s="1"/>
-      <x:c r="J1" s="1"/>
-    </x:row>
-    <x:row r="2" spans="1:10">
-      <x:c r="A2" s="1"/>
-      <x:c r="B2" s="3"/>
-      <x:c r="C2" s="1"/>
-      <x:c r="D2" s="1"/>
-      <x:c r="E2" s="1"/>
-      <x:c r="F2" s="1"/>
-      <x:c r="G2" s="1"/>
-      <x:c r="H2" s="1"/>
-      <x:c r="I2" s="1"/>
-      <x:c r="J2" s="1"/>
-    </x:row>
-    <x:row r="3" spans="1:10">
-      <x:c r="A3" s="1"/>
-      <x:c r="B3" s="3"/>
-      <x:c r="C3" s="1"/>
-      <x:c r="D3" s="1"/>
-      <x:c r="E3" s="1"/>
-      <x:c r="F3" s="1"/>
-      <x:c r="G3" s="1"/>
-      <x:c r="H3" s="1"/>
-      <x:c r="I3" s="1"/>
-      <x:c r="J3" s="1"/>
-    </x:row>
-    <x:row r="4" spans="1:10" ht="24" customHeight="1" thickBot="1">
-      <x:c r="A4" s="2"/>
-      <x:c r="B4" s="4"/>
-      <x:c r="C4" s="2"/>
-      <x:c r="D4" s="2"/>
-      <x:c r="E4" s="2"/>
-      <x:c r="F4" s="2"/>
-      <x:c r="G4" s="2"/>
-      <x:c r="H4" s="2"/>
-      <x:c r="I4" s="2"/>
-      <x:c r="J4" s="2"/>
-    </x:row>
-    <x:row r="5" spans="1:10" ht="26.5" thickTop="1">
-      <x:c r="A5" s="2"/>
-      <x:c r="B5" s="157" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C5" s="158"/>
-      <x:c r="D5" s="158"/>
-      <x:c r="E5" s="158"/>
-      <x:c r="F5" s="158"/>
-      <x:c r="G5" s="158"/>
-      <x:c r="H5" s="158"/>
-      <x:c r="I5" s="159"/>
-      <x:c r="J5" s="2"/>
-    </x:row>
-    <x:row r="6" spans="1:10">
-      <x:c r="A6" s="2"/>
-      <x:c r="B6" s="154" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C6" s="155"/>
-      <x:c r="D6" s="155"/>
-      <x:c r="E6" s="155"/>
-      <x:c r="F6" s="155"/>
-      <x:c r="G6" s="155"/>
-      <x:c r="H6" s="155"/>
-      <x:c r="I6" s="156"/>
-      <x:c r="J6" s="2"/>
-    </x:row>
-    <x:row r="7" spans="1:10" ht="21">
-      <x:c r="A7" s="2"/>
-      <x:c r="B7" s="160" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C7" s="161"/>
-      <x:c r="D7" s="161"/>
-      <x:c r="E7" s="161"/>
-      <x:c r="F7" s="161"/>
-      <x:c r="G7" s="161"/>
-      <x:c r="H7" s="161"/>
-      <x:c r="I7" s="162"/>
-      <x:c r="J7" s="2"/>
-    </x:row>
-    <x:row r="8" spans="1:10" ht="21">
-      <x:c r="A8" s="2"/>
-      <x:c r="B8" s="14"/>
-      <x:c r="C8" s="15"/>
-      <x:c r="D8" s="15"/>
-      <x:c r="E8" s="15"/>
-      <x:c r="F8" s="15"/>
-      <x:c r="G8" s="15"/>
-      <x:c r="H8" s="15"/>
-      <x:c r="I8" s="16"/>
-      <x:c r="J8" s="2"/>
-    </x:row>
-    <x:row r="9" spans="1:10" ht="42" customHeight="1">
-      <x:c r="A9" s="2"/>
-      <x:c r="B9" s="17"/>
-      <x:c r="C9" s="170" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D9" s="169"/>
-      <x:c r="E9" s="169" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F9" s="169"/>
-      <x:c r="G9" s="165" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H9" s="166"/>
-      <x:c r="I9" s="18"/>
-      <x:c r="J9" s="2"/>
-    </x:row>
-    <x:row r="10" spans="1:10" ht="21">
-      <x:c r="A10" s="2"/>
-      <x:c r="B10" s="17"/>
-      <x:c r="C10" s="163">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="D10" s="164"/>
-      <x:c r="E10" s="164">
-        <x:v>5722</x:v>
-      </x:c>
-      <x:c r="F10" s="164"/>
-      <x:c r="G10" s="167">
-        <x:v>0.91500000000000004</x:v>
-      </x:c>
-      <x:c r="H10" s="168"/>
-      <x:c r="I10" s="18"/>
-      <x:c r="J10" s="2"/>
-    </x:row>
-    <x:row r="11" spans="1:10">
-      <x:c r="A11" s="2"/>
-      <x:c r="B11" s="20"/>
-      <x:c r="C11" s="8"/>
-      <x:c r="D11" s="8"/>
-      <x:c r="E11" s="21"/>
-      <x:c r="F11" s="21"/>
-      <x:c r="G11" s="21"/>
-      <x:c r="H11" s="21"/>
-      <x:c r="I11" s="10"/>
-      <x:c r="J11" s="2"/>
-    </x:row>
-    <x:row r="12" spans="1:10">
-      <x:c r="A12" s="2"/>
-      <x:c r="B12" s="20"/>
-      <x:c r="C12" s="21"/>
-      <x:c r="D12" s="21"/>
-      <x:c r="E12" s="21"/>
-      <x:c r="F12" s="152" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G12" s="152"/>
-      <x:c r="H12" s="152" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I12" s="153"/>
-      <x:c r="J12" s="2"/>
-    </x:row>
-    <x:row r="13" spans="1:10" ht="46" customHeight="1">
-      <x:c r="A13" s="2"/>
-      <x:c r="B13" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C13" s="25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D13" s="25" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E13" s="25" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F13" s="12" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G13" s="12" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H13" s="12" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="I13" s="13" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="J13" s="2"/>
-    </x:row>
-    <x:row r="14" spans="1:10">
-      <x:c r="A14" s="2"/>
-      <x:c r="B14" s="20">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C14" s="8">
-        <x:v>19215</x:v>
-      </x:c>
-      <x:c r="D14" s="8">
-        <x:v>19367</x:v>
-      </x:c>
-      <x:c r="E14" s="21">
-        <x:v>-152</x:v>
-      </x:c>
-      <x:c r="F14" s="21">
-        <x:v>-718</x:v>
-      </x:c>
-      <x:c r="G14" s="21">
-        <x:v>718</x:v>
-      </x:c>
-      <x:c r="H14" s="21"/>
-      <x:c r="I14" s="10"/>
-      <x:c r="J14" s="2"/>
-    </x:row>
-    <x:row r="15" spans="1:10">
-      <x:c r="A15" s="2"/>
-      <x:c r="B15" s="20">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C15" s="8">
-        <x:v>18011</x:v>
-      </x:c>
-      <x:c r="D15" s="8">
-        <x:v>17368</x:v>
-      </x:c>
-      <x:c r="E15" s="21">
-        <x:v>643</x:v>
-      </x:c>
-      <x:c r="F15" s="21">
-        <x:v>-718</x:v>
-      </x:c>
-      <x:c r="G15" s="21">
-        <x:v>718</x:v>
-      </x:c>
-      <x:c r="H15" s="21"/>
-      <x:c r="I15" s="10"/>
-      <x:c r="J15" s="2"/>
-    </x:row>
-    <x:row r="16" spans="1:10">
-      <x:c r="A16" s="2"/>
-      <x:c r="B16" s="20">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C16" s="8">
-        <x:v>21778</x:v>
-      </x:c>
-      <x:c r="D16" s="8">
-        <x:v>20919</x:v>
-      </x:c>
-      <x:c r="E16" s="21">
-        <x:v>859</x:v>
-      </x:c>
-      <x:c r="F16" s="21">
-        <x:v>-715</x:v>
-      </x:c>
-      <x:c r="G16" s="21">
-        <x:v>715</x:v>
-      </x:c>
-      <x:c r="H16" s="21"/>
-      <x:c r="I16" s="10">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="J16" s="2"/>
-    </x:row>
-    <x:row r="17" spans="1:10">
-      <x:c r="A17" s="2"/>
-      <x:c r="B17" s="20">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C17" s="8">
-        <x:v>18513</x:v>
-      </x:c>
-      <x:c r="D17" s="8">
-        <x:v>17389</x:v>
-      </x:c>
-      <x:c r="E17" s="8">
-        <x:v>1124</x:v>
-      </x:c>
-      <x:c r="F17" s="21">
-        <x:v>-718</x:v>
-      </x:c>
-      <x:c r="G17" s="21">
-        <x:v>718</x:v>
-      </x:c>
-      <x:c r="H17" s="21"/>
-      <x:c r="I17" s="10">
-        <x:v>406</x:v>
-      </x:c>
-      <x:c r="J17" s="2"/>
-    </x:row>
-    <x:row r="18" spans="1:10">
-      <x:c r="A18" s="2"/>
-      <x:c r="B18" s="20">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C18" s="8">
-        <x:v>17524</x:v>
-      </x:c>
-      <x:c r="D18" s="8">
-        <x:v>16863</x:v>
-      </x:c>
-      <x:c r="E18" s="21">
-        <x:v>661</x:v>
-      </x:c>
-      <x:c r="F18" s="21">
-        <x:v>-718</x:v>
-      </x:c>
-      <x:c r="G18" s="21">
-        <x:v>718</x:v>
-      </x:c>
-      <x:c r="H18" s="21"/>
-      <x:c r="I18" s="10"/>
-      <x:c r="J18" s="2"/>
-    </x:row>
-    <x:row r="19" spans="1:10">
-      <x:c r="A19" s="2"/>
-      <x:c r="B19" s="20">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C19" s="8">
-        <x:v>21429</x:v>
-      </x:c>
-      <x:c r="D19" s="8">
-        <x:v>21997</x:v>
-      </x:c>
-      <x:c r="E19" s="21">
-        <x:v>-568</x:v>
-      </x:c>
-      <x:c r="F19" s="21">
-        <x:v>-710</x:v>
-      </x:c>
-      <x:c r="G19" s="21">
-        <x:v>710</x:v>
-      </x:c>
-      <x:c r="H19" s="21"/>
-      <x:c r="I19" s="10"/>
-      <x:c r="J19" s="2"/>
-    </x:row>
-    <x:row r="20" spans="1:10">
-      <x:c r="A20" s="2"/>
-      <x:c r="B20" s="20">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C20" s="8">
-        <x:v>18966</x:v>
-      </x:c>
-      <x:c r="D20" s="8">
-        <x:v>18737</x:v>
-      </x:c>
-      <x:c r="E20" s="21">
-        <x:v>229</x:v>
-      </x:c>
-      <x:c r="F20" s="21">
-        <x:v>-719</x:v>
-      </x:c>
-      <x:c r="G20" s="21">
-        <x:v>719</x:v>
-      </x:c>
-      <x:c r="H20" s="21"/>
-      <x:c r="I20" s="10"/>
-      <x:c r="J20" s="2"/>
-    </x:row>
-    <x:row r="21" spans="1:10">
-      <x:c r="A21" s="2"/>
-      <x:c r="B21" s="20">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C21" s="8">
-        <x:v>15820</x:v>
-      </x:c>
-      <x:c r="D21" s="8">
-        <x:v>16384</x:v>
-      </x:c>
-      <x:c r="E21" s="21">
-        <x:v>-564</x:v>
-      </x:c>
-      <x:c r="F21" s="21">
-        <x:v>-717</x:v>
-      </x:c>
-      <x:c r="G21" s="21">
-        <x:v>717</x:v>
-      </x:c>
-      <x:c r="H21" s="21"/>
-      <x:c r="I21" s="10"/>
-      <x:c r="J21" s="2"/>
-    </x:row>
-    <x:row r="22" spans="1:10">
-      <x:c r="A22" s="2"/>
-      <x:c r="B22" s="20">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C22" s="8">
-        <x:v>23880</x:v>
-      </x:c>
-      <x:c r="D22" s="8">
-        <x:v>22155</x:v>
-      </x:c>
-      <x:c r="E22" s="8">
-        <x:v>1725</x:v>
-      </x:c>
-      <x:c r="F22" s="21">
-        <x:v>-708</x:v>
-      </x:c>
-      <x:c r="G22" s="21">
-        <x:v>708</x:v>
-      </x:c>
-      <x:c r="H22" s="21"/>
-      <x:c r="I22" s="11">
-        <x:v>1017</x:v>
-      </x:c>
-      <x:c r="J22" s="2"/>
-    </x:row>
-    <x:row r="23" spans="1:10">
-      <x:c r="A23" s="2"/>
-      <x:c r="B23" s="20">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C23" s="8">
-        <x:v>22081</x:v>
-      </x:c>
-      <x:c r="D23" s="8">
-        <x:v>20514</x:v>
-      </x:c>
-      <x:c r="E23" s="8">
-        <x:v>1567</x:v>
-      </x:c>
-      <x:c r="F23" s="21">
-        <x:v>-716</x:v>
-      </x:c>
-      <x:c r="G23" s="21">
-        <x:v>716</x:v>
-      </x:c>
-      <x:c r="H23" s="21"/>
-      <x:c r="I23" s="10">
-        <x:v>850</x:v>
-      </x:c>
-      <x:c r="J23" s="2"/>
-    </x:row>
-    <x:row r="24" spans="1:10">
-      <x:c r="A24" s="2"/>
-      <x:c r="B24" s="20">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C24" s="8">
-        <x:v>22107</x:v>
-      </x:c>
-      <x:c r="D24" s="8">
-        <x:v>21434</x:v>
-      </x:c>
-      <x:c r="E24" s="21">
-        <x:v>673</x:v>
-      </x:c>
-      <x:c r="F24" s="21">
-        <x:v>-713</x:v>
-      </x:c>
-      <x:c r="G24" s="21">
-        <x:v>713</x:v>
-      </x:c>
-      <x:c r="H24" s="21"/>
-      <x:c r="I24" s="10"/>
-      <x:c r="J24" s="2"/>
-    </x:row>
-    <x:row r="25" spans="1:10">
-      <x:c r="A25" s="2"/>
-      <x:c r="B25" s="20">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C25" s="8">
-        <x:v>18538</x:v>
-      </x:c>
-      <x:c r="D25" s="8">
-        <x:v>19013</x:v>
-      </x:c>
-      <x:c r="E25" s="21">
-        <x:v>-475</x:v>
-      </x:c>
-      <x:c r="F25" s="21">
-        <x:v>-719</x:v>
-      </x:c>
-      <x:c r="G25" s="21">
-        <x:v>719</x:v>
-      </x:c>
-      <x:c r="H25" s="21"/>
-      <x:c r="I25" s="10"/>
-      <x:c r="J25" s="2"/>
-    </x:row>
-    <x:row r="26" spans="1:10">
-      <x:c r="A26" s="2"/>
-      <x:c r="B26" s="82" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C26" s="83">
-        <x:v>237862</x:v>
-      </x:c>
-      <x:c r="D26" s="83">
-        <x:v>232140</x:v>
-      </x:c>
-      <x:c r="E26" s="83">
-        <x:v>5722</x:v>
-      </x:c>
-      <x:c r="F26" s="83"/>
-      <x:c r="G26" s="83"/>
-      <x:c r="H26" s="83"/>
-      <x:c r="I26" s="84"/>
-      <x:c r="J26" s="2"/>
-    </x:row>
-    <x:row r="27" spans="1:10" ht="12" customHeight="1">
-      <x:c r="A27" s="2"/>
-      <x:c r="B27" s="6"/>
-      <x:c r="C27" s="61"/>
-      <x:c r="D27" s="61"/>
-      <x:c r="E27" s="61"/>
-      <x:c r="F27" s="61"/>
-      <x:c r="G27" s="61"/>
-      <x:c r="H27" s="61"/>
-      <x:c r="I27" s="10"/>
-      <x:c r="J27" s="2"/>
-    </x:row>
-    <x:row r="28" spans="1:10" ht="64" customHeight="1">
-      <x:c r="A28" s="2"/>
-      <x:c r="B28" s="171" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C28" s="172"/>
-      <x:c r="D28" s="172"/>
-      <x:c r="E28" s="172"/>
-      <x:c r="F28" s="172"/>
-      <x:c r="G28" s="172"/>
-      <x:c r="H28" s="172"/>
-      <x:c r="I28" s="173"/>
-      <x:c r="J28" s="2"/>
-    </x:row>
-    <x:row r="29" spans="1:10" ht="16" thickBot="1">
-      <x:c r="A29" s="2"/>
-      <x:c r="B29" s="22"/>
-      <x:c r="C29" s="23"/>
-      <x:c r="D29" s="23"/>
-      <x:c r="E29" s="23"/>
-      <x:c r="F29" s="23"/>
-      <x:c r="G29" s="23"/>
-      <x:c r="H29" s="23"/>
-      <x:c r="I29" s="24"/>
-      <x:c r="J29" s="2"/>
-    </x:row>
-    <x:row r="30" spans="1:10" ht="24" customHeight="1" thickBot="1">
-      <x:c r="A30" s="2"/>
-      <x:c r="B30" s="4"/>
-      <x:c r="C30" s="2"/>
-      <x:c r="D30" s="2"/>
-      <x:c r="E30" s="2"/>
-      <x:c r="F30" s="2"/>
-      <x:c r="G30" s="2"/>
-      <x:c r="H30" s="2"/>
-      <x:c r="I30" s="2"/>
-      <x:c r="J30" s="2"/>
-    </x:row>
-    <x:row r="31" spans="1:10" ht="26.5" thickTop="1">
-      <x:c r="A31" s="2"/>
-      <x:c r="B31" s="157" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C31" s="158"/>
-      <x:c r="D31" s="158"/>
-      <x:c r="E31" s="158"/>
-      <x:c r="F31" s="158"/>
-      <x:c r="G31" s="158"/>
-      <x:c r="H31" s="158"/>
-      <x:c r="I31" s="159"/>
-      <x:c r="J31" s="2"/>
-    </x:row>
-    <x:row r="32" spans="1:10">
-      <x:c r="A32" s="2"/>
-      <x:c r="B32" s="154" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C32" s="155"/>
-      <x:c r="D32" s="155"/>
-      <x:c r="E32" s="155"/>
-      <x:c r="F32" s="155"/>
-      <x:c r="G32" s="155"/>
-      <x:c r="H32" s="155"/>
-      <x:c r="I32" s="156"/>
-      <x:c r="J32" s="2"/>
-    </x:row>
-    <x:row r="33" spans="1:10">
-      <x:c r="A33" s="2"/>
-      <x:c r="B33" s="180" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C33" s="181"/>
-      <x:c r="D33" s="181"/>
-      <x:c r="E33" s="181"/>
-      <x:c r="F33" s="181"/>
-      <x:c r="G33" s="181"/>
-      <x:c r="H33" s="181"/>
-      <x:c r="I33" s="182"/>
-      <x:c r="J33" s="2"/>
-    </x:row>
-    <x:row r="34" spans="1:10">
-      <x:c r="A34" s="2"/>
-      <x:c r="B34" s="20"/>
-      <x:c r="C34" s="8"/>
-      <x:c r="D34" s="8"/>
-      <x:c r="E34" s="21"/>
-      <x:c r="F34" s="21"/>
-      <x:c r="G34" s="21"/>
-      <x:c r="H34" s="21"/>
-      <x:c r="I34" s="10"/>
-      <x:c r="J34" s="2"/>
-    </x:row>
-    <x:row r="35" spans="1:10">
-      <x:c r="A35" s="2"/>
-      <x:c r="B35" s="20"/>
-      <x:c r="C35" s="8" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D35" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E35" s="21" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F35" s="21"/>
-      <x:c r="G35" s="21"/>
-      <x:c r="H35" s="21"/>
-      <x:c r="I35" s="10"/>
-      <x:c r="J35" s="2"/>
-    </x:row>
-    <x:row r="36" spans="1:10">
-      <x:c r="A36" s="2"/>
-      <x:c r="B36" s="20">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C36" s="8">
-        <x:v>17789</x:v>
-      </x:c>
-      <x:c r="D36" s="8">
-        <x:v>19002</x:v>
-      </x:c>
-      <x:c r="E36" s="8">
-        <x:v>-1213</x:v>
-      </x:c>
-      <x:c r="F36" s="21"/>
-      <x:c r="G36" s="21"/>
-      <x:c r="H36" s="21"/>
-      <x:c r="I36" s="10"/>
-      <x:c r="J36" s="2"/>
-    </x:row>
-    <x:row r="37" spans="1:10">
-      <x:c r="A37" s="2"/>
-      <x:c r="B37" s="20">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C37" s="8">
-        <x:v>19417</x:v>
-      </x:c>
-      <x:c r="D37" s="8">
-        <x:v>19838</x:v>
-      </x:c>
-      <x:c r="E37" s="21">
-        <x:v>-421</x:v>
-      </x:c>
-      <x:c r="F37" s="21"/>
-      <x:c r="G37" s="21"/>
-      <x:c r="H37" s="21"/>
-      <x:c r="I37" s="10"/>
-      <x:c r="J37" s="2"/>
-    </x:row>
-    <x:row r="38" spans="1:10">
-      <x:c r="A38" s="2"/>
-      <x:c r="B38" s="20">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C38" s="8">
-        <x:v>22802</x:v>
-      </x:c>
-      <x:c r="D38" s="8">
-        <x:v>21172</x:v>
-      </x:c>
-      <x:c r="E38" s="8">
-        <x:v>1630</x:v>
-      </x:c>
-      <x:c r="F38" s="21"/>
-      <x:c r="G38" s="21"/>
-      <x:c r="H38" s="21"/>
-      <x:c r="I38" s="10"/>
-      <x:c r="J38" s="2"/>
-    </x:row>
-    <x:row r="39" spans="1:10">
-      <x:c r="A39" s="2"/>
-      <x:c r="B39" s="20">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C39" s="8">
-        <x:v>17825</x:v>
-      </x:c>
-      <x:c r="D39" s="8">
-        <x:v>17725</x:v>
-      </x:c>
-      <x:c r="E39" s="21">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="F39" s="21"/>
-      <x:c r="G39" s="21"/>
-      <x:c r="H39" s="21"/>
-      <x:c r="I39" s="10"/>
-      <x:c r="J39" s="2"/>
-    </x:row>
-    <x:row r="40" spans="1:10">
-      <x:c r="A40" s="2"/>
-      <x:c r="B40" s="20">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C40" s="8">
-        <x:v>17816</x:v>
-      </x:c>
-      <x:c r="D40" s="8">
-        <x:v>18295</x:v>
-      </x:c>
-      <x:c r="E40" s="21">
-        <x:v>-479</x:v>
-      </x:c>
-      <x:c r="F40" s="21"/>
-      <x:c r="G40" s="21"/>
-      <x:c r="H40" s="21"/>
-      <x:c r="I40" s="10"/>
-      <x:c r="J40" s="2"/>
-    </x:row>
-    <x:row r="41" spans="1:10">
-      <x:c r="A41" s="2"/>
-      <x:c r="B41" s="20">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C41" s="8">
-        <x:v>15948</x:v>
-      </x:c>
-      <x:c r="D41" s="8">
-        <x:v>17865</x:v>
-      </x:c>
-      <x:c r="E41" s="8">
-        <x:v>-1917</x:v>
-      </x:c>
-      <x:c r="F41" s="21"/>
-      <x:c r="G41" s="21"/>
-      <x:c r="H41" s="21"/>
-      <x:c r="I41" s="10"/>
-      <x:c r="J41" s="2"/>
-    </x:row>
-    <x:row r="42" spans="1:10">
-      <x:c r="A42" s="2"/>
-      <x:c r="B42" s="20">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C42" s="8">
-        <x:v>18297</x:v>
-      </x:c>
-      <x:c r="D42" s="8">
-        <x:v>18412</x:v>
-      </x:c>
-      <x:c r="E42" s="21">
-        <x:v>-115</x:v>
-      </x:c>
-      <x:c r="F42" s="21"/>
-      <x:c r="G42" s="21"/>
-      <x:c r="H42" s="21"/>
-      <x:c r="I42" s="10"/>
-      <x:c r="J42" s="2"/>
-    </x:row>
-    <x:row r="43" spans="1:10">
-      <x:c r="A43" s="2"/>
-      <x:c r="B43" s="20">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C43" s="8">
-        <x:v>14586</x:v>
-      </x:c>
-      <x:c r="D43" s="8">
-        <x:v>15612</x:v>
-      </x:c>
-      <x:c r="E43" s="8">
-        <x:v>-1026</x:v>
-      </x:c>
-      <x:c r="F43" s="21"/>
-      <x:c r="G43" s="21"/>
-      <x:c r="H43" s="21"/>
-      <x:c r="I43" s="10"/>
-      <x:c r="J43" s="2"/>
-    </x:row>
-    <x:row r="44" spans="1:10">
-      <x:c r="A44" s="2"/>
-      <x:c r="B44" s="20">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C44" s="8">
-        <x:v>18617</x:v>
-      </x:c>
-      <x:c r="D44" s="8">
-        <x:v>17442</x:v>
-      </x:c>
-      <x:c r="E44" s="8">
-        <x:v>1175</x:v>
-      </x:c>
-      <x:c r="F44" s="21"/>
-      <x:c r="G44" s="21"/>
-      <x:c r="H44" s="21"/>
-      <x:c r="I44" s="10"/>
-      <x:c r="J44" s="2"/>
-    </x:row>
-    <x:row r="45" spans="1:10">
-      <x:c r="A45" s="2"/>
-      <x:c r="B45" s="20">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C45" s="8">
-        <x:v>21001</x:v>
-      </x:c>
-      <x:c r="D45" s="8">
-        <x:v>21115</x:v>
-      </x:c>
-      <x:c r="E45" s="21">
-        <x:v>-114</x:v>
-      </x:c>
-      <x:c r="F45" s="21"/>
-      <x:c r="G45" s="21"/>
-      <x:c r="H45" s="21"/>
-      <x:c r="I45" s="10"/>
-      <x:c r="J45" s="2"/>
-    </x:row>
-    <x:row r="46" spans="1:10">
-      <x:c r="A46" s="2"/>
-      <x:c r="B46" s="20">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C46" s="8">
-        <x:v>18619</x:v>
-      </x:c>
-      <x:c r="D46" s="8">
-        <x:v>18079</x:v>
-      </x:c>
-      <x:c r="E46" s="21">
-        <x:v>540</x:v>
-      </x:c>
-      <x:c r="F46" s="21"/>
-      <x:c r="G46" s="21"/>
-      <x:c r="H46" s="21"/>
-      <x:c r="I46" s="10"/>
-      <x:c r="J46" s="2"/>
-    </x:row>
-    <x:row r="47" spans="1:10">
-      <x:c r="A47" s="2"/>
-      <x:c r="B47" s="20">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C47" s="8">
-        <x:v>16125</x:v>
-      </x:c>
-      <x:c r="D47" s="8">
-        <x:v>15578</x:v>
-      </x:c>
-      <x:c r="E47" s="21">
-        <x:v>547</x:v>
-      </x:c>
-      <x:c r="F47" s="21"/>
-      <x:c r="G47" s="21"/>
-      <x:c r="H47" s="21"/>
-      <x:c r="I47" s="10"/>
-      <x:c r="J47" s="2"/>
-    </x:row>
-    <x:row r="48" spans="1:10">
-      <x:c r="A48" s="2"/>
-      <x:c r="B48" s="20">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C48" s="8">
-        <x:v>18642</x:v>
-      </x:c>
-      <x:c r="D48" s="8">
-        <x:v>19872</x:v>
-      </x:c>
-      <x:c r="E48" s="8">
-        <x:v>-1230</x:v>
-      </x:c>
-      <x:c r="F48" s="21"/>
-      <x:c r="G48" s="21"/>
-      <x:c r="H48" s="21"/>
-      <x:c r="I48" s="10"/>
-      <x:c r="J48" s="2"/>
-    </x:row>
-    <x:row r="49" spans="1:10">
-      <x:c r="A49" s="2"/>
-      <x:c r="B49" s="20">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C49" s="8">
-        <x:v>18680</x:v>
-      </x:c>
-      <x:c r="D49" s="8">
-        <x:v>18682</x:v>
-      </x:c>
-      <x:c r="E49" s="21">
-        <x:v>-2</x:v>
-      </x:c>
-      <x:c r="F49" s="21"/>
-      <x:c r="G49" s="21"/>
-      <x:c r="H49" s="21"/>
-      <x:c r="I49" s="10"/>
-      <x:c r="J49" s="2"/>
-    </x:row>
-    <x:row r="50" spans="1:10">
-      <x:c r="A50" s="2"/>
-      <x:c r="B50" s="20">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C50" s="8">
-        <x:v>19234</x:v>
-      </x:c>
-      <x:c r="D50" s="8">
-        <x:v>19623</x:v>
-      </x:c>
-      <x:c r="E50" s="21">
-        <x:v>-389</x:v>
-      </x:c>
-      <x:c r="F50" s="21"/>
-      <x:c r="G50" s="21"/>
-      <x:c r="H50" s="21"/>
-      <x:c r="I50" s="10"/>
-      <x:c r="J50" s="2"/>
-    </x:row>
-    <x:row r="51" spans="1:10">
-      <x:c r="A51" s="2"/>
-      <x:c r="B51" s="20">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C51" s="8">
-        <x:v>18741</x:v>
-      </x:c>
-      <x:c r="D51" s="8">
-        <x:v>17839</x:v>
-      </x:c>
-      <x:c r="E51" s="21">
-        <x:v>902</x:v>
-      </x:c>
-      <x:c r="F51" s="21"/>
-      <x:c r="G51" s="21"/>
-      <x:c r="H51" s="21"/>
-      <x:c r="I51" s="10"/>
-      <x:c r="J51" s="2"/>
-    </x:row>
-    <x:row r="52" spans="1:10">
-      <x:c r="A52" s="2"/>
-      <x:c r="B52" s="20">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C52" s="8">
-        <x:v>17942</x:v>
-      </x:c>
-      <x:c r="D52" s="8">
-        <x:v>16783</x:v>
-      </x:c>
-      <x:c r="E52" s="8">
-        <x:v>1159</x:v>
-      </x:c>
-      <x:c r="F52" s="21"/>
-      <x:c r="G52" s="21"/>
-      <x:c r="H52" s="21"/>
-      <x:c r="I52" s="10"/>
-      <x:c r="J52" s="2"/>
-    </x:row>
-    <x:row r="53" spans="1:10">
-      <x:c r="A53" s="2"/>
-      <x:c r="B53" s="20">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C53" s="8">
-        <x:v>20341</x:v>
-      </x:c>
-      <x:c r="D53" s="8">
-        <x:v>20215</x:v>
-      </x:c>
-      <x:c r="E53" s="21">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="F53" s="21"/>
-      <x:c r="G53" s="21"/>
-      <x:c r="H53" s="21"/>
-      <x:c r="I53" s="10"/>
-      <x:c r="J53" s="2"/>
-    </x:row>
-    <x:row r="54" spans="1:10">
-      <x:c r="A54" s="2"/>
-      <x:c r="B54" s="20">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C54" s="8">
-        <x:v>17436</x:v>
-      </x:c>
-      <x:c r="D54" s="8">
-        <x:v>17414</x:v>
-      </x:c>
-      <x:c r="E54" s="21">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F54" s="21"/>
-      <x:c r="G54" s="21"/>
-      <x:c r="H54" s="21"/>
-      <x:c r="I54" s="10"/>
-      <x:c r="J54" s="2"/>
-    </x:row>
-    <x:row r="55" spans="1:10">
-      <x:c r="A55" s="2"/>
-      <x:c r="B55" s="20">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C55" s="8">
-        <x:v>13984</x:v>
-      </x:c>
-      <x:c r="D55" s="8">
-        <x:v>14362</x:v>
-      </x:c>
-      <x:c r="E55" s="21">
-        <x:v>-378</x:v>
-      </x:c>
-      <x:c r="F55" s="21"/>
-      <x:c r="G55" s="21"/>
-      <x:c r="H55" s="21"/>
-      <x:c r="I55" s="10"/>
-      <x:c r="J55" s="2"/>
-    </x:row>
-    <x:row r="56" spans="1:10">
-      <x:c r="A56" s="2"/>
-      <x:c r="B56" s="20">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C56" s="8">
-        <x:v>18711</x:v>
-      </x:c>
-      <x:c r="D56" s="8">
-        <x:v>18132</x:v>
-      </x:c>
-      <x:c r="E56" s="21">
-        <x:v>579</x:v>
-      </x:c>
-      <x:c r="F56" s="21"/>
-      <x:c r="G56" s="21"/>
-      <x:c r="H56" s="21"/>
-      <x:c r="I56" s="10"/>
-      <x:c r="J56" s="2"/>
-    </x:row>
-    <x:row r="57" spans="1:10">
-      <x:c r="A57" s="2"/>
-      <x:c r="B57" s="20">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C57" s="8">
-        <x:v>22672</x:v>
-      </x:c>
-      <x:c r="D57" s="8">
-        <x:v>22949</x:v>
-      </x:c>
-      <x:c r="E57" s="21">
-        <x:v>-277</x:v>
-      </x:c>
-      <x:c r="F57" s="21"/>
-      <x:c r="G57" s="21"/>
-      <x:c r="H57" s="21"/>
-      <x:c r="I57" s="10"/>
-      <x:c r="J57" s="2"/>
-    </x:row>
-    <x:row r="58" spans="1:10">
-      <x:c r="A58" s="2"/>
-      <x:c r="B58" s="20">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C58" s="8">
-        <x:v>19511</x:v>
-      </x:c>
-      <x:c r="D58" s="8">
-        <x:v>18514</x:v>
-      </x:c>
-      <x:c r="E58" s="21">
-        <x:v>997</x:v>
-      </x:c>
-      <x:c r="F58" s="21"/>
-      <x:c r="G58" s="21"/>
-      <x:c r="H58" s="21"/>
-      <x:c r="I58" s="10"/>
-      <x:c r="J58" s="2"/>
-    </x:row>
-    <x:row r="59" spans="1:10">
-      <x:c r="A59" s="2"/>
-      <x:c r="B59" s="20">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C59" s="8">
-        <x:v>16634</x:v>
-      </x:c>
-      <x:c r="D59" s="8">
-        <x:v>16852</x:v>
-      </x:c>
-      <x:c r="E59" s="21">
-        <x:v>-218</x:v>
-      </x:c>
-      <x:c r="F59" s="21"/>
-      <x:c r="G59" s="21"/>
-      <x:c r="H59" s="21"/>
-      <x:c r="I59" s="10"/>
-      <x:c r="J59" s="2"/>
-    </x:row>
-    <x:row r="60" spans="1:10">
-      <x:c r="A60" s="2"/>
-      <x:c r="B60" s="20">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C60" s="8">
-        <x:v>19215</x:v>
-      </x:c>
-      <x:c r="D60" s="8">
-        <x:v>19367</x:v>
-      </x:c>
-      <x:c r="E60" s="21">
-        <x:v>-152</x:v>
-      </x:c>
-      <x:c r="F60" s="21"/>
-      <x:c r="G60" s="21"/>
-      <x:c r="H60" s="21"/>
-      <x:c r="I60" s="10"/>
-      <x:c r="J60" s="2"/>
-    </x:row>
-    <x:row r="61" spans="1:10">
-      <x:c r="A61" s="2"/>
-      <x:c r="B61" s="20">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C61" s="8">
-        <x:v>18011</x:v>
-      </x:c>
-      <x:c r="D61" s="8">
-        <x:v>17368</x:v>
-      </x:c>
-      <x:c r="E61" s="21">
-        <x:v>643</x:v>
-      </x:c>
-      <x:c r="F61" s="21"/>
-      <x:c r="G61" s="21"/>
-      <x:c r="H61" s="21"/>
-      <x:c r="I61" s="10"/>
-      <x:c r="J61" s="2"/>
-    </x:row>
-    <x:row r="62" spans="1:10">
-      <x:c r="A62" s="2"/>
-      <x:c r="B62" s="20">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C62" s="8">
-        <x:v>21778</x:v>
-      </x:c>
-      <x:c r="D62" s="8">
-        <x:v>20919</x:v>
-      </x:c>
-      <x:c r="E62" s="21">
-        <x:v>859</x:v>
-      </x:c>
-      <x:c r="F62" s="21"/>
-      <x:c r="G62" s="21"/>
-      <x:c r="H62" s="21"/>
-      <x:c r="I62" s="10"/>
-      <x:c r="J62" s="2"/>
-    </x:row>
-    <x:row r="63" spans="1:10">
-      <x:c r="A63" s="2"/>
-      <x:c r="B63" s="20">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C63" s="8">
-        <x:v>18513</x:v>
-      </x:c>
-      <x:c r="D63" s="8">
-        <x:v>17389</x:v>
-      </x:c>
-      <x:c r="E63" s="8">
-        <x:v>1124</x:v>
-      </x:c>
-      <x:c r="F63" s="21"/>
-      <x:c r="G63" s="21"/>
-      <x:c r="H63" s="21"/>
-      <x:c r="I63" s="10"/>
-      <x:c r="J63" s="2"/>
-    </x:row>
-    <x:row r="64" spans="1:10">
-      <x:c r="A64" s="2"/>
-      <x:c r="B64" s="20">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C64" s="8">
-        <x:v>17524</x:v>
-      </x:c>
-      <x:c r="D64" s="8">
-        <x:v>16863</x:v>
-      </x:c>
-      <x:c r="E64" s="21">
-        <x:v>661</x:v>
-      </x:c>
-      <x:c r="F64" s="21"/>
-      <x:c r="G64" s="21"/>
-      <x:c r="H64" s="21"/>
-      <x:c r="I64" s="10"/>
-      <x:c r="J64" s="2"/>
-    </x:row>
-    <x:row r="65" spans="1:10">
-      <x:c r="A65" s="2"/>
-      <x:c r="B65" s="20">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C65" s="8">
-        <x:v>21429</x:v>
-      </x:c>
-      <x:c r="D65" s="8">
-        <x:v>21997</x:v>
-      </x:c>
-      <x:c r="E65" s="21">
-        <x:v>-568</x:v>
-      </x:c>
-      <x:c r="F65" s="21"/>
-      <x:c r="G65" s="21"/>
-      <x:c r="H65" s="21"/>
-      <x:c r="I65" s="10"/>
-      <x:c r="J65" s="2"/>
-    </x:row>
-    <x:row r="66" spans="1:10">
-      <x:c r="A66" s="2"/>
-      <x:c r="B66" s="20">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C66" s="8">
-        <x:v>18966</x:v>
-      </x:c>
-      <x:c r="D66" s="8">
-        <x:v>18737</x:v>
-      </x:c>
-      <x:c r="E66" s="21">
-        <x:v>229</x:v>
-      </x:c>
-      <x:c r="F66" s="21"/>
-      <x:c r="G66" s="21"/>
-      <x:c r="H66" s="21"/>
-      <x:c r="I66" s="10"/>
-      <x:c r="J66" s="2"/>
-    </x:row>
-    <x:row r="67" spans="1:10">
-      <x:c r="A67" s="2"/>
-      <x:c r="B67" s="20">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C67" s="8">
-        <x:v>15820</x:v>
-      </x:c>
-      <x:c r="D67" s="8">
-        <x:v>16384</x:v>
-      </x:c>
-      <x:c r="E67" s="21">
-        <x:v>-564</x:v>
-      </x:c>
-      <x:c r="F67" s="21"/>
-      <x:c r="G67" s="21"/>
-      <x:c r="H67" s="21"/>
-      <x:c r="I67" s="10"/>
-      <x:c r="J67" s="2"/>
-    </x:row>
-    <x:row r="68" spans="1:10">
-      <x:c r="A68" s="2"/>
-      <x:c r="B68" s="20">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C68" s="8">
-        <x:v>23880</x:v>
-      </x:c>
-      <x:c r="D68" s="8">
-        <x:v>22155</x:v>
-      </x:c>
-      <x:c r="E68" s="8">
-        <x:v>1725</x:v>
-      </x:c>
-      <x:c r="F68" s="21"/>
-      <x:c r="G68" s="21"/>
-      <x:c r="H68" s="21"/>
-      <x:c r="I68" s="10"/>
-      <x:c r="J68" s="2"/>
-    </x:row>
-    <x:row r="69" spans="1:10">
-      <x:c r="A69" s="2"/>
-      <x:c r="B69" s="20">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C69" s="8">
-        <x:v>22081</x:v>
-      </x:c>
-      <x:c r="D69" s="8">
-        <x:v>20514</x:v>
-      </x:c>
-      <x:c r="E69" s="8">
-        <x:v>1567</x:v>
-      </x:c>
-      <x:c r="F69" s="21"/>
-      <x:c r="G69" s="21"/>
-      <x:c r="H69" s="21"/>
-      <x:c r="I69" s="10"/>
-      <x:c r="J69" s="2"/>
-    </x:row>
-    <x:row r="70" spans="1:10">
-      <x:c r="A70" s="2"/>
-      <x:c r="B70" s="20">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C70" s="8">
-        <x:v>22107</x:v>
-      </x:c>
-      <x:c r="D70" s="8">
-        <x:v>21434</x:v>
-      </x:c>
-      <x:c r="E70" s="21">
-        <x:v>673</x:v>
-      </x:c>
-      <x:c r="F70" s="21"/>
-      <x:c r="G70" s="21"/>
-      <x:c r="H70" s="21"/>
-      <x:c r="I70" s="10"/>
-      <x:c r="J70" s="2"/>
-    </x:row>
-    <x:row r="71" spans="1:10">
-      <x:c r="A71" s="2"/>
-      <x:c r="B71" s="20">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C71" s="8">
-        <x:v>18538</x:v>
-      </x:c>
-      <x:c r="D71" s="8">
-        <x:v>19013</x:v>
-      </x:c>
-      <x:c r="E71" s="21">
-        <x:v>-475</x:v>
-      </x:c>
-      <x:c r="F71" s="21"/>
-      <x:c r="G71" s="21"/>
-      <x:c r="H71" s="21"/>
-      <x:c r="I71" s="10"/>
-      <x:c r="J71" s="2"/>
-    </x:row>
-    <x:row r="72" spans="1:10" ht="16" thickBot="1">
-      <x:c r="A72" s="2"/>
-      <x:c r="B72" s="22"/>
-      <x:c r="C72" s="23"/>
-      <x:c r="D72" s="23"/>
-      <x:c r="E72" s="23"/>
-      <x:c r="F72" s="23"/>
-      <x:c r="G72" s="23"/>
-      <x:c r="H72" s="23"/>
-      <x:c r="I72" s="24"/>
-      <x:c r="J72" s="2"/>
-    </x:row>
-    <x:row r="73" spans="1:10" ht="24" customHeight="1" thickBot="1">
-      <x:c r="A73" s="2"/>
-      <x:c r="B73" s="2"/>
-      <x:c r="C73" s="2"/>
-      <x:c r="D73" s="2"/>
-      <x:c r="E73" s="2"/>
-      <x:c r="F73" s="2"/>
-      <x:c r="G73" s="2"/>
-      <x:c r="H73" s="2"/>
-      <x:c r="I73" s="2"/>
-      <x:c r="J73" s="2"/>
-    </x:row>
-    <x:row r="74" spans="1:10" ht="19" thickTop="1">
-      <x:c r="A74" s="2"/>
-      <x:c r="B74" s="174" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C74" s="175"/>
-      <x:c r="D74" s="175"/>
-      <x:c r="E74" s="175"/>
-      <x:c r="F74" s="175"/>
-      <x:c r="G74" s="175"/>
-      <x:c r="H74" s="175"/>
-      <x:c r="I74" s="176"/>
-      <x:c r="J74" s="77"/>
-    </x:row>
-    <x:row r="75" spans="1:10">
-      <x:c r="A75" s="2"/>
-      <x:c r="B75" s="177" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C75" s="178"/>
-      <x:c r="D75" s="178"/>
-      <x:c r="E75" s="178"/>
-      <x:c r="F75" s="178"/>
-      <x:c r="G75" s="178"/>
-      <x:c r="H75" s="178"/>
-      <x:c r="I75" s="179"/>
-      <x:c r="J75" s="78"/>
-    </x:row>
-    <x:row r="76" spans="1:10">
-      <x:c r="A76" s="2"/>
-      <x:c r="B76" s="80"/>
-      <x:c r="C76" s="60"/>
-      <x:c r="D76" s="60"/>
-      <x:c r="E76" s="60"/>
-      <x:c r="F76" s="60"/>
-      <x:c r="G76" s="60"/>
-      <x:c r="H76" s="60"/>
-      <x:c r="I76" s="81"/>
-      <x:c r="J76" s="2"/>
-    </x:row>
-    <x:row r="77" spans="1:10" ht="47" customHeight="1">
-      <x:c r="A77" s="2"/>
-      <x:c r="B77" s="186" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C77" s="187"/>
-      <x:c r="D77" s="187"/>
-      <x:c r="E77" s="187"/>
-      <x:c r="F77" s="187"/>
-      <x:c r="G77" s="187"/>
-      <x:c r="H77" s="187"/>
-      <x:c r="I77" s="188"/>
-      <x:c r="J77" s="79"/>
-    </x:row>
-    <x:row r="78" spans="1:10" ht="32" customHeight="1">
-      <x:c r="A78" s="2"/>
-      <x:c r="B78" s="186" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C78" s="187"/>
-      <x:c r="D78" s="187"/>
-      <x:c r="E78" s="187"/>
-      <x:c r="F78" s="187"/>
-      <x:c r="G78" s="187"/>
-      <x:c r="H78" s="187"/>
-      <x:c r="I78" s="188"/>
-      <x:c r="J78" s="79"/>
-    </x:row>
-    <x:row r="79" spans="1:10" ht="30.5" customHeight="1">
-      <x:c r="A79" s="2"/>
-      <x:c r="B79" s="186" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C79" s="187"/>
-      <x:c r="D79" s="187"/>
-      <x:c r="E79" s="187"/>
-      <x:c r="F79" s="187"/>
-      <x:c r="G79" s="187"/>
-      <x:c r="H79" s="187"/>
-      <x:c r="I79" s="188"/>
-      <x:c r="J79" s="79"/>
-    </x:row>
-    <x:row r="80" spans="1:10" ht="30" customHeight="1">
-      <x:c r="A80" s="2"/>
-      <x:c r="B80" s="186" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C80" s="187"/>
-      <x:c r="D80" s="187"/>
-      <x:c r="E80" s="187"/>
-      <x:c r="F80" s="187"/>
-      <x:c r="G80" s="187"/>
-      <x:c r="H80" s="187"/>
-      <x:c r="I80" s="188"/>
-      <x:c r="J80" s="79"/>
-    </x:row>
-    <x:row r="81" spans="1:10" ht="15.5" customHeight="1">
-      <x:c r="A81" s="2"/>
-      <x:c r="B81" s="186" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C81" s="187"/>
-      <x:c r="D81" s="187"/>
-      <x:c r="E81" s="187"/>
-      <x:c r="F81" s="187"/>
-      <x:c r="G81" s="187"/>
-      <x:c r="H81" s="187"/>
-      <x:c r="I81" s="188"/>
-      <x:c r="J81" s="79"/>
-    </x:row>
-    <x:row r="82" spans="1:10" ht="15.5" customHeight="1" thickBot="1">
-      <x:c r="A82" s="2"/>
-      <x:c r="B82" s="183"/>
-      <x:c r="C82" s="184"/>
-      <x:c r="D82" s="184"/>
-      <x:c r="E82" s="184"/>
-      <x:c r="F82" s="184"/>
-      <x:c r="G82" s="184"/>
-      <x:c r="H82" s="184"/>
-      <x:c r="I82" s="185"/>
-      <x:c r="J82" s="79"/>
-    </x:row>
-    <x:row r="83" spans="1:10">
-      <x:c r="A83" s="2"/>
-      <x:c r="B83" s="2"/>
-      <x:c r="C83" s="2"/>
-      <x:c r="D83" s="2"/>
-      <x:c r="E83" s="2"/>
-      <x:c r="F83" s="2"/>
-      <x:c r="G83" s="2"/>
-      <x:c r="H83" s="2"/>
-      <x:c r="I83" s="2"/>
-      <x:c r="J83" s="2"/>
-    </x:row>
-    <x:row r="84" spans="1:10">
-      <x:c r="A84" s="2"/>
-      <x:c r="B84" s="2"/>
-      <x:c r="C84" s="2"/>
-      <x:c r="D84" s="2"/>
-      <x:c r="E84" s="2"/>
-      <x:c r="F84" s="2"/>
-      <x:c r="G84" s="2"/>
-      <x:c r="H84" s="2"/>
-      <x:c r="I84" s="2"/>
-      <x:c r="J84" s="2"/>
-    </x:row>
-    <x:row r="85" spans="1:10">
-      <x:c r="A85" s="2"/>
-      <x:c r="B85" s="2"/>
-      <x:c r="C85" s="2"/>
-      <x:c r="D85" s="2"/>
-      <x:c r="E85" s="2"/>
-      <x:c r="F85" s="2"/>
-      <x:c r="G85" s="2"/>
-      <x:c r="H85" s="2"/>
-      <x:c r="I85" s="2"/>
-      <x:c r="J85" s="2"/>
-    </x:row>
-    <x:row r="86" spans="1:10">
-      <x:c r="A86" s="2"/>
-      <x:c r="B86" s="2"/>
-      <x:c r="C86" s="2"/>
-      <x:c r="D86" s="2"/>
-      <x:c r="E86" s="2"/>
-      <x:c r="F86" s="2"/>
-      <x:c r="G86" s="2"/>
-      <x:c r="H86" s="2"/>
-      <x:c r="I86" s="2"/>
-      <x:c r="J86" s="2"/>
-    </x:row>
-  </x:sheetData>
-  <x:mergeCells count="23">
-    <x:mergeCell ref="B82:I82"/>
-    <x:mergeCell ref="B77:I77"/>
-    <x:mergeCell ref="B78:I78"/>
-    <x:mergeCell ref="B79:I79"/>
-    <x:mergeCell ref="B80:I80"/>
-    <x:mergeCell ref="B81:I81"/>
-    <x:mergeCell ref="B28:I28"/>
-    <x:mergeCell ref="B74:I74"/>
-    <x:mergeCell ref="B75:I75"/>
-    <x:mergeCell ref="B31:I31"/>
-    <x:mergeCell ref="B32:I32"/>
-    <x:mergeCell ref="B33:I33"/>
-    <x:mergeCell ref="F12:G12"/>
-    <x:mergeCell ref="H12:I12"/>
-    <x:mergeCell ref="B6:I6"/>
-    <x:mergeCell ref="B5:I5"/>
-    <x:mergeCell ref="B7:I7"/>
-    <x:mergeCell ref="C10:D10"/>
-    <x:mergeCell ref="G9:H9"/>
-    <x:mergeCell ref="G10:H10"/>
-    <x:mergeCell ref="E9:F9"/>
-    <x:mergeCell ref="E10:F10"/>
-    <x:mergeCell ref="C9:D9"/>
-  </x:mergeCells>
-  <x:phoneticPr fontId="3" type="noConversion"/>
-  <x:printOptions horizontalCentered="1"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup scale="76" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <x:colBreaks count="1" manualBreakCount="1">
-    <x:brk id="10" max="1048575" man="1"/>
-  </x:colBreaks>
-  <x:drawing r:id="rId2"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="A1:J122"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
-  <x:cols>
-    <x:col min="1" max="1" width="4" customWidth="1"/>
-    <x:col min="2" max="4" width="16.5" customWidth="1"/>
-    <x:col min="5" max="5" width="4" customWidth="1"/>
-    <x:col min="6" max="8" width="16.5" customWidth="1"/>
-    <x:col min="9" max="9" width="4" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:9">
-      <x:c r="A1" s="1"/>
-      <x:c r="B1" s="1"/>
-      <x:c r="C1" s="1"/>
-      <x:c r="D1" s="1"/>
-      <x:c r="E1" s="1"/>
-      <x:c r="F1" s="1"/>
-      <x:c r="G1" s="1"/>
-      <x:c r="H1" s="1"/>
-      <x:c r="I1" s="1"/>
-    </x:row>
-    <x:row r="2" spans="1:9">
-      <x:c r="A2" s="1"/>
-      <x:c r="B2" s="1"/>
-      <x:c r="C2" s="1"/>
-      <x:c r="D2" s="1"/>
-      <x:c r="E2" s="1"/>
-      <x:c r="F2" s="1"/>
-      <x:c r="G2" s="1"/>
-      <x:c r="H2" s="1"/>
-      <x:c r="I2" s="1"/>
-    </x:row>
-    <x:row r="3" spans="1:9">
-      <x:c r="A3" s="1"/>
-      <x:c r="B3" s="1"/>
-      <x:c r="C3" s="1"/>
-      <x:c r="D3" s="1"/>
-      <x:c r="E3" s="1"/>
-      <x:c r="F3" s="1"/>
-      <x:c r="G3" s="1"/>
-      <x:c r="H3" s="1"/>
-      <x:c r="I3" s="1"/>
-    </x:row>
-    <x:row r="4" spans="1:9" ht="24" customHeight="1" thickBot="1">
-      <x:c r="A4" s="2"/>
-      <x:c r="B4" s="2"/>
-      <x:c r="C4" s="2"/>
-      <x:c r="D4" s="2"/>
-      <x:c r="E4" s="2"/>
-      <x:c r="F4" s="2"/>
-      <x:c r="G4" s="2"/>
-      <x:c r="H4" s="2"/>
-      <x:c r="I4" s="2"/>
-    </x:row>
-    <x:row r="5" spans="1:9" ht="26.5" thickTop="1">
-      <x:c r="A5" s="2"/>
-      <x:c r="B5" s="126" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="C5" s="127"/>
-      <x:c r="D5" s="128"/>
-      <x:c r="E5" s="31"/>
-      <x:c r="F5" s="126" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G5" s="127"/>
-      <x:c r="H5" s="128"/>
-      <x:c r="I5" s="2"/>
-    </x:row>
-    <x:row r="6" spans="1:9" ht="18.5">
-      <x:c r="A6" s="2"/>
-      <x:c r="B6" s="7"/>
-      <x:c r="C6" s="9"/>
-      <x:c r="D6" s="9"/>
-      <x:c r="E6" s="32"/>
-      <x:c r="F6" s="36"/>
-      <x:c r="G6" s="36"/>
-      <x:c r="H6" s="38"/>
-      <x:c r="I6" s="2"/>
-    </x:row>
-    <x:row r="7" spans="1:9" ht="21">
-      <x:c r="A7" s="2"/>
-      <x:c r="B7" s="124" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="C7" s="125"/>
-      <x:c r="D7" s="59" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="E7" s="33"/>
-      <x:c r="F7" s="36" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="G7" s="36"/>
-      <x:c r="H7" s="42" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="I7" s="2"/>
-    </x:row>
-    <x:row r="8" spans="1:9" ht="21">
-      <x:c r="A8" s="2"/>
-      <x:c r="B8" s="124" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C8" s="125"/>
-      <x:c r="D8" s="59" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E8" s="34"/>
-      <x:c r="F8" s="36" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="G8" s="37"/>
-      <x:c r="H8" s="51">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="I8" s="2"/>
-    </x:row>
-    <x:row r="9" spans="1:9" ht="21">
-      <x:c r="A9" s="2"/>
-      <x:c r="B9" s="39" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="C9" s="36"/>
-      <x:c r="D9" s="59" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E9" s="34"/>
-      <x:c r="F9" s="36"/>
-      <x:c r="G9" s="37"/>
-      <x:c r="H9" s="51"/>
-      <x:c r="I9" s="2"/>
-    </x:row>
-    <x:row r="10" spans="1:9" ht="16" thickBot="1">
-      <x:c r="A10" s="2"/>
-      <x:c r="B10" s="30"/>
-      <x:c r="C10" s="23"/>
-      <x:c r="D10" s="23"/>
-      <x:c r="E10" s="35"/>
-      <x:c r="F10" s="23"/>
-      <x:c r="G10" s="23"/>
-      <x:c r="H10" s="24"/>
-      <x:c r="I10" s="2"/>
-    </x:row>
-    <x:row r="11" spans="1:9" ht="16" thickBot="1">
-      <x:c r="A11" s="2"/>
-      <x:c r="B11" s="2"/>
-      <x:c r="C11" s="2"/>
-      <x:c r="D11" s="2"/>
-      <x:c r="E11" s="2"/>
-      <x:c r="F11" s="2"/>
-      <x:c r="G11" s="2"/>
-      <x:c r="H11" s="2"/>
-      <x:c r="I11" s="2"/>
-    </x:row>
-    <x:row r="12" spans="1:9" ht="26.5" thickTop="1">
-      <x:c r="A12" s="2"/>
-      <x:c r="B12" s="126" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C12" s="127"/>
-      <x:c r="D12" s="128"/>
-      <x:c r="E12" s="31"/>
-      <x:c r="F12" s="126" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="G12" s="127"/>
-      <x:c r="H12" s="128"/>
-      <x:c r="I12" s="2"/>
-    </x:row>
-    <x:row r="13" spans="1:9" ht="18.5">
-      <x:c r="A13" s="2"/>
-      <x:c r="B13" s="7"/>
-      <x:c r="C13" s="9"/>
-      <x:c r="D13" s="9"/>
-      <x:c r="E13" s="32"/>
-      <x:c r="F13" s="36"/>
-      <x:c r="G13" s="36"/>
-      <x:c r="H13" s="38"/>
-      <x:c r="I13" s="2"/>
-    </x:row>
-    <x:row r="14" spans="1:9" ht="40" customHeight="1">
-      <x:c r="A14" s="2"/>
-      <x:c r="B14" s="122" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="C14" s="123"/>
-      <x:c r="D14" s="58">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E14" s="33"/>
-      <x:c r="F14" s="36" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="G14" s="36"/>
-      <x:c r="H14" s="42" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="I14" s="2"/>
-    </x:row>
-    <x:row r="15" spans="1:9" ht="36.5" customHeight="1">
-      <x:c r="A15" s="2"/>
-      <x:c r="B15" s="122" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C15" s="123"/>
-      <x:c r="D15" s="58">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E15" s="34"/>
-      <x:c r="F15" s="36" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="G15" s="37"/>
-      <x:c r="H15" s="42">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="I15" s="2"/>
-    </x:row>
-    <x:row r="16" spans="1:9" ht="31" customHeight="1">
-      <x:c r="A16" s="2"/>
-      <x:c r="B16" s="124" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C16" s="125"/>
-      <x:c r="D16" s="58">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="E16" s="34"/>
-      <x:c r="F16" s="36" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="G16" s="37"/>
-      <x:c r="H16" s="42" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="I16" s="2"/>
-    </x:row>
-    <x:row r="17" spans="1:9" ht="21.5" thickBot="1">
-      <x:c r="A17" s="2"/>
-      <x:c r="B17" s="30"/>
-      <x:c r="C17" s="23"/>
-      <x:c r="D17" s="23"/>
-      <x:c r="E17" s="34"/>
-      <x:c r="F17" s="36" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="G17" s="37"/>
-      <x:c r="H17" s="42" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="I17" s="2"/>
-    </x:row>
-    <x:row r="18" spans="1:9" ht="16" thickBot="1">
-      <x:c r="A18" s="2"/>
-      <x:c r="B18" s="2"/>
-      <x:c r="C18" s="2"/>
-      <x:c r="D18" s="41"/>
-      <x:c r="E18" s="40"/>
-      <x:c r="F18" s="23"/>
-      <x:c r="G18" s="23"/>
-      <x:c r="H18" s="24"/>
-      <x:c r="I18" s="2"/>
-    </x:row>
-    <x:row r="19" spans="1:9" ht="24" customHeight="1" thickBot="1">
-      <x:c r="A19" s="2"/>
-      <x:c r="B19" s="2"/>
-      <x:c r="C19" s="2"/>
-      <x:c r="D19" s="2"/>
-      <x:c r="E19" s="2"/>
-      <x:c r="F19" s="2"/>
-      <x:c r="G19" s="2"/>
-      <x:c r="H19" s="2"/>
-      <x:c r="I19" s="2"/>
-    </x:row>
-    <x:row r="20" spans="1:9" ht="19" thickTop="1">
-      <x:c r="A20" s="2"/>
-      <x:c r="B20" s="126" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="C20" s="127"/>
-      <x:c r="D20" s="127"/>
-      <x:c r="E20" s="127"/>
-      <x:c r="F20" s="127"/>
-      <x:c r="G20" s="127"/>
-      <x:c r="H20" s="128"/>
-      <x:c r="I20" s="2"/>
-    </x:row>
-    <x:row r="21" spans="1:9" ht="18.5">
-      <x:c r="A21" s="2"/>
-      <x:c r="B21" s="7"/>
-      <x:c r="C21" s="9"/>
-      <x:c r="D21" s="9"/>
-      <x:c r="E21" s="36"/>
-      <x:c r="F21" s="36"/>
-      <x:c r="G21" s="36"/>
-      <x:c r="H21" s="38"/>
-      <x:c r="I21" s="2"/>
-    </x:row>
-    <x:row r="22" spans="1:9" ht="18.5">
-      <x:c r="A22" s="2"/>
-      <x:c r="B22" s="124" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C22" s="125"/>
-      <x:c r="D22" s="125"/>
-      <x:c r="E22" s="125"/>
-      <x:c r="F22" s="125"/>
-      <x:c r="G22" s="125"/>
-      <x:c r="H22" s="129"/>
-      <x:c r="I22" s="2"/>
-    </x:row>
-    <x:row r="23" spans="1:9" ht="18.5">
-      <x:c r="A23" s="2"/>
-      <x:c r="B23" s="124" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="C23" s="125"/>
-      <x:c r="D23" s="125"/>
-      <x:c r="E23" s="125"/>
-      <x:c r="F23" s="125"/>
-      <x:c r="G23" s="125"/>
-      <x:c r="H23" s="129"/>
-      <x:c r="I23" s="2"/>
-    </x:row>
-    <x:row r="24" spans="1:9" ht="16" thickBot="1">
-      <x:c r="A24" s="2"/>
-      <x:c r="B24" s="30"/>
-      <x:c r="C24" s="23"/>
-      <x:c r="D24" s="23"/>
-      <x:c r="E24" s="23"/>
-      <x:c r="F24" s="23"/>
-      <x:c r="G24" s="23"/>
-      <x:c r="H24" s="24"/>
-      <x:c r="I24" s="2"/>
-    </x:row>
-    <x:row r="25" spans="1:9" ht="24" customHeight="1" thickBot="1">
-      <x:c r="A25" s="2"/>
-      <x:c r="B25" s="2"/>
-      <x:c r="C25" s="2"/>
-      <x:c r="D25" s="2"/>
-      <x:c r="E25" s="2"/>
-      <x:c r="F25" s="2"/>
-      <x:c r="G25" s="2"/>
-      <x:c r="H25" s="2"/>
-      <x:c r="I25" s="2"/>
-    </x:row>
-    <x:row r="26" spans="1:9" ht="26.5" thickTop="1">
-      <x:c r="A26" s="2"/>
-      <x:c r="B26" s="126" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="C26" s="127"/>
-      <x:c r="D26" s="128"/>
-      <x:c r="E26" s="31"/>
-      <x:c r="F26" s="126" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="G26" s="127"/>
-      <x:c r="H26" s="128"/>
-      <x:c r="I26" s="2"/>
-    </x:row>
-    <x:row r="27" spans="1:9" ht="18.5">
-      <x:c r="A27" s="2"/>
-      <x:c r="B27" s="7"/>
-      <x:c r="C27" s="9"/>
-      <x:c r="D27" s="9"/>
-      <x:c r="E27" s="32"/>
-      <x:c r="F27" s="36"/>
-      <x:c r="G27" s="36"/>
-      <x:c r="H27" s="38"/>
-      <x:c r="I27" s="2"/>
-    </x:row>
-    <x:row r="28" spans="1:9" ht="37">
-      <x:c r="A28" s="2"/>
-      <x:c r="B28" s="39"/>
-      <x:c r="C28" s="36" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D28" s="48" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E28" s="33"/>
-      <x:c r="F28" s="36"/>
-      <x:c r="G28" s="49" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="H28" s="50" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="I28" s="2"/>
-    </x:row>
-    <x:row r="29" spans="1:9" ht="21">
-      <x:c r="A29" s="2"/>
-      <x:c r="B29" s="39"/>
-      <x:c r="C29" s="44"/>
-      <x:c r="D29" s="44"/>
-      <x:c r="E29" s="34"/>
-      <x:c r="F29" s="36" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="G29" s="36">
-        <x:v>2265.11</x:v>
-      </x:c>
-      <x:c r="H29" s="51"/>
-      <x:c r="I29" s="2"/>
-    </x:row>
-    <x:row r="30" spans="1:9" ht="21">
-      <x:c r="A30" s="2"/>
-      <x:c r="B30" s="39" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="C30" s="44">
-        <x:v>14519.54</x:v>
-      </x:c>
-      <x:c r="D30" s="44">
-        <x:v>1735.18</x:v>
-      </x:c>
-      <x:c r="E30" s="34"/>
-      <x:c r="F30" s="36" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="G30" s="36" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="H30" s="51">
-        <x:v>0.1047</x:v>
-      </x:c>
-      <x:c r="I30" s="2"/>
-    </x:row>
-    <x:row r="31" spans="1:9" ht="19" thickBot="1">
-      <x:c r="A31" s="2"/>
-      <x:c r="B31" s="45" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C31" s="46">
-        <x:v>18390.419999999998</x:v>
-      </x:c>
-      <x:c r="D31" s="47">
-        <x:v>2107.09</x:v>
-      </x:c>
-      <x:c r="E31" s="35"/>
-      <x:c r="F31" s="45" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="G31" s="46" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="H31" s="52">
-        <x:v>871.32889999999998</x:v>
-      </x:c>
-      <x:c r="I31" s="2"/>
-    </x:row>
-    <x:row r="32" spans="1:9" ht="24" customHeight="1" thickBot="1">
-      <x:c r="A32" s="2"/>
-      <x:c r="B32" s="2"/>
-      <x:c r="C32" s="2"/>
-      <x:c r="D32" s="2"/>
-      <x:c r="E32" s="2"/>
-      <x:c r="F32" s="2"/>
-      <x:c r="G32" s="2"/>
-      <x:c r="H32" s="2"/>
-      <x:c r="I32" s="2"/>
-    </x:row>
-    <x:row r="33" spans="1:10" ht="19" thickTop="1">
-      <x:c r="A33" s="2"/>
-      <x:c r="B33" s="135" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="C33" s="136"/>
-      <x:c r="D33" s="136"/>
-      <x:c r="E33" s="136"/>
-      <x:c r="F33" s="136"/>
-      <x:c r="G33" s="136"/>
-      <x:c r="H33" s="53">
-        <x:v>0.91500000000000004</x:v>
-      </x:c>
-      <x:c r="I33" s="2"/>
-    </x:row>
-    <x:row r="34" spans="1:10" ht="17" customHeight="1" thickBot="1">
-      <x:c r="A34" s="2"/>
-      <x:c r="B34" s="30"/>
-      <x:c r="C34" s="23"/>
-      <x:c r="D34" s="23"/>
-      <x:c r="E34" s="23"/>
-      <x:c r="F34" s="23"/>
-      <x:c r="G34" s="23"/>
-      <x:c r="H34" s="24"/>
-      <x:c r="I34" s="2"/>
-    </x:row>
-    <x:row r="35" spans="1:10" ht="24" customHeight="1" thickBot="1">
-      <x:c r="A35" s="2"/>
-      <x:c r="B35" s="2"/>
-      <x:c r="C35" s="2"/>
-      <x:c r="D35" s="2"/>
-      <x:c r="E35" s="2"/>
-      <x:c r="F35" s="2"/>
-      <x:c r="G35" s="2"/>
-      <x:c r="H35" s="2"/>
-      <x:c r="I35" s="2"/>
-    </x:row>
-    <x:row r="36" spans="1:10" ht="19" thickTop="1">
-      <x:c r="A36" s="2"/>
-      <x:c r="B36" s="143" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="C36" s="144"/>
-      <x:c r="D36" s="144"/>
-      <x:c r="E36" s="144"/>
-      <x:c r="F36" s="144"/>
-      <x:c r="G36" s="144"/>
-      <x:c r="H36" s="145"/>
-      <x:c r="I36" s="2"/>
-    </x:row>
-    <x:row r="37" spans="1:10" ht="18.5">
-      <x:c r="A37" s="2"/>
-      <x:c r="B37" s="146"/>
-      <x:c r="C37" s="147"/>
-      <x:c r="D37" s="147"/>
-      <x:c r="E37" s="147"/>
-      <x:c r="F37" s="147"/>
-      <x:c r="G37" s="147"/>
-      <x:c r="H37" s="148"/>
-      <x:c r="I37" s="2"/>
-    </x:row>
-    <x:row r="38" spans="1:10" ht="48" customHeight="1">
-      <x:c r="A38" s="2"/>
-      <x:c r="B38" s="137" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="138"/>
-      <x:c r="D38" s="138"/>
-      <x:c r="E38" s="138"/>
-      <x:c r="F38" s="138"/>
-      <x:c r="G38" s="138"/>
-      <x:c r="H38" s="139"/>
-      <x:c r="I38" s="2"/>
-      <x:c r="J38" s="56"/>
-    </x:row>
-    <x:row r="39" spans="1:10" ht="16" customHeight="1">
-      <x:c r="A39" s="2"/>
-      <x:c r="B39" s="140" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C39" s="141"/>
-      <x:c r="D39" s="141"/>
-      <x:c r="E39" s="141"/>
-      <x:c r="F39" s="141"/>
-      <x:c r="G39" s="141"/>
-      <x:c r="H39" s="142"/>
-      <x:c r="I39" s="2"/>
-      <x:c r="J39" s="56"/>
-    </x:row>
-    <x:row r="40" spans="1:10" ht="32" customHeight="1">
-      <x:c r="A40" s="2"/>
-      <x:c r="B40" s="140" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="C40" s="141"/>
-      <x:c r="D40" s="141"/>
-      <x:c r="E40" s="141"/>
-      <x:c r="F40" s="141"/>
-      <x:c r="G40" s="141"/>
-      <x:c r="H40" s="142"/>
-      <x:c r="I40" s="2"/>
-      <x:c r="J40" s="56"/>
-    </x:row>
-    <x:row r="41" spans="1:10" ht="16" customHeight="1">
-      <x:c r="A41" s="2"/>
-      <x:c r="B41" s="140" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C41" s="141"/>
-      <x:c r="D41" s="141"/>
-      <x:c r="E41" s="141"/>
-      <x:c r="F41" s="141"/>
-      <x:c r="G41" s="141"/>
-      <x:c r="H41" s="142"/>
-      <x:c r="I41" s="2"/>
-      <x:c r="J41" s="56"/>
-    </x:row>
-    <x:row r="42" spans="1:10" ht="16" customHeight="1" thickBot="1">
-      <x:c r="A42" s="2"/>
-      <x:c r="B42" s="149"/>
-      <x:c r="C42" s="150"/>
-      <x:c r="D42" s="150"/>
-      <x:c r="E42" s="150"/>
-      <x:c r="F42" s="150"/>
-      <x:c r="G42" s="150"/>
-      <x:c r="H42" s="151"/>
-      <x:c r="I42" s="2"/>
-      <x:c r="J42" s="56"/>
-    </x:row>
-    <x:row r="43" spans="1:10" ht="24" customHeight="1" thickBot="1">
-      <x:c r="A43" s="2"/>
-      <x:c r="B43" s="2"/>
-      <x:c r="C43" s="2"/>
-      <x:c r="D43" s="2"/>
-      <x:c r="E43" s="2"/>
-      <x:c r="F43" s="2"/>
-      <x:c r="G43" s="2"/>
-      <x:c r="H43" s="2"/>
-      <x:c r="I43" s="2"/>
-      <x:c r="J43" s="56"/>
-    </x:row>
-    <x:row r="44" spans="1:10" ht="19" thickTop="1">
-      <x:c r="A44" s="2"/>
-      <x:c r="B44" s="130" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="C44" s="127"/>
-      <x:c r="D44" s="127"/>
-      <x:c r="E44" s="127"/>
-      <x:c r="F44" s="127"/>
-      <x:c r="G44" s="127"/>
-      <x:c r="H44" s="131"/>
-      <x:c r="I44" s="2"/>
-    </x:row>
-    <x:row r="45" spans="1:10" ht="18.5">
-      <x:c r="A45" s="2"/>
-      <x:c r="B45" s="62"/>
-      <x:c r="C45" s="21"/>
-      <x:c r="D45" s="21"/>
-      <x:c r="E45" s="36"/>
-      <x:c r="F45" s="36"/>
-      <x:c r="G45" s="36"/>
-      <x:c r="H45" s="63"/>
-      <x:c r="I45" s="2"/>
-    </x:row>
-    <x:row r="46" spans="1:10" ht="18.5">
-      <x:c r="A46" s="2"/>
-      <x:c r="B46" s="132" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C46" s="133"/>
-      <x:c r="D46" s="133" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E46" s="133"/>
-      <x:c r="F46" s="133"/>
-      <x:c r="G46" s="133" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="H46" s="134"/>
-      <x:c r="I46" s="2"/>
-    </x:row>
-    <x:row r="47" spans="1:10" ht="18.5">
-      <x:c r="A47" s="2"/>
-      <x:c r="B47" s="64">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C47" s="44"/>
-      <x:c r="D47" s="55">
-        <x:v>17789</x:v>
-      </x:c>
-      <x:c r="E47" s="44"/>
-      <x:c r="F47" s="44"/>
-      <x:c r="G47" s="55">
-        <x:v>15070</x:v>
-      </x:c>
-      <x:c r="H47" s="65"/>
-      <x:c r="I47" s="2"/>
-    </x:row>
-    <x:row r="48" spans="1:10" ht="17" customHeight="1">
-      <x:c r="A48" s="2"/>
-      <x:c r="B48" s="64">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C48" s="54"/>
-      <x:c r="D48" s="55">
-        <x:v>19417</x:v>
-      </x:c>
-      <x:c r="E48" s="54"/>
-      <x:c r="F48" s="54"/>
-      <x:c r="G48" s="55">
-        <x:v>15823</x:v>
-      </x:c>
-      <x:c r="H48" s="66"/>
-      <x:c r="I48" s="2"/>
-    </x:row>
-    <x:row r="49" spans="1:9" ht="18.5">
-      <x:c r="A49" s="2"/>
-      <x:c r="B49" s="64">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C49" s="67"/>
-      <x:c r="D49" s="55">
-        <x:v>22802</x:v>
-      </x:c>
-      <x:c r="E49" s="67"/>
-      <x:c r="F49" s="67"/>
-      <x:c r="G49" s="55">
-        <x:v>17024</x:v>
-      </x:c>
-      <x:c r="H49" s="68"/>
-      <x:c r="I49" s="2"/>
-    </x:row>
-    <x:row r="50" spans="1:9" ht="18.5">
-      <x:c r="A50" s="2"/>
-      <x:c r="B50" s="64">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C50" s="67"/>
-      <x:c r="D50" s="55">
-        <x:v>17825</x:v>
-      </x:c>
-      <x:c r="E50" s="67"/>
-      <x:c r="F50" s="67"/>
-      <x:c r="G50" s="55">
-        <x:v>13920</x:v>
-      </x:c>
-      <x:c r="H50" s="68"/>
-      <x:c r="I50" s="2"/>
-    </x:row>
-    <x:row r="51" spans="1:9" ht="18.5">
-      <x:c r="A51" s="2"/>
-      <x:c r="B51" s="64">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C51" s="67"/>
-      <x:c r="D51" s="55">
-        <x:v>17816</x:v>
-      </x:c>
-      <x:c r="E51" s="67"/>
-      <x:c r="F51" s="67"/>
-      <x:c r="G51" s="55">
-        <x:v>14434</x:v>
-      </x:c>
-      <x:c r="H51" s="68"/>
-      <x:c r="I51" s="2"/>
-    </x:row>
-    <x:row r="52" spans="1:9" ht="18.5">
-      <x:c r="A52" s="2"/>
-      <x:c r="B52" s="64">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C52" s="67"/>
-      <x:c r="D52" s="55">
-        <x:v>15948</x:v>
-      </x:c>
-      <x:c r="E52" s="67"/>
-      <x:c r="F52" s="67"/>
-      <x:c r="G52" s="55">
-        <x:v>14046</x:v>
-      </x:c>
-      <x:c r="H52" s="68"/>
-      <x:c r="I52" s="2"/>
-    </x:row>
-    <x:row r="53" spans="1:9" ht="18.5">
-      <x:c r="A53" s="2"/>
-      <x:c r="B53" s="64">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C53" s="67"/>
-      <x:c r="D53" s="55">
-        <x:v>18297</x:v>
-      </x:c>
-      <x:c r="E53" s="67"/>
-      <x:c r="F53" s="67"/>
-      <x:c r="G53" s="55">
-        <x:v>14539</x:v>
-      </x:c>
-      <x:c r="H53" s="68"/>
-      <x:c r="I53" s="2"/>
-    </x:row>
-    <x:row r="54" spans="1:9" ht="18.5">
-      <x:c r="A54" s="2"/>
-      <x:c r="B54" s="64">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C54" s="67"/>
-      <x:c r="D54" s="55">
-        <x:v>14586</x:v>
-      </x:c>
-      <x:c r="E54" s="67"/>
-      <x:c r="F54" s="67"/>
-      <x:c r="G54" s="55">
-        <x:v>12018</x:v>
-      </x:c>
-      <x:c r="H54" s="68"/>
-      <x:c r="I54" s="2"/>
-    </x:row>
-    <x:row r="55" spans="1:9" ht="18.5">
-      <x:c r="A55" s="2"/>
-      <x:c r="B55" s="64">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C55" s="67"/>
-      <x:c r="D55" s="55">
-        <x:v>18617</x:v>
-      </x:c>
-      <x:c r="E55" s="67"/>
-      <x:c r="F55" s="67"/>
-      <x:c r="G55" s="55">
-        <x:v>13666</x:v>
-      </x:c>
-      <x:c r="H55" s="68"/>
-      <x:c r="I55" s="2"/>
-    </x:row>
-    <x:row r="56" spans="1:9" ht="18.5">
-      <x:c r="A56" s="2"/>
-      <x:c r="B56" s="64">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C56" s="67"/>
-      <x:c r="D56" s="55">
-        <x:v>21001</x:v>
-      </x:c>
-      <x:c r="E56" s="67"/>
-      <x:c r="F56" s="67"/>
-      <x:c r="G56" s="55">
-        <x:v>16973</x:v>
-      </x:c>
-      <x:c r="H56" s="68"/>
-      <x:c r="I56" s="2"/>
-    </x:row>
-    <x:row r="57" spans="1:9" ht="18.5">
-      <x:c r="A57" s="2"/>
-      <x:c r="B57" s="64">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C57" s="67"/>
-      <x:c r="D57" s="55">
-        <x:v>18619</x:v>
-      </x:c>
-      <x:c r="E57" s="67"/>
-      <x:c r="F57" s="67"/>
-      <x:c r="G57" s="55">
-        <x:v>14239</x:v>
-      </x:c>
-      <x:c r="H57" s="68"/>
-      <x:c r="I57" s="2"/>
-    </x:row>
-    <x:row r="58" spans="1:9" ht="18.5">
-      <x:c r="A58" s="2"/>
-      <x:c r="B58" s="64">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C58" s="67"/>
-      <x:c r="D58" s="55">
-        <x:v>16125</x:v>
-      </x:c>
-      <x:c r="E58" s="67"/>
-      <x:c r="F58" s="67"/>
-      <x:c r="G58" s="55">
-        <x:v>11987</x:v>
-      </x:c>
-      <x:c r="H58" s="68"/>
-      <x:c r="I58" s="2"/>
-    </x:row>
-    <x:row r="59" spans="1:9" ht="18.5">
-      <x:c r="A59" s="2"/>
-      <x:c r="B59" s="64">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C59" s="67"/>
-      <x:c r="D59" s="55">
-        <x:v>18642</x:v>
-      </x:c>
-      <x:c r="E59" s="67"/>
-      <x:c r="F59" s="67"/>
-      <x:c r="G59" s="55">
-        <x:v>15854</x:v>
-      </x:c>
-      <x:c r="H59" s="68"/>
-      <x:c r="I59" s="2"/>
-    </x:row>
-    <x:row r="60" spans="1:9" ht="18.5">
-      <x:c r="A60" s="2"/>
-      <x:c r="B60" s="64">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C60" s="67"/>
-      <x:c r="D60" s="55">
-        <x:v>18680</x:v>
-      </x:c>
-      <x:c r="E60" s="67"/>
-      <x:c r="F60" s="67"/>
-      <x:c r="G60" s="55">
-        <x:v>14782</x:v>
-      </x:c>
-      <x:c r="H60" s="68"/>
-      <x:c r="I60" s="2"/>
-    </x:row>
-    <x:row r="61" spans="1:9" ht="18.5">
-      <x:c r="A61" s="2"/>
-      <x:c r="B61" s="64">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C61" s="67"/>
-      <x:c r="D61" s="55">
-        <x:v>19234</x:v>
-      </x:c>
-      <x:c r="E61" s="67"/>
-      <x:c r="F61" s="67"/>
-      <x:c r="G61" s="55">
-        <x:v>15629</x:v>
-      </x:c>
-      <x:c r="H61" s="68"/>
-      <x:c r="I61" s="2"/>
-    </x:row>
-    <x:row r="62" spans="1:9" ht="18.5">
-      <x:c r="A62" s="2"/>
-      <x:c r="B62" s="64">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C62" s="67"/>
-      <x:c r="D62" s="55">
-        <x:v>18741</x:v>
-      </x:c>
-      <x:c r="E62" s="67"/>
-      <x:c r="F62" s="67"/>
-      <x:c r="G62" s="55">
-        <x:v>14023</x:v>
-      </x:c>
-      <x:c r="H62" s="68"/>
-      <x:c r="I62" s="2"/>
-    </x:row>
-    <x:row r="63" spans="1:9" ht="18.5">
-      <x:c r="A63" s="2"/>
-      <x:c r="B63" s="64">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C63" s="67"/>
-      <x:c r="D63" s="55">
-        <x:v>17942</x:v>
-      </x:c>
-      <x:c r="E63" s="67"/>
-      <x:c r="F63" s="67"/>
-      <x:c r="G63" s="55">
-        <x:v>13072</x:v>
-      </x:c>
-      <x:c r="H63" s="68"/>
-      <x:c r="I63" s="2"/>
-    </x:row>
-    <x:row r="64" spans="1:9" ht="18.5">
-      <x:c r="A64" s="2"/>
-      <x:c r="B64" s="64">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C64" s="67"/>
-      <x:c r="D64" s="55">
-        <x:v>20341</x:v>
-      </x:c>
-      <x:c r="E64" s="67"/>
-      <x:c r="F64" s="67"/>
-      <x:c r="G64" s="55">
-        <x:v>16162</x:v>
-      </x:c>
-      <x:c r="H64" s="68"/>
-      <x:c r="I64" s="2"/>
-    </x:row>
-    <x:row r="65" spans="1:9" ht="18.5">
-      <x:c r="A65" s="2"/>
-      <x:c r="B65" s="64">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C65" s="67"/>
-      <x:c r="D65" s="55">
-        <x:v>17436</x:v>
-      </x:c>
-      <x:c r="E65" s="67"/>
-      <x:c r="F65" s="67"/>
-      <x:c r="G65" s="55">
-        <x:v>13640</x:v>
-      </x:c>
-      <x:c r="H65" s="68"/>
-      <x:c r="I65" s="2"/>
-    </x:row>
-    <x:row r="66" spans="1:9" ht="18.5">
-      <x:c r="A66" s="2"/>
-      <x:c r="B66" s="64">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C66" s="67"/>
-      <x:c r="D66" s="55">
-        <x:v>13984</x:v>
-      </x:c>
-      <x:c r="E66" s="67"/>
-      <x:c r="F66" s="67"/>
-      <x:c r="G66" s="55">
-        <x:v>10892</x:v>
-      </x:c>
-      <x:c r="H66" s="68"/>
-      <x:c r="I66" s="2"/>
-    </x:row>
-    <x:row r="67" spans="1:9" ht="18.5">
-      <x:c r="A67" s="2"/>
-      <x:c r="B67" s="64">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C67" s="67"/>
-      <x:c r="D67" s="55">
-        <x:v>18711</x:v>
-      </x:c>
-      <x:c r="E67" s="67"/>
-      <x:c r="F67" s="67"/>
-      <x:c r="G67" s="55">
-        <x:v>14287</x:v>
-      </x:c>
-      <x:c r="H67" s="68"/>
-      <x:c r="I67" s="2"/>
-    </x:row>
-    <x:row r="68" spans="1:9" ht="18.5">
-      <x:c r="A68" s="2"/>
-      <x:c r="B68" s="64">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C68" s="67"/>
-      <x:c r="D68" s="55">
-        <x:v>22672</x:v>
-      </x:c>
-      <x:c r="E68" s="67"/>
-      <x:c r="F68" s="67"/>
-      <x:c r="G68" s="55">
-        <x:v>18624</x:v>
-      </x:c>
-      <x:c r="H68" s="68"/>
-      <x:c r="I68" s="2"/>
-    </x:row>
-    <x:row r="69" spans="1:9" ht="18.5">
-      <x:c r="A69" s="2"/>
-      <x:c r="B69" s="64">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C69" s="67"/>
-      <x:c r="D69" s="55">
-        <x:v>19511</x:v>
-      </x:c>
-      <x:c r="E69" s="67"/>
-      <x:c r="F69" s="67"/>
-      <x:c r="G69" s="55">
-        <x:v>14631</x:v>
-      </x:c>
-      <x:c r="H69" s="68"/>
-      <x:c r="I69" s="2"/>
-    </x:row>
-    <x:row r="70" spans="1:9" ht="18.5">
-      <x:c r="A70" s="2"/>
-      <x:c r="B70" s="64">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C70" s="67"/>
-      <x:c r="D70" s="55">
-        <x:v>16634</x:v>
-      </x:c>
-      <x:c r="E70" s="67"/>
-      <x:c r="F70" s="67"/>
-      <x:c r="G70" s="55">
-        <x:v>13134</x:v>
-      </x:c>
-      <x:c r="H70" s="68"/>
-      <x:c r="I70" s="2"/>
-    </x:row>
-    <x:row r="71" spans="1:9" ht="18.5">
-      <x:c r="A71" s="2"/>
-      <x:c r="B71" s="64">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C71" s="67"/>
-      <x:c r="D71" s="55">
-        <x:v>19215</x:v>
-      </x:c>
-      <x:c r="E71" s="67"/>
-      <x:c r="F71" s="67"/>
-      <x:c r="G71" s="55">
-        <x:v>15399</x:v>
-      </x:c>
-      <x:c r="H71" s="68"/>
-      <x:c r="I71" s="2"/>
-    </x:row>
-    <x:row r="72" spans="1:9" ht="18.5">
-      <x:c r="A72" s="2"/>
-      <x:c r="B72" s="64">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C72" s="67"/>
-      <x:c r="D72" s="55">
-        <x:v>18011</x:v>
-      </x:c>
-      <x:c r="E72" s="67"/>
-      <x:c r="F72" s="67"/>
-      <x:c r="G72" s="55">
-        <x:v>13599</x:v>
-      </x:c>
-      <x:c r="H72" s="68"/>
-      <x:c r="I72" s="2"/>
-    </x:row>
-    <x:row r="73" spans="1:9" ht="18.5">
-      <x:c r="A73" s="2"/>
-      <x:c r="B73" s="64">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C73" s="67"/>
-      <x:c r="D73" s="55">
-        <x:v>21778</x:v>
-      </x:c>
-      <x:c r="E73" s="67"/>
-      <x:c r="F73" s="67"/>
-      <x:c r="G73" s="55">
-        <x:v>16796</x:v>
-      </x:c>
-      <x:c r="H73" s="68"/>
-      <x:c r="I73" s="2"/>
-    </x:row>
-    <x:row r="74" spans="1:9" ht="18.5">
-      <x:c r="A74" s="2"/>
-      <x:c r="B74" s="64">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C74" s="67"/>
-      <x:c r="D74" s="55">
-        <x:v>18513</x:v>
-      </x:c>
-      <x:c r="E74" s="67"/>
-      <x:c r="F74" s="67"/>
-      <x:c r="G74" s="55">
-        <x:v>13618</x:v>
-      </x:c>
-      <x:c r="H74" s="68"/>
-      <x:c r="I74" s="2"/>
-    </x:row>
-    <x:row r="75" spans="1:9" ht="18.5">
-      <x:c r="A75" s="2"/>
-      <x:c r="B75" s="64">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C75" s="67"/>
-      <x:c r="D75" s="55">
-        <x:v>17524</x:v>
-      </x:c>
-      <x:c r="E75" s="67"/>
-      <x:c r="F75" s="67"/>
-      <x:c r="G75" s="55">
-        <x:v>13144</x:v>
-      </x:c>
-      <x:c r="H75" s="68"/>
-      <x:c r="I75" s="2"/>
-    </x:row>
-    <x:row r="76" spans="1:9" ht="18.5">
-      <x:c r="A76" s="2"/>
-      <x:c r="B76" s="64">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C76" s="67"/>
-      <x:c r="D76" s="55">
-        <x:v>21429</x:v>
-      </x:c>
-      <x:c r="E76" s="67"/>
-      <x:c r="F76" s="67"/>
-      <x:c r="G76" s="55">
-        <x:v>17767</x:v>
-      </x:c>
-      <x:c r="H76" s="68"/>
-      <x:c r="I76" s="2"/>
-    </x:row>
-    <x:row r="77" spans="1:9" ht="18.5">
-      <x:c r="A77" s="2"/>
-      <x:c r="B77" s="64">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C77" s="67"/>
-      <x:c r="D77" s="55">
-        <x:v>18966</x:v>
-      </x:c>
-      <x:c r="E77" s="67"/>
-      <x:c r="F77" s="67"/>
-      <x:c r="G77" s="55">
-        <x:v>14832</x:v>
-      </x:c>
-      <x:c r="H77" s="68"/>
-      <x:c r="I77" s="2"/>
-    </x:row>
-    <x:row r="78" spans="1:9" ht="18.5">
-      <x:c r="A78" s="2"/>
-      <x:c r="B78" s="64">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C78" s="67"/>
-      <x:c r="D78" s="55">
-        <x:v>15820</x:v>
-      </x:c>
-      <x:c r="E78" s="67"/>
-      <x:c r="F78" s="67"/>
-      <x:c r="G78" s="55">
-        <x:v>12713</x:v>
-      </x:c>
-      <x:c r="H78" s="68"/>
-      <x:c r="I78" s="2"/>
-    </x:row>
-    <x:row r="79" spans="1:9" ht="18.5">
-      <x:c r="A79" s="2"/>
-      <x:c r="B79" s="64">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C79" s="67"/>
-      <x:c r="D79" s="55">
-        <x:v>23880</x:v>
-      </x:c>
-      <x:c r="E79" s="67"/>
-      <x:c r="F79" s="67"/>
-      <x:c r="G79" s="55">
-        <x:v>17909</x:v>
-      </x:c>
-      <x:c r="H79" s="68"/>
-      <x:c r="I79" s="2"/>
-    </x:row>
-    <x:row r="80" spans="1:9" ht="18.5">
-      <x:c r="A80" s="2"/>
-      <x:c r="B80" s="64">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C80" s="67"/>
-      <x:c r="D80" s="55">
-        <x:v>22081</x:v>
-      </x:c>
-      <x:c r="E80" s="67"/>
-      <x:c r="F80" s="67"/>
-      <x:c r="G80" s="55">
-        <x:v>16432</x:v>
-      </x:c>
-      <x:c r="H80" s="68"/>
-      <x:c r="I80" s="2"/>
-    </x:row>
-    <x:row r="81" spans="1:9" ht="18.5">
-      <x:c r="A81" s="2"/>
-      <x:c r="B81" s="64">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C81" s="67"/>
-      <x:c r="D81" s="55">
-        <x:v>22107</x:v>
-      </x:c>
-      <x:c r="E81" s="67"/>
-      <x:c r="F81" s="67"/>
-      <x:c r="G81" s="55">
-        <x:v>17260</x:v>
-      </x:c>
-      <x:c r="H81" s="68"/>
-      <x:c r="I81" s="2"/>
-    </x:row>
-    <x:row r="82" spans="1:9" ht="18.5">
-      <x:c r="A82" s="2"/>
-      <x:c r="B82" s="64">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C82" s="67"/>
-      <x:c r="D82" s="55">
-        <x:v>18538</x:v>
-      </x:c>
-      <x:c r="E82" s="67"/>
-      <x:c r="F82" s="67"/>
-      <x:c r="G82" s="55">
-        <x:v>15080</x:v>
-      </x:c>
-      <x:c r="H82" s="68"/>
-      <x:c r="I82" s="2"/>
-    </x:row>
-    <x:row r="83" spans="1:9" ht="18.5">
-      <x:c r="A83" s="2"/>
-      <x:c r="B83" s="69" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C83" s="57"/>
-      <x:c r="D83" s="57">
-        <x:v>679232</x:v>
-      </x:c>
-      <x:c r="E83" s="57"/>
-      <x:c r="F83" s="57"/>
-      <x:c r="G83" s="57">
-        <x:v>533018</x:v>
-      </x:c>
-      <x:c r="H83" s="70"/>
-      <x:c r="I83" s="2"/>
-    </x:row>
-    <x:row r="84" spans="1:9" ht="19" thickBot="1">
-      <x:c r="A84" s="2"/>
-      <x:c r="B84" s="71"/>
-      <x:c r="C84" s="72"/>
-      <x:c r="D84" s="72"/>
-      <x:c r="E84" s="73"/>
-      <x:c r="F84" s="73"/>
-      <x:c r="G84" s="73"/>
-      <x:c r="H84" s="74"/>
-      <x:c r="I84" s="2"/>
-    </x:row>
-    <x:row r="85" spans="1:9" ht="24" customHeight="1" thickTop="1" thickBot="1">
-      <x:c r="A85" s="2"/>
-      <x:c r="B85" s="75"/>
-      <x:c r="C85" s="75"/>
-      <x:c r="D85" s="75"/>
-      <x:c r="E85" s="76"/>
-      <x:c r="F85" s="76"/>
-      <x:c r="G85" s="76"/>
-      <x:c r="H85" s="76"/>
-      <x:c r="I85" s="2"/>
-    </x:row>
-    <x:row r="86" spans="1:9" ht="19" thickTop="1">
-      <x:c r="A86" s="2"/>
-      <x:c r="B86" s="86" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="C86" s="21"/>
-      <x:c r="D86" s="21"/>
-      <x:c r="E86" s="36"/>
-      <x:c r="F86" s="36"/>
-      <x:c r="G86" s="36"/>
-      <x:c r="H86" s="43"/>
-      <x:c r="I86" s="2"/>
-    </x:row>
-    <x:row r="87" spans="1:9" ht="18.5">
-      <x:c r="A87" s="2"/>
-      <x:c r="B87" s="7"/>
-      <x:c r="C87" s="9"/>
-      <x:c r="D87" s="9"/>
-      <x:c r="E87" s="36"/>
-      <x:c r="F87" s="36"/>
-      <x:c r="G87" s="36"/>
-      <x:c r="H87" s="38"/>
-      <x:c r="I87" s="2"/>
-    </x:row>
-    <x:row r="88" spans="1:9" ht="18.5">
-      <x:c r="A88" s="2"/>
-      <x:c r="B88" s="7"/>
-      <x:c r="C88" s="9"/>
-      <x:c r="D88" s="9"/>
-      <x:c r="E88" s="36"/>
-      <x:c r="F88" s="36"/>
-      <x:c r="G88" s="36"/>
-      <x:c r="H88" s="38"/>
-      <x:c r="I88" s="2"/>
-    </x:row>
-    <x:row r="89" spans="1:9" ht="18.5">
-      <x:c r="A89" s="2"/>
-      <x:c r="B89" s="7"/>
-      <x:c r="C89" s="9"/>
-      <x:c r="D89" s="9"/>
-      <x:c r="E89" s="36"/>
-      <x:c r="F89" s="36"/>
-      <x:c r="G89" s="36"/>
-      <x:c r="H89" s="38"/>
-      <x:c r="I89" s="2"/>
-    </x:row>
-    <x:row r="90" spans="1:9" ht="18.5">
-      <x:c r="A90" s="2"/>
-      <x:c r="B90" s="7"/>
-      <x:c r="C90" s="9"/>
-      <x:c r="D90" s="9"/>
-      <x:c r="E90" s="36"/>
-      <x:c r="F90" s="36"/>
-      <x:c r="G90" s="36"/>
-      <x:c r="H90" s="38"/>
-      <x:c r="I90" s="2"/>
-    </x:row>
-    <x:row r="91" spans="1:9" ht="18.5">
-      <x:c r="A91" s="2"/>
-      <x:c r="B91" s="7"/>
-      <x:c r="C91" s="9"/>
-      <x:c r="D91" s="9"/>
-      <x:c r="E91" s="36"/>
-      <x:c r="F91" s="36"/>
-      <x:c r="G91" s="36"/>
-      <x:c r="H91" s="38"/>
-      <x:c r="I91" s="2"/>
-    </x:row>
-    <x:row r="92" spans="1:9" ht="18.5">
-      <x:c r="A92" s="2"/>
-      <x:c r="B92" s="7"/>
-      <x:c r="C92" s="9"/>
-      <x:c r="D92" s="9"/>
-      <x:c r="E92" s="36"/>
-      <x:c r="F92" s="36"/>
-      <x:c r="G92" s="36"/>
-      <x:c r="H92" s="38"/>
-      <x:c r="I92" s="2"/>
-    </x:row>
-    <x:row r="93" spans="1:9" ht="18.5">
-      <x:c r="A93" s="2"/>
-      <x:c r="B93" s="7"/>
-      <x:c r="C93" s="9"/>
-      <x:c r="D93" s="9"/>
-      <x:c r="E93" s="36"/>
-      <x:c r="F93" s="36"/>
-      <x:c r="G93" s="36"/>
-      <x:c r="H93" s="38"/>
-      <x:c r="I93" s="2"/>
-    </x:row>
-    <x:row r="94" spans="1:9" ht="18.5">
-      <x:c r="A94" s="2"/>
-      <x:c r="B94" s="7"/>
-      <x:c r="C94" s="9"/>
-      <x:c r="D94" s="9"/>
-      <x:c r="E94" s="36"/>
-      <x:c r="F94" s="36"/>
-      <x:c r="G94" s="36"/>
-      <x:c r="H94" s="38"/>
-      <x:c r="I94" s="2"/>
-    </x:row>
-    <x:row r="95" spans="1:9" ht="18.5">
-      <x:c r="A95" s="2"/>
-      <x:c r="B95" s="7"/>
-      <x:c r="C95" s="9"/>
-      <x:c r="D95" s="9"/>
-      <x:c r="E95" s="36"/>
-      <x:c r="F95" s="36"/>
-      <x:c r="G95" s="36"/>
-      <x:c r="H95" s="38"/>
-      <x:c r="I95" s="2"/>
-    </x:row>
-    <x:row r="96" spans="1:9" ht="18.5">
-      <x:c r="A96" s="2"/>
-      <x:c r="B96" s="7"/>
-      <x:c r="C96" s="9"/>
-      <x:c r="D96" s="9"/>
-      <x:c r="E96" s="36"/>
-      <x:c r="F96" s="36"/>
-      <x:c r="G96" s="36"/>
-      <x:c r="H96" s="38"/>
-      <x:c r="I96" s="2"/>
-    </x:row>
-    <x:row r="97" spans="1:9" ht="18.5">
-      <x:c r="A97" s="2"/>
-      <x:c r="B97" s="7"/>
-      <x:c r="C97" s="9"/>
-      <x:c r="D97" s="9"/>
-      <x:c r="E97" s="36"/>
-      <x:c r="F97" s="36"/>
-      <x:c r="G97" s="36"/>
-      <x:c r="H97" s="38"/>
-      <x:c r="I97" s="2"/>
-    </x:row>
-    <x:row r="98" spans="1:9" ht="18.5">
-      <x:c r="A98" s="2"/>
-      <x:c r="B98" s="7"/>
-      <x:c r="C98" s="9"/>
-      <x:c r="D98" s="9"/>
-      <x:c r="E98" s="36"/>
-      <x:c r="F98" s="36"/>
-      <x:c r="G98" s="36"/>
-      <x:c r="H98" s="38"/>
-      <x:c r="I98" s="2"/>
-    </x:row>
-    <x:row r="99" spans="1:9" ht="18.5">
-      <x:c r="A99" s="2"/>
-      <x:c r="B99" s="7"/>
-      <x:c r="C99" s="9"/>
-      <x:c r="D99" s="9"/>
-      <x:c r="E99" s="36"/>
-      <x:c r="F99" s="36"/>
-      <x:c r="G99" s="36"/>
-      <x:c r="H99" s="38"/>
-      <x:c r="I99" s="2"/>
-    </x:row>
-    <x:row r="100" spans="1:9" ht="18.5">
-      <x:c r="A100" s="2"/>
-      <x:c r="B100" s="7"/>
-      <x:c r="C100" s="9"/>
-      <x:c r="D100" s="9"/>
-      <x:c r="E100" s="36"/>
-      <x:c r="F100" s="36"/>
-      <x:c r="G100" s="36"/>
-      <x:c r="H100" s="38"/>
-      <x:c r="I100" s="2"/>
-    </x:row>
-    <x:row r="101" spans="1:9" ht="18.5">
-      <x:c r="A101" s="2"/>
-      <x:c r="B101" s="7"/>
-      <x:c r="C101" s="9"/>
-      <x:c r="D101" s="9"/>
-      <x:c r="E101" s="36"/>
-      <x:c r="F101" s="36"/>
-      <x:c r="G101" s="36"/>
-      <x:c r="H101" s="38"/>
-      <x:c r="I101" s="2"/>
-    </x:row>
-    <x:row r="102" spans="1:9" ht="18.5">
-      <x:c r="A102" s="2"/>
-      <x:c r="B102" s="7"/>
-      <x:c r="C102" s="9"/>
-      <x:c r="D102" s="9"/>
-      <x:c r="E102" s="36"/>
-      <x:c r="F102" s="36"/>
-      <x:c r="G102" s="36"/>
-      <x:c r="H102" s="38"/>
-      <x:c r="I102" s="2"/>
-    </x:row>
-    <x:row r="103" spans="1:9" ht="18.5">
-      <x:c r="A103" s="2"/>
-      <x:c r="B103" s="7"/>
-      <x:c r="C103" s="9"/>
-      <x:c r="D103" s="9"/>
-      <x:c r="E103" s="36"/>
-      <x:c r="F103" s="36"/>
-      <x:c r="G103" s="36"/>
-      <x:c r="H103" s="38"/>
-      <x:c r="I103" s="2"/>
-    </x:row>
-    <x:row r="104" spans="1:9" ht="18.5">
-      <x:c r="A104" s="2"/>
-      <x:c r="B104" s="7"/>
-      <x:c r="C104" s="9"/>
-      <x:c r="D104" s="9"/>
-      <x:c r="E104" s="36"/>
-      <x:c r="F104" s="36"/>
-      <x:c r="G104" s="36"/>
-      <x:c r="H104" s="38"/>
-      <x:c r="I104" s="2"/>
-    </x:row>
-    <x:row r="105" spans="1:9" ht="18.5">
-      <x:c r="A105" s="2"/>
-      <x:c r="B105" s="7"/>
-      <x:c r="C105" s="9"/>
-      <x:c r="D105" s="9"/>
-      <x:c r="E105" s="36"/>
-      <x:c r="F105" s="36"/>
-      <x:c r="G105" s="36"/>
-      <x:c r="H105" s="38"/>
-      <x:c r="I105" s="2"/>
-    </x:row>
-    <x:row r="106" spans="1:9" ht="18.5">
-      <x:c r="A106" s="2"/>
-      <x:c r="B106" s="7"/>
-      <x:c r="C106" s="9"/>
-      <x:c r="D106" s="9"/>
-      <x:c r="E106" s="36"/>
-      <x:c r="F106" s="36"/>
-      <x:c r="G106" s="36"/>
-      <x:c r="H106" s="38"/>
-      <x:c r="I106" s="2"/>
-    </x:row>
-    <x:row r="107" spans="1:9" ht="18.5">
-      <x:c r="A107" s="2"/>
-      <x:c r="B107" s="7"/>
-      <x:c r="C107" s="9"/>
-      <x:c r="D107" s="9"/>
-      <x:c r="E107" s="36"/>
-      <x:c r="F107" s="36"/>
-      <x:c r="G107" s="36"/>
-      <x:c r="H107" s="38"/>
-      <x:c r="I107" s="2"/>
-    </x:row>
-    <x:row r="108" spans="1:9" ht="18.5">
-      <x:c r="A108" s="2"/>
-      <x:c r="B108" s="7"/>
-      <x:c r="C108" s="9"/>
-      <x:c r="D108" s="9"/>
-      <x:c r="E108" s="36"/>
-      <x:c r="F108" s="36"/>
-      <x:c r="G108" s="36"/>
-      <x:c r="H108" s="38"/>
-      <x:c r="I108" s="2"/>
-    </x:row>
-    <x:row r="109" spans="1:9" ht="18.5">
-      <x:c r="A109" s="2"/>
-      <x:c r="B109" s="7"/>
-      <x:c r="C109" s="9"/>
-      <x:c r="D109" s="9"/>
-      <x:c r="E109" s="36"/>
-      <x:c r="F109" s="36"/>
-      <x:c r="G109" s="36"/>
-      <x:c r="H109" s="38"/>
-      <x:c r="I109" s="2"/>
-    </x:row>
-    <x:row r="110" spans="1:9" ht="18.5">
-      <x:c r="A110" s="2"/>
-      <x:c r="B110" s="7"/>
-      <x:c r="C110" s="9"/>
-      <x:c r="D110" s="9"/>
-      <x:c r="E110" s="36"/>
-      <x:c r="F110" s="36"/>
-      <x:c r="G110" s="36"/>
-      <x:c r="H110" s="38"/>
-      <x:c r="I110" s="2"/>
-    </x:row>
-    <x:row r="111" spans="1:9" ht="18.5">
-      <x:c r="A111" s="2"/>
-      <x:c r="B111" s="7"/>
-      <x:c r="C111" s="9"/>
-      <x:c r="D111" s="9"/>
-      <x:c r="E111" s="36"/>
-      <x:c r="F111" s="36"/>
-      <x:c r="G111" s="36"/>
-      <x:c r="H111" s="38"/>
-      <x:c r="I111" s="2"/>
-    </x:row>
-    <x:row r="112" spans="1:9" ht="18.5">
-      <x:c r="A112" s="2"/>
-      <x:c r="B112" s="7"/>
-      <x:c r="C112" s="9"/>
-      <x:c r="D112" s="9"/>
-      <x:c r="E112" s="36"/>
-      <x:c r="F112" s="36"/>
-      <x:c r="G112" s="36"/>
-      <x:c r="H112" s="38"/>
-      <x:c r="I112" s="2"/>
-    </x:row>
-    <x:row r="113" spans="1:10" ht="18.5">
-      <x:c r="A113" s="2"/>
-      <x:c r="B113" s="7"/>
-      <x:c r="C113" s="9"/>
-      <x:c r="D113" s="9"/>
-      <x:c r="E113" s="36"/>
-      <x:c r="F113" s="36"/>
-      <x:c r="G113" s="36"/>
-      <x:c r="H113" s="38"/>
-      <x:c r="I113" s="2"/>
-    </x:row>
-    <x:row r="114" spans="1:10" ht="18.5">
-      <x:c r="A114" s="2"/>
-      <x:c r="B114" s="7"/>
-      <x:c r="C114" s="9"/>
-      <x:c r="D114" s="9"/>
-      <x:c r="E114" s="36"/>
-      <x:c r="F114" s="36"/>
-      <x:c r="G114" s="36"/>
-      <x:c r="H114" s="38"/>
-      <x:c r="I114" s="2"/>
-    </x:row>
-    <x:row r="115" spans="1:10" ht="18.5">
-      <x:c r="A115" s="2"/>
-      <x:c r="B115" s="7"/>
-      <x:c r="C115" s="9"/>
-      <x:c r="D115" s="9"/>
-      <x:c r="E115" s="36"/>
-      <x:c r="F115" s="36"/>
-      <x:c r="G115" s="36"/>
-      <x:c r="H115" s="38"/>
-      <x:c r="I115" s="2"/>
-    </x:row>
-    <x:row r="116" spans="1:10" ht="18.5">
-      <x:c r="A116" s="2"/>
-      <x:c r="B116" s="7"/>
-      <x:c r="C116" s="9"/>
-      <x:c r="D116" s="9"/>
-      <x:c r="E116" s="36"/>
-      <x:c r="F116" s="36"/>
-      <x:c r="G116" s="36"/>
-      <x:c r="H116" s="38"/>
-      <x:c r="I116" s="2"/>
-    </x:row>
-    <x:row r="117" spans="1:10" ht="18.5">
-      <x:c r="A117" s="2"/>
-      <x:c r="B117" s="7"/>
-      <x:c r="C117" s="9"/>
-      <x:c r="D117" s="9"/>
-      <x:c r="E117" s="36"/>
-      <x:c r="F117" s="36"/>
-      <x:c r="G117" s="36"/>
-      <x:c r="H117" s="38"/>
-      <x:c r="I117" s="2"/>
-    </x:row>
-    <x:row r="118" spans="1:10" ht="17" customHeight="1" thickBot="1">
-      <x:c r="A118" s="2"/>
-      <x:c r="B118" s="30"/>
-      <x:c r="C118" s="23"/>
-      <x:c r="D118" s="23"/>
-      <x:c r="E118" s="23"/>
-      <x:c r="F118" s="23"/>
-      <x:c r="G118" s="23"/>
-      <x:c r="H118" s="24"/>
-      <x:c r="I118" s="2"/>
-    </x:row>
-    <x:row r="119" spans="1:10">
-      <x:c r="A119" s="2"/>
-      <x:c r="B119" s="2"/>
-      <x:c r="C119" s="2"/>
-      <x:c r="D119" s="2"/>
-      <x:c r="E119" s="2"/>
-      <x:c r="F119" s="2"/>
-      <x:c r="G119" s="2"/>
-      <x:c r="H119" s="2"/>
-      <x:c r="I119" s="2"/>
-      <x:c r="J119" s="56"/>
-    </x:row>
-    <x:row r="120" spans="1:10">
-      <x:c r="A120" s="2"/>
-      <x:c r="B120" s="2"/>
-      <x:c r="C120" s="2"/>
-      <x:c r="D120" s="2"/>
-      <x:c r="E120" s="2"/>
-      <x:c r="F120" s="2"/>
-      <x:c r="G120" s="2"/>
-      <x:c r="H120" s="2"/>
-      <x:c r="I120" s="2"/>
-      <x:c r="J120" s="56"/>
-    </x:row>
-    <x:row r="121" spans="1:10">
-      <x:c r="A121" s="2"/>
-      <x:c r="B121" s="2"/>
-      <x:c r="C121" s="2"/>
-      <x:c r="D121" s="2"/>
-      <x:c r="E121" s="2"/>
-      <x:c r="F121" s="2"/>
-      <x:c r="G121" s="2"/>
-      <x:c r="H121" s="2"/>
-      <x:c r="I121" s="2"/>
-      <x:c r="J121" s="56"/>
-    </x:row>
-    <x:row r="122" spans="1:10">
-      <x:c r="A122" s="2"/>
-      <x:c r="B122" s="2"/>
-      <x:c r="C122" s="2"/>
-      <x:c r="D122" s="2"/>
-      <x:c r="E122" s="2"/>
-      <x:c r="F122" s="2"/>
-      <x:c r="G122" s="2"/>
-      <x:c r="H122" s="2"/>
-      <x:c r="I122" s="2"/>
-      <x:c r="J122" s="56"/>
-    </x:row>
-  </x:sheetData>
-  <x:mergeCells count="26">
-    <x:mergeCell ref="B44:H44"/>
-    <x:mergeCell ref="B46:C46"/>
-    <x:mergeCell ref="D46:F46"/>
-    <x:mergeCell ref="G46:H46"/>
-    <x:mergeCell ref="B33:G33"/>
-    <x:mergeCell ref="B38:H38"/>
-    <x:mergeCell ref="B39:H39"/>
-    <x:mergeCell ref="B40:H40"/>
-    <x:mergeCell ref="B41:H41"/>
-    <x:mergeCell ref="B36:H36"/>
-    <x:mergeCell ref="B37:H37"/>
-    <x:mergeCell ref="B42:H42"/>
-    <x:mergeCell ref="B20:H20"/>
-    <x:mergeCell ref="B22:H22"/>
-    <x:mergeCell ref="B23:H23"/>
-    <x:mergeCell ref="B26:D26"/>
-    <x:mergeCell ref="F26:H26"/>
-    <x:mergeCell ref="B14:C14"/>
-    <x:mergeCell ref="B15:C15"/>
-    <x:mergeCell ref="B16:C16"/>
-    <x:mergeCell ref="B5:D5"/>
-    <x:mergeCell ref="F5:H5"/>
-    <x:mergeCell ref="B7:C7"/>
-    <x:mergeCell ref="B8:C8"/>
-    <x:mergeCell ref="B12:D12"/>
-    <x:mergeCell ref="F12:H12"/>
-  </x:mergeCells>
-  <x:phoneticPr fontId="3" type="noConversion"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup scale="76" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <x:colBreaks count="1" manualBreakCount="1">
-    <x:brk id="9" max="1048575" man="1"/>
-  </x:colBreaks>
-  <x:drawing r:id="rId2"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="A1:J78"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
-  <x:cols>
-    <x:col min="1" max="1" width="4" customWidth="1"/>
-    <x:col min="2" max="2" width="9.1640625" style="5" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="9" width="13.33203125" customWidth="1"/>
-    <x:col min="10" max="10" width="4" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:10">
-      <x:c r="A1" s="1"/>
-      <x:c r="B1" s="3"/>
-      <x:c r="C1" s="1"/>
-      <x:c r="D1" s="1"/>
-      <x:c r="E1" s="1"/>
-      <x:c r="F1" s="1"/>
-      <x:c r="G1" s="1"/>
-      <x:c r="H1" s="1"/>
-      <x:c r="I1" s="1"/>
-      <x:c r="J1" s="1"/>
-    </x:row>
-    <x:row r="2" spans="1:10">
-      <x:c r="A2" s="1"/>
-      <x:c r="B2" s="3"/>
-      <x:c r="C2" s="1"/>
-      <x:c r="D2" s="1"/>
-      <x:c r="E2" s="1"/>
-      <x:c r="F2" s="1"/>
-      <x:c r="G2" s="1"/>
-      <x:c r="H2" s="1"/>
-      <x:c r="I2" s="1"/>
-      <x:c r="J2" s="1"/>
-    </x:row>
-    <x:row r="3" spans="1:10">
-      <x:c r="A3" s="1"/>
-      <x:c r="B3" s="3"/>
-      <x:c r="C3" s="1"/>
-      <x:c r="D3" s="1"/>
-      <x:c r="E3" s="1"/>
-      <x:c r="F3" s="1"/>
-      <x:c r="G3" s="1"/>
-      <x:c r="H3" s="1"/>
-      <x:c r="I3" s="1"/>
-      <x:c r="J3" s="1"/>
-    </x:row>
-    <x:row r="4" spans="1:10" ht="24" customHeight="1" thickBot="1">
-      <x:c r="A4" s="2"/>
-      <x:c r="B4" s="4"/>
-      <x:c r="C4" s="2"/>
-      <x:c r="D4" s="2"/>
-      <x:c r="E4" s="2"/>
-      <x:c r="F4" s="2"/>
-      <x:c r="G4" s="2"/>
-      <x:c r="H4" s="2"/>
-      <x:c r="I4" s="2"/>
-      <x:c r="J4" s="2"/>
-    </x:row>
-    <x:row r="5" spans="1:10" ht="26">
-      <x:c r="A5" s="2"/>
-      <x:c r="B5" s="96" t="str">
-        <x:v>Engagement Name</x:v>
-      </x:c>
-      <x:c r="C5" s="97"/>
-      <x:c r="D5" s="98"/>
-      <x:c r="E5" s="105" t="str">
-        <x:v>Dr Pepper Snapple Group, Inc.</x:v>
-      </x:c>
-      <x:c r="F5" s="106"/>
-      <x:c r="G5" s="106"/>
-      <x:c r="H5" s="106"/>
-      <x:c r="I5" s="107"/>
-      <x:c r="J5" s="2"/>
-    </x:row>
-    <x:row r="6" spans="1:10" ht="26">
-      <x:c r="A6" s="2"/>
-      <x:c r="B6" s="99" t="str">
-        <x:v>File Name</x:v>
-      </x:c>
-      <x:c r="C6" s="100"/>
-      <x:c r="D6" s="101"/>
-      <x:c r="E6" s="19" t="str">
-        <x:v>Reveal Demo1.xlsx</x:v>
-      </x:c>
-      <x:c r="F6" s="26"/>
-      <x:c r="G6" s="26"/>
-      <x:c r="H6" s="26"/>
-      <x:c r="I6" s="27"/>
-      <x:c r="J6" s="2"/>
-    </x:row>
-    <x:row r="7" spans="1:10" ht="26">
-      <x:c r="A7" s="2"/>
-      <x:c r="B7" s="99" t="str">
-        <x:v>Description</x:v>
-      </x:c>
-      <x:c r="C7" s="100"/>
-      <x:c r="D7" s="101"/>
-      <x:c r="E7" s="19" t="str">
-        <x:v>Changed risk values to significant</x:v>
-      </x:c>
-      <x:c r="F7" s="26"/>
-      <x:c r="G7" s="26"/>
-      <x:c r="H7" s="26"/>
-      <x:c r="I7" s="27"/>
-      <x:c r="J7" s="2"/>
-    </x:row>
-    <x:row r="8" spans="1:10" ht="26.5" thickBot="1">
-      <x:c r="A8" s="2"/>
-      <x:c r="B8" s="102" t="str">
-        <x:v>Date and Time</x:v>
-      </x:c>
-      <x:c r="C8" s="103"/>
-      <x:c r="D8" s="104"/>
-      <x:c r="E8" s="114" t="str">
-        <x:v>2/6/2017  7:19:00 PM EST</x:v>
-      </x:c>
-      <x:c r="F8" s="115"/>
-      <x:c r="G8" s="115"/>
-      <x:c r="H8" s="115"/>
-      <x:c r="I8" s="116"/>
-      <x:c r="J8" s="2"/>
-    </x:row>
-    <x:row r="9" spans="1:10" ht="24" customHeight="1" thickBot="1">
-      <x:c r="A9" s="2"/>
-      <x:c r="B9" s="4"/>
-      <x:c r="C9" s="2"/>
-      <x:c r="D9" s="2"/>
-      <x:c r="E9" s="2"/>
-      <x:c r="F9" s="2"/>
-      <x:c r="G9" s="2"/>
-      <x:c r="H9" s="2"/>
-      <x:c r="I9" s="2"/>
-      <x:c r="J9" s="2"/>
-    </x:row>
-    <x:row r="10" spans="1:10" ht="30" customHeight="1">
-      <x:c r="A10" s="2"/>
-      <x:c r="B10" s="90" t="inlineStr">
-        <x:is>
-          <x:r>
-            <x:rPr>
-              <x:b/>
-              <x:sz val="20"/>
-              <x:color theme="1"/>
-              <x:rFont val="Calibri"/>
-              <x:family val="2"/>
-              <x:scheme val="minor"/>
-            </x:rPr>
-            <x:t>Steps to Performing Substantive Analytical procedures using Reveal</x:t>
-          </x:r>
-          <x:r>
-            <x:rPr>
-              <x:sz val="12"/>
-              <x:color theme="1"/>
-              <x:rFont val="Calibri"/>
-              <x:family val="2"/>
-              <x:scheme val="minor"/>
-            </x:rPr>
-            <x:t xml:space="preserve">
-</x:t>
-          </x:r>
-          <x:r>
-            <x:rPr>
-              <x:b/>
-              <x:sz val="12"/>
-              <x:color theme="1"/>
-              <x:rFont val="Calibri"/>
-              <x:family val="2"/>
-              <x:scheme val="minor"/>
-            </x:rPr>
-            <x:t>Note</x:t>
-          </x:r>
-          <x:r>
-            <x:rPr>
-              <x:sz val="12"/>
-              <x:color theme="1"/>
-              <x:rFont val="Calibri"/>
-              <x:family val="2"/>
-              <x:scheme val="minor"/>
-            </x:rPr>
-            <x:t>:  For additional guidance regarding the use of Reveal, refer to the Performing Substantive Analytical Procedures guide available in the Deloitte Technical Library.</x:t>
-          </x:r>
-        </x:is>
-      </x:c>
-      <x:c r="C10" s="91"/>
-      <x:c r="D10" s="91"/>
-      <x:c r="E10" s="91"/>
-      <x:c r="F10" s="91"/>
-      <x:c r="G10" s="91"/>
-      <x:c r="H10" s="91"/>
-      <x:c r="I10" s="92"/>
-      <x:c r="J10" s="2"/>
-    </x:row>
-    <x:row r="11" spans="1:10" ht="21" customHeight="1">
-      <x:c r="A11" s="2"/>
-      <x:c r="B11" s="93"/>
-      <x:c r="C11" s="94"/>
-      <x:c r="D11" s="94"/>
-      <x:c r="E11" s="94"/>
-      <x:c r="F11" s="94"/>
-      <x:c r="G11" s="94"/>
-      <x:c r="H11" s="94"/>
-      <x:c r="I11" s="95"/>
-      <x:c r="J11" s="2"/>
-    </x:row>
-    <x:row r="12" spans="1:10" ht="27.5" customHeight="1">
-      <x:c r="A12" s="2"/>
-      <x:c r="B12" s="93"/>
-      <x:c r="C12" s="94"/>
-      <x:c r="D12" s="94"/>
-      <x:c r="E12" s="94"/>
-      <x:c r="F12" s="94"/>
-      <x:c r="G12" s="94"/>
-      <x:c r="H12" s="94"/>
-      <x:c r="I12" s="95"/>
-      <x:c r="J12" s="2"/>
-    </x:row>
-    <x:row r="13" spans="1:10" ht="16" thickBot="1">
-      <x:c r="A13" s="2"/>
-      <x:c r="B13" s="30"/>
-      <x:c r="C13" s="23"/>
-      <x:c r="D13" s="23"/>
-      <x:c r="E13" s="23"/>
-      <x:c r="F13" s="23"/>
-      <x:c r="G13" s="23"/>
-      <x:c r="H13" s="85"/>
-      <x:c r="I13" s="24"/>
-      <x:c r="J13" s="2"/>
-    </x:row>
-    <x:row r="14" spans="1:10" ht="24" customHeight="1" thickBot="1">
-      <x:c r="A14" s="2"/>
-      <x:c r="B14" s="4"/>
-      <x:c r="C14" s="2"/>
-      <x:c r="D14" s="2"/>
-      <x:c r="E14" s="2"/>
-      <x:c r="F14" s="2"/>
-      <x:c r="G14" s="2"/>
-      <x:c r="H14" s="2"/>
-      <x:c r="I14" s="2"/>
-      <x:c r="J14" s="2"/>
-    </x:row>
-    <x:row r="15" spans="1:10" ht="26">
-      <x:c r="A15" s="2"/>
-      <x:c r="B15" s="111" t="str">
-        <x:v>1 Application Design</x:v>
-      </x:c>
-      <x:c r="C15" s="112"/>
-      <x:c r="D15" s="112"/>
-      <x:c r="E15" s="112"/>
-      <x:c r="F15" s="112"/>
-      <x:c r="G15" s="112"/>
-      <x:c r="H15" s="112"/>
-      <x:c r="I15" s="113"/>
-      <x:c r="J15" s="2"/>
-    </x:row>
-    <x:row r="16" spans="1:10" ht="36" customHeight="1">
-      <x:c r="A16" s="2"/>
-      <x:c r="B16" s="119" t="str">
-        <x:v>a)  Document the audit purpose and audit parameters used (e.g., risk(s) of material misstatement, account and related assertion(s) tested, performance materiality, testing strategy).</x:v>
-      </x:c>
-      <x:c r="C16" s="120"/>
-      <x:c r="D16" s="120"/>
-      <x:c r="E16" s="120"/>
-      <x:c r="F16" s="120"/>
-      <x:c r="G16" s="120"/>
-      <x:c r="H16" s="120"/>
-      <x:c r="I16" s="121"/>
-      <x:c r="J16" s="2"/>
-    </x:row>
-    <x:row r="17" spans="1:10" ht="49" customHeight="1">
-      <x:c r="A17" s="2"/>
-      <x:c r="B17" s="87" t="inlineStr">
-        <x:is>
-          <x:r>
-            <x:rPr>
-              <x:b/>
-              <x:sz val="12"/>
-              <x:color theme="1"/>
-              <x:rFont val="Calibri"/>
-              <x:family val="2"/>
-              <x:scheme val="minor"/>
-            </x:rPr>
-            <x:t>[Note:</x:t>
-          </x:r>
-          <x:r>
-            <x:rPr>
-              <x:sz val="12"/>
-              <x:color theme="1"/>
-              <x:rFont val="Calibri"/>
-              <x:family val="2"/>
-              <x:scheme val="minor"/>
-            </x:rPr>
-            <x:t xml:space="preserve"> Consider the degree to which information may need to be disaggregated. For example, Reveal may be more effective when applied to financial information on individual sections of an operation or to financial statements of components of a diversified entity, than when applied to the financial statements of the entity as a whole.]</x:t>
-          </x:r>
-        </x:is>
-      </x:c>
-      <x:c r="C17" s="88"/>
-      <x:c r="D17" s="88"/>
-      <x:c r="E17" s="88"/>
-      <x:c r="F17" s="88"/>
-      <x:c r="G17" s="88"/>
-      <x:c r="H17" s="88"/>
-      <x:c r="I17" s="89"/>
-      <x:c r="J17" s="2"/>
-    </x:row>
-    <x:row r="18" spans="1:10" ht="60" customHeight="1" thickBot="1">
-      <x:c r="A18" s="2"/>
-      <x:c r="B18" s="117" t="str">
-        <x:v>Comments:</x:v>
-      </x:c>
-      <x:c r="C18" s="118"/>
-      <x:c r="D18" s="28"/>
-      <x:c r="E18" s="28"/>
-      <x:c r="F18" s="28"/>
-      <x:c r="G18" s="28"/>
-      <x:c r="H18" s="28"/>
-      <x:c r="I18" s="29" t="str">
-        <x:v>See Data Model Sheet</x:v>
-      </x:c>
-      <x:c r="J18" s="2"/>
-    </x:row>
-    <x:row r="19" spans="1:10" ht="36" customHeight="1">
-      <x:c r="A19" s="2"/>
-      <x:c r="B19" s="119" t="str">
-        <x:v>b)  Describe the business relationship(s) between the test and predicting variable(s) and the appropriateness of the predicting relationship (including any special variables used, such as, seasonality, trend, and dummy variables).</x:v>
-      </x:c>
-      <x:c r="C19" s="120"/>
-      <x:c r="D19" s="120"/>
-      <x:c r="E19" s="120"/>
-      <x:c r="F19" s="120"/>
-      <x:c r="G19" s="120"/>
-      <x:c r="H19" s="120"/>
-      <x:c r="I19" s="121"/>
-      <x:c r="J19" s="2"/>
-    </x:row>
-    <x:row r="20" spans="1:10" ht="49" customHeight="1">
-      <x:c r="A20" s="2"/>
-      <x:c r="B20" s="87" t="inlineStr">
-        <x:is>
-          <x:r>
-            <x:rPr>
-              <x:b/>
-              <x:sz val="12"/>
-              <x:color theme="1"/>
-              <x:rFont val="Calibri"/>
-              <x:family val="2"/>
-              <x:scheme val="minor"/>
-            </x:rPr>
-            <x:t>[Note:</x:t>
-          </x:r>
-          <x:r>
-            <x:rPr>
-              <x:sz val="12"/>
-              <x:color theme="1"/>
-              <x:rFont val="Calibri"/>
-              <x:family val="2"/>
-              <x:scheme val="minor"/>
-            </x:rPr>
-            <x:t xml:space="preserve"> Consider the need to adjust data for the projection and/or base periods, as applicable, due to explained differences or operational changes in the business such as disposition of a product line or closing of a location. Test the adjustments.]</x:t>
-          </x:r>
-        </x:is>
-      </x:c>
-      <x:c r="C20" s="88"/>
-      <x:c r="D20" s="88"/>
-      <x:c r="E20" s="88"/>
-      <x:c r="F20" s="88"/>
-      <x:c r="G20" s="88"/>
-      <x:c r="H20" s="88"/>
-      <x:c r="I20" s="89"/>
-      <x:c r="J20" s="2"/>
-    </x:row>
-    <x:row r="21" spans="1:10" ht="60" customHeight="1" thickBot="1">
-      <x:c r="A21" s="2"/>
-      <x:c r="B21" s="117" t="str">
-        <x:v>Comments</x:v>
-      </x:c>
-      <x:c r="C21" s="118"/>
-      <x:c r="D21" s="28"/>
-      <x:c r="E21" s="28"/>
-      <x:c r="F21" s="28"/>
-      <x:c r="G21" s="28"/>
-      <x:c r="H21" s="28"/>
-      <x:c r="I21" s="29" t="str">
-        <x:v>See Data Model Sheet</x:v>
-      </x:c>
-      <x:c r="J21" s="2"/>
-    </x:row>
-    <x:row r="22" spans="1:10" ht="52" customHeight="1">
-      <x:c r="A22" s="2"/>
-      <x:c r="B22" s="119" t="str">
-        <x:v>c)  Document details of the source of data for test and predicting variables, including reconciliations to the general ledger in the case of internal accounting data, and the audit procedures applied to establish the completeness and accuracy of this data.</x:v>
-      </x:c>
-      <x:c r="C22" s="120"/>
-      <x:c r="D22" s="120"/>
-      <x:c r="E22" s="120"/>
-      <x:c r="F22" s="120"/>
-      <x:c r="G22" s="120"/>
-      <x:c r="H22" s="120"/>
-      <x:c r="I22" s="121"/>
-      <x:c r="J22" s="2"/>
-    </x:row>
-    <x:row r="23" spans="1:10" ht="60" customHeight="1" thickBot="1">
-      <x:c r="A23" s="2"/>
-      <x:c r="B23" s="117" t="str">
-        <x:v>Comments:</x:v>
-      </x:c>
-      <x:c r="C23" s="118"/>
-      <x:c r="D23" s="28"/>
-      <x:c r="E23" s="28"/>
-      <x:c r="F23" s="28"/>
-      <x:c r="G23" s="28"/>
-      <x:c r="H23" s="28"/>
-      <x:c r="I23" s="29" t="str">
-        <x:v>See Data Model Sheet</x:v>
-      </x:c>
-      <x:c r="J23" s="2"/>
-    </x:row>
-    <x:row r="24" spans="1:10">
-      <x:c r="A24" s="2"/>
-      <x:c r="B24" s="119" t="str">
-        <x:v>d)  Determine and document the rationale for the appropriate base and projection periods.</x:v>
-      </x:c>
-      <x:c r="C24" s="120"/>
-      <x:c r="D24" s="120"/>
-      <x:c r="E24" s="120"/>
-      <x:c r="F24" s="120"/>
-      <x:c r="G24" s="120"/>
-      <x:c r="H24" s="120"/>
-      <x:c r="I24" s="121"/>
-      <x:c r="J24" s="2"/>
-    </x:row>
-    <x:row r="25" spans="1:10" ht="35" customHeight="1">
-      <x:c r="A25" s="2"/>
-      <x:c r="B25" s="87" t="inlineStr">
-        <x:is>
-          <x:r>
-            <x:rPr>
-              <x:b/>
-              <x:sz val="12"/>
-              <x:color theme="1"/>
-              <x:rFont val="Calibri"/>
-              <x:family val="2"/>
-              <x:scheme val="minor"/>
-            </x:rPr>
-            <x:t>[Note:</x:t>
-          </x:r>
-          <x:r>
-            <x:rPr>
-              <x:sz val="12"/>
-              <x:color theme="1"/>
-              <x:rFont val="Calibri"/>
-              <x:family val="2"/>
-              <x:scheme val="minor"/>
-            </x:rPr>
-            <x:t xml:space="preserve"> Reveal ordinarily requires a minimum of 20 observations of base data, however if seasonality is selected then Reveal ordinarily requires 36 observations of base data.  Examples of acceptable base data periods would be:</x:t>
-          </x:r>
-        </x:is>
-      </x:c>
-      <x:c r="C25" s="88"/>
-      <x:c r="D25" s="88"/>
-      <x:c r="E25" s="88"/>
-      <x:c r="F25" s="88"/>
-      <x:c r="G25" s="88"/>
-      <x:c r="H25" s="88"/>
-      <x:c r="I25" s="89"/>
-      <x:c r="J25" s="2"/>
-    </x:row>
-    <x:row r="26" spans="1:10">
-      <x:c r="A26" s="2"/>
-      <x:c r="B26" s="87" t="str">
-        <x:v xml:space="preserve">·         In a quarterly model, five years (20 observations)</x:v>
-      </x:c>
-      <x:c r="C26" s="88"/>
-      <x:c r="D26" s="88"/>
-      <x:c r="E26" s="88"/>
-      <x:c r="F26" s="88"/>
-      <x:c r="G26" s="88"/>
-      <x:c r="H26" s="88"/>
-      <x:c r="I26" s="89"/>
-      <x:c r="J26" s="2"/>
-    </x:row>
-    <x:row r="27" spans="1:10" ht="16" customHeight="1">
-      <x:c r="A27" s="2"/>
-      <x:c r="B27" s="87" t="str">
-        <x:v xml:space="preserve">·         In a quarterly model, six years (24 observations)         </x:v>
-      </x:c>
-      <x:c r="C27" s="88"/>
-      <x:c r="D27" s="88"/>
-      <x:c r="E27" s="88"/>
-      <x:c r="F27" s="88"/>
-      <x:c r="G27" s="88"/>
-      <x:c r="H27" s="88"/>
-      <x:c r="I27" s="89"/>
-      <x:c r="J27" s="2"/>
-    </x:row>
-    <x:row r="28" spans="1:10">
-      <x:c r="A28" s="2"/>
-      <x:c r="B28" s="108" t="str">
-        <x:v xml:space="preserve">·         In a monthly model, 2 years (24 observations)         </x:v>
-      </x:c>
-      <x:c r="C28" s="109"/>
-      <x:c r="D28" s="109"/>
-      <x:c r="E28" s="109"/>
-      <x:c r="F28" s="109"/>
-      <x:c r="G28" s="109"/>
-      <x:c r="H28" s="109"/>
-      <x:c r="I28" s="110"/>
-      <x:c r="J28" s="2"/>
-    </x:row>
-    <x:row r="29" spans="1:10">
-      <x:c r="A29" s="2"/>
-      <x:c r="B29" s="108" t="str">
-        <x:v xml:space="preserve">·         In a monthly model, 3 years (36 observations)         </x:v>
-      </x:c>
-      <x:c r="C29" s="109"/>
-      <x:c r="D29" s="109"/>
-      <x:c r="E29" s="109"/>
-      <x:c r="F29" s="109"/>
-      <x:c r="G29" s="109"/>
-      <x:c r="H29" s="109"/>
-      <x:c r="I29" s="110"/>
-      <x:c r="J29" s="2"/>
-    </x:row>
-    <x:row r="30" spans="1:10">
-      <x:c r="A30" s="2"/>
-      <x:c r="B30" s="108" t="str">
-        <x:v xml:space="preserve">·         In a monthly model with seasonality selected, three years (36 observations)         </x:v>
-      </x:c>
-      <x:c r="C30" s="109"/>
-      <x:c r="D30" s="109"/>
-      <x:c r="E30" s="109"/>
-      <x:c r="F30" s="109"/>
-      <x:c r="G30" s="109"/>
-      <x:c r="H30" s="109"/>
-      <x:c r="I30" s="110"/>
-      <x:c r="J30" s="2"/>
-    </x:row>
-    <x:row r="31" spans="1:10">
-      <x:c r="A31" s="2"/>
-      <x:c r="B31" s="108" t="str">
-        <x:v xml:space="preserve">·         In a monthly model with seasonality selected, four years (48 observations)         </x:v>
-      </x:c>
-      <x:c r="C31" s="109"/>
-      <x:c r="D31" s="109"/>
-      <x:c r="E31" s="109"/>
-      <x:c r="F31" s="109"/>
-      <x:c r="G31" s="109"/>
-      <x:c r="H31" s="109"/>
-      <x:c r="I31" s="110"/>
-      <x:c r="J31" s="2"/>
-    </x:row>
-    <x:row r="32" spans="1:10">
-      <x:c r="A32" s="2"/>
-      <x:c r="B32" s="108" t="str">
-        <x:v xml:space="preserve">·         In a weekly model, 1 year (52 observations)         </x:v>
-      </x:c>
-      <x:c r="C32" s="109"/>
-      <x:c r="D32" s="109"/>
-      <x:c r="E32" s="109"/>
-      <x:c r="F32" s="109"/>
-      <x:c r="G32" s="109"/>
-      <x:c r="H32" s="109"/>
-      <x:c r="I32" s="110"/>
-      <x:c r="J32" s="2"/>
-    </x:row>
-    <x:row r="33" spans="1:10" ht="92" customHeight="1">
-      <x:c r="A33" s="2"/>
-      <x:c r="B33" s="108" t="str">
-        <x:v>In addition, in  typical time series applications (e.g., sales/cost of sales, payroll costs / number of employees) the base data ought to be previously audited data and the projection period contains the current audit period data, typically the current year.  Rolling current period data into the base period (e.g., on a quarterly basis) is not a good practice (e.g., the regression model can then be influenced by current period data which has not strictly speaking been audited until the end of the audit engagement).]</x:v>
-      </x:c>
-      <x:c r="C33" s="109"/>
-      <x:c r="D33" s="109"/>
-      <x:c r="E33" s="109"/>
-      <x:c r="F33" s="109"/>
-      <x:c r="G33" s="109"/>
-      <x:c r="H33" s="109"/>
-      <x:c r="I33" s="110"/>
-      <x:c r="J33" s="2"/>
-    </x:row>
-    <x:row r="34" spans="1:10" ht="60" customHeight="1" thickBot="1">
-      <x:c r="A34" s="2"/>
-      <x:c r="B34" s="117" t="str">
-        <x:v>Comments:</x:v>
-      </x:c>
-      <x:c r="C34" s="118"/>
-      <x:c r="D34" s="28"/>
-      <x:c r="E34" s="28"/>
-      <x:c r="F34" s="28"/>
-      <x:c r="G34" s="28"/>
-      <x:c r="H34" s="28"/>
-      <x:c r="I34" s="29" t="str">
-        <x:v>See Data Model Sheet</x:v>
-      </x:c>
-      <x:c r="J34" s="2"/>
-    </x:row>
-    <x:row r="35" spans="1:10" ht="24" customHeight="1" thickBot="1">
-      <x:c r="A35" s="2"/>
-      <x:c r="B35" s="2"/>
-      <x:c r="C35" s="2"/>
-      <x:c r="D35" s="2"/>
-      <x:c r="E35" s="2"/>
-      <x:c r="F35" s="2"/>
-      <x:c r="G35" s="2"/>
-      <x:c r="H35" s="2"/>
-      <x:c r="I35" s="2"/>
-      <x:c r="J35" s="2"/>
-    </x:row>
-    <x:row r="36" spans="1:10" ht="26">
-      <x:c r="A36" s="2"/>
-      <x:c r="B36" s="111" t="str">
-        <x:v>2 Regression Phase</x:v>
-      </x:c>
-      <x:c r="C36" s="112"/>
-      <x:c r="D36" s="112"/>
-      <x:c r="E36" s="112"/>
-      <x:c r="F36" s="112"/>
-      <x:c r="G36" s="112"/>
-      <x:c r="H36" s="112"/>
-      <x:c r="I36" s="113"/>
-      <x:c r="J36" s="2"/>
-    </x:row>
-    <x:row r="37" spans="1:10">
-      <x:c r="A37" s="2"/>
-      <x:c r="B37" s="119" t="str">
-        <x:v>a)  Check the input data on the Reveal report to determine that no errors occurred during data input. Consider:</x:v>
-      </x:c>
-      <x:c r="C37" s="120"/>
-      <x:c r="D37" s="120"/>
-      <x:c r="E37" s="120"/>
-      <x:c r="F37" s="120"/>
-      <x:c r="G37" s="120"/>
-      <x:c r="H37" s="120"/>
-      <x:c r="I37" s="121"/>
-      <x:c r="J37" s="2"/>
-    </x:row>
-    <x:row r="38" spans="1:10">
-      <x:c r="A38" s="2"/>
-      <x:c r="B38" s="108" t="str">
-        <x:v>i) Audit parameters (performance materiality, testing strategy)         </x:v>
-      </x:c>
-      <x:c r="C38" s="109"/>
-      <x:c r="D38" s="109"/>
-      <x:c r="E38" s="109"/>
-      <x:c r="F38" s="109"/>
-      <x:c r="G38" s="109"/>
-      <x:c r="H38" s="109"/>
-      <x:c r="I38" s="110"/>
-      <x:c r="J38" s="2"/>
-    </x:row>
-    <x:row r="39" spans="1:10" ht="35" customHeight="1">
-      <x:c r="A39" s="2"/>
-      <x:c r="B39" s="87" t="inlineStr">
-        <x:is>
-          <x:r>
-            <x:rPr>
-              <x:b/>
-              <x:sz val="12"/>
-              <x:color theme="1"/>
-              <x:rFont val="Calibri"/>
-              <x:family val="2"/>
-              <x:scheme val="minor"/>
-            </x:rPr>
-            <x:t>[Note:</x:t>
-          </x:r>
-          <x:r>
-            <x:rPr>
-              <x:sz val="12"/>
-              <x:color theme="1"/>
-              <x:rFont val="Calibri"/>
-              <x:family val="2"/>
-              <x:scheme val="minor"/>
-            </x:rPr>
-            <x:t xml:space="preserve"> Is performance materiality correct and specified in the same units as the test variable(s), for example, in thousands if the test variable is expressed in thousands?]</x:t>
-          </x:r>
-        </x:is>
-      </x:c>
-      <x:c r="C39" s="88"/>
-      <x:c r="D39" s="88"/>
-      <x:c r="E39" s="88"/>
-      <x:c r="F39" s="88"/>
-      <x:c r="G39" s="88"/>
-      <x:c r="H39" s="88"/>
-      <x:c r="I39" s="89"/>
-      <x:c r="J39" s="2"/>
-    </x:row>
-    <x:row r="40" spans="1:10">
-      <x:c r="A40" s="2"/>
-      <x:c r="B40" s="108" t="str">
-        <x:v>ii) Projection parameters (base/projection periods)         </x:v>
-      </x:c>
-      <x:c r="C40" s="109"/>
-      <x:c r="D40" s="109"/>
-      <x:c r="E40" s="109"/>
-      <x:c r="F40" s="109"/>
-      <x:c r="G40" s="109"/>
-      <x:c r="H40" s="109"/>
-      <x:c r="I40" s="110"/>
-      <x:c r="J40" s="2"/>
-    </x:row>
-    <x:row r="41" spans="1:10">
-      <x:c r="A41" s="2"/>
-      <x:c r="B41" s="108" t="str">
-        <x:v>iii) Observation data (test and predicting variables)           </x:v>
-      </x:c>
-      <x:c r="C41" s="109"/>
-      <x:c r="D41" s="109"/>
-      <x:c r="E41" s="109"/>
-      <x:c r="F41" s="109"/>
-      <x:c r="G41" s="109"/>
-      <x:c r="H41" s="109"/>
-      <x:c r="I41" s="110"/>
-      <x:c r="J41" s="2"/>
-    </x:row>
-    <x:row r="42" spans="1:10" ht="86" customHeight="1">
-      <x:c r="A42" s="2"/>
-      <x:c r="B42" s="87" t="inlineStr">
-        <x:is>
-          <x:r>
-            <x:rPr>
-              <x:b/>
-              <x:sz val="12"/>
-              <x:color theme="1"/>
-              <x:rFont val="Calibri"/>
-              <x:family val="2"/>
-              <x:scheme val="minor"/>
-            </x:rPr>
-            <x:t>[Note:</x:t>
-          </x:r>
-          <x:r>
-            <x:rPr>
-              <x:sz val="12"/>
-              <x:color theme="1"/>
-              <x:rFont val="Calibri"/>
-              <x:family val="2"/>
-              <x:scheme val="minor"/>
-            </x:rPr>
-            <x:t xml:space="preserve"> Check the sign of the input data as typically input data for Reveal is entered as positive amounts (e.g., in a sales/cost of sales Reveal application we typically would not enter sales as negative amounts and cost of sales as positive amounts or vice versa).  In addition consider whether the Reveal report needs to include decimals as on occasion the inclusion of decimals (as opposed to rounded numbers) can result in the Reveal reports being difficult to read.]         </x:t>
-          </x:r>
-        </x:is>
-      </x:c>
-      <x:c r="C42" s="88"/>
-      <x:c r="D42" s="88"/>
-      <x:c r="E42" s="88"/>
-      <x:c r="F42" s="88"/>
-      <x:c r="G42" s="88"/>
-      <x:c r="H42" s="88"/>
-      <x:c r="I42" s="89"/>
-      <x:c r="J42" s="2"/>
-    </x:row>
-    <x:row r="43" spans="1:10" ht="60" customHeight="1" thickBot="1">
-      <x:c r="A43" s="2"/>
-      <x:c r="B43" s="117" t="str">
-        <x:v>Comments:</x:v>
-      </x:c>
-      <x:c r="C43" s="118"/>
-      <x:c r="D43" s="28"/>
-      <x:c r="E43" s="28"/>
-      <x:c r="F43" s="28"/>
-      <x:c r="G43" s="28"/>
-      <x:c r="H43" s="28"/>
-      <x:c r="I43" s="29" t="str">
-        <x:v>See Data Model Sheet</x:v>
-      </x:c>
-      <x:c r="J43" s="2"/>
-    </x:row>
-    <x:row r="44" spans="1:10" ht="36" customHeight="1">
-      <x:c r="A44" s="2"/>
-      <x:c r="B44" s="119" t="str">
-        <x:v>b)  Review the regression equation to determine that it reflects the relationship anticipated in the application design.  Consider:</x:v>
-      </x:c>
-      <x:c r="C44" s="120"/>
-      <x:c r="D44" s="120"/>
-      <x:c r="E44" s="120"/>
-      <x:c r="F44" s="120"/>
-      <x:c r="G44" s="120"/>
-      <x:c r="H44" s="120"/>
-      <x:c r="I44" s="121"/>
-      <x:c r="J44" s="2"/>
-    </x:row>
-    <x:row r="45" spans="1:10" ht="51" customHeight="1">
-      <x:c r="A45" s="2"/>
-      <x:c r="B45" s="108" t="str">
-        <x:v>i) Omitted predicting variables (Omitted predicting variables will a) not appear in the “Variables Specified” section of the Reveal report, b) not appear in the regression formula in the Reveal report, and c) will have a “(-)” in the heading of that variable in the “Variables Used (+), Not Used (-)” section of the Reveal report]</x:v>
-      </x:c>
-      <x:c r="C45" s="109"/>
-      <x:c r="D45" s="109"/>
-      <x:c r="E45" s="109"/>
-      <x:c r="F45" s="109"/>
-      <x:c r="G45" s="109"/>
-      <x:c r="H45" s="109"/>
-      <x:c r="I45" s="110"/>
-      <x:c r="J45" s="2"/>
-    </x:row>
-    <x:row r="46" spans="1:10">
-      <x:c r="A46" s="2"/>
-      <x:c r="B46" s="108" t="str">
-        <x:v>ii) Coefficients of regression (value and sign)              </x:v>
-      </x:c>
-      <x:c r="C46" s="109"/>
-      <x:c r="D46" s="109"/>
-      <x:c r="E46" s="109"/>
-      <x:c r="F46" s="109"/>
-      <x:c r="G46" s="109"/>
-      <x:c r="H46" s="109"/>
-      <x:c r="I46" s="110"/>
-      <x:c r="J46" s="2"/>
-    </x:row>
-    <x:row r="47" spans="1:10">
-      <x:c r="A47" s="2"/>
-      <x:c r="B47" s="108" t="str">
-        <x:v>iii) Constant (size)</x:v>
-      </x:c>
-      <x:c r="C47" s="109"/>
-      <x:c r="D47" s="109"/>
-      <x:c r="E47" s="109"/>
-      <x:c r="F47" s="109"/>
-      <x:c r="G47" s="109"/>
-      <x:c r="H47" s="109"/>
-      <x:c r="I47" s="110"/>
-      <x:c r="J47" s="2"/>
-    </x:row>
-    <x:row r="48" spans="1:10">
-      <x:c r="A48" s="2"/>
-      <x:c r="B48" s="108" t="str">
-        <x:v>iv) Appropriateness of the use of Seasonality variable(s) (value and sign) and the use of the Trend variable (sign)</x:v>
-      </x:c>
-      <x:c r="C48" s="109"/>
-      <x:c r="D48" s="109"/>
-      <x:c r="E48" s="109"/>
-      <x:c r="F48" s="109"/>
-      <x:c r="G48" s="109"/>
-      <x:c r="H48" s="109"/>
-      <x:c r="I48" s="110"/>
-      <x:c r="J48" s="2"/>
-    </x:row>
-    <x:row r="49" spans="1:10" ht="60" customHeight="1" thickBot="1">
-      <x:c r="A49" s="2"/>
-      <x:c r="B49" s="117" t="str">
-        <x:v>Comments:</x:v>
-      </x:c>
-      <x:c r="C49" s="118"/>
-      <x:c r="D49" s="28"/>
-      <x:c r="E49" s="28"/>
-      <x:c r="F49" s="28"/>
-      <x:c r="G49" s="28"/>
-      <x:c r="H49" s="28"/>
-      <x:c r="I49" s="29" t="str">
-        <x:v>See Data Model Sheet</x:v>
-      </x:c>
-      <x:c r="J49" s="2"/>
-    </x:row>
-    <x:row r="50" spans="1:10" ht="41" customHeight="1">
-      <x:c r="A50" s="2"/>
-      <x:c r="B50" s="119" t="str">
-        <x:v>c)  Review the coefficient of correlation and determine if it is acceptable.  (A significant change in the coefficient of correlation over the prior year indicates that the relationship has changed and needs to be investigated.)</x:v>
-      </x:c>
-      <x:c r="C50" s="120"/>
-      <x:c r="D50" s="120"/>
-      <x:c r="E50" s="120"/>
-      <x:c r="F50" s="120"/>
-      <x:c r="G50" s="120"/>
-      <x:c r="H50" s="120"/>
-      <x:c r="I50" s="121"/>
-      <x:c r="J50" s="2"/>
-    </x:row>
-    <x:row r="51" spans="1:10" ht="60" customHeight="1" thickBot="1">
-      <x:c r="A51" s="2"/>
-      <x:c r="B51" s="117" t="str">
-        <x:v>Comments:</x:v>
-      </x:c>
-      <x:c r="C51" s="118"/>
-      <x:c r="D51" s="28"/>
-      <x:c r="E51" s="28"/>
-      <x:c r="F51" s="28"/>
-      <x:c r="G51" s="28"/>
-      <x:c r="H51" s="28"/>
-      <x:c r="I51" s="29" t="str">
-        <x:v>See Data Model Sheet</x:v>
-      </x:c>
-      <x:c r="J51" s="2"/>
-    </x:row>
-    <x:row r="52" spans="1:10">
-      <x:c r="A52" s="2"/>
-      <x:c r="B52" s="119" t="str">
-        <x:v>d)  Review any warning messages and determine if the model needs refining.</x:v>
-      </x:c>
-      <x:c r="C52" s="120"/>
-      <x:c r="D52" s="120"/>
-      <x:c r="E52" s="120"/>
-      <x:c r="F52" s="120"/>
-      <x:c r="G52" s="120"/>
-      <x:c r="H52" s="120"/>
-      <x:c r="I52" s="121"/>
-      <x:c r="J52" s="2"/>
-    </x:row>
-    <x:row r="53" spans="1:10" ht="60" customHeight="1" thickBot="1">
-      <x:c r="A53" s="2"/>
-      <x:c r="B53" s="117" t="str">
-        <x:v>Comments:</x:v>
-      </x:c>
-      <x:c r="C53" s="118"/>
-      <x:c r="D53" s="28"/>
-      <x:c r="E53" s="28"/>
-      <x:c r="F53" s="28"/>
-      <x:c r="G53" s="28"/>
-      <x:c r="H53" s="28"/>
-      <x:c r="I53" s="29" t="str">
-        <x:v>See Results Report Sheet</x:v>
-      </x:c>
-      <x:c r="J53" s="2"/>
-    </x:row>
-    <x:row r="54" spans="1:10" ht="41" customHeight="1">
-      <x:c r="A54" s="2"/>
-      <x:c r="B54" s="119" t="str">
-        <x:v>e)  Review the pattern and size of residuals (e.g., a predominance of residuals in one particular direction, a cyclical pattern, very large differences, or other patterns), and investigate any unusual trends.</x:v>
-      </x:c>
-      <x:c r="C54" s="120"/>
-      <x:c r="D54" s="120"/>
-      <x:c r="E54" s="120"/>
-      <x:c r="F54" s="120"/>
-      <x:c r="G54" s="120"/>
-      <x:c r="H54" s="120"/>
-      <x:c r="I54" s="121"/>
-      <x:c r="J54" s="2"/>
-    </x:row>
-    <x:row r="55" spans="1:10" ht="60" customHeight="1" thickBot="1">
-      <x:c r="A55" s="2"/>
-      <x:c r="B55" s="117" t="str">
-        <x:v>Comments:</x:v>
-      </x:c>
-      <x:c r="C55" s="118"/>
-      <x:c r="D55" s="28"/>
-      <x:c r="E55" s="28"/>
-      <x:c r="F55" s="28"/>
-      <x:c r="G55" s="28"/>
-      <x:c r="H55" s="28"/>
-      <x:c r="I55" s="29" t="str">
-        <x:v>See Results Report Sheet</x:v>
-      </x:c>
-      <x:c r="J55" s="2"/>
-    </x:row>
-    <x:row r="56" spans="1:10" ht="57" customHeight="1">
-      <x:c r="A56" s="2"/>
-      <x:c r="B56" s="119" t="str">
-        <x:v>f)  Based on the results of your review of the regression statistics and residuals, consider whether the model needs refining (e.g., by adding another predicting variable to further explain the relationship, disaggregating or correcting the data).</x:v>
-      </x:c>
-      <x:c r="C56" s="120"/>
-      <x:c r="D56" s="120"/>
-      <x:c r="E56" s="120"/>
-      <x:c r="F56" s="120"/>
-      <x:c r="G56" s="120"/>
-      <x:c r="H56" s="120"/>
-      <x:c r="I56" s="121"/>
-      <x:c r="J56" s="2"/>
-    </x:row>
-    <x:row r="57" spans="1:10" ht="60" customHeight="1" thickBot="1">
-      <x:c r="A57" s="2"/>
-      <x:c r="B57" s="117" t="str">
-        <x:v>Comments</x:v>
-      </x:c>
-      <x:c r="C57" s="118"/>
-      <x:c r="D57" s="28"/>
-      <x:c r="E57" s="28"/>
-      <x:c r="F57" s="28"/>
-      <x:c r="G57" s="28"/>
-      <x:c r="H57" s="28"/>
-      <x:c r="I57" s="29" t="str">
-        <x:v>See Data Model Sheet</x:v>
-      </x:c>
-      <x:c r="J57" s="2"/>
-    </x:row>
-    <x:row r="58" spans="1:10" ht="24" customHeight="1" thickBot="1">
-      <x:c r="A58" s="2"/>
-      <x:c r="B58" s="2"/>
-      <x:c r="C58" s="2"/>
-      <x:c r="D58" s="2"/>
-      <x:c r="E58" s="2"/>
-      <x:c r="F58" s="2"/>
-      <x:c r="G58" s="2"/>
-      <x:c r="H58" s="2"/>
-      <x:c r="I58" s="2"/>
-      <x:c r="J58" s="2"/>
-    </x:row>
-    <x:row r="59" spans="1:10" ht="26">
-      <x:c r="A59" s="2"/>
-      <x:c r="B59" s="111" t="str">
-        <x:v>3 Audit Phase</x:v>
-      </x:c>
-      <x:c r="C59" s="112"/>
-      <x:c r="D59" s="112"/>
-      <x:c r="E59" s="112"/>
-      <x:c r="F59" s="112"/>
-      <x:c r="G59" s="112"/>
-      <x:c r="H59" s="112"/>
-      <x:c r="I59" s="113"/>
-      <x:c r="J59" s="2"/>
-    </x:row>
-    <x:row r="60" spans="1:10" ht="84" customHeight="1">
-      <x:c r="A60" s="2"/>
-      <x:c r="B60" s="119" t="str">
-        <x:v>a)  Investigate all excesses (differences in excess of the threshold) and obtain appropriate audit evidence related to these excesses or perform alternative substantive procedures to address the significant differences identified. If significant differences identified by Reveal cannot be explained, we may reconsider the design of the Reveal application and whether the application as a whole has credibility before we perform tests of detail for portions of the balance containing unexplained differences.</x:v>
-      </x:c>
-      <x:c r="C60" s="120"/>
-      <x:c r="D60" s="120"/>
-      <x:c r="E60" s="120"/>
-      <x:c r="F60" s="120"/>
-      <x:c r="G60" s="120"/>
-      <x:c r="H60" s="120"/>
-      <x:c r="I60" s="121"/>
-      <x:c r="J60" s="2"/>
-    </x:row>
-    <x:row r="61" spans="1:10" ht="60" customHeight="1" thickBot="1">
-      <x:c r="A61" s="2"/>
-      <x:c r="B61" s="117" t="str">
-        <x:v>Comments:</x:v>
-      </x:c>
-      <x:c r="C61" s="118"/>
-      <x:c r="D61" s="28"/>
-      <x:c r="E61" s="28"/>
-      <x:c r="F61" s="28"/>
-      <x:c r="G61" s="28"/>
-      <x:c r="H61" s="28"/>
-      <x:c r="I61" s="29" t="str">
-        <x:v>See Results Report Sheet</x:v>
-      </x:c>
-      <x:c r="J61" s="2"/>
-    </x:row>
-    <x:row r="62" spans="1:10" ht="36" customHeight="1">
-      <x:c r="A62" s="2"/>
-      <x:c r="B62" s="119" t="str">
-        <x:v>b)  Consider whether there are unusual patterns in the residuals to investigate (e.g., residuals tend strongly in one direction and are close to the individual thresholds, and their sum is multiples of performance materiality)</x:v>
-      </x:c>
-      <x:c r="C62" s="120"/>
-      <x:c r="D62" s="120"/>
-      <x:c r="E62" s="120"/>
-      <x:c r="F62" s="120"/>
-      <x:c r="G62" s="120"/>
-      <x:c r="H62" s="120"/>
-      <x:c r="I62" s="121"/>
-      <x:c r="J62" s="2"/>
-    </x:row>
-    <x:row r="63" spans="1:10" ht="60" customHeight="1" thickBot="1">
-      <x:c r="A63" s="2"/>
-      <x:c r="B63" s="117" t="str">
-        <x:v>Comments</x:v>
-      </x:c>
-      <x:c r="C63" s="118"/>
-      <x:c r="D63" s="28"/>
-      <x:c r="E63" s="28"/>
-      <x:c r="F63" s="28"/>
-      <x:c r="G63" s="28"/>
-      <x:c r="H63" s="28"/>
-      <x:c r="I63" s="29" t="str">
-        <x:v>See Results Report Sheet</x:v>
-      </x:c>
-      <x:c r="J63" s="2"/>
-    </x:row>
-    <x:row r="64" spans="1:10" ht="36" customHeight="1">
-      <x:c r="A64" s="2"/>
-      <x:c r="B64" s="119" t="str">
-        <x:v>c)  Consider re-running the application after adjusting base or projection data for any significant errors or events discovered during our audit procedures.  </x:v>
-      </x:c>
-      <x:c r="C64" s="120"/>
-      <x:c r="D64" s="120"/>
-      <x:c r="E64" s="120"/>
-      <x:c r="F64" s="120"/>
-      <x:c r="G64" s="120"/>
-      <x:c r="H64" s="120"/>
-      <x:c r="I64" s="121"/>
-      <x:c r="J64" s="2"/>
-    </x:row>
-    <x:row r="65" spans="1:10" ht="49" customHeight="1">
-      <x:c r="A65" s="2"/>
-      <x:c r="B65" s="87" t="inlineStr">
-        <x:is>
-          <x:r>
-            <x:rPr>
-              <x:b/>
-              <x:sz val="12"/>
-              <x:color theme="1"/>
-              <x:rFont val="Calibri"/>
-              <x:family val="2"/>
-              <x:scheme val="minor"/>
-            </x:rPr>
-            <x:t>[Note:</x:t>
-          </x:r>
-          <x:r>
-            <x:rPr>
-              <x:sz val="12"/>
-              <x:color theme="1"/>
-              <x:rFont val="Calibri"/>
-              <x:family val="2"/>
-              <x:scheme val="minor"/>
-            </x:rPr>
-            <x:t xml:space="preserve"> Uncorrected errors or discontinuity in the projection data will fall within the base period data in future years and may cause problems in running the application in subsequent years.  To avoid this, errors and discontinuity need to be investigated and, if possible, corrected in the current year.]</x:t>
-          </x:r>
-        </x:is>
-      </x:c>
-      <x:c r="C65" s="88"/>
-      <x:c r="D65" s="88"/>
-      <x:c r="E65" s="88"/>
-      <x:c r="F65" s="88"/>
-      <x:c r="G65" s="88"/>
-      <x:c r="H65" s="88"/>
-      <x:c r="I65" s="89"/>
-      <x:c r="J65" s="2"/>
-    </x:row>
-    <x:row r="66" spans="1:10" ht="60" customHeight="1" thickBot="1">
-      <x:c r="A66" s="2"/>
-      <x:c r="B66" s="117" t="str">
-        <x:v>Comments:</x:v>
-      </x:c>
-      <x:c r="C66" s="118"/>
-      <x:c r="D66" s="28"/>
-      <x:c r="E66" s="28"/>
-      <x:c r="F66" s="28"/>
-      <x:c r="G66" s="28"/>
-      <x:c r="H66" s="28"/>
-      <x:c r="I66" s="29" t="str">
-        <x:v>See Results Report Sheet</x:v>
-      </x:c>
-      <x:c r="J66" s="2"/>
-    </x:row>
-    <x:row r="67" spans="1:10" ht="36" customHeight="1">
-      <x:c r="A67" s="2"/>
-      <x:c r="B67" s="119" t="str">
-        <x:v>d)  Document any misstatements identified and how they were investigated.  Transfer misstatements to the applicable Form 2340 "Evaluation of Misstatements " or equivalent documentation. </x:v>
-      </x:c>
-      <x:c r="C67" s="120"/>
-      <x:c r="D67" s="120"/>
-      <x:c r="E67" s="120"/>
-      <x:c r="F67" s="120"/>
-      <x:c r="G67" s="120"/>
-      <x:c r="H67" s="120"/>
-      <x:c r="I67" s="121"/>
-      <x:c r="J67" s="2"/>
-    </x:row>
-    <x:row r="68" spans="1:10" ht="60" customHeight="1" thickBot="1">
-      <x:c r="A68" s="2"/>
-      <x:c r="B68" s="117" t="str">
-        <x:v>Comments:</x:v>
-      </x:c>
-      <x:c r="C68" s="118"/>
-      <x:c r="D68" s="28"/>
-      <x:c r="E68" s="28"/>
-      <x:c r="F68" s="28"/>
-      <x:c r="G68" s="28"/>
-      <x:c r="H68" s="28"/>
-      <x:c r="I68" s="29"/>
-      <x:c r="J68" s="2"/>
-    </x:row>
-    <x:row r="69" spans="1:10">
-      <x:c r="A69" s="2"/>
-      <x:c r="B69" s="119" t="str">
-        <x:v>e)  Evaluate the results of the test.</x:v>
-      </x:c>
-      <x:c r="C69" s="120"/>
-      <x:c r="D69" s="120"/>
-      <x:c r="E69" s="120"/>
-      <x:c r="F69" s="120"/>
-      <x:c r="G69" s="120"/>
-      <x:c r="H69" s="120"/>
-      <x:c r="I69" s="121"/>
-      <x:c r="J69" s="2"/>
-    </x:row>
-    <x:row r="70" spans="1:10" ht="60" customHeight="1" thickBot="1">
-      <x:c r="A70" s="2"/>
-      <x:c r="B70" s="117" t="str">
-        <x:v>Comments:</x:v>
-      </x:c>
-      <x:c r="C70" s="118"/>
-      <x:c r="D70" s="28"/>
-      <x:c r="E70" s="28"/>
-      <x:c r="F70" s="28"/>
-      <x:c r="G70" s="28"/>
-      <x:c r="H70" s="28"/>
-      <x:c r="I70" s="29" t="str">
-        <x:v>See Results Report Sheet</x:v>
-      </x:c>
-      <x:c r="J70" s="2"/>
-    </x:row>
-    <x:row r="71" spans="1:10" ht="24" customHeight="1" thickBot="1">
-      <x:c r="A71" s="2"/>
-      <x:c r="B71" s="2"/>
-      <x:c r="C71" s="2"/>
-      <x:c r="D71" s="2"/>
-      <x:c r="E71" s="2"/>
-      <x:c r="F71" s="2"/>
-      <x:c r="G71" s="2"/>
-      <x:c r="H71" s="2"/>
-      <x:c r="I71" s="2"/>
-      <x:c r="J71" s="2"/>
-    </x:row>
-    <x:row r="72" spans="1:10" ht="26">
-      <x:c r="A72" s="2"/>
-      <x:c r="B72" s="111" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C72" s="112"/>
-      <x:c r="D72" s="112"/>
-      <x:c r="E72" s="112"/>
-      <x:c r="F72" s="112"/>
-      <x:c r="G72" s="112"/>
-      <x:c r="H72" s="112"/>
-      <x:c r="I72" s="113"/>
-      <x:c r="J72" s="2"/>
-    </x:row>
-    <x:row r="73" spans="1:10" ht="53" customHeight="1">
-      <x:c r="A73" s="2"/>
-      <x:c r="B73" s="119" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C73" s="120"/>
-      <x:c r="D73" s="120"/>
-      <x:c r="E73" s="120"/>
-      <x:c r="F73" s="120"/>
-      <x:c r="G73" s="120"/>
-      <x:c r="H73" s="120"/>
-      <x:c r="I73" s="121"/>
-      <x:c r="J73" s="2"/>
-    </x:row>
-    <x:row r="74" spans="1:10" ht="60" customHeight="1" thickBot="1">
-      <x:c r="A74" s="2"/>
-      <x:c r="B74" s="117" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C74" s="118"/>
-      <x:c r="D74" s="28"/>
-      <x:c r="E74" s="28"/>
-      <x:c r="F74" s="28"/>
-      <x:c r="G74" s="28"/>
-      <x:c r="H74" s="28"/>
-      <x:c r="I74" s="29" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J74" s="2"/>
-    </x:row>
-    <x:row r="75" spans="1:10">
-      <x:c r="A75" s="2"/>
-      <x:c r="B75" s="2"/>
-      <x:c r="C75" s="2"/>
-      <x:c r="D75" s="2"/>
-      <x:c r="E75" s="2"/>
-      <x:c r="F75" s="2"/>
-      <x:c r="G75" s="2"/>
-      <x:c r="H75" s="2"/>
-      <x:c r="I75" s="2"/>
-      <x:c r="J75" s="2"/>
-    </x:row>
-    <x:row r="76" spans="1:10">
-      <x:c r="A76" s="2"/>
-      <x:c r="B76" s="2"/>
-      <x:c r="C76" s="2"/>
-      <x:c r="D76" s="2"/>
-      <x:c r="E76" s="2"/>
-      <x:c r="F76" s="2"/>
-      <x:c r="G76" s="2"/>
-      <x:c r="H76" s="2"/>
-      <x:c r="I76" s="2"/>
-      <x:c r="J76" s="2"/>
-    </x:row>
-    <x:row r="77" spans="1:10">
-      <x:c r="A77" s="2"/>
-      <x:c r="B77" s="2"/>
-      <x:c r="C77" s="2"/>
-      <x:c r="D77" s="2"/>
-      <x:c r="E77" s="2"/>
-      <x:c r="F77" s="2"/>
-      <x:c r="G77" s="2"/>
-      <x:c r="H77" s="2"/>
-      <x:c r="I77" s="2"/>
-      <x:c r="J77" s="2"/>
-    </x:row>
-    <x:row r="78" spans="1:10">
-      <x:c r="A78" s="2"/>
-      <x:c r="B78" s="2"/>
-      <x:c r="C78" s="2"/>
-      <x:c r="D78" s="2"/>
-      <x:c r="E78" s="2"/>
-      <x:c r="F78" s="2"/>
-      <x:c r="G78" s="2"/>
-      <x:c r="H78" s="2"/>
-      <x:c r="I78" s="2"/>
-      <x:c r="J78" s="2"/>
-    </x:row>
-  </x:sheetData>
-  <x:mergeCells count="64">
-    <x:mergeCell ref="B74:C74"/>
-    <x:mergeCell ref="B67:I67"/>
-    <x:mergeCell ref="B68:C68"/>
-    <x:mergeCell ref="B69:I69"/>
-    <x:mergeCell ref="B70:C70"/>
-    <x:mergeCell ref="B72:I72"/>
-    <x:mergeCell ref="B73:I73"/>
-    <x:mergeCell ref="B62:I62"/>
-    <x:mergeCell ref="B63:C63"/>
-    <x:mergeCell ref="B64:I64"/>
-    <x:mergeCell ref="B65:I65"/>
-    <x:mergeCell ref="B66:C66"/>
-    <x:mergeCell ref="B56:I56"/>
-    <x:mergeCell ref="B57:C57"/>
-    <x:mergeCell ref="B59:I59"/>
-    <x:mergeCell ref="B60:I60"/>
-    <x:mergeCell ref="B61:C61"/>
-    <x:mergeCell ref="B55:C55"/>
-    <x:mergeCell ref="B38:I38"/>
-    <x:mergeCell ref="B41:I41"/>
-    <x:mergeCell ref="B40:I40"/>
-    <x:mergeCell ref="B42:I42"/>
-    <x:mergeCell ref="B45:I45"/>
-    <x:mergeCell ref="B47:I47"/>
-    <x:mergeCell ref="B46:I46"/>
-    <x:mergeCell ref="B53:C53"/>
-    <x:mergeCell ref="B52:I52"/>
-    <x:mergeCell ref="B54:I54"/>
-    <x:mergeCell ref="B50:I50"/>
-    <x:mergeCell ref="B51:C51"/>
-    <x:mergeCell ref="B49:C49"/>
-    <x:mergeCell ref="B37:I37"/>
-    <x:mergeCell ref="B39:I39"/>
-    <x:mergeCell ref="B43:C43"/>
-    <x:mergeCell ref="B44:I44"/>
-    <x:mergeCell ref="B48:I48"/>
-    <x:mergeCell ref="B26:I26"/>
-    <x:mergeCell ref="B30:I30"/>
-    <x:mergeCell ref="B29:I29"/>
-    <x:mergeCell ref="B28:I28"/>
-    <x:mergeCell ref="B27:I27"/>
-    <x:mergeCell ref="B31:I31"/>
-    <x:mergeCell ref="B33:I33"/>
-    <x:mergeCell ref="B36:I36"/>
-    <x:mergeCell ref="E8:I8"/>
-    <x:mergeCell ref="B23:C23"/>
-    <x:mergeCell ref="B16:I16"/>
-    <x:mergeCell ref="B17:I17"/>
-    <x:mergeCell ref="B18:C18"/>
-    <x:mergeCell ref="B15:I15"/>
-    <x:mergeCell ref="B22:I22"/>
-    <x:mergeCell ref="B19:I19"/>
-    <x:mergeCell ref="B20:I20"/>
-    <x:mergeCell ref="B21:C21"/>
-    <x:mergeCell ref="B24:I24"/>
-    <x:mergeCell ref="B32:I32"/>
-    <x:mergeCell ref="B34:C34"/>
-    <x:mergeCell ref="B25:I25"/>
-    <x:mergeCell ref="B10:I12"/>
-    <x:mergeCell ref="B5:D5"/>
-    <x:mergeCell ref="B6:D6"/>
-    <x:mergeCell ref="B7:D7"/>
-    <x:mergeCell ref="B8:D8"/>
-    <x:mergeCell ref="E5:I5"/>
-  </x:mergeCells>
-  <x:phoneticPr fontId="3" type="noConversion"/>
-  <x:hyperlinks>
-    <x:hyperlink ref="I23" location="'Data Model2'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I18" location="'Data Model2'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I21" location="'Data Model2'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I34" location="'Data Model2'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I51" location="'Data Model2'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I43" location="'Data Model2'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I49" location="'Data Model2'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I53" location="'Results Report2'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I57" location="'Data Model2'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I55" location="'Results Report2'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I61" location="'Results Report2'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I63" location="'Results Report2'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I66" location="'Results Report2'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I70" location="'Results Report2'!A1" display="See Data Model Sheet"/>
-    <x:hyperlink ref="I74" location="'Data Model2'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I23" location="'Data Model'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I18" location="'Data Model'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I21" location="'Data Model'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I34" location="'Data Model'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I51" location="'Data Model'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I43" location="'Data Model'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I49" location="'Data Model'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I53" location="'Results Report'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I57" location="'Data Model'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I55" location="'Results Report'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I61" location="'Results Report'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I63" location="'Results Report'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I66" location="'Results Report'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I70" location="'Results Report'!A1" display="See Data Model Sheet"/>
+    <x:hyperlink ref="I74" location="'Data Model'!A1" display="See Data Model Sheet"/>
   </x:hyperlinks>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup scale="76" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Sandbox.OpenXML/DStarExport.xlsx
+++ b/Sandbox.OpenXML/DStarExport.xlsx
@@ -3888,14 +3888,14 @@
     </x:row>
     <x:row r="5" spans="1:9" ht="26.5" thickTop="1">
       <x:c r="A5" s="2"/>
-      <x:c r="B5" s="126" t="s">
-        <x:v>79</x:v>
+      <x:c r="B5" s="126" t="str">
+        <x:v>Model Parameters</x:v>
       </x:c>
       <x:c r="C5" s="127"/>
       <x:c r="D5" s="128"/>
       <x:c r="E5" s="31"/>
-      <x:c r="F5" s="126" t="s">
-        <x:v>80</x:v>
+      <x:c r="F5" s="126" t="str">
+        <x:v>Application Type</x:v>
       </x:c>
       <x:c r="G5" s="127"/>
       <x:c r="H5" s="128"/>
@@ -3914,35 +3914,35 @@
     </x:row>
     <x:row r="7" spans="1:9" ht="21">
       <x:c r="A7" s="2"/>
-      <x:c r="B7" s="124" t="s">
-        <x:v>81</x:v>
+      <x:c r="B7" s="124" t="str">
+        <x:v>Test Y Variable:</x:v>
       </x:c>
       <x:c r="C7" s="125"/>
-      <x:c r="D7" s="59" t="s">
-        <x:v>83</x:v>
+      <x:c r="D7" s="59" t="str">
+        <x:v>Sales Passengers</x:v>
       </x:c>
       <x:c r="E7" s="33"/>
-      <x:c r="F7" s="36" t="s">
-        <x:v>85</x:v>
+      <x:c r="F7" s="36" t="str">
+        <x:v>Data Profile</x:v>
       </x:c>
       <x:c r="G7" s="36"/>
-      <x:c r="H7" s="42" t="s">
-        <x:v>87</x:v>
+      <x:c r="H7" s="42" t="str">
+        <x:v>Time Series</x:v>
       </x:c>
       <x:c r="I7" s="2"/>
     </x:row>
     <x:row r="8" spans="1:9" ht="21">
       <x:c r="A8" s="2"/>
-      <x:c r="B8" s="124" t="s">
-        <x:v>82</x:v>
+      <x:c r="B8" s="124" t="str">
+        <x:v>Predicting X Variable:</x:v>
       </x:c>
       <x:c r="C8" s="125"/>
-      <x:c r="D8" s="59" t="s">
-        <x:v>84</x:v>
+      <x:c r="D8" s="59" t="str">
+        <x:v>COS Passengers</x:v>
       </x:c>
       <x:c r="E8" s="34"/>
-      <x:c r="F8" s="36" t="s">
-        <x:v>86</x:v>
+      <x:c r="F8" s="36" t="str">
+        <x:v>Periods Per Yea</x:v>
       </x:c>
       <x:c r="G8" s="37"/>
       <x:c r="H8" s="51">
@@ -3952,12 +3952,12 @@
     </x:row>
     <x:row r="9" spans="1:9" ht="21">
       <x:c r="A9" s="2"/>
-      <x:c r="B9" s="39" t="s">
-        <x:v>121</x:v>
+      <x:c r="B9" s="39" t="str">
+        <x:v>Forced Variables:</x:v>
       </x:c>
       <x:c r="C9" s="36"/>
-      <x:c r="D9" s="59" t="s">
-        <x:v>84</x:v>
+      <x:c r="D9" s="59" t="str">
+        <x:v>COS Passengers</x:v>
       </x:c>
       <x:c r="E9" s="34"/>
       <x:c r="F9" s="36"/>
@@ -3989,14 +3989,14 @@
     </x:row>
     <x:row r="12" spans="1:9" ht="26.5" thickTop="1">
       <x:c r="A12" s="2"/>
-      <x:c r="B12" s="126" t="s">
-        <x:v>88</x:v>
+      <x:c r="B12" s="126" t="str">
+        <x:v>Observations Parameters</x:v>
       </x:c>
       <x:c r="C12" s="127"/>
       <x:c r="D12" s="128"/>
       <x:c r="E12" s="31"/>
-      <x:c r="F12" s="126" t="s">
-        <x:v>89</x:v>
+      <x:c r="F12" s="126" t="str">
+        <x:v>Projection Parameters</x:v>
       </x:c>
       <x:c r="G12" s="127"/>
       <x:c r="H12" s="128"/>
@@ -4015,35 +4015,35 @@
     </x:row>
     <x:row r="14" spans="1:9" ht="40" customHeight="1">
       <x:c r="A14" s="2"/>
-      <x:c r="B14" s="122" t="s">
-        <x:v>90</x:v>
+      <x:c r="B14" s="122" t="str">
+        <x:v>Total Number of Base Observations:</x:v>
       </x:c>
       <x:c r="C14" s="123"/>
       <x:c r="D14" s="58">
         <x:v>24</x:v>
       </x:c>
       <x:c r="E14" s="33"/>
-      <x:c r="F14" s="36" t="s">
-        <x:v>93</x:v>
+      <x:c r="F14" s="36" t="str">
+        <x:v>Type of Projection:</x:v>
       </x:c>
       <x:c r="G14" s="36"/>
-      <x:c r="H14" s="42" t="s">
-        <x:v>94</x:v>
+      <x:c r="H14" s="42" t="str">
+        <x:v>Audit</x:v>
       </x:c>
       <x:c r="I14" s="2"/>
     </x:row>
     <x:row r="15" spans="1:9" ht="36.5" customHeight="1">
       <x:c r="A15" s="2"/>
-      <x:c r="B15" s="122" t="s">
-        <x:v>91</x:v>
+      <x:c r="B15" s="122" t="str">
+        <x:v>Number of Projected Observations:</x:v>
       </x:c>
       <x:c r="C15" s="123"/>
       <x:c r="D15" s="58">
         <x:v>12</x:v>
       </x:c>
       <x:c r="E15" s="34"/>
-      <x:c r="F15" s="36" t="s">
-        <x:v>95</x:v>
+      <x:c r="F15" s="36" t="str">
+        <x:v>Performance Materiality:</x:v>
       </x:c>
       <x:c r="G15" s="37"/>
       <x:c r="H15" s="42">
@@ -4053,20 +4053,20 @@
     </x:row>
     <x:row r="16" spans="1:9" ht="31" customHeight="1">
       <x:c r="A16" s="2"/>
-      <x:c r="B16" s="124" t="s">
-        <x:v>92</x:v>
+      <x:c r="B16" s="124" t="str">
+        <x:v>Total Nmber of Observations:</x:v>
       </x:c>
       <x:c r="C16" s="125"/>
       <x:c r="D16" s="58">
         <x:v>36</x:v>
       </x:c>
       <x:c r="E16" s="34"/>
-      <x:c r="F16" s="36" t="s">
-        <x:v>96</x:v>
+      <x:c r="F16" s="36" t="str">
+        <x:v>Inherent Risk:</x:v>
       </x:c>
       <x:c r="G16" s="37"/>
-      <x:c r="H16" s="42" t="s">
-        <x:v>98</x:v>
+      <x:c r="H16" s="42" t="str">
+        <x:v>Significant</x:v>
       </x:c>
       <x:c r="I16" s="2"/>
     </x:row>
@@ -4076,12 +4076,12 @@
       <x:c r="C17" s="23"/>
       <x:c r="D17" s="23"/>
       <x:c r="E17" s="34"/>
-      <x:c r="F17" s="36" t="s">
-        <x:v>97</x:v>
+      <x:c r="F17" s="36" t="str">
+        <x:v>Controls Reliance Strategy:</x:v>
       </x:c>
       <x:c r="G17" s="37"/>
-      <x:c r="H17" s="42" t="s">
-        <x:v>99</x:v>
+      <x:c r="H17" s="42" t="str">
+        <x:v>Relying</x:v>
       </x:c>
       <x:c r="I17" s="2"/>
     </x:row>
@@ -4109,8 +4109,8 @@
     </x:row>
     <x:row r="20" spans="1:9" ht="19" thickTop="1">
       <x:c r="A20" s="2"/>
-      <x:c r="B20" s="126" t="s">
-        <x:v>100</x:v>
+      <x:c r="B20" s="126" t="str">
+        <x:v>Stepwise Multiple Regression Model</x:v>
       </x:c>
       <x:c r="C20" s="127"/>
       <x:c r="D20" s="127"/>
@@ -4133,8 +4133,8 @@
     </x:row>
     <x:row r="22" spans="1:9" ht="18.5">
       <x:c r="A22" s="2"/>
-      <x:c r="B22" s="124" t="s">
-        <x:v>101</x:v>
+      <x:c r="B22" s="124" t="str">
+        <x:v>Expectation of Test Variable Y for Observation t is</x:v>
       </x:c>
       <x:c r="C22" s="125"/>
       <x:c r="D22" s="125"/>
@@ -4146,8 +4146,8 @@
     </x:row>
     <x:row r="23" spans="1:9" ht="18.5">
       <x:c r="A23" s="2"/>
-      <x:c r="B23" s="124" t="s">
-        <x:v>102</x:v>
+      <x:c r="B23" s="124" t="str">
+        <x:v>Ŷt = 2,265.11 + 1.1106*X1(t)</x:v>
       </x:c>
       <x:c r="C23" s="125"/>
       <x:c r="D23" s="125"/>
@@ -4181,14 +4181,14 @@
     </x:row>
     <x:row r="26" spans="1:9" ht="26.5" thickTop="1">
       <x:c r="A26" s="2"/>
-      <x:c r="B26" s="126" t="s">
-        <x:v>103</x:v>
+      <x:c r="B26" s="126" t="str">
+        <x:v>Input Data</x:v>
       </x:c>
       <x:c r="C26" s="127"/>
       <x:c r="D26" s="128"/>
       <x:c r="E26" s="31"/>
-      <x:c r="F26" s="126" t="s">
-        <x:v>104</x:v>
+      <x:c r="F26" s="126" t="str">
+        <x:v>Regression Function</x:v>
       </x:c>
       <x:c r="G26" s="127"/>
       <x:c r="H26" s="128"/>
@@ -4208,19 +4208,19 @@
     <x:row r="28" spans="1:9" ht="37">
       <x:c r="A28" s="2"/>
       <x:c r="B28" s="39"/>
-      <x:c r="C28" s="36" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D28" s="48" t="s">
-        <x:v>106</x:v>
+      <x:c r="C28" s="36" t="str">
+        <x:v>Mean</x:v>
+      </x:c>
+      <x:c r="D28" s="48" t="str">
+        <x:v>Standard Deviation</x:v>
       </x:c>
       <x:c r="E28" s="33"/>
       <x:c r="F28" s="36"/>
-      <x:c r="G28" s="49" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="H28" s="50" t="s">
-        <x:v>109</x:v>
+      <x:c r="G28" s="49" t="str">
+        <x:v>Constant or Coefficient</x:v>
+      </x:c>
+      <x:c r="H28" s="50" t="str">
+        <x:v>Standard Error</x:v>
       </x:c>
       <x:c r="I28" s="2"/>
     </x:row>
@@ -4230,8 +4230,8 @@
       <x:c r="C29" s="44"/>
       <x:c r="D29" s="44"/>
       <x:c r="E29" s="34"/>
-      <x:c r="F29" s="36" t="s">
-        <x:v>110</x:v>
+      <x:c r="F29" s="36" t="str">
+        <x:v>Constant</x:v>
       </x:c>
       <x:c r="G29" s="36">
         <x:v>2265.11</x:v>
@@ -4241,8 +4241,8 @@
     </x:row>
     <x:row r="30" spans="1:9" ht="21">
       <x:c r="A30" s="2"/>
-      <x:c r="B30" s="39" t="s">
-        <x:v>84</x:v>
+      <x:c r="B30" s="39" t="str">
+        <x:v>COS Passengers</x:v>
       </x:c>
       <x:c r="C30" s="44">
         <x:v>14519.54</x:v>
@@ -4251,11 +4251,11 @@
         <x:v>1735.18</x:v>
       </x:c>
       <x:c r="E30" s="34"/>
-      <x:c r="F30" s="36" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="G30" s="36" t="s">
-        <x:v>122</x:v>
+      <x:c r="F30" s="36" t="str">
+        <x:v>COS Passengers</x:v>
+      </x:c>
+      <x:c r="G30" s="36" t="str">
+        <x:v>1.1106 &amp;X1t</x:v>
       </x:c>
       <x:c r="H30" s="51">
         <x:v>0.1047</x:v>
@@ -4264,8 +4264,8 @@
     </x:row>
     <x:row r="31" spans="1:9" ht="19" thickBot="1">
       <x:c r="A31" s="2"/>
-      <x:c r="B31" s="45" t="s">
-        <x:v>107</x:v>
+      <x:c r="B31" s="45" t="str">
+        <x:v>Sales</x:v>
       </x:c>
       <x:c r="C31" s="46">
         <x:v>18390.419999999998</x:v>
@@ -4274,11 +4274,11 @@
         <x:v>2107.09</x:v>
       </x:c>
       <x:c r="E31" s="35"/>
-      <x:c r="F31" s="45" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="G31" s="46" t="s">
-        <x:v>111</x:v>
+      <x:c r="F31" s="45" t="str">
+        <x:v>Sales</x:v>
+      </x:c>
+      <x:c r="G31" s="46" t="str">
+        <x:v>18390.42 Ŷt</x:v>
       </x:c>
       <x:c r="H31" s="52">
         <x:v>871.32889999999998</x:v>
@@ -4298,8 +4298,8 @@
     </x:row>
     <x:row r="33" spans="1:10" ht="19" thickTop="1">
       <x:c r="A33" s="2"/>
-      <x:c r="B33" s="135" t="s">
-        <x:v>112</x:v>
+      <x:c r="B33" s="135" t="str">
+        <x:v>Coefficient of Correlation:</x:v>
       </x:c>
       <x:c r="C33" s="136"/>
       <x:c r="D33" s="136"/>

--- a/Sandbox.OpenXML/DStarExport.xlsx
+++ b/Sandbox.OpenXML/DStarExport.xlsx
@@ -4335,8 +4335,8 @@
     </x:row>
     <x:row r="36" spans="1:10" ht="19" thickTop="1">
       <x:c r="A36" s="2"/>
-      <x:c r="B36" s="143" t="s">
-        <x:v>120</x:v>
+      <x:c r="B36" s="143" t="str">
+        <x:v>Reveal Messages:</x:v>
       </x:c>
       <x:c r="C36" s="144"/>
       <x:c r="D36" s="144"/>
@@ -4359,8 +4359,8 @@
     </x:row>
     <x:row r="38" spans="1:10" ht="48" customHeight="1">
       <x:c r="A38" s="2"/>
-      <x:c r="B38" s="137" t="s">
-        <x:v>113</x:v>
+      <x:c r="B38" s="137" t="str">
+        <x:v>The procedure could not be completed because the preciding and test variables are perfectly (100 percent) correlated. A regression model cannot be developed for audit purposes using these variables. Perfect correlation may occur because the test variable is a direct function of the predicting variable(s).</x:v>
       </x:c>
       <x:c r="C38" s="138"/>
       <x:c r="D38" s="138"/>
@@ -4373,8 +4373,8 @@
     </x:row>
     <x:row r="39" spans="1:10" ht="16" customHeight="1">
       <x:c r="A39" s="2"/>
-      <x:c r="B39" s="140" t="s">
-        <x:v>114</x:v>
+      <x:c r="B39" s="140" t="str">
+        <x:v>1. Select a different predicting variable and reperform the procudure.</x:v>
       </x:c>
       <x:c r="C39" s="141"/>
       <x:c r="D39" s="141"/>
@@ -4387,8 +4387,8 @@
     </x:row>
     <x:row r="40" spans="1:10" ht="32" customHeight="1">
       <x:c r="A40" s="2"/>
-      <x:c r="B40" s="140" t="s">
-        <x:v>115</x:v>
+      <x:c r="B40" s="140" t="str">
+        <x:v>2. For more information see examples provided in the Performing Substantive Analytical Procedures Guide section x.x Reveal Statistical Tests and Warning Messages.</x:v>
       </x:c>
       <x:c r="C40" s="141"/>
       <x:c r="D40" s="141"/>
@@ -4401,8 +4401,8 @@
     </x:row>
     <x:row r="41" spans="1:10" ht="16" customHeight="1">
       <x:c r="A41" s="2"/>
-      <x:c r="B41" s="140" t="s">
-        <x:v>116</x:v>
+      <x:c r="B41" s="140" t="str">
+        <x:v>3. To discuss further alternatives, please contact support at xxx@deloitte.com</x:v>
       </x:c>
       <x:c r="C41" s="141"/>
       <x:c r="D41" s="141"/>

--- a/Sandbox.OpenXML/DStarExport.xlsx
+++ b/Sandbox.OpenXML/DStarExport.xlsx
@@ -4439,8 +4439,8 @@
     </x:row>
     <x:row r="44" spans="1:10" ht="19" thickTop="1">
       <x:c r="A44" s="2"/>
-      <x:c r="B44" s="130" t="s">
-        <x:v>117</x:v>
+      <x:c r="B44" s="130" t="str">
+        <x:v>Data Matrix</x:v>
       </x:c>
       <x:c r="C44" s="127"/>
       <x:c r="D44" s="127"/>
@@ -4463,17 +4463,17 @@
     </x:row>
     <x:row r="46" spans="1:10" ht="18.5">
       <x:c r="A46" s="2"/>
-      <x:c r="B46" s="132" t="s">
-        <x:v>0</x:v>
+      <x:c r="B46" s="132" t="str">
+        <x:v>Obs No.</x:v>
       </x:c>
       <x:c r="C46" s="133"/>
-      <x:c r="D46" s="133" t="s">
-        <x:v>118</x:v>
+      <x:c r="D46" s="133" t="str">
+        <x:v>Sales Passengers Y</x:v>
       </x:c>
       <x:c r="E46" s="133"/>
       <x:c r="F46" s="133"/>
-      <x:c r="G46" s="133" t="s">
-        <x:v>123</x:v>
+      <x:c r="G46" s="133" t="str">
+        <x:v>Cos Passengers X&amp;1</x:v>
       </x:c>
       <x:c r="H46" s="134"/>
       <x:c r="I46" s="2"/>
@@ -5092,8 +5092,8 @@
     </x:row>
     <x:row r="83" spans="1:9" ht="18.5">
       <x:c r="A83" s="2"/>
-      <x:c r="B83" s="69" t="s">
-        <x:v>27</x:v>
+      <x:c r="B83" s="69" t="str">
+        <x:v>Total</x:v>
       </x:c>
       <x:c r="C83" s="57"/>
       <x:c r="D83" s="57">
@@ -5131,8 +5131,8 @@
     </x:row>
     <x:row r="86" spans="1:9" ht="19" thickTop="1">
       <x:c r="A86" s="2"/>
-      <x:c r="B86" s="86" t="s">
-        <x:v>124</x:v>
+      <x:c r="B86" s="86" t="str">
+        <x:v>Timeline and Scatter Plots</x:v>
       </x:c>
       <x:c r="C86" s="21"/>
       <x:c r="D86" s="21"/>

--- a/Sandbox.OpenXML/DStarExport.xlsx
+++ b/Sandbox.OpenXML/DStarExport.xlsx
@@ -7,568 +7,6 @@
     <x:sheet name="Results Report" sheetId="3" r:id="Sequence1_rId3"/>
   </x:sheets>
 </x:workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="125">
-  <x:si>
-    <x:t>Obs No.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Recorded Amount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Regression Estimate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Residual Difference</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Under</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Over</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Threshold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Excess</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Audit Test Report</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The following excesses were identified:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 indicating potential amounts over threshold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Performance Materiality</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Coefficient of Correlation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plot of Residuals</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Residuals Plotted in Units of One Standard Error</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Standard Error of Residuals, SE = 871.3289</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Recorded Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Expected Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Residual e</x:t>
-  </x:si>
-  <x:si>
-    <x:t>If the sum of the residuals exceeds multiples of performance materiality. Consider any of the other excesses that have been identified in the application. Reduce the cumulative residual by the amount of excesses that have been quantified and corroborated in step 1 below. If the remaining cumulative residual exceeds multiples of performance materiality, then seek additional explanations from management and quantify and corroborate the factors identified.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Next Steps:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>For each Excess, investigate the residual by:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1- Inquiring of management and obtaining appropriate audit evidence relevant to management's response.  If such investigation does not result in a satisfactory audit evidence, then the Excess is a substantive analytical procedure misstatement.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2- Consider whether there are unusual patterns in the residuals that should be investigated (e.g., residuals tending strongly in one direction close to the individual thresholds, with a total that is multiples of performance materiality).</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3- Consider disaggregating the data, introducing one or more additional variables (real or dummy), or removing one or more variables that is causing the variability.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4- For more information see examples provided in the Performing Substantive Analytical Procedures Guide section x.x Identification of Significant Differences.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5- To discuss further alternatives, please contact support at xxx@deloitte.com.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Total</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Engagement Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>File Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date and Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dr Pepper Snapple Group, Inc.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reveal Demo1.xlsx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Changed risk values to significant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 Application Design</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a)  Document the audit purpose and audit parameters used (e.g., risk(s) of material misstatement, account and related assertion(s) tested, performance materiality, testing strategy).</x:t>
-  </x:si>
-  <x:si>
-    <x:t>See Data Model Sheet</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:sz val="12"/>
-        <x:color theme="1"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:rPr>
-      <x:t>[Note:</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:sz val="12"/>
-        <x:color theme="1"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> Consider the degree to which information may need to be disaggregated. For example, Reveal may be more effective when applied to financial information on individual sections of an operation or to financial statements of components of a diversified entity, than when applied to the financial statements of the entity as a whole.]</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>Comments:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>b)  Describe the business relationship(s) between the test and predicting variable(s) and the appropriateness of the predicting relationship (including any special variables used, such as, seasonality, trend, and dummy variables).</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:sz val="12"/>
-        <x:color theme="1"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:rPr>
-      <x:t>[Note:</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:sz val="12"/>
-        <x:color theme="1"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> Consider the need to adjust data for the projection and/or base periods, as applicable, due to explained differences or operational changes in the business such as disposition of a product line or closing of a location. Test the adjustments.]</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>c)  Document details of the source of data for test and predicting variables, including reconciliations to the general ledger in the case of internal accounting data, and the audit procedures applied to establish the completeness and accuracy of this data.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>d)  Determine and document the rationale for the appropriate base and projection periods.</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:sz val="12"/>
-        <x:color theme="1"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:rPr>
-      <x:t>[Note:</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:sz val="12"/>
-        <x:color theme="1"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> Reveal ordinarily requires a minimum of 20 observations of base data, however if seasonality is selected then Reveal ordinarily requires 36 observations of base data.  Examples of acceptable base data periods would be:</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:sz val="12"/>
-        <x:color theme="1"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:rPr>
-      <x:t>·     </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:sz val="12"/>
-        <x:color theme="1"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:rPr>
-      <x:t>    In a quarterly model, five years (20 observations)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">·         In a quarterly model, six years (24 observations)         </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">·         In a monthly model, 2 years (24 observations)         </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">·         In a monthly model, 3 years (36 observations)         </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">·         In a monthly model with seasonality selected, three years (36 observations)         </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">·         In a monthly model with seasonality selected, four years (48 observations)         </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">·         In a weekly model, 1 year (52 observations)         </x:t>
-  </x:si>
-  <x:si>
-    <x:t>In addition, in  typical time series applications (e.g., sales/cost of sales, payroll costs / number of employees) the base data ought to be previously audited data and the projection period contains the current audit period data, typically the current year.  Rolling current period data into the base period (e.g., on a quarterly basis) is not a good practice (e.g., the regression model can then be influenced by current period data which has not strictly speaking been audited until the end of the audit engagement).]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 Regression Phase</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a)  Check the input data on the Reveal report to determine that no errors occurred during data input. Consider:</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">i) Audit parameters (performance materiality, testing strategy)         </x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:sz val="12"/>
-        <x:color theme="1"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:rPr>
-      <x:t>[Note:</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:sz val="12"/>
-        <x:color theme="1"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> Is performance materiality correct and specified in the same units as the test variable(s), for example, in thousands if the test variable is expressed in thousands?]</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ii) Projection parameters (base/projection periods)         </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">iii) Observation data (test and predicting variables)           </x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:sz val="12"/>
-        <x:color theme="1"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:rPr>
-      <x:t>[Note:</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:sz val="12"/>
-        <x:color theme="1"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> Check the sign of the input data as typically input data for Reveal is entered as positive amounts (e.g., in a sales/cost of sales Reveal application we typically would not enter sales as negative amounts and cost of sales as positive amounts or vice versa).  In addition consider whether the Reveal report needs to include decimals as on occasion the inclusion of decimals (as opposed to rounded numbers) can result in the Reveal reports being difficult to read.]         </x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>b)  Review the regression equation to determine that it reflects the relationship anticipated in the application design.  Consider:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>i) Omitted predicting variables (Omitted predicting variables will a) not appear in the “Variables Specified” section of the Reveal report, b) not appear in the regression formula in the Reveal report, and c) will have a “(-)” in the heading of that variable in the “Variables Used (+), Not Used (-)” section of the Reveal report]</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ii) Coefficients of regression (value and sign)              </x:t>
-  </x:si>
-  <x:si>
-    <x:t>iii) Constant (size)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>iv) Appropriateness of the use of Seasonality variable(s) (value and sign) and the use of the Trend variable (sign)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c)  Review the coefficient of correlation and determine if it is acceptable.  (A significant change in the coefficient of correlation over the prior year indicates that the relationship has changed and needs to be investigated.)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>d)  Review any warning messages and determine if the model needs refining.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>e)  Review the pattern and size of residuals (e.g., a predominance of residuals in one particular direction, a cyclical pattern, very large differences, or other patterns), and investigate any unusual trends.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f)  Based on the results of your review of the regression statistics and residuals, consider whether the model needs refining (e.g., by adding another predicting variable to further explain the relationship, disaggregating or correcting the data).</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3 Audit Phase</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a)  Investigate all excesses (differences in excess of the threshold) and obtain appropriate audit evidence related to these excesses or perform alternative substantive procedures to address the significant differences identified. If significant differences identified by Reveal cannot be explained, we may reconsider the design of the Reveal application and whether the application as a whole has credibility before we perform tests of detail for portions of the balance containing unexplained differences.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>b)  Consider whether there are unusual patterns in the residuals to investigate (e.g., residuals tend strongly in one direction and are close to the individual thresholds, and their sum is multiples of performance materiality)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">c)  Consider re-running the application after adjusting base or projection data for any significant errors or events discovered during our audit procedures.  </x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:sz val="12"/>
-        <x:color theme="1"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:rPr>
-      <x:t>[Note:</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:sz val="12"/>
-        <x:color theme="1"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> Uncorrected errors or discontinuity in the projection data will fall within the base period data in future years and may cause problems in running the application in subsequent years.  To avoid this, errors and discontinuity need to be investigated and, if possible, corrected in the current year.]</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">d)  Document any misstatements identified and how they were investigated.  Transfer misstatements to the applicable Form 2340 "Evaluation of Misstatements " or equivalent documentation. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>e)  Evaluate the results of the test.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>See Results Report Sheet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 File Maintenance</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">a)  To help in the successful running of the application in future years, make corrections to the data profile now (e.g., by removing or quantifying unusual and non-repeating events) so that the data remains a good predictor of the test variable for future years.  Document the reasons for any such changes.  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Model Parameters</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Application Type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test Y Variable:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Predicting X Variable:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sales Passengers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COS Passengers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data Profile</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Periods Per Year</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time Series</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Observations Parameters</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Projection Parameters</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Total Number of Base Observations:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Number of Projected Observations:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Total Nmber of Observations:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Type of Projection:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Audit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Performance Materiality:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inherent Risk:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Controls Reliance Strategy:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Significant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Relying</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stepwise Multiple Regression Model</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Expectation of Test Variable Y for Observation t is</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ŷt = 2,265.11 + 1.1106*X1(t)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input Data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Regression Function</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mean</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Standard Deviation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sales</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Constant or Coefficient</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Standard Error</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Constant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18390.42 Ŷt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Coefficient of Correlation:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The procedure could not be completed because the preciding and test variables are perfectly (100 percent) correlated. A regression model cannot be developed for audit purposes using these variables. Perfect correlation may occur because the test variable is a direct function of the predicting variable(s).</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Select a different predicting variable and reperform the procudure.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. For more information see examples provided in the Performing Substantive Analytical Procedures Guide section x.x Reveal Statistical Tests and Warning Messages.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. To discuss further alternatives, please contact support at xxx@deloitte.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data Matrix</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sales Passengers Y</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:sz val="20"/>
-        <x:color theme="1"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:rPr>
-      <x:t>Steps to Performing Substantive Analytical procedures using Reveal</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:sz val="12"/>
-        <x:color theme="1"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:rPr>
-      <x:t xml:space="preserve">
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:sz val="12"/>
-        <x:color theme="1"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:rPr>
-      <x:t>Note</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:sz val="12"/>
-        <x:color theme="1"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:rPr>
-      <x:t>:  For additional guidance regarding the use of Reveal, refer to the Performing Substantive Analytical Procedures guide available in the Deloitte Technical Library.</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>Reveal Messages:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Forced Variables:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1106 &amp;X1t</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cos Passengers X&amp;1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Timeline and Scatter Plots</x:t>
-  </x:si>
-</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2294,8 +1732,8 @@
     </x:row>
     <x:row r="5" spans="1:10" ht="26.5" thickTop="1">
       <x:c r="A5" s="2"/>
-      <x:c r="B5" s="157" t="s">
-        <x:v>8</x:v>
+      <x:c r="B5" s="157" t="str">
+        <x:v>Audit Test Report</x:v>
       </x:c>
       <x:c r="C5" s="158"/>
       <x:c r="D5" s="158"/>
@@ -2308,8 +1746,8 @@
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="2"/>
-      <x:c r="B6" s="154" t="s">
-        <x:v>9</x:v>
+      <x:c r="B6" s="154" t="str">
+        <x:v>The following excesses were identified:</x:v>
       </x:c>
       <x:c r="C6" s="155"/>
       <x:c r="D6" s="155"/>
@@ -2322,8 +1760,8 @@
     </x:row>
     <x:row r="7" spans="1:10" ht="21">
       <x:c r="A7" s="2"/>
-      <x:c r="B7" s="160" t="s">
-        <x:v>10</x:v>
+      <x:c r="B7" s="160" t="str">
+        <x:v>4 indicating potential amounts over threshold</x:v>
       </x:c>
       <x:c r="C7" s="161"/>
       <x:c r="D7" s="161"/>
@@ -2349,16 +1787,16 @@
     <x:row r="9" spans="1:10" ht="42" customHeight="1">
       <x:c r="A9" s="2"/>
       <x:c r="B9" s="17"/>
-      <x:c r="C9" s="170" t="s">
-        <x:v>11</x:v>
+      <x:c r="C9" s="170" t="str">
+        <x:v>Performance Materiality</x:v>
       </x:c>
       <x:c r="D9" s="169"/>
-      <x:c r="E9" s="169" t="s">
-        <x:v>3</x:v>
+      <x:c r="E9" s="169" t="str">
+        <x:v>Residual Difference</x:v>
       </x:c>
       <x:c r="F9" s="169"/>
-      <x:c r="G9" s="165" t="s">
-        <x:v>12</x:v>
+      <x:c r="G9" s="165" t="str">
+        <x:v>Coefficient of Correlation</x:v>
       </x:c>
       <x:c r="H9" s="166"/>
       <x:c r="I9" s="18"/>
@@ -2400,41 +1838,41 @@
       <x:c r="C12" s="21"/>
       <x:c r="D12" s="21"/>
       <x:c r="E12" s="21"/>
-      <x:c r="F12" s="152" t="s">
-        <x:v>6</x:v>
+      <x:c r="F12" s="152" t="str">
+        <x:v>Threshold</x:v>
       </x:c>
       <x:c r="G12" s="152"/>
-      <x:c r="H12" s="152" t="s">
-        <x:v>7</x:v>
+      <x:c r="H12" s="152" t="str">
+        <x:v>Excess</x:v>
       </x:c>
       <x:c r="I12" s="153"/>
       <x:c r="J12" s="2"/>
     </x:row>
     <x:row r="13" spans="1:10" ht="46" customHeight="1">
       <x:c r="A13" s="2"/>
-      <x:c r="B13" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C13" s="25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D13" s="25" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E13" s="25" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F13" s="12" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G13" s="12" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H13" s="12" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="I13" s="13" t="s">
-        <x:v>5</x:v>
+      <x:c r="B13" s="6" t="str">
+        <x:v>Obs No.</x:v>
+      </x:c>
+      <x:c r="C13" s="25" t="str">
+        <x:v>Recorded Amount</x:v>
+      </x:c>
+      <x:c r="D13" s="25" t="str">
+        <x:v>Regression Estimate</x:v>
+      </x:c>
+      <x:c r="E13" s="25" t="str">
+        <x:v>Residual Difference</x:v>
+      </x:c>
+      <x:c r="F13" s="12" t="str">
+        <x:v>Under</x:v>
+      </x:c>
+      <x:c r="G13" s="12" t="str">
+        <x:v>Over</x:v>
+      </x:c>
+      <x:c r="H13" s="12" t="str">
+        <x:v>Under</x:v>
+      </x:c>
+      <x:c r="I13" s="13" t="str">
+        <x:v>Over</x:v>
       </x:c>
       <x:c r="J13" s="2"/>
     </x:row>
@@ -2736,8 +2174,8 @@
     </x:row>
     <x:row r="26" spans="1:10">
       <x:c r="A26" s="2"/>
-      <x:c r="B26" s="82" t="s">
-        <x:v>27</x:v>
+      <x:c r="B26" s="82" t="str">
+        <x:v>Total</x:v>
       </x:c>
       <x:c r="C26" s="83">
         <x:v>237862</x:v>
@@ -2768,8 +2206,8 @@
     </x:row>
     <x:row r="28" spans="1:10" ht="64" customHeight="1">
       <x:c r="A28" s="2"/>
-      <x:c r="B28" s="171" t="s">
-        <x:v>19</x:v>
+      <x:c r="B28" s="171" t="str">
+        <x:v>If the sum of the residuals exceeds multiples of performance materiality. Consider any of the other excesses that have been identified in the application. Reduce the cumulative residual by the amount of excesses that have been quantified and corroborated in step 1 below. If the remaining cumulative residual exceeds multiples of performance materiality, then seek additional explanations from management and quantify and corroborate the factors identified.</x:v>
       </x:c>
       <x:c r="C28" s="172"/>
       <x:c r="D28" s="172"/>
@@ -2806,8 +2244,8 @@
     </x:row>
     <x:row r="31" spans="1:10" ht="26.5" thickTop="1">
       <x:c r="A31" s="2"/>
-      <x:c r="B31" s="157" t="s">
-        <x:v>13</x:v>
+      <x:c r="B31" s="157" t="str">
+        <x:v>Plot of Residuals</x:v>
       </x:c>
       <x:c r="C31" s="158"/>
       <x:c r="D31" s="158"/>
@@ -2820,8 +2258,8 @@
     </x:row>
     <x:row r="32" spans="1:10">
       <x:c r="A32" s="2"/>
-      <x:c r="B32" s="154" t="s">
-        <x:v>14</x:v>
+      <x:c r="B32" s="154" t="str">
+        <x:v>Residuals Plotted in Units of One Standard Error</x:v>
       </x:c>
       <x:c r="C32" s="155"/>
       <x:c r="D32" s="155"/>
@@ -2834,8 +2272,8 @@
     </x:row>
     <x:row r="33" spans="1:10">
       <x:c r="A33" s="2"/>
-      <x:c r="B33" s="180" t="s">
-        <x:v>15</x:v>
+      <x:c r="B33" s="180" t="str">
+        <x:v>Standard Error of Residuals, SE = 871.3289</x:v>
       </x:c>
       <x:c r="C33" s="181"/>
       <x:c r="D33" s="181"/>
@@ -2861,14 +2299,14 @@
     <x:row r="35" spans="1:10">
       <x:c r="A35" s="2"/>
       <x:c r="B35" s="20"/>
-      <x:c r="C35" s="8" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D35" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E35" s="21" t="s">
-        <x:v>18</x:v>
+      <x:c r="C35" s="8" t="str">
+        <x:v>Recorded Y</x:v>
+      </x:c>
+      <x:c r="D35" s="8" t="str">
+        <x:v>Expected Y</x:v>
+      </x:c>
+      <x:c r="E35" s="21" t="str">
+        <x:v>Residual e</x:v>
       </x:c>
       <x:c r="F35" s="21"/>
       <x:c r="G35" s="21"/>
@@ -3622,8 +3060,8 @@
     </x:row>
     <x:row r="74" spans="1:10" ht="19" thickTop="1">
       <x:c r="A74" s="2"/>
-      <x:c r="B74" s="174" t="s">
-        <x:v>20</x:v>
+      <x:c r="B74" s="174" t="str">
+        <x:v>Next Steps:</x:v>
       </x:c>
       <x:c r="C74" s="175"/>
       <x:c r="D74" s="175"/>
@@ -3636,8 +3074,8 @@
     </x:row>
     <x:row r="75" spans="1:10">
       <x:c r="A75" s="2"/>
-      <x:c r="B75" s="177" t="s">
-        <x:v>21</x:v>
+      <x:c r="B75" s="177" t="str">
+        <x:v>For each Excess, investigate the residual by:</x:v>
       </x:c>
       <x:c r="C75" s="178"/>
       <x:c r="D75" s="178"/>
@@ -3662,8 +3100,8 @@
     </x:row>
     <x:row r="77" spans="1:10" ht="47" customHeight="1">
       <x:c r="A77" s="2"/>
-      <x:c r="B77" s="186" t="s">
-        <x:v>22</x:v>
+      <x:c r="B77" s="186" t="str">
+        <x:v>1- Inquiring of management and obtaining appropriate audit evidence relevant to management's response.  If such investigation does not result in a satisfactory audit evidence, then the Excess is a substantive analytical procedure misstatement.</x:v>
       </x:c>
       <x:c r="C77" s="187"/>
       <x:c r="D77" s="187"/>
@@ -3676,8 +3114,8 @@
     </x:row>
     <x:row r="78" spans="1:10" ht="32" customHeight="1">
       <x:c r="A78" s="2"/>
-      <x:c r="B78" s="186" t="s">
-        <x:v>23</x:v>
+      <x:c r="B78" s="186" t="str">
+        <x:v>2- Consider whether there are unusual patterns in the residuals that should be investigated (e.g., residuals tending strongly in one direction close to the individual thresholds, with a total that is multiples of performance materiality).</x:v>
       </x:c>
       <x:c r="C78" s="187"/>
       <x:c r="D78" s="187"/>
@@ -3690,8 +3128,8 @@
     </x:row>
     <x:row r="79" spans="1:10" ht="30.5" customHeight="1">
       <x:c r="A79" s="2"/>
-      <x:c r="B79" s="186" t="s">
-        <x:v>24</x:v>
+      <x:c r="B79" s="186" t="str">
+        <x:v>3- Consider disaggregating the data, introducing one or more additional variables (real or dummy), or removing one or more variables that is causing the variability.</x:v>
       </x:c>
       <x:c r="C79" s="187"/>
       <x:c r="D79" s="187"/>
@@ -3704,8 +3142,8 @@
     </x:row>
     <x:row r="80" spans="1:10" ht="30" customHeight="1">
       <x:c r="A80" s="2"/>
-      <x:c r="B80" s="186" t="s">
-        <x:v>25</x:v>
+      <x:c r="B80" s="186" t="str">
+        <x:v>4- For more information see examples provided in the Performing Substantive Analytical Procedures Guide section x.x Identification of Significant Differences.</x:v>
       </x:c>
       <x:c r="C80" s="187"/>
       <x:c r="D80" s="187"/>
@@ -3718,8 +3156,8 @@
     </x:row>
     <x:row r="81" spans="1:10" ht="15.5" customHeight="1">
       <x:c r="A81" s="2"/>
-      <x:c r="B81" s="186" t="s">
-        <x:v>26</x:v>
+      <x:c r="B81" s="186" t="str">
+        <x:v>5- To discuss further alternatives, please contact support at xxx@deloitte.com.</x:v>
       </x:c>
       <x:c r="C81" s="187"/>
       <x:c r="D81" s="187"/>
